--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08341573-510D-499D-A108-EC96CC612280}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786910F6-6D7C-459C-9ECC-78FC6198CD26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="255" windowWidth="25950" windowHeight="15240" tabRatio="634" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="943">
   <si>
     <t>Test Case</t>
   </si>
@@ -2052,141 +2052,54 @@
     <t>CCC Values of tags present conform to vendor-supplied data</t>
   </si>
   <si>
-    <t>8.1.a</t>
-  </si>
-  <si>
-    <t>8.1.b</t>
-  </si>
-  <si>
-    <t>8.1.c</t>
-  </si>
-  <si>
-    <t>8.1.d</t>
-  </si>
-  <si>
-    <t>8.1.e</t>
-  </si>
-  <si>
-    <t>8.1.f</t>
-  </si>
-  <si>
-    <t>8.1.g</t>
-  </si>
-  <si>
-    <t>8.1.h</t>
-  </si>
-  <si>
-    <t>8.1.i</t>
-  </si>
-  <si>
-    <t>8.1.j</t>
-  </si>
-  <si>
-    <t>8.2.b</t>
-  </si>
-  <si>
-    <t>8.2.c</t>
-  </si>
-  <si>
-    <t>8.2.d</t>
-  </si>
-  <si>
-    <t>8.2.a</t>
-  </si>
-  <si>
-    <t>8.2.e</t>
-  </si>
-  <si>
-    <t>8.2.f</t>
-  </si>
-  <si>
-    <t>8.2.g</t>
-  </si>
-  <si>
-    <t>8.2.h</t>
-  </si>
-  <si>
-    <t>8.2.i</t>
-  </si>
-  <si>
-    <t>8.2.j</t>
-  </si>
-  <si>
-    <t>8.2.k</t>
-  </si>
-  <si>
-    <t>8.2.l</t>
-  </si>
-  <si>
-    <t>8.2.m</t>
-  </si>
-  <si>
-    <t>8.2.n</t>
+    <t>8.2.1</t>
+  </si>
+  <si>
+    <t>8.2.2</t>
+  </si>
+  <si>
+    <t>8.2.3</t>
+  </si>
+  <si>
+    <t>8.2.4</t>
+  </si>
+  <si>
+    <t>8.2.8</t>
+  </si>
+  <si>
+    <t>8.2.5</t>
+  </si>
+  <si>
+    <t>8.1.1</t>
+  </si>
+  <si>
+    <t>8.1.2</t>
+  </si>
+  <si>
+    <t>8.1.3</t>
+  </si>
+  <si>
+    <t>8.1.4</t>
+  </si>
+  <si>
+    <t>8.1.5</t>
+  </si>
+  <si>
+    <t>8.1.6</t>
+  </si>
+  <si>
+    <t>8.1.9</t>
+  </si>
+  <si>
+    <t>8.1.10</t>
   </si>
   <si>
     <t>CHUID_OID:5</t>
   </si>
   <si>
-    <t>8.3.a</t>
-  </si>
-  <si>
-    <t>8.3.b</t>
-  </si>
-  <si>
-    <t>8.3.c</t>
-  </si>
-  <si>
-    <t>8.3.d</t>
-  </si>
-  <si>
-    <t>8.3.e</t>
-  </si>
-  <si>
-    <t>8.3.f</t>
-  </si>
-  <si>
-    <t>8.3.g</t>
-  </si>
-  <si>
-    <t>8.3.h</t>
-  </si>
-  <si>
-    <t>8.3.i</t>
-  </si>
-  <si>
-    <t>8.3.j</t>
-  </si>
-  <si>
     <t>Tag 0xFE has length of 0</t>
   </si>
   <si>
-    <t>8.4.a</t>
-  </si>
-  <si>
-    <t>8.4.b</t>
-  </si>
-  <si>
-    <t>8.4.c</t>
-  </si>
-  <si>
-    <t>8.4.d</t>
-  </si>
-  <si>
-    <t>8.4.e</t>
-  </si>
-  <si>
-    <t>8.4.f</t>
-  </si>
-  <si>
-    <t>8.4.g</t>
-  </si>
-  <si>
-    <t>8.4.h</t>
-  </si>
-  <si>
-    <t>8.4.i</t>
-  </si>
-  <si>
     <t>CHUID of PIV card applet conforms to SP800-73 Appendix A</t>
   </si>
   <si>
@@ -2205,181 +2118,13 @@
     <t>Card Holder Facial Image of PIV card applet conforms to SP800-73 Appendix A</t>
   </si>
   <si>
-    <t>8.5.a</t>
-  </si>
-  <si>
-    <t>8.5.b</t>
-  </si>
-  <si>
-    <t>8.5.c</t>
-  </si>
-  <si>
-    <t>8.5.d</t>
-  </si>
-  <si>
-    <t>8.5.e</t>
-  </si>
-  <si>
-    <t>8.5.f</t>
-  </si>
-  <si>
-    <t>8.5.g</t>
-  </si>
-  <si>
-    <t>8.5.h</t>
-  </si>
-  <si>
-    <t>8.5.i</t>
-  </si>
-  <si>
-    <t>8.5.j</t>
-  </si>
-  <si>
-    <t>8.6.a</t>
-  </si>
-  <si>
     <t xml:space="preserve">Position is one of the valid x,y coordinate types in the original image </t>
   </si>
   <si>
-    <t>8.6.b</t>
-  </si>
-  <si>
-    <t>8.6.c</t>
-  </si>
-  <si>
-    <t>8.6.d</t>
-  </si>
-  <si>
-    <t>8.6.e</t>
-  </si>
-  <si>
-    <t>8.6.f</t>
-  </si>
-  <si>
-    <t>8.6.g</t>
-  </si>
-  <si>
-    <t>8.6.h</t>
-  </si>
-  <si>
-    <t>8.7.b</t>
-  </si>
-  <si>
-    <t>8.7.c</t>
-  </si>
-  <si>
-    <t>8.7.d</t>
-  </si>
-  <si>
-    <t>8.7.e</t>
-  </si>
-  <si>
-    <t>8.7.f</t>
-  </si>
-  <si>
-    <t>8.7.g</t>
-  </si>
-  <si>
-    <t>8.7.h</t>
-  </si>
-  <si>
-    <t>8.7.i</t>
-  </si>
-  <si>
-    <t>8.7.j</t>
-  </si>
-  <si>
-    <t>8.7.a</t>
-  </si>
-  <si>
     <t>X509 Cert for Digital Signature on PIV applet conforms to SP800-73 Appendix A</t>
   </si>
   <si>
-    <t>8.8.b</t>
-  </si>
-  <si>
-    <t>8.8.c</t>
-  </si>
-  <si>
-    <t>8.8.d</t>
-  </si>
-  <si>
-    <t>8.8.e</t>
-  </si>
-  <si>
-    <t>8.8.f</t>
-  </si>
-  <si>
-    <t>8.8.g</t>
-  </si>
-  <si>
-    <t>8.8.h</t>
-  </si>
-  <si>
-    <t>8.8.i</t>
-  </si>
-  <si>
-    <t>8.8.j</t>
-  </si>
-  <si>
-    <t>8.8.a</t>
-  </si>
-  <si>
-    <t>8.9.a</t>
-  </si>
-  <si>
     <t>Confirm that X509 Cert for Card Authentication on PIV applet conforms to SP800-73 Appendix A</t>
-  </si>
-  <si>
-    <t>8.9.b</t>
-  </si>
-  <si>
-    <t>8.9.c</t>
-  </si>
-  <si>
-    <t>8.9.d</t>
-  </si>
-  <si>
-    <t>8.9.e</t>
-  </si>
-  <si>
-    <t>8.9.f</t>
-  </si>
-  <si>
-    <t>8.9.g</t>
-  </si>
-  <si>
-    <t>8.9.h</t>
-  </si>
-  <si>
-    <t>8.9.i</t>
-  </si>
-  <si>
-    <t>8.9.j</t>
-  </si>
-  <si>
-    <t>8.10.a</t>
-  </si>
-  <si>
-    <t>8.10.b</t>
-  </si>
-  <si>
-    <t>8.10.c</t>
-  </si>
-  <si>
-    <t>8.10.d</t>
-  </si>
-  <si>
-    <t>8.10.e</t>
-  </si>
-  <si>
-    <t>8.10.f</t>
-  </si>
-  <si>
-    <t>8.10.g</t>
-  </si>
-  <si>
-    <t>8.10.h</t>
   </si>
   <si>
     <t>SignerId uses ths IssuerAndSerialNumber choice</t>
@@ -2865,6 +2610,264 @@
   </si>
   <si>
     <t>11.1.2.6.3</t>
+  </si>
+  <si>
+    <t>8.1.7</t>
+  </si>
+  <si>
+    <t>8.1.8</t>
+  </si>
+  <si>
+    <t>8.1.11</t>
+  </si>
+  <si>
+    <t>8.2.6</t>
+  </si>
+  <si>
+    <t>8.2.7</t>
+  </si>
+  <si>
+    <t>8.2.9</t>
+  </si>
+  <si>
+    <t>8.2.10</t>
+  </si>
+  <si>
+    <t>8.2.11</t>
+  </si>
+  <si>
+    <t>8.2.12</t>
+  </si>
+  <si>
+    <t>8.2.13</t>
+  </si>
+  <si>
+    <t>8.2.14</t>
+  </si>
+  <si>
+    <t>8.3.1</t>
+  </si>
+  <si>
+    <t>8.3.2</t>
+  </si>
+  <si>
+    <t>8.3.3</t>
+  </si>
+  <si>
+    <t>8.3.4</t>
+  </si>
+  <si>
+    <t>8.3.5</t>
+  </si>
+  <si>
+    <t>8.3.6</t>
+  </si>
+  <si>
+    <t>8.3.7</t>
+  </si>
+  <si>
+    <t>8.3.8</t>
+  </si>
+  <si>
+    <t>8.3.9</t>
+  </si>
+  <si>
+    <t>8.3.10</t>
+  </si>
+  <si>
+    <t>8.4.1</t>
+  </si>
+  <si>
+    <t>8.4.3</t>
+  </si>
+  <si>
+    <t>8.4.4</t>
+  </si>
+  <si>
+    <t>8.4.5</t>
+  </si>
+  <si>
+    <t>8.4.2</t>
+  </si>
+  <si>
+    <t>8.4.6</t>
+  </si>
+  <si>
+    <t>8.4.7</t>
+  </si>
+  <si>
+    <t>8.4.8</t>
+  </si>
+  <si>
+    <t>8.4.9</t>
+  </si>
+  <si>
+    <t>8.5.1</t>
+  </si>
+  <si>
+    <t>8.5.2</t>
+  </si>
+  <si>
+    <t>8.5.3</t>
+  </si>
+  <si>
+    <t>8.5.4</t>
+  </si>
+  <si>
+    <t>8.5.5</t>
+  </si>
+  <si>
+    <t>8.5.6</t>
+  </si>
+  <si>
+    <t>8.5.7</t>
+  </si>
+  <si>
+    <t>8.5.8</t>
+  </si>
+  <si>
+    <t>8.5.9</t>
+  </si>
+  <si>
+    <t>8.5.10</t>
+  </si>
+  <si>
+    <t>8.6.1</t>
+  </si>
+  <si>
+    <t>8.6.2</t>
+  </si>
+  <si>
+    <t>8.6.3</t>
+  </si>
+  <si>
+    <t>8.6.4</t>
+  </si>
+  <si>
+    <t>8.6.5</t>
+  </si>
+  <si>
+    <t>8.6.6</t>
+  </si>
+  <si>
+    <t>8.6.7</t>
+  </si>
+  <si>
+    <t>8.6.8</t>
+  </si>
+  <si>
+    <t>8.7.1</t>
+  </si>
+  <si>
+    <t>8.7.2</t>
+  </si>
+  <si>
+    <t>8.7.3</t>
+  </si>
+  <si>
+    <t>8.7.4</t>
+  </si>
+  <si>
+    <t>8.7.5</t>
+  </si>
+  <si>
+    <t>8.7.6</t>
+  </si>
+  <si>
+    <t>8.7.7</t>
+  </si>
+  <si>
+    <t>8.7.8</t>
+  </si>
+  <si>
+    <t>8.7.9</t>
+  </si>
+  <si>
+    <t>8.7.10</t>
+  </si>
+  <si>
+    <t>8.8.1</t>
+  </si>
+  <si>
+    <t>8.8.2</t>
+  </si>
+  <si>
+    <t>8.8.3</t>
+  </si>
+  <si>
+    <t>8.8.4</t>
+  </si>
+  <si>
+    <t>8.8.5</t>
+  </si>
+  <si>
+    <t>8.8.6</t>
+  </si>
+  <si>
+    <t>8.8.7</t>
+  </si>
+  <si>
+    <t>8.8.8</t>
+  </si>
+  <si>
+    <t>8.8.9</t>
+  </si>
+  <si>
+    <t>8.8.10</t>
+  </si>
+  <si>
+    <t>8.9.1</t>
+  </si>
+  <si>
+    <t>8.9.2</t>
+  </si>
+  <si>
+    <t>8.9.3</t>
+  </si>
+  <si>
+    <t>8.9.4</t>
+  </si>
+  <si>
+    <t>8.9.5</t>
+  </si>
+  <si>
+    <t>8.9.6</t>
+  </si>
+  <si>
+    <t>8.9.7</t>
+  </si>
+  <si>
+    <t>8.9.8</t>
+  </si>
+  <si>
+    <t>8.9.9</t>
+  </si>
+  <si>
+    <t>8.9.10</t>
+  </si>
+  <si>
+    <t>8.10.1</t>
+  </si>
+  <si>
+    <t>8.10.2</t>
+  </si>
+  <si>
+    <t>8.10.3</t>
+  </si>
+  <si>
+    <t>8.10.4</t>
+  </si>
+  <si>
+    <t>8.10.5</t>
+  </si>
+  <si>
+    <t>8.10.6</t>
+  </si>
+  <si>
+    <t>8.10.7</t>
+  </si>
+  <si>
+    <t>8.10.8</t>
   </si>
 </sst>
 </file>
@@ -4107,8 +4110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D254" sqref="D254"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4142,10 +4145,10 @@
         <v>128</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>181</v>
@@ -4159,7 +4162,7 @@
         <v>128</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>182</v>
@@ -4173,7 +4176,7 @@
         <v>128</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>184</v>
@@ -4187,7 +4190,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>186</v>
@@ -4201,7 +4204,7 @@
         <v>128</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>192</v>
@@ -4215,7 +4218,7 @@
         <v>128</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>194</v>
@@ -4229,7 +4232,7 @@
         <v>128</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>680</v>
+        <v>857</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>196</v>
@@ -4243,7 +4246,7 @@
         <v>128</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>681</v>
+        <v>858</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>633</v>
@@ -4257,7 +4260,7 @@
         <v>128</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>634</v>
@@ -4271,7 +4274,7 @@
         <v>128</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>673</v>
@@ -4285,7 +4288,7 @@
         <v>128</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>681</v>
+        <v>859</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>234</v>
@@ -4299,10 +4302,10 @@
         <v>128</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>719</v>
+        <v>690</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>181</v>
@@ -4313,7 +4316,7 @@
         <v>128</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>182</v>
@@ -4327,7 +4330,7 @@
         <v>128</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>184</v>
@@ -4341,7 +4344,7 @@
         <v>128</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>186</v>
@@ -4355,7 +4358,7 @@
         <v>128</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>204</v>
@@ -4369,7 +4372,7 @@
         <v>128</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>689</v>
+        <v>860</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>206</v>
@@ -4383,7 +4386,7 @@
         <v>128</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>690</v>
+        <v>861</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>208</v>
@@ -4397,7 +4400,7 @@
         <v>128</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>210</v>
@@ -4411,7 +4414,7 @@
         <v>128</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>692</v>
+        <v>862</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>212</v>
@@ -4425,7 +4428,7 @@
         <v>128</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>693</v>
+        <v>863</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>214</v>
@@ -4439,7 +4442,7 @@
         <v>128</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>694</v>
+        <v>864</v>
       </c>
       <c r="C23" t="s">
         <v>216</v>
@@ -4453,7 +4456,7 @@
         <v>128</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>695</v>
+        <v>865</v>
       </c>
       <c r="C24" t="s">
         <v>218</v>
@@ -4467,7 +4470,7 @@
         <v>128</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>696</v>
+        <v>866</v>
       </c>
       <c r="C25" t="s">
         <v>220</v>
@@ -4481,10 +4484,10 @@
         <v>128</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>697</v>
+        <v>867</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>233</v>
@@ -4495,10 +4498,10 @@
         <v>128</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>699</v>
+        <v>868</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>721</v>
+        <v>692</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>181</v>
@@ -4509,7 +4512,7 @@
         <v>128</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>700</v>
+        <v>869</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>182</v>
@@ -4523,7 +4526,7 @@
         <v>128</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>701</v>
+        <v>870</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>184</v>
@@ -4537,7 +4540,7 @@
         <v>128</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>702</v>
+        <v>871</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>186</v>
@@ -4551,7 +4554,7 @@
         <v>128</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>703</v>
+        <v>872</v>
       </c>
       <c r="C31" t="s">
         <v>224</v>
@@ -4565,7 +4568,7 @@
         <v>128</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="C32" t="s">
         <v>226</v>
@@ -4579,7 +4582,7 @@
         <v>128</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>705</v>
+        <v>874</v>
       </c>
       <c r="C33" t="s">
         <v>228</v>
@@ -4593,7 +4596,7 @@
         <v>128</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>706</v>
+        <v>875</v>
       </c>
       <c r="C34" t="s">
         <v>230</v>
@@ -4607,7 +4610,7 @@
         <v>128</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>707</v>
+        <v>876</v>
       </c>
       <c r="C35" t="s">
         <v>232</v>
@@ -4621,10 +4624,10 @@
         <v>128</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>708</v>
+        <v>877</v>
       </c>
       <c r="C36" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>233</v>
@@ -4635,10 +4638,10 @@
         <v>128</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>710</v>
+        <v>878</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>722</v>
+        <v>693</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>181</v>
@@ -4649,7 +4652,7 @@
         <v>128</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>711</v>
+        <v>882</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>182</v>
@@ -4663,7 +4666,7 @@
         <v>128</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>712</v>
+        <v>879</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>184</v>
@@ -4677,7 +4680,7 @@
         <v>128</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>713</v>
+        <v>880</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>186</v>
@@ -4691,7 +4694,7 @@
         <v>128</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>714</v>
+        <v>881</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>204</v>
@@ -4705,7 +4708,7 @@
         <v>128</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>715</v>
+        <v>883</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>206</v>
@@ -4719,7 +4722,7 @@
         <v>128</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>716</v>
+        <v>884</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>208</v>
@@ -4733,7 +4736,7 @@
         <v>128</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>717</v>
+        <v>885</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>210</v>
@@ -4747,10 +4750,10 @@
         <v>128</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>718</v>
+        <v>886</v>
       </c>
       <c r="C45" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>233</v>
@@ -4761,10 +4764,10 @@
         <v>128</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>725</v>
+        <v>887</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>723</v>
+        <v>694</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>181</v>
@@ -4775,7 +4778,7 @@
         <v>128</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>726</v>
+        <v>888</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>182</v>
@@ -4789,7 +4792,7 @@
         <v>128</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>727</v>
+        <v>889</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>184</v>
@@ -4803,7 +4806,7 @@
         <v>128</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>728</v>
+        <v>890</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>186</v>
@@ -4817,7 +4820,7 @@
         <v>128</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>729</v>
+        <v>891</v>
       </c>
       <c r="C50" t="s">
         <v>242</v>
@@ -4831,7 +4834,7 @@
         <v>128</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>730</v>
+        <v>892</v>
       </c>
       <c r="C51" t="s">
         <v>244</v>
@@ -4845,7 +4848,7 @@
         <v>128</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>731</v>
+        <v>893</v>
       </c>
       <c r="C52" t="s">
         <v>246</v>
@@ -4859,7 +4862,7 @@
         <v>128</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>732</v>
+        <v>894</v>
       </c>
       <c r="C53" t="s">
         <v>248</v>
@@ -4873,7 +4876,7 @@
         <v>128</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>733</v>
+        <v>895</v>
       </c>
       <c r="C54" t="s">
         <v>250</v>
@@ -4887,10 +4890,10 @@
         <v>128</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>734</v>
+        <v>896</v>
       </c>
       <c r="C55" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>233</v>
@@ -4901,10 +4904,10 @@
         <v>128</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>735</v>
+        <v>897</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>724</v>
+        <v>695</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>181</v>
@@ -4915,7 +4918,7 @@
         <v>128</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>737</v>
+        <v>898</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>182</v>
@@ -4929,7 +4932,7 @@
         <v>128</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>738</v>
+        <v>899</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>184</v>
@@ -4943,7 +4946,7 @@
         <v>128</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>739</v>
+        <v>900</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>186</v>
@@ -4957,7 +4960,7 @@
         <v>128</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>740</v>
+        <v>901</v>
       </c>
       <c r="C60" t="s">
         <v>252</v>
@@ -4971,10 +4974,10 @@
         <v>128</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>741</v>
+        <v>902</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>237</v>
@@ -4985,7 +4988,7 @@
         <v>128</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>742</v>
+        <v>903</v>
       </c>
       <c r="C62" t="s">
         <v>240</v>
@@ -4999,10 +5002,10 @@
         <v>128</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>743</v>
+        <v>904</v>
       </c>
       <c r="C63" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>233</v>
@@ -5013,10 +5016,10 @@
         <v>128</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>753</v>
+        <v>905</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>754</v>
+        <v>697</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>181</v>
@@ -5030,7 +5033,7 @@
         <v>128</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>744</v>
+        <v>906</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>182</v>
@@ -5044,7 +5047,7 @@
         <v>128</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>745</v>
+        <v>907</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>184</v>
@@ -5058,7 +5061,7 @@
         <v>128</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>746</v>
+        <v>908</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>186</v>
@@ -5072,7 +5075,7 @@
         <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>747</v>
+        <v>909</v>
       </c>
       <c r="C68" t="s">
         <v>224</v>
@@ -5086,7 +5089,7 @@
         <v>128</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>748</v>
+        <v>910</v>
       </c>
       <c r="C69" t="s">
         <v>226</v>
@@ -5100,7 +5103,7 @@
         <v>128</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>749</v>
+        <v>911</v>
       </c>
       <c r="C70" t="s">
         <v>228</v>
@@ -5114,7 +5117,7 @@
         <v>128</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>750</v>
+        <v>912</v>
       </c>
       <c r="C71" t="s">
         <v>230</v>
@@ -5128,7 +5131,7 @@
         <v>128</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>751</v>
+        <v>913</v>
       </c>
       <c r="C72" t="s">
         <v>232</v>
@@ -5142,10 +5145,10 @@
         <v>128</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>752</v>
+        <v>914</v>
       </c>
       <c r="C73" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>233</v>
@@ -5156,7 +5159,7 @@
         <v>128</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>764</v>
+        <v>915</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>129</v>
@@ -5173,7 +5176,7 @@
         <v>128</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>755</v>
+        <v>916</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>182</v>
@@ -5187,7 +5190,7 @@
         <v>128</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>756</v>
+        <v>917</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>184</v>
@@ -5201,7 +5204,7 @@
         <v>128</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>757</v>
+        <v>918</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>186</v>
@@ -5215,7 +5218,7 @@
         <v>128</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>758</v>
+        <v>919</v>
       </c>
       <c r="C78" t="s">
         <v>224</v>
@@ -5229,7 +5232,7 @@
         <v>128</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>759</v>
+        <v>920</v>
       </c>
       <c r="C79" t="s">
         <v>226</v>
@@ -5243,7 +5246,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>760</v>
+        <v>921</v>
       </c>
       <c r="C80" t="s">
         <v>228</v>
@@ -5257,7 +5260,7 @@
         <v>128</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>761</v>
+        <v>922</v>
       </c>
       <c r="C81" t="s">
         <v>230</v>
@@ -5271,7 +5274,7 @@
         <v>128</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>762</v>
+        <v>923</v>
       </c>
       <c r="C82" t="s">
         <v>232</v>
@@ -5285,10 +5288,10 @@
         <v>128</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>763</v>
+        <v>924</v>
       </c>
       <c r="C83" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>233</v>
@@ -5299,10 +5302,10 @@
         <v>128</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>765</v>
+        <v>925</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>766</v>
+        <v>698</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>181</v>
@@ -5316,7 +5319,7 @@
         <v>128</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>767</v>
+        <v>926</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>182</v>
@@ -5330,7 +5333,7 @@
         <v>128</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>768</v>
+        <v>927</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>184</v>
@@ -5344,7 +5347,7 @@
         <v>128</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>769</v>
+        <v>928</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>186</v>
@@ -5358,7 +5361,7 @@
         <v>128</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>770</v>
+        <v>929</v>
       </c>
       <c r="C88" t="s">
         <v>224</v>
@@ -5372,7 +5375,7 @@
         <v>128</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>771</v>
+        <v>930</v>
       </c>
       <c r="C89" t="s">
         <v>226</v>
@@ -5386,7 +5389,7 @@
         <v>128</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>772</v>
+        <v>931</v>
       </c>
       <c r="C90" t="s">
         <v>228</v>
@@ -5400,7 +5403,7 @@
         <v>128</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>773</v>
+        <v>932</v>
       </c>
       <c r="C91" t="s">
         <v>230</v>
@@ -5414,7 +5417,7 @@
         <v>128</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>774</v>
+        <v>933</v>
       </c>
       <c r="C92" t="s">
         <v>232</v>
@@ -5428,10 +5431,10 @@
         <v>128</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>775</v>
+        <v>934</v>
       </c>
       <c r="C93" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>233</v>
@@ -5442,7 +5445,7 @@
         <v>128</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>776</v>
+        <v>935</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>130</v>
@@ -5459,7 +5462,7 @@
         <v>128</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>777</v>
+        <v>936</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>182</v>
@@ -5473,7 +5476,7 @@
         <v>128</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>778</v>
+        <v>937</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>184</v>
@@ -5487,7 +5490,7 @@
         <v>128</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>779</v>
+        <v>938</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>186</v>
@@ -5501,7 +5504,7 @@
         <v>128</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>780</v>
+        <v>939</v>
       </c>
       <c r="C98" t="s">
         <v>254</v>
@@ -5515,7 +5518,7 @@
         <v>128</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>781</v>
+        <v>940</v>
       </c>
       <c r="C99" t="s">
         <v>256</v>
@@ -5529,7 +5532,7 @@
         <v>128</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>782</v>
+        <v>941</v>
       </c>
       <c r="C100" t="s">
         <v>258</v>
@@ -5543,7 +5546,7 @@
         <v>128</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>783</v>
+        <v>942</v>
       </c>
       <c r="C101" t="s">
         <v>260</v>
@@ -6406,7 +6409,7 @@
         <v>128</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>817</v>
+        <v>732</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>672</v>
@@ -6423,7 +6426,7 @@
         <v>128</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>818</v>
+        <v>733</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>375</v>
@@ -6437,10 +6440,10 @@
         <v>128</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>793</v>
+        <v>708</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>795</v>
+        <v>710</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>330</v>
@@ -6451,10 +6454,10 @@
         <v>128</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>796</v>
+        <v>711</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>786</v>
+        <v>701</v>
       </c>
       <c r="D159" s="11" t="s">
         <v>332</v>
@@ -6465,10 +6468,10 @@
         <v>128</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>811</v>
+        <v>726</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>791</v>
+        <v>706</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>334</v>
@@ -6479,10 +6482,10 @@
         <v>128</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>812</v>
+        <v>727</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>822</v>
+        <v>737</v>
       </c>
       <c r="D161" s="11" t="s">
         <v>336</v>
@@ -6493,10 +6496,10 @@
         <v>128</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>798</v>
+        <v>713</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>823</v>
+        <v>738</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>338</v>
@@ -6507,7 +6510,7 @@
         <v>128</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>799</v>
+        <v>714</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>660</v>
@@ -6521,7 +6524,7 @@
         <v>128</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>800</v>
+        <v>715</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>661</v>
@@ -6535,10 +6538,10 @@
         <v>128</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>813</v>
+        <v>728</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>784</v>
+        <v>699</v>
       </c>
       <c r="D165" s="11" t="s">
         <v>344</v>
@@ -6549,10 +6552,10 @@
         <v>128</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>814</v>
+        <v>729</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>785</v>
+        <v>700</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>346</v>
@@ -6563,7 +6566,7 @@
         <v>128</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>815</v>
+        <v>730</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>663</v>
@@ -6577,10 +6580,10 @@
         <v>128</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>816</v>
+        <v>731</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>803</v>
+        <v>718</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>377</v>
@@ -6591,10 +6594,10 @@
         <v>128</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>801</v>
+        <v>716</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>788</v>
+        <v>703</v>
       </c>
       <c r="D169" s="11" t="s">
         <v>359</v>
@@ -6605,7 +6608,7 @@
         <v>128</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>802</v>
+        <v>717</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>664</v>
@@ -6619,10 +6622,10 @@
         <v>128</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>819</v>
+        <v>734</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>820</v>
+        <v>735</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>353</v>
@@ -6636,7 +6639,7 @@
         <v>670</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>787</v>
+        <v>702</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>355</v>
@@ -6647,7 +6650,7 @@
         <v>128</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>826</v>
+        <v>741</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>358</v>
@@ -6661,7 +6664,7 @@
         <v>128</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>789</v>
+        <v>704</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>430</v>
@@ -6675,10 +6678,10 @@
         <v>128</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>871</v>
+        <v>786</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>807</v>
+        <v>722</v>
       </c>
       <c r="D175" s="11" t="s">
         <v>374</v>
@@ -6689,10 +6692,10 @@
         <v>128</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>872</v>
+        <v>787</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>808</v>
+        <v>723</v>
       </c>
       <c r="D176" s="11" t="s">
         <v>376</v>
@@ -6703,7 +6706,7 @@
         <v>128</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>873</v>
+        <v>788</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>378</v>
@@ -6717,10 +6720,10 @@
         <v>128</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>860</v>
+        <v>775</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>795</v>
+        <v>710</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>330</v>
@@ -6731,10 +6734,10 @@
         <v>128</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>794</v>
+        <v>709</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>786</v>
+        <v>701</v>
       </c>
       <c r="D179" s="11" t="s">
         <v>332</v>
@@ -6745,10 +6748,10 @@
         <v>128</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>861</v>
+        <v>776</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>791</v>
+        <v>706</v>
       </c>
       <c r="D180" s="11" t="s">
         <v>334</v>
@@ -6759,10 +6762,10 @@
         <v>128</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>862</v>
+        <v>777</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>822</v>
+        <v>737</v>
       </c>
       <c r="D181" s="11" t="s">
         <v>336</v>
@@ -6773,10 +6776,10 @@
         <v>128</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>863</v>
+        <v>778</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>823</v>
+        <v>738</v>
       </c>
       <c r="D182" s="11" t="s">
         <v>338</v>
@@ -6787,7 +6790,7 @@
         <v>128</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>797</v>
+        <v>712</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>660</v>
@@ -6801,7 +6804,7 @@
         <v>128</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>792</v>
+        <v>707</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>661</v>
@@ -6815,10 +6818,10 @@
         <v>128</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>864</v>
+        <v>779</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>784</v>
+        <v>699</v>
       </c>
       <c r="D185" s="11" t="s">
         <v>344</v>
@@ -6829,10 +6832,10 @@
         <v>128</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>865</v>
+        <v>780</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>785</v>
+        <v>700</v>
       </c>
       <c r="D186" s="11" t="s">
         <v>346</v>
@@ -6843,7 +6846,7 @@
         <v>128</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>866</v>
+        <v>781</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>663</v>
@@ -6857,10 +6860,10 @@
         <v>128</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>867</v>
+        <v>782</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>803</v>
+        <v>718</v>
       </c>
       <c r="D188" s="11" t="s">
         <v>377</v>
@@ -6871,10 +6874,10 @@
         <v>128</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>790</v>
+        <v>705</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>788</v>
+        <v>703</v>
       </c>
       <c r="D189" s="11" t="s">
         <v>359</v>
@@ -6885,7 +6888,7 @@
         <v>128</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>868</v>
+        <v>783</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>664</v>
@@ -6899,10 +6902,10 @@
         <v>128</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>869</v>
+        <v>784</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>820</v>
+        <v>735</v>
       </c>
       <c r="D191" s="11" t="s">
         <v>353</v>
@@ -6913,10 +6916,10 @@
         <v>128</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>874</v>
+        <v>789</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>787</v>
+        <v>702</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>355</v>
@@ -6927,7 +6930,7 @@
         <v>128</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>826</v>
+        <v>741</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>358</v>
@@ -6941,7 +6944,7 @@
         <v>128</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>870</v>
+        <v>785</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>430</v>
@@ -6955,10 +6958,10 @@
         <v>128</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>885</v>
+        <v>800</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>886</v>
+        <v>801</v>
       </c>
       <c r="D195" s="11" t="s">
         <v>631</v>
@@ -6975,10 +6978,10 @@
         <v>128</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>875</v>
+        <v>790</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>876</v>
+        <v>791</v>
       </c>
       <c r="D196" s="11" t="s">
         <v>330</v>
@@ -6989,7 +6992,7 @@
         <v>128</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>877</v>
+        <v>792</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>363</v>
@@ -7003,7 +7006,7 @@
         <v>128</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>879</v>
+        <v>794</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>365</v>
@@ -7017,10 +7020,10 @@
         <v>128</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>880</v>
+        <v>795</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>878</v>
+        <v>793</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>366</v>
@@ -7031,10 +7034,10 @@
         <v>128</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>881</v>
+        <v>796</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>883</v>
+        <v>798</v>
       </c>
       <c r="D200" s="11" t="s">
         <v>368</v>
@@ -7045,7 +7048,7 @@
         <v>128</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>882</v>
+        <v>797</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>373</v>
@@ -7059,7 +7062,7 @@
         <v>128</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>884</v>
+        <v>799</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>667</v>
@@ -7107,10 +7110,10 @@
         <v>128</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>921</v>
+        <v>836</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>842</v>
+        <v>757</v>
       </c>
       <c r="D205" s="11" t="s">
         <v>176</v>
@@ -7121,10 +7124,10 @@
         <v>128</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>920</v>
+        <v>835</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>843</v>
+        <v>758</v>
       </c>
       <c r="D206" s="17" t="s">
         <v>176</v>
@@ -7135,10 +7138,10 @@
         <v>128</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>922</v>
+        <v>837</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>919</v>
+        <v>834</v>
       </c>
       <c r="D207" s="18" t="s">
         <v>176</v>
@@ -7149,10 +7152,10 @@
         <v>128</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>916</v>
+        <v>831</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>917</v>
+        <v>832</v>
       </c>
       <c r="D208" s="18" t="s">
         <v>176</v>
@@ -7163,7 +7166,7 @@
         <v>128</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>918</v>
+        <v>833</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>384</v>
@@ -7177,10 +7180,10 @@
         <v>128</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>923</v>
+        <v>838</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>844</v>
+        <v>759</v>
       </c>
       <c r="D210" s="11" t="s">
         <v>385</v>
@@ -7191,7 +7194,7 @@
         <v>128</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>924</v>
+        <v>839</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>387</v>
@@ -7205,7 +7208,7 @@
         <v>128</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>925</v>
+        <v>840</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>389</v>
@@ -7219,10 +7222,10 @@
         <v>128</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>927</v>
+        <v>842</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>926</v>
+        <v>841</v>
       </c>
       <c r="D213" s="11" t="s">
         <v>390</v>
@@ -7233,10 +7236,10 @@
         <v>128</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>928</v>
+        <v>843</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>929</v>
+        <v>844</v>
       </c>
       <c r="D214" s="11" t="s">
         <v>392</v>
@@ -7247,10 +7250,10 @@
         <v>128</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>931</v>
+        <v>846</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>930</v>
+        <v>845</v>
       </c>
       <c r="D215" s="11" t="s">
         <v>394</v>
@@ -7261,7 +7264,7 @@
         <v>128</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>932</v>
+        <v>847</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>397</v>
@@ -7275,7 +7278,7 @@
         <v>128</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>933</v>
+        <v>848</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>399</v>
@@ -7289,10 +7292,10 @@
         <v>128</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>934</v>
+        <v>849</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>936</v>
+        <v>851</v>
       </c>
       <c r="D218" s="11" t="s">
         <v>401</v>
@@ -7303,10 +7306,10 @@
         <v>128</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>940</v>
+        <v>855</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>935</v>
+        <v>850</v>
       </c>
       <c r="D219" s="17" t="s">
         <v>401</v>
@@ -7317,10 +7320,10 @@
         <v>128</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>941</v>
+        <v>856</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>937</v>
+        <v>852</v>
       </c>
       <c r="D220" s="17" t="s">
         <v>401</v>
@@ -7331,7 +7334,7 @@
         <v>128</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>938</v>
+        <v>853</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>404</v>
@@ -7345,7 +7348,7 @@
         <v>128</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>939</v>
+        <v>854</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>406</v>
@@ -7359,10 +7362,10 @@
         <v>128</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>906</v>
+        <v>821</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>901</v>
+        <v>816</v>
       </c>
       <c r="D223" s="11" t="s">
         <v>176</v>
@@ -7373,10 +7376,10 @@
         <v>128</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>907</v>
+        <v>822</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>849</v>
+        <v>764</v>
       </c>
       <c r="D224" s="17" t="s">
         <v>176</v>
@@ -7388,7 +7391,7 @@
       </c>
       <c r="B225" s="6"/>
       <c r="C225" s="6" t="s">
-        <v>827</v>
+        <v>742</v>
       </c>
       <c r="D225" s="18" t="s">
         <v>381</v>
@@ -7399,10 +7402,10 @@
         <v>128</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>908</v>
+        <v>823</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>913</v>
+        <v>828</v>
       </c>
       <c r="D226" s="11" t="s">
         <v>407</v>
@@ -7413,10 +7416,10 @@
         <v>128</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>909</v>
+        <v>824</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>902</v>
+        <v>817</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>411</v>
@@ -7427,10 +7430,10 @@
         <v>128</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>910</v>
+        <v>825</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>903</v>
+        <v>818</v>
       </c>
       <c r="D228" s="11" t="s">
         <v>385</v>
@@ -7441,10 +7444,10 @@
         <v>128</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>911</v>
+        <v>826</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>904</v>
+        <v>819</v>
       </c>
       <c r="D229" s="11" t="s">
         <v>398</v>
@@ -7455,10 +7458,10 @@
         <v>128</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>912</v>
+        <v>827</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>915</v>
+        <v>830</v>
       </c>
       <c r="D230" s="11" t="s">
         <v>403</v>
@@ -7469,10 +7472,10 @@
         <v>128</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>914</v>
+        <v>829</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>905</v>
+        <v>820</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>405</v>
@@ -7483,10 +7486,10 @@
         <v>128</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>846</v>
+        <v>761</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>850</v>
+        <v>765</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>176</v>
@@ -7500,10 +7503,10 @@
         <v>128</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>847</v>
+        <v>762</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>849</v>
+        <v>764</v>
       </c>
       <c r="D233" s="17" t="s">
         <v>176</v>
@@ -7514,10 +7517,10 @@
         <v>128</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>851</v>
+        <v>766</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>848</v>
+        <v>763</v>
       </c>
       <c r="D234" s="11" t="s">
         <v>409</v>
@@ -7528,10 +7531,10 @@
         <v>128</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>852</v>
+        <v>767</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>856</v>
+        <v>771</v>
       </c>
       <c r="D235" s="11" t="s">
         <v>411</v>
@@ -7542,10 +7545,10 @@
         <v>128</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>853</v>
+        <v>768</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>857</v>
+        <v>772</v>
       </c>
       <c r="D236" s="11" t="s">
         <v>385</v>
@@ -7556,10 +7559,10 @@
         <v>128</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>854</v>
+        <v>769</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>858</v>
+        <v>773</v>
       </c>
       <c r="D237" s="11" t="s">
         <v>398</v>
@@ -7570,10 +7573,10 @@
         <v>128</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>855</v>
+        <v>770</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>859</v>
+        <v>774</v>
       </c>
       <c r="D238" s="11" t="s">
         <v>405</v>
@@ -7584,10 +7587,10 @@
         <v>128</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>841</v>
+        <v>756</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>887</v>
+        <v>802</v>
       </c>
       <c r="D239" s="11" t="s">
         <v>176</v>
@@ -7601,10 +7604,10 @@
         <v>128</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>840</v>
+        <v>755</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>888</v>
+        <v>803</v>
       </c>
       <c r="D240" s="17" t="s">
         <v>176</v>
@@ -7615,10 +7618,10 @@
         <v>128</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>831</v>
+        <v>746</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>889</v>
+        <v>804</v>
       </c>
       <c r="D241" s="11" t="s">
         <v>381</v>
@@ -7629,10 +7632,10 @@
         <v>128</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>832</v>
+        <v>747</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>890</v>
+        <v>805</v>
       </c>
       <c r="D242" s="11" t="s">
         <v>383</v>
@@ -7643,10 +7646,10 @@
         <v>128</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>833</v>
+        <v>748</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>891</v>
+        <v>806</v>
       </c>
       <c r="D243" s="11" t="s">
         <v>385</v>
@@ -7657,10 +7660,10 @@
         <v>128</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>828</v>
+        <v>743</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>892</v>
+        <v>807</v>
       </c>
       <c r="D244" s="11" t="s">
         <v>413</v>
@@ -7671,10 +7674,10 @@
         <v>128</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>829</v>
+        <v>744</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>893</v>
+        <v>808</v>
       </c>
       <c r="D245" s="11" t="s">
         <v>415</v>
@@ -7685,10 +7688,10 @@
         <v>128</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>830</v>
+        <v>745</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>894</v>
+        <v>809</v>
       </c>
       <c r="D246" s="11" t="s">
         <v>417</v>
@@ -7699,10 +7702,10 @@
         <v>128</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>836</v>
+        <v>751</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>895</v>
+        <v>810</v>
       </c>
       <c r="D247" s="11" t="s">
         <v>390</v>
@@ -7713,10 +7716,10 @@
         <v>128</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>837</v>
+        <v>752</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>896</v>
+        <v>811</v>
       </c>
       <c r="D248" s="11" t="s">
         <v>392</v>
@@ -7727,10 +7730,10 @@
         <v>128</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>838</v>
+        <v>753</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>897</v>
+        <v>812</v>
       </c>
       <c r="D249" s="11" t="s">
         <v>394</v>
@@ -7741,10 +7744,10 @@
         <v>128</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>835</v>
+        <v>750</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>898</v>
+        <v>813</v>
       </c>
       <c r="D250" s="11" t="s">
         <v>396</v>
@@ -7755,10 +7758,10 @@
         <v>128</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>839</v>
+        <v>754</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>899</v>
+        <v>814</v>
       </c>
       <c r="D251" s="11" t="s">
         <v>398</v>
@@ -7769,10 +7772,10 @@
         <v>128</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>845</v>
+        <v>760</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>900</v>
+        <v>815</v>
       </c>
       <c r="D252" s="11" t="s">
         <v>405</v>
@@ -7783,10 +7786,10 @@
         <v>128</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>826</v>
+        <v>741</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>825</v>
+        <v>740</v>
       </c>
       <c r="D253" s="11" t="s">
         <v>417</v>
@@ -7797,10 +7800,10 @@
         <v>128</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>824</v>
+        <v>739</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>825</v>
+        <v>740</v>
       </c>
       <c r="D254" s="11" t="s">
         <v>439</v>
@@ -9074,7 +9077,7 @@
         <v>220</v>
       </c>
       <c r="E17" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="F17" t="s">
         <v>420</v>
@@ -10551,10 +10554,10 @@
         <v>484</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>821</v>
+        <v>736</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>804</v>
+        <v>719</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>420</v>
@@ -10800,10 +10803,10 @@
         <v>470</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>809</v>
+        <v>724</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>810</v>
+        <v>725</v>
       </c>
       <c r="F2" t="s">
         <v>420</v>
@@ -10820,10 +10823,10 @@
         <v>471</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>806</v>
+        <v>721</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>810</v>
+        <v>725</v>
       </c>
       <c r="F3" t="s">
         <v>420</v>
@@ -10840,10 +10843,10 @@
         <v>472</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>805</v>
+        <v>720</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>804</v>
+        <v>719</v>
       </c>
       <c r="F4" t="s">
         <v>420</v>
@@ -10963,7 +10966,7 @@
         <v>448</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>844</v>
+        <v>759</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>420</v>
@@ -11262,7 +11265,7 @@
         <v>464</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>834</v>
+        <v>749</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>427</v>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF41CF1-3CD0-4457-84FE-18741473B269}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10450041-0639-46A5-A9DB-E05909B8D01E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="255" windowWidth="23700" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="984">
   <si>
     <t>Test Case</t>
   </si>
@@ -603,9 +603,6 @@
   </si>
   <si>
     <t>The retired key map is not present</t>
-  </si>
-  <si>
-    <t>73.4.24</t>
   </si>
   <si>
     <t>8.3.1</t>
@@ -5407,8 +5404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D27" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5444,7 +5441,7 @@
         <v>129</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>131</v>
@@ -5462,7 +5459,7 @@
         <v>129</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>135</v>
@@ -5478,7 +5475,7 @@
         <v>129</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>138</v>
@@ -5494,7 +5491,7 @@
         <v>129</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>140</v>
@@ -5622,7 +5619,7 @@
         <v>129</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>161</v>
@@ -5638,7 +5635,7 @@
         <v>129</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C14" s="58" t="s">
         <v>135</v>
@@ -5654,7 +5651,7 @@
         <v>129</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>138</v>
@@ -5670,7 +5667,7 @@
         <v>129</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C16" s="58" t="s">
         <v>140</v>
@@ -5702,7 +5699,7 @@
         <v>129</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C18" s="68" t="s">
         <v>170</v>
@@ -5718,7 +5715,7 @@
         <v>129</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C19" s="68" t="s">
         <v>172</v>
@@ -5734,7 +5731,7 @@
         <v>129</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>174</v>
@@ -5750,7 +5747,7 @@
         <v>129</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>176</v>
@@ -5766,7 +5763,7 @@
         <v>129</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C22" s="58" t="s">
         <v>178</v>
@@ -5782,7 +5779,7 @@
         <v>129</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C23" s="58" t="s">
         <v>168</v>
@@ -5833,7 +5830,7 @@
         <v>164</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D26" s="69" t="s">
         <v>177</v>
@@ -5852,7 +5849,7 @@
         <v>185</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>186</v>
+        <v>674</v>
       </c>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
@@ -5862,7 +5859,7 @@
         <v>129</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C28" s="58" t="s">
         <v>184</v>
@@ -5878,10 +5875,10 @@
         <v>129</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D29" s="58" t="s">
         <v>132</v>
@@ -5894,7 +5891,7 @@
         <v>129</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C30" s="58" t="s">
         <v>135</v>
@@ -5910,7 +5907,7 @@
         <v>129</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C31" s="58" t="s">
         <v>138</v>
@@ -5926,7 +5923,7 @@
         <v>129</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C32" s="58" t="s">
         <v>140</v>
@@ -5942,13 +5939,13 @@
         <v>129</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C33" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="58" t="s">
         <v>189</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>190</v>
       </c>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
@@ -5958,13 +5955,13 @@
         <v>129</v>
       </c>
       <c r="B34" s="68" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C34" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="58" t="s">
         <v>191</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>192</v>
       </c>
       <c r="E34" s="58"/>
       <c r="F34" s="58"/>
@@ -5974,13 +5971,13 @@
         <v>129</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C35" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="58" t="s">
         <v>193</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>194</v>
       </c>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
@@ -5990,13 +5987,13 @@
         <v>129</v>
       </c>
       <c r="B36" s="68" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C36" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="58" t="s">
         <v>195</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>196</v>
       </c>
       <c r="E36" s="58"/>
       <c r="F36" s="58"/>
@@ -6006,13 +6003,13 @@
         <v>129</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C37" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="58" t="s">
         <v>197</v>
-      </c>
-      <c r="D37" s="58" t="s">
-        <v>198</v>
       </c>
       <c r="E37" s="58"/>
       <c r="F37" s="58"/>
@@ -6022,7 +6019,7 @@
         <v>129</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C38" s="58" t="s">
         <v>184</v>
@@ -6038,10 +6035,10 @@
         <v>129</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D39" s="58" t="s">
         <v>132</v>
@@ -6054,7 +6051,7 @@
         <v>129</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C40" s="58" t="s">
         <v>135</v>
@@ -6070,7 +6067,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C41" s="58" t="s">
         <v>138</v>
@@ -6086,7 +6083,7 @@
         <v>129</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C42" s="58" t="s">
         <v>140</v>
@@ -6102,13 +6099,13 @@
         <v>129</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C43" s="58" t="s">
         <v>165</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E43" s="58"/>
       <c r="F43" s="58"/>
@@ -6118,13 +6115,13 @@
         <v>129</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C44" s="58" t="s">
         <v>168</v>
       </c>
       <c r="D44" s="58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E44" s="58"/>
       <c r="F44" s="58"/>
@@ -6134,13 +6131,13 @@
         <v>129</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C45" s="58" t="s">
         <v>170</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E45" s="58"/>
       <c r="F45" s="58"/>
@@ -6150,13 +6147,13 @@
         <v>129</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C46" s="58" t="s">
         <v>172</v>
       </c>
       <c r="D46" s="58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E46" s="58"/>
       <c r="F46" s="58"/>
@@ -6166,7 +6163,7 @@
         <v>129</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C47" s="58" t="s">
         <v>184</v>
@@ -6182,10 +6179,10 @@
         <v>129</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D48" s="58" t="s">
         <v>132</v>
@@ -6198,7 +6195,7 @@
         <v>129</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C49" s="58" t="s">
         <v>135</v>
@@ -6214,7 +6211,7 @@
         <v>129</v>
       </c>
       <c r="B50" s="68" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C50" s="58" t="s">
         <v>138</v>
@@ -6230,7 +6227,7 @@
         <v>129</v>
       </c>
       <c r="B51" s="68" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C51" s="58" t="s">
         <v>140</v>
@@ -6246,13 +6243,13 @@
         <v>129</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C52" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="58" t="s">
         <v>210</v>
-      </c>
-      <c r="D52" s="58" t="s">
-        <v>211</v>
       </c>
       <c r="E52" s="58"/>
       <c r="F52" s="58"/>
@@ -6262,13 +6259,13 @@
         <v>129</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C53" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" s="58" t="s">
         <v>212</v>
-      </c>
-      <c r="D53" s="58" t="s">
-        <v>213</v>
       </c>
       <c r="E53" s="58"/>
       <c r="F53" s="58"/>
@@ -6278,13 +6275,13 @@
         <v>129</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C54" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="58" t="s">
         <v>214</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>215</v>
       </c>
       <c r="E54" s="58"/>
       <c r="F54" s="58"/>
@@ -6294,13 +6291,13 @@
         <v>129</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C55" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="58" t="s">
         <v>216</v>
-      </c>
-      <c r="D55" s="58" t="s">
-        <v>217</v>
       </c>
       <c r="E55" s="58"/>
       <c r="F55" s="58"/>
@@ -6310,13 +6307,13 @@
         <v>129</v>
       </c>
       <c r="B56" s="68" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C56" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="58" t="s">
         <v>218</v>
-      </c>
-      <c r="D56" s="58" t="s">
-        <v>219</v>
       </c>
       <c r="E56" s="58"/>
       <c r="F56" s="58"/>
@@ -6326,7 +6323,7 @@
         <v>129</v>
       </c>
       <c r="B57" s="68" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C57" s="58" t="s">
         <v>184</v>
@@ -6342,10 +6339,10 @@
         <v>129</v>
       </c>
       <c r="B58" s="68" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C58" s="58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D58" s="58" t="s">
         <v>132</v>
@@ -6358,7 +6355,7 @@
         <v>129</v>
       </c>
       <c r="B59" s="68" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C59" s="58" t="s">
         <v>135</v>
@@ -6374,7 +6371,7 @@
         <v>129</v>
       </c>
       <c r="B60" s="68" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C60" s="58" t="s">
         <v>138</v>
@@ -6390,7 +6387,7 @@
         <v>129</v>
       </c>
       <c r="B61" s="68" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C61" s="58" t="s">
         <v>140</v>
@@ -6406,13 +6403,13 @@
         <v>129</v>
       </c>
       <c r="B62" s="68" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C62" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="58" t="s">
         <v>221</v>
-      </c>
-      <c r="D62" s="58" t="s">
-        <v>222</v>
       </c>
       <c r="E62" s="58"/>
       <c r="F62" s="58"/>
@@ -6422,13 +6419,13 @@
         <v>129</v>
       </c>
       <c r="B63" s="68" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C63" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="58" t="s">
         <v>223</v>
-      </c>
-      <c r="D63" s="58" t="s">
-        <v>224</v>
       </c>
       <c r="E63" s="58"/>
       <c r="F63" s="58"/>
@@ -6438,13 +6435,13 @@
         <v>129</v>
       </c>
       <c r="B64" s="68" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C64" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" s="58" t="s">
         <v>225</v>
-      </c>
-      <c r="D64" s="58" t="s">
-        <v>226</v>
       </c>
       <c r="E64" s="58"/>
       <c r="F64" s="58"/>
@@ -6454,7 +6451,7 @@
         <v>129</v>
       </c>
       <c r="B65" s="68" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C65" s="58" t="s">
         <v>184</v>
@@ -6470,10 +6467,10 @@
         <v>129</v>
       </c>
       <c r="B66" s="68" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C66" s="58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D66" s="58" t="s">
         <v>132</v>
@@ -6488,7 +6485,7 @@
         <v>129</v>
       </c>
       <c r="B67" s="68" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C67" s="58" t="s">
         <v>135</v>
@@ -6504,7 +6501,7 @@
         <v>129</v>
       </c>
       <c r="B68" s="68" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C68" s="58" t="s">
         <v>138</v>
@@ -6520,7 +6517,7 @@
         <v>129</v>
       </c>
       <c r="B69" s="68" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C69" s="58" t="s">
         <v>140</v>
@@ -6536,13 +6533,13 @@
         <v>129</v>
       </c>
       <c r="B70" s="68" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C70" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="58" t="s">
         <v>189</v>
-      </c>
-      <c r="D70" s="58" t="s">
-        <v>190</v>
       </c>
       <c r="E70" s="58"/>
       <c r="F70" s="58"/>
@@ -6552,13 +6549,13 @@
         <v>129</v>
       </c>
       <c r="B71" s="68" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C71" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="58" t="s">
         <v>191</v>
-      </c>
-      <c r="D71" s="58" t="s">
-        <v>192</v>
       </c>
       <c r="E71" s="58"/>
       <c r="F71" s="58"/>
@@ -6568,13 +6565,13 @@
         <v>129</v>
       </c>
       <c r="B72" s="68" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C72" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D72" s="58" t="s">
         <v>193</v>
-      </c>
-      <c r="D72" s="58" t="s">
-        <v>194</v>
       </c>
       <c r="E72" s="58"/>
       <c r="F72" s="58"/>
@@ -6584,13 +6581,13 @@
         <v>129</v>
       </c>
       <c r="B73" s="68" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C73" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" s="58" t="s">
         <v>197</v>
-      </c>
-      <c r="D73" s="58" t="s">
-        <v>198</v>
       </c>
       <c r="E73" s="58"/>
       <c r="F73" s="58"/>
@@ -6600,13 +6597,13 @@
         <v>129</v>
       </c>
       <c r="B74" s="68" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C74" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D74" s="58" t="s">
         <v>195</v>
-      </c>
-      <c r="D74" s="58" t="s">
-        <v>196</v>
       </c>
       <c r="E74" s="58"/>
       <c r="F74" s="58"/>
@@ -6616,7 +6613,7 @@
         <v>129</v>
       </c>
       <c r="B75" s="68" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C75" s="58" t="s">
         <v>184</v>
@@ -6632,10 +6629,10 @@
         <v>129</v>
       </c>
       <c r="B76" s="68" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C76" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="58" t="s">
         <v>132</v>
@@ -6650,7 +6647,7 @@
         <v>129</v>
       </c>
       <c r="B77" s="68" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C77" s="58" t="s">
         <v>135</v>
@@ -6666,7 +6663,7 @@
         <v>129</v>
       </c>
       <c r="B78" s="68" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C78" s="58" t="s">
         <v>138</v>
@@ -6682,7 +6679,7 @@
         <v>129</v>
       </c>
       <c r="B79" s="68" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C79" s="58" t="s">
         <v>140</v>
@@ -6698,13 +6695,13 @@
         <v>129</v>
       </c>
       <c r="B80" s="68" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C80" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="58" t="s">
         <v>189</v>
-      </c>
-      <c r="D80" s="58" t="s">
-        <v>190</v>
       </c>
       <c r="E80" s="58"/>
       <c r="F80" s="58"/>
@@ -6714,13 +6711,13 @@
         <v>129</v>
       </c>
       <c r="B81" s="68" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C81" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="58" t="s">
         <v>191</v>
-      </c>
-      <c r="D81" s="58" t="s">
-        <v>192</v>
       </c>
       <c r="E81" s="58"/>
       <c r="F81" s="58"/>
@@ -6730,13 +6727,13 @@
         <v>129</v>
       </c>
       <c r="B82" s="68" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C82" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" s="58" t="s">
         <v>193</v>
-      </c>
-      <c r="D82" s="58" t="s">
-        <v>194</v>
       </c>
       <c r="E82" s="58"/>
       <c r="F82" s="58"/>
@@ -6746,13 +6743,13 @@
         <v>129</v>
       </c>
       <c r="B83" s="68" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C83" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="58" t="s">
         <v>195</v>
-      </c>
-      <c r="D83" s="58" t="s">
-        <v>196</v>
       </c>
       <c r="E83" s="58"/>
       <c r="F83" s="58"/>
@@ -6762,13 +6759,13 @@
         <v>129</v>
       </c>
       <c r="B84" s="68" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C84" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" s="58" t="s">
         <v>197</v>
-      </c>
-      <c r="D84" s="58" t="s">
-        <v>198</v>
       </c>
       <c r="E84" s="58"/>
       <c r="F84" s="58"/>
@@ -6778,7 +6775,7 @@
         <v>129</v>
       </c>
       <c r="B85" s="68" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C85" s="58" t="s">
         <v>184</v>
@@ -6794,10 +6791,10 @@
         <v>129</v>
       </c>
       <c r="B86" s="68" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C86" s="58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D86" s="58" t="s">
         <v>132</v>
@@ -6812,7 +6809,7 @@
         <v>129</v>
       </c>
       <c r="B87" s="68" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C87" s="58" t="s">
         <v>135</v>
@@ -6828,7 +6825,7 @@
         <v>129</v>
       </c>
       <c r="B88" s="68" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C88" s="58" t="s">
         <v>138</v>
@@ -6844,7 +6841,7 @@
         <v>129</v>
       </c>
       <c r="B89" s="68" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C89" s="58" t="s">
         <v>140</v>
@@ -6860,13 +6857,13 @@
         <v>129</v>
       </c>
       <c r="B90" s="68" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C90" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" s="58" t="s">
         <v>189</v>
-      </c>
-      <c r="D90" s="58" t="s">
-        <v>190</v>
       </c>
       <c r="E90" s="58"/>
       <c r="F90" s="58"/>
@@ -6876,13 +6873,13 @@
         <v>129</v>
       </c>
       <c r="B91" s="68" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C91" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="58" t="s">
         <v>191</v>
-      </c>
-      <c r="D91" s="58" t="s">
-        <v>192</v>
       </c>
       <c r="E91" s="58"/>
       <c r="F91" s="58"/>
@@ -6892,13 +6889,13 @@
         <v>129</v>
       </c>
       <c r="B92" s="68" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C92" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" s="58" t="s">
         <v>193</v>
-      </c>
-      <c r="D92" s="58" t="s">
-        <v>194</v>
       </c>
       <c r="E92" s="58"/>
       <c r="F92" s="58"/>
@@ -6908,13 +6905,13 @@
         <v>129</v>
       </c>
       <c r="B93" s="68" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C93" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="58" t="s">
         <v>195</v>
-      </c>
-      <c r="D93" s="58" t="s">
-        <v>196</v>
       </c>
       <c r="E93" s="58"/>
       <c r="F93" s="58"/>
@@ -6924,13 +6921,13 @@
         <v>129</v>
       </c>
       <c r="B94" s="68" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C94" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" s="58" t="s">
         <v>197</v>
-      </c>
-      <c r="D94" s="58" t="s">
-        <v>198</v>
       </c>
       <c r="E94" s="58"/>
       <c r="F94" s="58"/>
@@ -6940,7 +6937,7 @@
         <v>129</v>
       </c>
       <c r="B95" s="68" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C95" s="58" t="s">
         <v>184</v>
@@ -6956,10 +6953,10 @@
         <v>129</v>
       </c>
       <c r="B96" s="68" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D96" s="58" t="s">
         <v>132</v>
@@ -6974,7 +6971,7 @@
         <v>129</v>
       </c>
       <c r="B97" s="68" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C97" s="58" t="s">
         <v>135</v>
@@ -6990,7 +6987,7 @@
         <v>129</v>
       </c>
       <c r="B98" s="68" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C98" s="58" t="s">
         <v>138</v>
@@ -7006,7 +7003,7 @@
         <v>129</v>
       </c>
       <c r="B99" s="68" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C99" s="58" t="s">
         <v>140</v>
@@ -7022,13 +7019,13 @@
         <v>129</v>
       </c>
       <c r="B100" s="68" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C100" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D100" s="58" t="s">
         <v>231</v>
-      </c>
-      <c r="D100" s="58" t="s">
-        <v>232</v>
       </c>
       <c r="E100" s="58"/>
       <c r="F100" s="58"/>
@@ -7038,13 +7035,13 @@
         <v>129</v>
       </c>
       <c r="B101" s="68" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C101" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101" s="58" t="s">
         <v>233</v>
-      </c>
-      <c r="D101" s="58" t="s">
-        <v>234</v>
       </c>
       <c r="E101" s="58"/>
       <c r="F101" s="58"/>
@@ -7054,13 +7051,13 @@
         <v>129</v>
       </c>
       <c r="B102" s="68" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C102" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" s="58" t="s">
         <v>235</v>
-      </c>
-      <c r="D102" s="58" t="s">
-        <v>236</v>
       </c>
       <c r="E102" s="58"/>
       <c r="F102" s="58"/>
@@ -7070,13 +7067,13 @@
         <v>129</v>
       </c>
       <c r="B103" s="68" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C103" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" s="58" t="s">
         <v>237</v>
-      </c>
-      <c r="D103" s="58" t="s">
-        <v>238</v>
       </c>
       <c r="E103" s="58"/>
       <c r="F103" s="58"/>
@@ -7086,16 +7083,16 @@
         <v>129</v>
       </c>
       <c r="B104" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="C104" s="58" t="s">
+      <c r="D104" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="D104" s="58" t="s">
-        <v>241</v>
-      </c>
       <c r="E104" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F104" s="58"/>
     </row>
@@ -7104,13 +7101,13 @@
         <v>129</v>
       </c>
       <c r="B105" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C105" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="D105" s="58" t="s">
         <v>244</v>
-      </c>
-      <c r="D105" s="58" t="s">
-        <v>245</v>
       </c>
       <c r="E105" s="58"/>
       <c r="F105" s="58"/>
@@ -7120,13 +7117,13 @@
         <v>129</v>
       </c>
       <c r="B106" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="C106" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="C106" s="58" t="s">
+      <c r="D106" s="58" t="s">
         <v>247</v>
-      </c>
-      <c r="D106" s="58" t="s">
-        <v>248</v>
       </c>
       <c r="E106" s="58"/>
       <c r="F106" s="58"/>
@@ -7136,13 +7133,13 @@
         <v>129</v>
       </c>
       <c r="B107" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C107" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="C107" s="58" t="s">
+      <c r="D107" s="58" t="s">
         <v>250</v>
-      </c>
-      <c r="D107" s="58" t="s">
-        <v>251</v>
       </c>
       <c r="E107" s="58"/>
       <c r="F107" s="58"/>
@@ -7152,16 +7149,16 @@
         <v>129</v>
       </c>
       <c r="B108" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="C108" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="C108" s="58" t="s">
+      <c r="D108" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="D108" s="58" t="s">
-        <v>254</v>
-      </c>
       <c r="E108" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F108" s="58"/>
     </row>
@@ -7170,16 +7167,16 @@
         <v>129</v>
       </c>
       <c r="B109" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C109" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="D109" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="D109" s="58" t="s">
-        <v>257</v>
-      </c>
       <c r="E109" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F109" s="58"/>
     </row>
@@ -7188,16 +7185,16 @@
         <v>129</v>
       </c>
       <c r="B110" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C110" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="C110" s="58" t="s">
+      <c r="D110" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="D110" s="58" t="s">
-        <v>260</v>
-      </c>
       <c r="E110" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F110" s="58"/>
     </row>
@@ -7206,16 +7203,16 @@
         <v>129</v>
       </c>
       <c r="B111" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="C111" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="C111" s="58" t="s">
+      <c r="D111" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="D111" s="58" t="s">
-        <v>263</v>
-      </c>
       <c r="E111" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F111" s="58"/>
     </row>
@@ -7224,16 +7221,16 @@
         <v>129</v>
       </c>
       <c r="B112" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="C112" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="C112" s="58" t="s">
+      <c r="D112" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="D112" s="58" t="s">
-        <v>266</v>
-      </c>
       <c r="E112" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F112" s="58"/>
     </row>
@@ -7242,16 +7239,16 @@
         <v>129</v>
       </c>
       <c r="B113" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="C113" s="58" t="s">
+      <c r="D113" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="D113" s="58" t="s">
-        <v>269</v>
-      </c>
       <c r="E113" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F113" s="58"/>
     </row>
@@ -7260,16 +7257,16 @@
         <v>129</v>
       </c>
       <c r="B114" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="C114" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="C114" s="58" t="s">
+      <c r="D114" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="D114" s="58" t="s">
-        <v>272</v>
-      </c>
       <c r="E114" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F114" s="58"/>
     </row>
@@ -7278,16 +7275,16 @@
         <v>129</v>
       </c>
       <c r="B115" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="C115" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="C115" s="58" t="s">
+      <c r="D115" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="D115" s="58" t="s">
-        <v>275</v>
-      </c>
       <c r="E115" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F115" s="58"/>
     </row>
@@ -7296,16 +7293,16 @@
         <v>129</v>
       </c>
       <c r="B116" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="C116" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="C116" s="58" t="s">
+      <c r="D116" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="D116" s="58" t="s">
-        <v>278</v>
-      </c>
       <c r="E116" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F116" s="58"/>
     </row>
@@ -7314,16 +7311,16 @@
         <v>129</v>
       </c>
       <c r="B117" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="C117" s="58" t="s">
+      <c r="D117" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="D117" s="58" t="s">
-        <v>281</v>
-      </c>
       <c r="E117" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F117" s="58"/>
     </row>
@@ -7332,16 +7329,16 @@
         <v>129</v>
       </c>
       <c r="B118" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="C118" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="C118" s="58" t="s">
+      <c r="D118" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="D118" s="58" t="s">
-        <v>284</v>
-      </c>
       <c r="E118" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F118" s="58"/>
     </row>
@@ -7350,16 +7347,16 @@
         <v>129</v>
       </c>
       <c r="B119" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="C119" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="C119" s="58" t="s">
+      <c r="D119" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="D119" s="58" t="s">
-        <v>287</v>
-      </c>
       <c r="E119" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F119" s="58"/>
     </row>
@@ -7368,13 +7365,13 @@
         <v>129</v>
       </c>
       <c r="B120" s="58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C120" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D120" s="58" t="s">
         <v>240</v>
-      </c>
-      <c r="D120" s="58" t="s">
-        <v>241</v>
       </c>
       <c r="E120" s="58"/>
       <c r="F120" s="58"/>
@@ -7384,13 +7381,13 @@
         <v>129</v>
       </c>
       <c r="B121" s="58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C121" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="D121" s="58" t="s">
         <v>244</v>
-      </c>
-      <c r="D121" s="58" t="s">
-        <v>245</v>
       </c>
       <c r="E121" s="58"/>
       <c r="F121" s="58"/>
@@ -7400,13 +7397,13 @@
         <v>129</v>
       </c>
       <c r="B122" s="58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C122" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D122" s="58" t="s">
         <v>247</v>
-      </c>
-      <c r="D122" s="58" t="s">
-        <v>248</v>
       </c>
       <c r="E122" s="58"/>
       <c r="F122" s="58"/>
@@ -7416,16 +7413,16 @@
         <v>129</v>
       </c>
       <c r="B123" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C123" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D123" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="D123" s="58" t="s">
-        <v>251</v>
-      </c>
       <c r="E123" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F123" s="58"/>
     </row>
@@ -7434,16 +7431,16 @@
         <v>129</v>
       </c>
       <c r="B124" s="58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C124" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="D124" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="D124" s="58" t="s">
-        <v>254</v>
-      </c>
       <c r="E124" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F124" s="58"/>
     </row>
@@ -7452,16 +7449,16 @@
         <v>129</v>
       </c>
       <c r="B125" s="58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C125" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="D125" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="D125" s="58" t="s">
-        <v>257</v>
-      </c>
       <c r="E125" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F125" s="58"/>
     </row>
@@ -7470,16 +7467,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="58" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C126" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="D126" s="58" t="s">
-        <v>260</v>
-      </c>
       <c r="E126" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F126" s="58"/>
     </row>
@@ -7488,16 +7485,16 @@
         <v>129</v>
       </c>
       <c r="B127" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C127" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="C127" s="58" t="s">
-        <v>296</v>
-      </c>
       <c r="D127" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E127" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F127" s="58"/>
     </row>
@@ -7506,16 +7503,16 @@
         <v>129</v>
       </c>
       <c r="B128" s="58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C128" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="D128" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="D128" s="58" t="s">
-        <v>266</v>
-      </c>
       <c r="E128" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F128" s="58"/>
     </row>
@@ -7524,16 +7521,16 @@
         <v>129</v>
       </c>
       <c r="B129" s="58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C129" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="D129" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="D129" s="58" t="s">
-        <v>269</v>
-      </c>
       <c r="E129" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F129" s="58"/>
     </row>
@@ -7542,16 +7539,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="C130" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="C130" s="58" t="s">
-        <v>300</v>
-      </c>
       <c r="D130" s="58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E130" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F130" s="58"/>
     </row>
@@ -7560,16 +7557,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="C131" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="C131" s="58" t="s">
-        <v>302</v>
-      </c>
       <c r="D131" s="58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E131" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F131" s="58"/>
     </row>
@@ -7578,16 +7575,16 @@
         <v>129</v>
       </c>
       <c r="B132" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="C132" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="C132" s="58" t="s">
-        <v>304</v>
-      </c>
       <c r="D132" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E132" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F132" s="58"/>
     </row>
@@ -7596,16 +7593,16 @@
         <v>129</v>
       </c>
       <c r="B133" s="58" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C133" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="D133" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="D133" s="58" t="s">
-        <v>281</v>
-      </c>
       <c r="E133" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F133" s="58"/>
     </row>
@@ -7614,16 +7611,16 @@
         <v>129</v>
       </c>
       <c r="B134" s="58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C134" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D134" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="D134" s="58" t="s">
-        <v>284</v>
-      </c>
       <c r="E134" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F134" s="58"/>
     </row>
@@ -7632,16 +7629,16 @@
         <v>129</v>
       </c>
       <c r="B135" s="58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C135" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="D135" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="D135" s="58" t="s">
-        <v>287</v>
-      </c>
       <c r="E135" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F135" s="58"/>
     </row>
@@ -7650,13 +7647,13 @@
         <v>129</v>
       </c>
       <c r="B136" s="58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C136" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D136" s="58" t="s">
         <v>240</v>
-      </c>
-      <c r="D136" s="58" t="s">
-        <v>241</v>
       </c>
       <c r="E136" s="58"/>
       <c r="F136" s="58"/>
@@ -7666,13 +7663,13 @@
         <v>129</v>
       </c>
       <c r="B137" s="58" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C137" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="D137" s="58" t="s">
         <v>244</v>
-      </c>
-      <c r="D137" s="58" t="s">
-        <v>245</v>
       </c>
       <c r="E137" s="58"/>
       <c r="F137" s="58"/>
@@ -7682,13 +7679,13 @@
         <v>129</v>
       </c>
       <c r="B138" s="58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C138" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D138" s="58" t="s">
         <v>247</v>
-      </c>
-      <c r="D138" s="58" t="s">
-        <v>248</v>
       </c>
       <c r="E138" s="58"/>
       <c r="F138" s="58"/>
@@ -7698,16 +7695,16 @@
         <v>129</v>
       </c>
       <c r="B139" s="58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C139" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D139" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="D139" s="58" t="s">
-        <v>251</v>
-      </c>
       <c r="E139" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F139" s="58"/>
     </row>
@@ -7716,16 +7713,16 @@
         <v>129</v>
       </c>
       <c r="B140" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="C140" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C140" s="19" t="s">
-        <v>313</v>
-      </c>
       <c r="D140" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E140" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F140" s="58"/>
     </row>
@@ -7734,16 +7731,16 @@
         <v>129</v>
       </c>
       <c r="B141" s="58" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C141" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="D141" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="D141" s="58" t="s">
-        <v>257</v>
-      </c>
       <c r="E141" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F141" s="58"/>
     </row>
@@ -7752,16 +7749,16 @@
         <v>129</v>
       </c>
       <c r="B142" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="C142" s="58" t="s">
         <v>315</v>
       </c>
-      <c r="C142" s="58" t="s">
-        <v>316</v>
-      </c>
       <c r="D142" s="58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E142" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F142" s="58"/>
     </row>
@@ -7770,13 +7767,13 @@
         <v>129</v>
       </c>
       <c r="B143" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="C143" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="C143" s="58" t="s">
-        <v>318</v>
-      </c>
       <c r="D143" s="58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E143" s="58"/>
       <c r="F143" s="58"/>
@@ -7786,16 +7783,16 @@
         <v>129</v>
       </c>
       <c r="B144" s="58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C144" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="D144" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="D144" s="58" t="s">
-        <v>266</v>
-      </c>
       <c r="E144" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F144" s="58"/>
     </row>
@@ -7804,16 +7801,16 @@
         <v>129</v>
       </c>
       <c r="B145" s="58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C145" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="D145" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="D145" s="58" t="s">
-        <v>269</v>
-      </c>
       <c r="E145" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F145" s="58"/>
     </row>
@@ -7822,16 +7819,16 @@
         <v>129</v>
       </c>
       <c r="B146" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="C146" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="C146" s="58" t="s">
-        <v>321</v>
-      </c>
       <c r="D146" s="58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E146" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F146" s="58"/>
     </row>
@@ -7840,16 +7837,16 @@
         <v>129</v>
       </c>
       <c r="B147" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="C147" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="C147" s="58" t="s">
-        <v>323</v>
-      </c>
       <c r="D147" s="58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E147" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F147" s="58"/>
     </row>
@@ -7858,16 +7855,16 @@
         <v>129</v>
       </c>
       <c r="B148" s="58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C148" s="58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D148" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E148" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F148" s="58"/>
     </row>
@@ -7876,16 +7873,16 @@
         <v>129</v>
       </c>
       <c r="B149" s="58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C149" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="D149" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="D149" s="58" t="s">
-        <v>281</v>
-      </c>
       <c r="E149" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F149" s="58"/>
     </row>
@@ -7894,16 +7891,16 @@
         <v>129</v>
       </c>
       <c r="B150" s="58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C150" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="D150" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="D150" s="58" t="s">
-        <v>284</v>
-      </c>
       <c r="E150" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F150" s="58"/>
     </row>
@@ -7912,16 +7909,16 @@
         <v>129</v>
       </c>
       <c r="B151" s="58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C151" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="D151" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="D151" s="58" t="s">
-        <v>287</v>
-      </c>
       <c r="E151" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F151" s="58"/>
     </row>
@@ -7930,13 +7927,13 @@
         <v>129</v>
       </c>
       <c r="B152" s="58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C152" s="58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D152" s="58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E152" s="58"/>
       <c r="F152" s="58"/>
@@ -7946,13 +7943,13 @@
         <v>129</v>
       </c>
       <c r="B153" s="58" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C153" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D153" s="58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E153" s="58"/>
       <c r="F153" s="58"/>
@@ -7962,13 +7959,13 @@
         <v>129</v>
       </c>
       <c r="B154" s="58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C154" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D154" s="58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E154" s="58"/>
       <c r="F154" s="58"/>
@@ -7978,13 +7975,13 @@
         <v>129</v>
       </c>
       <c r="B155" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="C155" s="58" t="s">
         <v>331</v>
       </c>
-      <c r="C155" s="58" t="s">
+      <c r="D155" s="58" t="s">
         <v>332</v>
-      </c>
-      <c r="D155" s="58" t="s">
-        <v>333</v>
       </c>
       <c r="E155" s="58"/>
       <c r="F155" s="58"/>
@@ -7994,13 +7991,13 @@
         <v>129</v>
       </c>
       <c r="B156" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="C156" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="C156" s="58" t="s">
-        <v>335</v>
-      </c>
       <c r="D156" s="58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E156" s="58"/>
       <c r="F156" s="58"/>
@@ -8010,13 +8007,13 @@
         <v>129</v>
       </c>
       <c r="B157" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="C157" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="C157" s="58" t="s">
-        <v>337</v>
-      </c>
       <c r="D157" s="58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E157" s="58"/>
       <c r="F157" s="58"/>
@@ -8026,13 +8023,13 @@
         <v>129</v>
       </c>
       <c r="B158" s="58" t="s">
+        <v>337</v>
+      </c>
+      <c r="C158" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="C158" s="58" t="s">
-        <v>339</v>
-      </c>
       <c r="D158" s="58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E158" s="58"/>
       <c r="F158" s="58"/>
@@ -8042,13 +8039,13 @@
         <v>129</v>
       </c>
       <c r="B159" s="58" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C159" s="58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D159" s="58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E159" s="58"/>
       <c r="F159" s="58"/>
@@ -8058,13 +8055,13 @@
         <v>129</v>
       </c>
       <c r="B160" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="C160" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="C160" s="58" t="s">
+      <c r="D160" s="58" t="s">
         <v>342</v>
-      </c>
-      <c r="D160" s="58" t="s">
-        <v>343</v>
       </c>
       <c r="E160" s="58"/>
       <c r="F160" s="58"/>
@@ -8074,13 +8071,13 @@
         <v>129</v>
       </c>
       <c r="B161" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="C161" s="58" t="s">
         <v>344</v>
       </c>
-      <c r="C161" s="58" t="s">
+      <c r="D161" s="58" t="s">
         <v>345</v>
-      </c>
-      <c r="D161" s="58" t="s">
-        <v>346</v>
       </c>
       <c r="E161" s="58"/>
       <c r="F161" s="58"/>
@@ -8090,13 +8087,13 @@
         <v>129</v>
       </c>
       <c r="B162" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="C162" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="C162" s="58" t="s">
+      <c r="D162" s="58" t="s">
         <v>348</v>
-      </c>
-      <c r="D162" s="58" t="s">
-        <v>349</v>
       </c>
       <c r="E162" s="58"/>
       <c r="F162" s="58"/>
@@ -8106,13 +8103,13 @@
         <v>129</v>
       </c>
       <c r="B163" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="C163" s="58" t="s">
         <v>350</v>
       </c>
-      <c r="C163" s="58" t="s">
-        <v>351</v>
-      </c>
       <c r="D163" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E163" s="58"/>
       <c r="F163" s="58"/>
@@ -8122,13 +8119,13 @@
         <v>129</v>
       </c>
       <c r="B164" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="C164" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="C164" s="58" t="s">
+      <c r="D164" s="58" t="s">
         <v>353</v>
-      </c>
-      <c r="D164" s="58" t="s">
-        <v>354</v>
       </c>
       <c r="E164" s="58"/>
       <c r="F164" s="58"/>
@@ -8138,13 +8135,13 @@
         <v>129</v>
       </c>
       <c r="B165" s="58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C165" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="D165" s="63" t="s">
         <v>353</v>
-      </c>
-      <c r="D165" s="63" t="s">
-        <v>354</v>
       </c>
       <c r="E165" s="58"/>
       <c r="F165" s="58"/>
@@ -8154,13 +8151,13 @@
         <v>129</v>
       </c>
       <c r="B166" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C166" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="C166" s="58" t="s">
+      <c r="D166" s="58" t="s">
         <v>357</v>
-      </c>
-      <c r="D166" s="58" t="s">
-        <v>358</v>
       </c>
       <c r="E166" s="58"/>
       <c r="F166" s="58"/>
@@ -8170,13 +8167,13 @@
         <v>129</v>
       </c>
       <c r="B167" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="C167" s="58" t="s">
         <v>359</v>
       </c>
-      <c r="C167" s="58" t="s">
+      <c r="D167" s="58" t="s">
         <v>360</v>
-      </c>
-      <c r="D167" s="58" t="s">
-        <v>361</v>
       </c>
       <c r="E167" s="58"/>
       <c r="F167" s="58"/>
@@ -8186,13 +8183,13 @@
         <v>129</v>
       </c>
       <c r="B168" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="C168" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="C168" s="58" t="s">
+      <c r="D168" s="58" t="s">
         <v>363</v>
-      </c>
-      <c r="D168" s="58" t="s">
-        <v>364</v>
       </c>
       <c r="E168" s="58"/>
       <c r="F168" s="58"/>
@@ -8202,13 +8199,13 @@
         <v>129</v>
       </c>
       <c r="B169" s="58" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C169" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="D169" s="58" t="s">
         <v>365</v>
-      </c>
-      <c r="D169" s="58" t="s">
-        <v>366</v>
       </c>
       <c r="E169" s="58"/>
       <c r="F169" s="58"/>
@@ -8218,13 +8215,13 @@
         <v>129</v>
       </c>
       <c r="B170" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="C170" s="58" t="s">
         <v>367</v>
       </c>
-      <c r="C170" s="58" t="s">
+      <c r="D170" s="58" t="s">
         <v>368</v>
-      </c>
-      <c r="D170" s="58" t="s">
-        <v>369</v>
       </c>
       <c r="E170" s="58"/>
       <c r="F170" s="58"/>
@@ -8234,13 +8231,13 @@
         <v>129</v>
       </c>
       <c r="B171" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="C171" s="58" t="s">
         <v>370</v>
       </c>
-      <c r="C171" s="58" t="s">
+      <c r="D171" s="58" t="s">
         <v>371</v>
-      </c>
-      <c r="D171" s="58" t="s">
-        <v>372</v>
       </c>
       <c r="E171" s="58"/>
       <c r="F171" s="58"/>
@@ -8250,10 +8247,10 @@
         <v>129</v>
       </c>
       <c r="B172" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="C172" s="58" t="s">
         <v>373</v>
-      </c>
-      <c r="C172" s="58" t="s">
-        <v>374</v>
       </c>
       <c r="D172" s="64"/>
       <c r="E172" s="58"/>
@@ -8264,13 +8261,13 @@
         <v>129</v>
       </c>
       <c r="B173" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="C173" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="C173" s="58" t="s">
-        <v>376</v>
-      </c>
       <c r="D173" s="58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E173" s="58"/>
       <c r="F173" s="58"/>
@@ -8280,13 +8277,13 @@
         <v>129</v>
       </c>
       <c r="B174" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="C174" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="C174" s="58" t="s">
-        <v>378</v>
-      </c>
       <c r="D174" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E174" s="58"/>
       <c r="F174" s="58"/>
@@ -8296,13 +8293,13 @@
         <v>129</v>
       </c>
       <c r="B175" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="C175" s="58" t="s">
         <v>379</v>
       </c>
-      <c r="C175" s="58" t="s">
-        <v>380</v>
-      </c>
       <c r="D175" s="58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E175" s="58"/>
       <c r="F175" s="58"/>
@@ -8312,13 +8309,13 @@
         <v>129</v>
       </c>
       <c r="B176" s="58" t="s">
+        <v>380</v>
+      </c>
+      <c r="C176" s="58" t="s">
         <v>381</v>
       </c>
-      <c r="C176" s="58" t="s">
-        <v>382</v>
-      </c>
       <c r="D176" s="58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E176" s="58"/>
       <c r="F176" s="58"/>
@@ -8328,13 +8325,13 @@
         <v>129</v>
       </c>
       <c r="B177" s="58" t="s">
+        <v>382</v>
+      </c>
+      <c r="C177" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="C177" s="58" t="s">
+      <c r="D177" s="58" t="s">
         <v>384</v>
-      </c>
-      <c r="D177" s="58" t="s">
-        <v>385</v>
       </c>
       <c r="E177" s="58"/>
       <c r="F177" s="58"/>
@@ -8344,13 +8341,13 @@
         <v>129</v>
       </c>
       <c r="B178" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="C178" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="C178" s="58" t="s">
+      <c r="D178" s="58" t="s">
         <v>387</v>
-      </c>
-      <c r="D178" s="58" t="s">
-        <v>388</v>
       </c>
       <c r="E178" s="58"/>
       <c r="F178" s="58"/>
@@ -8360,16 +8357,16 @@
         <v>129</v>
       </c>
       <c r="B179" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="C179" s="58" t="s">
         <v>389</v>
       </c>
-      <c r="C179" s="58" t="s">
+      <c r="D179" s="58" t="s">
         <v>390</v>
       </c>
-      <c r="D179" s="58" t="s">
-        <v>391</v>
-      </c>
       <c r="E179" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F179" s="58"/>
     </row>
@@ -8378,13 +8375,13 @@
         <v>129</v>
       </c>
       <c r="B180" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="C180" s="58" t="s">
         <v>392</v>
       </c>
-      <c r="C180" s="58" t="s">
+      <c r="D180" s="58" t="s">
         <v>393</v>
-      </c>
-      <c r="D180" s="58" t="s">
-        <v>394</v>
       </c>
       <c r="E180" s="58"/>
       <c r="F180" s="58"/>
@@ -8394,13 +8391,13 @@
         <v>129</v>
       </c>
       <c r="B181" s="58" t="s">
+        <v>394</v>
+      </c>
+      <c r="C181" s="58" t="s">
         <v>395</v>
       </c>
-      <c r="C181" s="58" t="s">
+      <c r="D181" s="58" t="s">
         <v>396</v>
-      </c>
-      <c r="D181" s="58" t="s">
-        <v>397</v>
       </c>
       <c r="E181" s="58"/>
       <c r="F181" s="58"/>
@@ -8410,13 +8407,13 @@
         <v>129</v>
       </c>
       <c r="B182" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="C182" s="58" t="s">
         <v>398</v>
       </c>
-      <c r="C182" s="58" t="s">
+      <c r="D182" s="58" t="s">
         <v>399</v>
-      </c>
-      <c r="D182" s="58" t="s">
-        <v>400</v>
       </c>
       <c r="E182" s="58"/>
       <c r="F182" s="58"/>
@@ -8426,13 +8423,13 @@
         <v>129</v>
       </c>
       <c r="B183" s="58" t="s">
+        <v>400</v>
+      </c>
+      <c r="C183" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="C183" s="58" t="s">
+      <c r="D183" s="58" t="s">
         <v>402</v>
-      </c>
-      <c r="D183" s="58" t="s">
-        <v>403</v>
       </c>
       <c r="E183" s="58"/>
       <c r="F183" s="58"/>
@@ -8442,13 +8439,13 @@
         <v>129</v>
       </c>
       <c r="B184" s="58" t="s">
+        <v>403</v>
+      </c>
+      <c r="C184" s="58" t="s">
         <v>404</v>
       </c>
-      <c r="C184" s="58" t="s">
+      <c r="D184" s="58" t="s">
         <v>405</v>
-      </c>
-      <c r="D184" s="58" t="s">
-        <v>406</v>
       </c>
       <c r="E184" s="58"/>
       <c r="F184" s="58"/>
@@ -8458,13 +8455,13 @@
         <v>129</v>
       </c>
       <c r="B185" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="C185" s="58" t="s">
         <v>407</v>
       </c>
-      <c r="C185" s="58" t="s">
+      <c r="D185" s="58" t="s">
         <v>408</v>
-      </c>
-      <c r="D185" s="58" t="s">
-        <v>409</v>
       </c>
       <c r="E185" s="58"/>
       <c r="F185" s="58"/>
@@ -8474,13 +8471,13 @@
         <v>129</v>
       </c>
       <c r="B186" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="C186" s="58" t="s">
         <v>410</v>
       </c>
-      <c r="C186" s="58" t="s">
+      <c r="D186" s="58" t="s">
         <v>411</v>
-      </c>
-      <c r="D186" s="58" t="s">
-        <v>412</v>
       </c>
       <c r="E186" s="58"/>
       <c r="F186" s="58"/>
@@ -8490,13 +8487,13 @@
         <v>129</v>
       </c>
       <c r="B187" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="C187" s="58" t="s">
         <v>413</v>
       </c>
-      <c r="C187" s="58" t="s">
+      <c r="D187" s="58" t="s">
         <v>414</v>
-      </c>
-      <c r="D187" s="58" t="s">
-        <v>415</v>
       </c>
       <c r="E187" s="58"/>
       <c r="F187" s="58"/>
@@ -8506,13 +8503,13 @@
         <v>129</v>
       </c>
       <c r="B188" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="C188" s="58" t="s">
         <v>416</v>
       </c>
-      <c r="C188" s="58" t="s">
+      <c r="D188" s="58" t="s">
         <v>417</v>
-      </c>
-      <c r="D188" s="58" t="s">
-        <v>418</v>
       </c>
       <c r="E188" s="58"/>
       <c r="F188" s="58"/>
@@ -8522,13 +8519,13 @@
         <v>129</v>
       </c>
       <c r="B189" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="C189" s="65" t="s">
         <v>419</v>
       </c>
-      <c r="C189" s="65" t="s">
+      <c r="D189" s="58" t="s">
         <v>420</v>
-      </c>
-      <c r="D189" s="58" t="s">
-        <v>421</v>
       </c>
       <c r="E189" s="58"/>
       <c r="F189" s="58"/>
@@ -8538,13 +8535,13 @@
         <v>129</v>
       </c>
       <c r="B190" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="C190" s="58" t="s">
         <v>422</v>
       </c>
-      <c r="C190" s="58" t="s">
+      <c r="D190" s="58" t="s">
         <v>423</v>
-      </c>
-      <c r="D190" s="58" t="s">
-        <v>424</v>
       </c>
       <c r="E190" s="58"/>
       <c r="F190" s="58"/>
@@ -8554,16 +8551,16 @@
         <v>129</v>
       </c>
       <c r="B191" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="C191" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="C191" s="58" t="s">
+      <c r="D191" s="58" t="s">
         <v>426</v>
       </c>
-      <c r="D191" s="58" t="s">
-        <v>427</v>
-      </c>
       <c r="E191" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F191" s="58"/>
     </row>
@@ -8572,13 +8569,13 @@
         <v>129</v>
       </c>
       <c r="B192" s="58" t="s">
+        <v>427</v>
+      </c>
+      <c r="C192" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C192" s="58" t="s">
+      <c r="D192" s="58" t="s">
         <v>429</v>
-      </c>
-      <c r="D192" s="58" t="s">
-        <v>430</v>
       </c>
       <c r="E192" s="58"/>
       <c r="F192" s="58"/>
@@ -8588,13 +8585,13 @@
         <v>129</v>
       </c>
       <c r="B193" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="C193" s="58" t="s">
         <v>431</v>
       </c>
-      <c r="C193" s="58" t="s">
-        <v>432</v>
-      </c>
       <c r="D193" s="58" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E193" s="58"/>
       <c r="F193" s="58"/>
@@ -8604,13 +8601,13 @@
         <v>129</v>
       </c>
       <c r="B194" s="58" t="s">
+        <v>432</v>
+      </c>
+      <c r="C194" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="C194" s="58" t="s">
-        <v>434</v>
-      </c>
       <c r="D194" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E194" s="58"/>
       <c r="F194" s="58"/>
@@ -8620,13 +8617,13 @@
         <v>129</v>
       </c>
       <c r="B195" s="58" t="s">
+        <v>434</v>
+      </c>
+      <c r="C195" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="C195" s="58" t="s">
-        <v>436</v>
-      </c>
       <c r="D195" s="58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E195" s="58"/>
       <c r="F195" s="58"/>
@@ -8636,13 +8633,13 @@
         <v>129</v>
       </c>
       <c r="B196" s="58" t="s">
+        <v>436</v>
+      </c>
+      <c r="C196" s="58" t="s">
         <v>437</v>
       </c>
-      <c r="C196" s="58" t="s">
-        <v>438</v>
-      </c>
       <c r="D196" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E196" s="58"/>
       <c r="F196" s="58"/>
@@ -8652,13 +8649,13 @@
         <v>129</v>
       </c>
       <c r="B197" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="C197" s="58" t="s">
         <v>439</v>
       </c>
-      <c r="C197" s="58" t="s">
-        <v>440</v>
-      </c>
       <c r="D197" s="58" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E197" s="58"/>
       <c r="F197" s="58"/>
@@ -8668,13 +8665,13 @@
         <v>129</v>
       </c>
       <c r="B198" s="58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C198" s="58" t="s">
+        <v>401</v>
+      </c>
+      <c r="D198" s="58" t="s">
         <v>402</v>
-      </c>
-      <c r="D198" s="58" t="s">
-        <v>403</v>
       </c>
       <c r="E198" s="58"/>
       <c r="F198" s="58"/>
@@ -8684,13 +8681,13 @@
         <v>129</v>
       </c>
       <c r="B199" s="58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C199" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="D199" s="58" t="s">
         <v>405</v>
-      </c>
-      <c r="D199" s="58" t="s">
-        <v>406</v>
       </c>
       <c r="E199" s="58"/>
       <c r="F199" s="58"/>
@@ -8700,13 +8697,13 @@
         <v>129</v>
       </c>
       <c r="B200" s="58" t="s">
+        <v>442</v>
+      </c>
+      <c r="C200" s="58" t="s">
         <v>443</v>
       </c>
-      <c r="C200" s="58" t="s">
-        <v>444</v>
-      </c>
       <c r="D200" s="58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E200" s="58"/>
       <c r="F200" s="58"/>
@@ -8716,13 +8713,13 @@
         <v>129</v>
       </c>
       <c r="B201" s="58" t="s">
+        <v>444</v>
+      </c>
+      <c r="C201" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="C201" s="58" t="s">
-        <v>446</v>
-      </c>
       <c r="D201" s="58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E201" s="58"/>
       <c r="F201" s="58"/>
@@ -8732,13 +8729,13 @@
         <v>129</v>
       </c>
       <c r="B202" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="C202" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="D202" s="58" t="s">
         <v>447</v>
-      </c>
-      <c r="C202" s="58" t="s">
-        <v>411</v>
-      </c>
-      <c r="D202" s="58" t="s">
-        <v>448</v>
       </c>
       <c r="E202" s="58"/>
       <c r="F202" s="58"/>
@@ -8748,13 +8745,13 @@
         <v>129</v>
       </c>
       <c r="B203" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="C203" s="58" t="s">
         <v>449</v>
       </c>
-      <c r="C203" s="58" t="s">
+      <c r="D203" s="58" t="s">
         <v>450</v>
-      </c>
-      <c r="D203" s="58" t="s">
-        <v>451</v>
       </c>
       <c r="E203" s="58"/>
       <c r="F203" s="58"/>
@@ -8764,13 +8761,13 @@
         <v>129</v>
       </c>
       <c r="B204" s="58" t="s">
+        <v>451</v>
+      </c>
+      <c r="C204" s="58" t="s">
         <v>452</v>
       </c>
-      <c r="C204" s="58" t="s">
+      <c r="D204" s="58" t="s">
         <v>453</v>
-      </c>
-      <c r="D204" s="58" t="s">
-        <v>454</v>
       </c>
       <c r="E204" s="58"/>
       <c r="F204" s="58"/>
@@ -8780,13 +8777,13 @@
         <v>129</v>
       </c>
       <c r="B205" s="58" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C205" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="D205" s="58" t="s">
         <v>417</v>
-      </c>
-      <c r="D205" s="58" t="s">
-        <v>418</v>
       </c>
       <c r="E205" s="58"/>
       <c r="F205" s="58"/>
@@ -8796,13 +8793,13 @@
         <v>129</v>
       </c>
       <c r="B206" s="58" t="s">
+        <v>455</v>
+      </c>
+      <c r="C206" s="65" t="s">
         <v>456</v>
       </c>
-      <c r="C206" s="65" t="s">
-        <v>457</v>
-      </c>
       <c r="D206" s="58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E206" s="58"/>
       <c r="F206" s="58"/>
@@ -8812,13 +8809,13 @@
         <v>129</v>
       </c>
       <c r="B207" s="58" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C207" s="58" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D207" s="58" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E207" s="58"/>
       <c r="F207" s="58"/>
@@ -8828,13 +8825,13 @@
         <v>129</v>
       </c>
       <c r="B208" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="C208" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="C208" s="58" t="s">
-        <v>460</v>
-      </c>
       <c r="D208" s="58" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E208" s="58"/>
       <c r="F208" s="58"/>
@@ -8844,13 +8841,13 @@
         <v>129</v>
       </c>
       <c r="B209" s="58" t="s">
+        <v>460</v>
+      </c>
+      <c r="C209" s="58" t="s">
         <v>461</v>
       </c>
-      <c r="C209" s="58" t="s">
+      <c r="D209" s="58" t="s">
         <v>462</v>
-      </c>
-      <c r="D209" s="58" t="s">
-        <v>463</v>
       </c>
       <c r="E209" s="58"/>
       <c r="F209" s="58"/>
@@ -8860,13 +8857,13 @@
         <v>129</v>
       </c>
       <c r="B210" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="C210" s="58" t="s">
         <v>464</v>
       </c>
-      <c r="C210" s="58" t="s">
-        <v>465</v>
-      </c>
       <c r="D210" s="58" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E210" s="58"/>
       <c r="F210" s="58"/>
@@ -8876,13 +8873,13 @@
         <v>129</v>
       </c>
       <c r="B211" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="C211" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="C211" s="58" t="s">
+      <c r="D211" s="58" t="s">
         <v>467</v>
-      </c>
-      <c r="D211" s="58" t="s">
-        <v>468</v>
       </c>
       <c r="E211" s="58"/>
       <c r="F211" s="58"/>
@@ -8892,13 +8889,13 @@
         <v>129</v>
       </c>
       <c r="B212" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="C212" s="58" t="s">
         <v>469</v>
       </c>
-      <c r="C212" s="58" t="s">
-        <v>470</v>
-      </c>
       <c r="D212" s="58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E212" s="58"/>
       <c r="F212" s="58"/>
@@ -8908,13 +8905,13 @@
         <v>129</v>
       </c>
       <c r="B213" s="58" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C213" s="58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D213" s="58" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E213" s="58"/>
       <c r="F213" s="58"/>
@@ -8924,13 +8921,13 @@
         <v>129</v>
       </c>
       <c r="B214" s="58" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C214" s="58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D214" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E214" s="58"/>
       <c r="F214" s="58"/>
@@ -8940,13 +8937,13 @@
         <v>129</v>
       </c>
       <c r="B215" s="58" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C215" s="58" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D215" s="58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E215" s="58"/>
       <c r="F215" s="58"/>
@@ -8956,13 +8953,13 @@
         <v>129</v>
       </c>
       <c r="B216" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C216" s="58" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D216" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E216" s="58"/>
       <c r="F216" s="58"/>
@@ -8972,13 +8969,13 @@
         <v>129</v>
       </c>
       <c r="B217" s="58" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C217" s="58" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D217" s="58" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E217" s="58"/>
       <c r="F217" s="58"/>
@@ -8988,13 +8985,13 @@
         <v>129</v>
       </c>
       <c r="B218" s="58" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C218" s="58" t="s">
+        <v>401</v>
+      </c>
+      <c r="D218" s="58" t="s">
         <v>402</v>
-      </c>
-      <c r="D218" s="58" t="s">
-        <v>403</v>
       </c>
       <c r="E218" s="58"/>
       <c r="F218" s="58"/>
@@ -9004,13 +9001,13 @@
         <v>129</v>
       </c>
       <c r="B219" s="58" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C219" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="D219" s="58" t="s">
         <v>405</v>
-      </c>
-      <c r="D219" s="58" t="s">
-        <v>406</v>
       </c>
       <c r="E219" s="58"/>
       <c r="F219" s="58"/>
@@ -9020,13 +9017,13 @@
         <v>129</v>
       </c>
       <c r="B220" s="58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C220" s="58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D220" s="58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E220" s="58"/>
       <c r="F220" s="58"/>
@@ -9036,13 +9033,13 @@
         <v>129</v>
       </c>
       <c r="B221" s="58" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C221" s="58" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D221" s="58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E221" s="58"/>
       <c r="F221" s="58"/>
@@ -9052,13 +9049,13 @@
         <v>129</v>
       </c>
       <c r="B222" s="58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C222" s="58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D222" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E222" s="58"/>
       <c r="F222" s="58"/>
@@ -9068,13 +9065,13 @@
         <v>129</v>
       </c>
       <c r="B223" s="58" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C223" s="58" t="s">
+        <v>449</v>
+      </c>
+      <c r="D223" s="58" t="s">
         <v>450</v>
-      </c>
-      <c r="D223" s="58" t="s">
-        <v>451</v>
       </c>
       <c r="E223" s="58"/>
       <c r="F223" s="58"/>
@@ -9084,13 +9081,13 @@
         <v>129</v>
       </c>
       <c r="B224" s="58" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C224" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="D224" s="58" t="s">
         <v>453</v>
-      </c>
-      <c r="D224" s="58" t="s">
-        <v>454</v>
       </c>
       <c r="E224" s="58"/>
       <c r="F224" s="58"/>
@@ -9100,13 +9097,13 @@
         <v>129</v>
       </c>
       <c r="B225" s="58" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C225" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="D225" s="58" t="s">
         <v>417</v>
-      </c>
-      <c r="D225" s="58" t="s">
-        <v>418</v>
       </c>
       <c r="E225" s="58"/>
       <c r="F225" s="58"/>
@@ -9116,13 +9113,13 @@
         <v>129</v>
       </c>
       <c r="B226" s="58" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C226" s="65" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D226" s="58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E226" s="58"/>
       <c r="F226" s="58"/>
@@ -9132,13 +9129,13 @@
         <v>129</v>
       </c>
       <c r="B227" s="58" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C227" s="58" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D227" s="58" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E227" s="58"/>
       <c r="F227" s="58"/>
@@ -9148,13 +9145,13 @@
         <v>129</v>
       </c>
       <c r="B228" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="C228" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="C228" s="58" t="s">
-        <v>460</v>
-      </c>
       <c r="D228" s="58" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E228" s="58"/>
       <c r="F228" s="58"/>
@@ -9164,13 +9161,13 @@
         <v>129</v>
       </c>
       <c r="B229" s="58" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C229" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="D229" s="58" t="s">
         <v>462</v>
-      </c>
-      <c r="D229" s="58" t="s">
-        <v>463</v>
       </c>
       <c r="E229" s="58"/>
       <c r="F229" s="58"/>
@@ -9180,17 +9177,17 @@
         <v>129</v>
       </c>
       <c r="B230" s="58" t="s">
+        <v>486</v>
+      </c>
+      <c r="C230" s="58" t="s">
         <v>487</v>
-      </c>
-      <c r="C230" s="58" t="s">
-        <v>488</v>
       </c>
       <c r="D230" s="66"/>
       <c r="E230" s="58" t="s">
         <v>133</v>
       </c>
       <c r="F230" s="58" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
@@ -9198,13 +9195,13 @@
         <v>129</v>
       </c>
       <c r="B231" s="58" t="s">
+        <v>489</v>
+      </c>
+      <c r="C231" s="65" t="s">
         <v>490</v>
       </c>
-      <c r="C231" s="65" t="s">
-        <v>491</v>
-      </c>
       <c r="D231" s="58" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E231" s="58"/>
       <c r="F231" s="58"/>
@@ -9214,13 +9211,13 @@
         <v>129</v>
       </c>
       <c r="B232" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="C232" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="C232" s="58" t="s">
+      <c r="D232" s="58" t="s">
         <v>493</v>
-      </c>
-      <c r="D232" s="58" t="s">
-        <v>494</v>
       </c>
       <c r="E232" s="58"/>
       <c r="F232" s="58"/>
@@ -9230,13 +9227,13 @@
         <v>129</v>
       </c>
       <c r="B233" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="C233" s="58" t="s">
         <v>495</v>
       </c>
-      <c r="C233" s="58" t="s">
+      <c r="D233" s="58" t="s">
         <v>496</v>
-      </c>
-      <c r="D233" s="58" t="s">
-        <v>497</v>
       </c>
       <c r="E233" s="58"/>
       <c r="F233" s="58"/>
@@ -9246,13 +9243,13 @@
         <v>129</v>
       </c>
       <c r="B234" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="C234" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="C234" s="58" t="s">
+      <c r="D234" s="58" t="s">
         <v>499</v>
-      </c>
-      <c r="D234" s="58" t="s">
-        <v>500</v>
       </c>
       <c r="E234" s="58"/>
       <c r="F234" s="58"/>
@@ -9262,13 +9259,13 @@
         <v>129</v>
       </c>
       <c r="B235" s="58" t="s">
+        <v>500</v>
+      </c>
+      <c r="C235" s="58" t="s">
         <v>501</v>
       </c>
-      <c r="C235" s="58" t="s">
+      <c r="D235" s="58" t="s">
         <v>502</v>
-      </c>
-      <c r="D235" s="58" t="s">
-        <v>503</v>
       </c>
       <c r="E235" s="58"/>
       <c r="F235" s="58"/>
@@ -9278,13 +9275,13 @@
         <v>129</v>
       </c>
       <c r="B236" s="58" t="s">
+        <v>503</v>
+      </c>
+      <c r="C236" s="58" t="s">
         <v>504</v>
       </c>
-      <c r="C236" s="58" t="s">
-        <v>505</v>
-      </c>
       <c r="D236" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E236" s="58"/>
       <c r="F236" s="58"/>
@@ -9294,13 +9291,13 @@
         <v>129</v>
       </c>
       <c r="B237" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="C237" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="C237" s="58" t="s">
+      <c r="D237" s="58" t="s">
         <v>507</v>
-      </c>
-      <c r="D237" s="58" t="s">
-        <v>508</v>
       </c>
       <c r="E237" s="58"/>
       <c r="F237" s="58"/>
@@ -9310,13 +9307,13 @@
         <v>129</v>
       </c>
       <c r="B238" s="58" t="s">
+        <v>508</v>
+      </c>
+      <c r="C238" s="58" t="s">
         <v>509</v>
       </c>
-      <c r="C238" s="58" t="s">
+      <c r="D238" s="58" t="s">
         <v>510</v>
-      </c>
-      <c r="D238" s="58" t="s">
-        <v>511</v>
       </c>
       <c r="E238" s="58"/>
       <c r="F238" s="58"/>
@@ -9326,13 +9323,13 @@
         <v>129</v>
       </c>
       <c r="B239" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="C239" s="58" t="s">
         <v>512</v>
       </c>
-      <c r="C239" s="58" t="s">
-        <v>513</v>
-      </c>
       <c r="D239" s="65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E239" s="58"/>
       <c r="F239" s="58"/>
@@ -9342,13 +9339,13 @@
         <v>129</v>
       </c>
       <c r="B240" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="C240" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="C240" s="58" t="s">
-        <v>515</v>
-      </c>
       <c r="D240" s="58" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E240" s="58"/>
       <c r="F240" s="58"/>
@@ -9358,13 +9355,13 @@
         <v>129</v>
       </c>
       <c r="B241" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="C241" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="C241" s="58" t="s">
-        <v>517</v>
-      </c>
       <c r="D241" s="58" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E241" s="58"/>
       <c r="F241" s="58"/>
@@ -9374,13 +9371,13 @@
         <v>129</v>
       </c>
       <c r="B242" s="58" t="s">
+        <v>517</v>
+      </c>
+      <c r="C242" s="58" t="s">
         <v>518</v>
       </c>
-      <c r="C242" s="58" t="s">
+      <c r="D242" s="58" t="s">
         <v>519</v>
-      </c>
-      <c r="D242" s="58" t="s">
-        <v>520</v>
       </c>
       <c r="E242" s="58"/>
       <c r="F242" s="58"/>
@@ -9390,13 +9387,13 @@
         <v>129</v>
       </c>
       <c r="B243" s="58" t="s">
+        <v>520</v>
+      </c>
+      <c r="C243" s="58" t="s">
         <v>521</v>
       </c>
-      <c r="C243" s="58" t="s">
+      <c r="D243" s="58" t="s">
         <v>522</v>
-      </c>
-      <c r="D243" s="58" t="s">
-        <v>523</v>
       </c>
       <c r="E243" s="58"/>
       <c r="F243" s="58"/>
@@ -9406,13 +9403,13 @@
         <v>129</v>
       </c>
       <c r="B244" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="C244" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="C244" s="58" t="s">
+      <c r="D244" s="58" t="s">
         <v>525</v>
-      </c>
-      <c r="D244" s="58" t="s">
-        <v>526</v>
       </c>
       <c r="E244" s="58"/>
       <c r="F244" s="58"/>
@@ -9422,13 +9419,13 @@
         <v>129</v>
       </c>
       <c r="B245" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="C245" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="C245" s="58" t="s">
+      <c r="D245" s="58" t="s">
         <v>528</v>
-      </c>
-      <c r="D245" s="58" t="s">
-        <v>529</v>
       </c>
       <c r="E245" s="58"/>
       <c r="F245" s="58"/>
@@ -9438,13 +9435,13 @@
         <v>129</v>
       </c>
       <c r="B246" s="58" t="s">
+        <v>529</v>
+      </c>
+      <c r="C246" s="58" t="s">
         <v>530</v>
       </c>
-      <c r="C246" s="58" t="s">
+      <c r="D246" s="58" t="s">
         <v>531</v>
-      </c>
-      <c r="D246" s="58" t="s">
-        <v>532</v>
       </c>
       <c r="E246" s="58"/>
       <c r="F246" s="58"/>
@@ -9454,13 +9451,13 @@
         <v>129</v>
       </c>
       <c r="B247" s="58" t="s">
+        <v>532</v>
+      </c>
+      <c r="C247" s="58" t="s">
         <v>533</v>
       </c>
-      <c r="C247" s="58" t="s">
+      <c r="D247" s="58" t="s">
         <v>534</v>
-      </c>
-      <c r="D247" s="58" t="s">
-        <v>535</v>
       </c>
       <c r="E247" s="58"/>
       <c r="F247" s="58"/>
@@ -9470,13 +9467,13 @@
         <v>129</v>
       </c>
       <c r="B248" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="C248" s="58" t="s">
         <v>536</v>
       </c>
-      <c r="C248" s="58" t="s">
+      <c r="D248" s="58" t="s">
         <v>537</v>
-      </c>
-      <c r="D248" s="58" t="s">
-        <v>538</v>
       </c>
       <c r="E248" s="58"/>
       <c r="F248" s="58"/>
@@ -9486,13 +9483,13 @@
         <v>129</v>
       </c>
       <c r="B249" s="58" t="s">
+        <v>538</v>
+      </c>
+      <c r="C249" s="58" t="s">
         <v>539</v>
       </c>
-      <c r="C249" s="58" t="s">
+      <c r="D249" s="58" t="s">
         <v>540</v>
-      </c>
-      <c r="D249" s="58" t="s">
-        <v>541</v>
       </c>
       <c r="E249" s="58"/>
       <c r="F249" s="58"/>
@@ -9502,13 +9499,13 @@
         <v>129</v>
       </c>
       <c r="B250" s="58" t="s">
+        <v>541</v>
+      </c>
+      <c r="C250" s="58" t="s">
         <v>542</v>
       </c>
-      <c r="C250" s="58" t="s">
+      <c r="D250" s="58" t="s">
         <v>543</v>
-      </c>
-      <c r="D250" s="58" t="s">
-        <v>544</v>
       </c>
       <c r="E250" s="58"/>
       <c r="F250" s="58"/>
@@ -9518,13 +9515,13 @@
         <v>129</v>
       </c>
       <c r="B251" s="58" t="s">
+        <v>544</v>
+      </c>
+      <c r="C251" s="58" t="s">
         <v>545</v>
       </c>
-      <c r="C251" s="58" t="s">
+      <c r="D251" s="58" t="s">
         <v>546</v>
-      </c>
-      <c r="D251" s="58" t="s">
-        <v>547</v>
       </c>
       <c r="E251" s="58"/>
       <c r="F251" s="58"/>
@@ -9534,13 +9531,13 @@
         <v>129</v>
       </c>
       <c r="B252" s="58" t="s">
+        <v>547</v>
+      </c>
+      <c r="C252" s="58" t="s">
         <v>548</v>
       </c>
-      <c r="C252" s="58" t="s">
-        <v>549</v>
-      </c>
       <c r="D252" s="65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E252" s="58"/>
       <c r="F252" s="58"/>
@@ -9550,13 +9547,13 @@
         <v>129</v>
       </c>
       <c r="B253" s="58" t="s">
+        <v>549</v>
+      </c>
+      <c r="C253" s="58" t="s">
         <v>550</v>
       </c>
-      <c r="C253" s="58" t="s">
-        <v>551</v>
-      </c>
       <c r="D253" s="65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E253" s="58"/>
       <c r="F253" s="58"/>
@@ -9566,13 +9563,13 @@
         <v>129</v>
       </c>
       <c r="B254" s="58" t="s">
+        <v>551</v>
+      </c>
+      <c r="C254" s="58" t="s">
         <v>552</v>
       </c>
-      <c r="C254" s="58" t="s">
+      <c r="D254" s="58" t="s">
         <v>553</v>
-      </c>
-      <c r="D254" s="58" t="s">
-        <v>554</v>
       </c>
       <c r="E254" s="58"/>
       <c r="F254" s="58"/>
@@ -9582,13 +9579,13 @@
         <v>129</v>
       </c>
       <c r="B255" s="58" t="s">
+        <v>554</v>
+      </c>
+      <c r="C255" s="58" t="s">
         <v>555</v>
       </c>
-      <c r="C255" s="58" t="s">
+      <c r="D255" s="58" t="s">
         <v>556</v>
-      </c>
-      <c r="D255" s="58" t="s">
-        <v>557</v>
       </c>
       <c r="E255" s="58"/>
       <c r="F255" s="58"/>
@@ -9598,13 +9595,13 @@
         <v>129</v>
       </c>
       <c r="B256" s="58" t="s">
+        <v>557</v>
+      </c>
+      <c r="C256" s="58" t="s">
         <v>558</v>
       </c>
-      <c r="C256" s="58" t="s">
-        <v>559</v>
-      </c>
       <c r="D256" s="58" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E256" s="58"/>
       <c r="F256" s="58"/>
@@ -9614,13 +9611,13 @@
         <v>129</v>
       </c>
       <c r="B257" s="58" t="s">
+        <v>559</v>
+      </c>
+      <c r="C257" s="58" t="s">
         <v>560</v>
       </c>
-      <c r="C257" s="58" t="s">
-        <v>561</v>
-      </c>
       <c r="D257" s="65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E257" s="58"/>
       <c r="F257" s="58"/>
@@ -9631,10 +9628,10 @@
       </c>
       <c r="B258" s="58"/>
       <c r="C258" s="58" t="s">
+        <v>561</v>
+      </c>
+      <c r="D258" s="58" t="s">
         <v>562</v>
-      </c>
-      <c r="D258" s="58" t="s">
-        <v>563</v>
       </c>
       <c r="E258" s="58"/>
       <c r="F258" s="58"/>
@@ -9644,13 +9641,13 @@
         <v>129</v>
       </c>
       <c r="B259" s="58" t="s">
+        <v>563</v>
+      </c>
+      <c r="C259" s="58" t="s">
         <v>564</v>
       </c>
-      <c r="C259" s="58" t="s">
+      <c r="D259" s="58" t="s">
         <v>565</v>
-      </c>
-      <c r="D259" s="58" t="s">
-        <v>566</v>
       </c>
       <c r="E259" s="58"/>
       <c r="F259" s="58"/>
@@ -9660,13 +9657,13 @@
         <v>129</v>
       </c>
       <c r="B260" s="58" t="s">
+        <v>566</v>
+      </c>
+      <c r="C260" s="58" t="s">
         <v>567</v>
       </c>
-      <c r="C260" s="58" t="s">
+      <c r="D260" s="58" t="s">
         <v>568</v>
-      </c>
-      <c r="D260" s="58" t="s">
-        <v>569</v>
       </c>
       <c r="E260" s="58"/>
       <c r="F260" s="58"/>
@@ -9676,13 +9673,13 @@
         <v>129</v>
       </c>
       <c r="B261" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="C261" s="58" t="s">
         <v>570</v>
       </c>
-      <c r="C261" s="58" t="s">
-        <v>571</v>
-      </c>
       <c r="D261" s="58" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E261" s="58"/>
       <c r="F261" s="58"/>
@@ -9692,13 +9689,13 @@
         <v>129</v>
       </c>
       <c r="B262" s="58" t="s">
+        <v>571</v>
+      </c>
+      <c r="C262" s="58" t="s">
         <v>572</v>
       </c>
-      <c r="C262" s="58" t="s">
-        <v>573</v>
-      </c>
       <c r="D262" s="58" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E262" s="58"/>
       <c r="F262" s="58"/>
@@ -9708,13 +9705,13 @@
         <v>129</v>
       </c>
       <c r="B263" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C263" s="58" t="s">
         <v>574</v>
       </c>
-      <c r="C263" s="58" t="s">
-        <v>575</v>
-      </c>
       <c r="D263" s="58" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E263" s="58"/>
       <c r="F263" s="58"/>
@@ -9724,13 +9721,13 @@
         <v>129</v>
       </c>
       <c r="B264" s="58" t="s">
+        <v>575</v>
+      </c>
+      <c r="C264" s="58" t="s">
         <v>576</v>
       </c>
-      <c r="C264" s="58" t="s">
-        <v>577</v>
-      </c>
       <c r="D264" s="58" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E264" s="58"/>
       <c r="F264" s="58"/>
@@ -9740,16 +9737,16 @@
         <v>129</v>
       </c>
       <c r="B265" s="58" t="s">
+        <v>577</v>
+      </c>
+      <c r="C265" s="58" t="s">
         <v>578</v>
       </c>
-      <c r="C265" s="58" t="s">
-        <v>579</v>
-      </c>
       <c r="D265" s="58" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E265" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F265" s="58"/>
     </row>
@@ -9758,13 +9755,13 @@
         <v>129</v>
       </c>
       <c r="B266" s="58" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C266" s="58" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D266" s="65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E266" s="58"/>
       <c r="F266" s="58"/>
@@ -9774,13 +9771,13 @@
         <v>129</v>
       </c>
       <c r="B267" s="58" t="s">
+        <v>580</v>
+      </c>
+      <c r="C267" s="58" t="s">
         <v>581</v>
       </c>
-      <c r="C267" s="58" t="s">
+      <c r="D267" s="58" t="s">
         <v>582</v>
-      </c>
-      <c r="D267" s="58" t="s">
-        <v>583</v>
       </c>
       <c r="E267" s="58"/>
       <c r="F267" s="58"/>
@@ -9790,13 +9787,13 @@
         <v>129</v>
       </c>
       <c r="B268" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="C268" s="58" t="s">
         <v>584</v>
       </c>
-      <c r="C268" s="58" t="s">
-        <v>585</v>
-      </c>
       <c r="D268" s="58" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E268" s="58"/>
       <c r="F268" s="58"/>
@@ -9806,13 +9803,13 @@
         <v>129</v>
       </c>
       <c r="B269" s="58" t="s">
+        <v>585</v>
+      </c>
+      <c r="C269" s="58" t="s">
         <v>586</v>
       </c>
-      <c r="C269" s="58" t="s">
-        <v>587</v>
-      </c>
       <c r="D269" s="58" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E269" s="58"/>
       <c r="F269" s="58"/>
@@ -9822,13 +9819,13 @@
         <v>129</v>
       </c>
       <c r="B270" s="58" t="s">
+        <v>587</v>
+      </c>
+      <c r="C270" s="58" t="s">
         <v>588</v>
       </c>
-      <c r="C270" s="58" t="s">
-        <v>589</v>
-      </c>
       <c r="D270" s="58" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E270" s="58"/>
       <c r="F270" s="58"/>
@@ -9838,13 +9835,13 @@
         <v>129</v>
       </c>
       <c r="B271" s="58" t="s">
+        <v>589</v>
+      </c>
+      <c r="C271" s="58" t="s">
         <v>590</v>
       </c>
-      <c r="C271" s="58" t="s">
-        <v>591</v>
-      </c>
       <c r="D271" s="58" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E271" s="58"/>
       <c r="F271" s="58"/>
@@ -9854,16 +9851,16 @@
         <v>129</v>
       </c>
       <c r="B272" s="58" t="s">
+        <v>591</v>
+      </c>
+      <c r="C272" s="58" t="s">
         <v>592</v>
       </c>
-      <c r="C272" s="58" t="s">
-        <v>593</v>
-      </c>
       <c r="D272" s="58" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E272" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F272" s="58"/>
     </row>
@@ -9872,13 +9869,13 @@
         <v>129</v>
       </c>
       <c r="B273" s="58" t="s">
+        <v>593</v>
+      </c>
+      <c r="C273" s="58" t="s">
         <v>594</v>
       </c>
-      <c r="C273" s="58" t="s">
-        <v>595</v>
-      </c>
       <c r="D273" s="65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E273" s="58"/>
       <c r="F273" s="58"/>
@@ -9888,13 +9885,13 @@
         <v>129</v>
       </c>
       <c r="B274" s="58" t="s">
+        <v>595</v>
+      </c>
+      <c r="C274" s="58" t="s">
         <v>596</v>
       </c>
-      <c r="C274" s="58" t="s">
-        <v>597</v>
-      </c>
       <c r="D274" s="58" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E274" s="58"/>
       <c r="F274" s="58"/>
@@ -9904,13 +9901,13 @@
         <v>129</v>
       </c>
       <c r="B275" s="58" t="s">
+        <v>597</v>
+      </c>
+      <c r="C275" s="58" t="s">
         <v>598</v>
       </c>
-      <c r="C275" s="58" t="s">
-        <v>599</v>
-      </c>
       <c r="D275" s="58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E275" s="58"/>
       <c r="F275" s="58"/>
@@ -9920,13 +9917,13 @@
         <v>129</v>
       </c>
       <c r="B276" s="58" t="s">
+        <v>599</v>
+      </c>
+      <c r="C276" s="58" t="s">
         <v>600</v>
       </c>
-      <c r="C276" s="58" t="s">
-        <v>601</v>
-      </c>
       <c r="D276" s="58" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E276" s="58"/>
       <c r="F276" s="58"/>
@@ -9936,13 +9933,13 @@
         <v>129</v>
       </c>
       <c r="B277" s="58" t="s">
+        <v>601</v>
+      </c>
+      <c r="C277" s="58" t="s">
         <v>602</v>
       </c>
-      <c r="C277" s="58" t="s">
+      <c r="D277" s="58" t="s">
         <v>603</v>
-      </c>
-      <c r="D277" s="58" t="s">
-        <v>604</v>
       </c>
       <c r="E277" s="58"/>
       <c r="F277" s="58"/>
@@ -9952,13 +9949,13 @@
         <v>129</v>
       </c>
       <c r="B278" s="58" t="s">
+        <v>604</v>
+      </c>
+      <c r="C278" s="58" t="s">
         <v>605</v>
       </c>
-      <c r="C278" s="58" t="s">
+      <c r="D278" s="58" t="s">
         <v>606</v>
-      </c>
-      <c r="D278" s="58" t="s">
-        <v>607</v>
       </c>
       <c r="E278" s="58"/>
       <c r="F278" s="58"/>
@@ -9968,13 +9965,13 @@
         <v>129</v>
       </c>
       <c r="B279" s="58" t="s">
+        <v>607</v>
+      </c>
+      <c r="C279" s="58" t="s">
         <v>608</v>
       </c>
-      <c r="C279" s="58" t="s">
+      <c r="D279" s="58" t="s">
         <v>609</v>
-      </c>
-      <c r="D279" s="58" t="s">
-        <v>610</v>
       </c>
       <c r="E279" s="58"/>
       <c r="F279" s="58"/>
@@ -9984,13 +9981,13 @@
         <v>129</v>
       </c>
       <c r="B280" s="58" t="s">
+        <v>610</v>
+      </c>
+      <c r="C280" s="58" t="s">
         <v>611</v>
       </c>
-      <c r="C280" s="58" t="s">
-        <v>612</v>
-      </c>
       <c r="D280" s="58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E280" s="58"/>
       <c r="F280" s="58"/>
@@ -10000,13 +9997,13 @@
         <v>129</v>
       </c>
       <c r="B281" s="58" t="s">
+        <v>612</v>
+      </c>
+      <c r="C281" s="58" t="s">
         <v>613</v>
       </c>
-      <c r="C281" s="58" t="s">
-        <v>614</v>
-      </c>
       <c r="D281" s="58" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E281" s="58"/>
       <c r="F281" s="58"/>
@@ -10016,13 +10013,13 @@
         <v>129</v>
       </c>
       <c r="B282" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="C282" s="58" t="s">
         <v>615</v>
       </c>
-      <c r="C282" s="58" t="s">
-        <v>616</v>
-      </c>
       <c r="D282" s="58" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E282" s="58"/>
       <c r="F282" s="58"/>
@@ -10032,13 +10029,13 @@
         <v>129</v>
       </c>
       <c r="B283" s="58" t="s">
+        <v>616</v>
+      </c>
+      <c r="C283" s="58" t="s">
         <v>617</v>
       </c>
-      <c r="C283" s="58" t="s">
-        <v>618</v>
-      </c>
       <c r="D283" s="58" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E283" s="58"/>
       <c r="F283" s="58"/>
@@ -10048,13 +10045,13 @@
         <v>129</v>
       </c>
       <c r="B284" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="C284" s="58" t="s">
         <v>619</v>
       </c>
-      <c r="C284" s="58" t="s">
-        <v>620</v>
-      </c>
       <c r="D284" s="58" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E284" s="58"/>
       <c r="F284" s="58"/>
@@ -10064,13 +10061,13 @@
         <v>129</v>
       </c>
       <c r="B285" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="C285" s="58" t="s">
         <v>621</v>
       </c>
-      <c r="C285" s="58" t="s">
-        <v>622</v>
-      </c>
       <c r="D285" s="58" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E285" s="58"/>
       <c r="F285" s="58"/>
@@ -10080,13 +10077,13 @@
         <v>129</v>
       </c>
       <c r="B286" s="58" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C286" s="58" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D286" s="58" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E286" s="58"/>
       <c r="F286" s="58"/>
@@ -10096,13 +10093,13 @@
         <v>129</v>
       </c>
       <c r="B287" s="58" t="s">
+        <v>623</v>
+      </c>
+      <c r="C287" s="58" t="s">
+        <v>622</v>
+      </c>
+      <c r="D287" s="58" t="s">
         <v>624</v>
-      </c>
-      <c r="C287" s="58" t="s">
-        <v>623</v>
-      </c>
-      <c r="D287" s="58" t="s">
-        <v>625</v>
       </c>
       <c r="E287" s="58"/>
       <c r="F287" s="58"/>
@@ -10134,25 +10131,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>627</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>628</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>630</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10160,17 +10157,17 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>135</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -10179,17 +10176,17 @@
         <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>138</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -10198,17 +10195,17 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -10217,36 +10214,36 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>636</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>637</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="18" t="s">
         <v>640</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>641</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -10300,7 +10297,7 @@
   <dimension ref="A1:IV37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10316,25 +10313,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>627</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>628</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>630</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10342,17 +10339,17 @@
         <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -10361,17 +10358,17 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -10380,17 +10377,17 @@
         <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -10399,17 +10396,17 @@
         <v>150</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -10418,17 +10415,17 @@
         <v>153</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>152</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -10437,38 +10434,38 @@
         <v>156</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>649</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>650</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>651</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="D8" s="28" t="s">
         <v>652</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>653</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -10477,17 +10474,17 @@
         <v>166</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -10496,17 +10493,17 @@
         <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -10515,17 +10512,17 @@
         <v>171</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -10534,17 +10531,17 @@
         <v>173</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -10553,17 +10550,17 @@
         <v>175</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>174</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -10572,17 +10569,17 @@
         <v>177</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>176</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -10591,17 +10588,17 @@
         <v>179</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -10610,17 +10607,17 @@
         <v>181</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -10629,133 +10626,133 @@
         <v>183</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>669</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -10764,267 +10761,267 @@
         <v>159</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>158</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>683</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>689</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>691</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -11054,761 +11051,761 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>627</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>628</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>630</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>697</v>
-      </c>
       <c r="D2" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>701</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>702</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>703</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>704</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>705</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>706</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="30" t="s">
         <v>708</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>709</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>712</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>713</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>717</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>718</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C24" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>726</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>727</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>728</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>729</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>734</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C30" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>735</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>736</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>737</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C31" s="17" t="s">
+      <c r="D31" s="18" t="s">
         <v>738</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>739</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>740</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C32" s="17" t="s">
+      <c r="D32" s="18" t="s">
         <v>741</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>742</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>743</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="D33" s="18" t="s">
         <v>744</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>745</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>746</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C34" s="17" t="s">
+      <c r="D34" s="18" t="s">
         <v>747</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>748</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>749</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C35" s="17" t="s">
+      <c r="D35" s="18" t="s">
         <v>750</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>751</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>752</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C36" s="17" t="s">
+      <c r="D36" s="18" t="s">
         <v>753</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>754</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="D37" s="18" t="s">
         <v>756</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>757</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>758</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C38" s="17" t="s">
+      <c r="D38" s="18" t="s">
         <v>759</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>760</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C39" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="E39" s="14" t="s">
         <v>762</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>763</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C40" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>764</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>765</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="3"/>
@@ -11816,16 +11813,16 @@
     </row>
     <row r="41" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>766</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>767</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="3"/>
@@ -11833,73 +11830,73 @@
     </row>
     <row r="42" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C42" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>769</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>770</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C43" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>771</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="E43" s="14" t="s">
         <v>772</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>773</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C44" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="E44" s="14" t="s">
         <v>775</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>776</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C45" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>777</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>778</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="3"/>
@@ -11907,16 +11904,16 @@
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C46" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>779</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>780</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="3"/>
@@ -11924,16 +11921,16 @@
     </row>
     <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C47" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>781</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>782</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="3"/>
@@ -11941,16 +11938,16 @@
     </row>
     <row r="48" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C48" s="17" t="s">
+      <c r="D48" s="14" t="s">
         <v>784</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>785</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="3"/>
@@ -11958,16 +11955,16 @@
     </row>
     <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>786</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C49" s="17" t="s">
+      <c r="D49" s="14" t="s">
         <v>787</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>788</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="3"/>
@@ -11975,16 +11972,16 @@
     </row>
     <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>789</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C50" s="17" t="s">
+      <c r="D50" s="14" t="s">
         <v>790</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>791</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="3"/>
@@ -11992,19 +11989,19 @@
     </row>
     <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>792</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C51" s="17" t="s">
+      <c r="D51" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>794</v>
-      </c>
       <c r="E51" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -12040,450 +12037,450 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>627</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>628</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>630</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>795</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>796</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>797</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>798</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>799</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>800</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>801</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>802</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>803</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>804</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>805</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>806</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>807</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>808</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>809</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>810</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>811</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>812</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>813</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>795</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>815</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>816</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>817</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>818</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>819</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="E13" s="34" t="s">
         <v>820</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="F13" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>821</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>823</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>824</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="F15" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>826</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>828</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>829</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="F17" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>831</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>835</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>836</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>837</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>838</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>839</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>840</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -12516,87 +12513,87 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>627</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>628</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="38" t="s">
+        <v>628</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>630</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>842</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="39" t="s">
         <v>843</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="40" t="s">
         <v>844</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>845</v>
-      </c>
       <c r="F2" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>846</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>847</v>
-      </c>
       <c r="E3" s="40" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>848</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>849</v>
-      </c>
       <c r="E4" s="42" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -12682,452 +12679,452 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>627</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>628</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>630</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>850</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>851</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>852</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>854</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>855</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>858</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>527</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>859</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>528</v>
-      </c>
-      <c r="E7" s="34" t="s">
+      <c r="F7" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>860</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>862</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>863</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>864</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>865</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>866</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>867</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="D13" s="48" t="s">
         <v>871</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="E13" s="34" t="s">
+        <v>830</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>872</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>831</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>553</v>
-      </c>
-      <c r="E14" s="34" t="s">
+      <c r="F14" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>875</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>878</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>879</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>880</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>881</v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>882</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>883</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="D19" s="48" t="s">
         <v>884</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="E19" s="34" t="s">
         <v>885</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="F19" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>886</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>888</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>889</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C21" s="38" t="s">
+        <v>889</v>
+      </c>
+      <c r="D21" s="51" t="s">
         <v>890</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="E21" s="34" t="s">
         <v>891</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="F21" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" s="38" t="s">
         <v>892</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C22" s="55" t="s">
+        <v>893</v>
+      </c>
+      <c r="D22" s="55" t="s">
         <v>894</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="E22" s="55" t="s">
         <v>895</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>896</v>
       </c>
       <c r="F22" s="55" t="s">
         <v>133</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -13155,7 +13152,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>126</v>
@@ -13202,7 +13199,7 @@
         <v>141</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -13210,10 +13207,10 @@
     </row>
     <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -13224,7 +13221,7 @@
         <v>143</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -13279,7 +13276,7 @@
         <v>156</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -13287,10 +13284,10 @@
     </row>
     <row r="13" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -13397,10 +13394,10 @@
     </row>
     <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -13408,10 +13405,10 @@
     </row>
     <row r="24" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -13419,10 +13416,10 @@
     </row>
     <row r="25" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -13430,10 +13427,10 @@
     </row>
     <row r="26" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -13441,10 +13438,10 @@
     </row>
     <row r="27" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -13452,10 +13449,10 @@
     </row>
     <row r="28" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -13474,10 +13471,10 @@
     </row>
     <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -13485,10 +13482,10 @@
     </row>
     <row r="31" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -13496,10 +13493,10 @@
     </row>
     <row r="32" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -13507,10 +13504,10 @@
     </row>
     <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -13518,10 +13515,10 @@
     </row>
     <row r="34" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -13529,10 +13526,10 @@
     </row>
     <row r="35" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -13540,10 +13537,10 @@
     </row>
     <row r="36" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
@@ -13551,10 +13548,10 @@
     </row>
     <row r="37" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -13562,10 +13559,10 @@
     </row>
     <row r="38" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -13573,10 +13570,10 @@
     </row>
     <row r="39" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -13584,10 +13581,10 @@
     </row>
     <row r="40" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -13595,10 +13592,10 @@
     </row>
     <row r="41" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -13606,10 +13603,10 @@
     </row>
     <row r="42" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -13617,7 +13614,7 @@
     </row>
     <row r="43" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -13626,7 +13623,7 @@
     </row>
     <row r="44" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -13635,7 +13632,7 @@
     </row>
     <row r="45" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -13644,7 +13641,7 @@
     </row>
     <row r="46" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -13653,7 +13650,7 @@
     </row>
     <row r="47" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -13662,7 +13659,7 @@
     </row>
     <row r="48" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -13671,7 +13668,7 @@
     </row>
     <row r="49" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -13680,7 +13677,7 @@
     </row>
     <row r="50" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -13689,7 +13686,7 @@
     </row>
     <row r="51" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -13698,7 +13695,7 @@
     </row>
     <row r="52" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -13707,7 +13704,7 @@
     </row>
     <row r="53" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -13716,7 +13713,7 @@
     </row>
     <row r="54" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -13725,7 +13722,7 @@
     </row>
     <row r="55" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -13734,7 +13731,7 @@
     </row>
     <row r="56" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -13743,7 +13740,7 @@
     </row>
     <row r="57" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -13752,7 +13749,7 @@
     </row>
     <row r="58" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -13761,7 +13758,7 @@
     </row>
     <row r="59" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -13770,7 +13767,7 @@
     </row>
     <row r="60" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -13779,7 +13776,7 @@
     </row>
     <row r="61" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -13788,7 +13785,7 @@
     </row>
     <row r="62" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -13797,7 +13794,7 @@
     </row>
     <row r="63" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -13806,7 +13803,7 @@
     </row>
     <row r="64" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -13815,7 +13812,7 @@
     </row>
     <row r="65" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -13824,7 +13821,7 @@
     </row>
     <row r="66" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -13833,7 +13830,7 @@
     </row>
     <row r="67" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -13842,7 +13839,7 @@
     </row>
     <row r="68" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -13851,7 +13848,7 @@
     </row>
     <row r="69" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -13860,7 +13857,7 @@
     </row>
     <row r="70" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -13869,7 +13866,7 @@
     </row>
     <row r="71" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -13878,7 +13875,7 @@
     </row>
     <row r="72" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -13887,7 +13884,7 @@
     </row>
     <row r="73" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -13896,7 +13893,7 @@
     </row>
     <row r="74" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -13905,7 +13902,7 @@
     </row>
     <row r="75" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -13914,7 +13911,7 @@
     </row>
     <row r="76" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -13923,7 +13920,7 @@
     </row>
     <row r="77" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -13932,7 +13929,7 @@
     </row>
     <row r="78" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -13941,7 +13938,7 @@
     </row>
     <row r="79" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -13950,7 +13947,7 @@
     </row>
     <row r="80" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -13959,7 +13956,7 @@
     </row>
     <row r="81" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -13968,7 +13965,7 @@
     </row>
     <row r="82" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -13977,7 +13974,7 @@
     </row>
     <row r="83" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -13986,7 +13983,7 @@
     </row>
     <row r="84" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -13995,7 +13992,7 @@
     </row>
     <row r="85" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -14004,7 +14001,7 @@
     </row>
     <row r="86" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -14013,7 +14010,7 @@
     </row>
     <row r="87" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -14022,7 +14019,7 @@
     </row>
     <row r="88" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -14031,7 +14028,7 @@
     </row>
     <row r="89" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -14040,7 +14037,7 @@
     </row>
     <row r="90" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -14049,7 +14046,7 @@
     </row>
     <row r="91" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -14058,7 +14055,7 @@
     </row>
     <row r="92" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -14067,7 +14064,7 @@
     </row>
     <row r="93" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -14076,7 +14073,7 @@
     </row>
     <row r="94" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -14085,7 +14082,7 @@
     </row>
     <row r="95" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -14094,7 +14091,7 @@
     </row>
     <row r="96" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -14103,7 +14100,7 @@
     </row>
     <row r="97" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -14112,7 +14109,7 @@
     </row>
     <row r="98" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -14121,7 +14118,7 @@
     </row>
     <row r="99" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -14130,7 +14127,7 @@
     </row>
     <row r="100" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -14139,7 +14136,7 @@
     </row>
     <row r="101" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -14148,7 +14145,7 @@
     </row>
     <row r="102" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -14157,7 +14154,7 @@
     </row>
     <row r="103" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -14166,7 +14163,7 @@
     </row>
     <row r="104" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -14175,7 +14172,7 @@
     </row>
     <row r="105" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -14184,7 +14181,7 @@
     </row>
     <row r="106" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -14193,7 +14190,7 @@
     </row>
     <row r="107" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -14202,7 +14199,7 @@
     </row>
     <row r="108" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -14211,7 +14208,7 @@
     </row>
     <row r="109" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -14220,7 +14217,7 @@
     </row>
     <row r="110" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -14229,7 +14226,7 @@
     </row>
     <row r="111" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -14238,7 +14235,7 @@
     </row>
     <row r="112" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -14247,7 +14244,7 @@
     </row>
     <row r="113" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
@@ -14256,7 +14253,7 @@
     </row>
     <row r="114" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
@@ -14265,7 +14262,7 @@
     </row>
     <row r="115" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
@@ -14274,7 +14271,7 @@
     </row>
     <row r="116" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
@@ -14283,7 +14280,7 @@
     </row>
     <row r="117" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
@@ -14292,7 +14289,7 @@
     </row>
     <row r="118" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B118" s="15"/>
       <c r="C118" s="15"/>
@@ -14301,7 +14298,7 @@
     </row>
     <row r="119" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -14310,7 +14307,7 @@
     </row>
     <row r="120" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
@@ -14319,7 +14316,7 @@
     </row>
     <row r="121" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
@@ -14328,7 +14325,7 @@
     </row>
     <row r="122" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
@@ -14337,7 +14334,7 @@
     </row>
     <row r="123" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
@@ -14346,7 +14343,7 @@
     </row>
     <row r="124" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
@@ -14355,7 +14352,7 @@
     </row>
     <row r="125" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
@@ -14364,7 +14361,7 @@
     </row>
     <row r="126" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
@@ -14373,7 +14370,7 @@
     </row>
     <row r="127" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B127" s="15"/>
       <c r="C127" s="15"/>
@@ -14382,7 +14379,7 @@
     </row>
     <row r="128" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B128" s="15"/>
       <c r="C128" s="15"/>
@@ -14391,7 +14388,7 @@
     </row>
     <row r="129" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -14400,7 +14397,7 @@
     </row>
     <row r="130" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
@@ -14409,7 +14406,7 @@
     </row>
     <row r="131" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
@@ -14418,7 +14415,7 @@
     </row>
     <row r="132" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
@@ -14427,7 +14424,7 @@
     </row>
     <row r="133" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
@@ -14436,7 +14433,7 @@
     </row>
     <row r="134" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B134" s="15"/>
       <c r="C134" s="15"/>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10450041-0639-46A5-A9DB-E05909B8D01E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860881D9-1E13-4316-871E-5F30C1DC6AB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="255" windowWidth="23700" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2341,9 +2341,6 @@
     <t>sp800_76Test_39</t>
   </si>
   <si>
-    <t>Verify that that the CBEFF Creation Date is encoded in 8 bytes using a binary representation of "YYYYMMDDhhmmssZ"</t>
-  </si>
-  <si>
     <t>sp800_76Test_40</t>
   </si>
   <si>
@@ -2399,9 +2396,6 @@
   </si>
   <si>
     <t>sp800_76Test_47</t>
-  </si>
-  <si>
-    <t>Verify that that the facial image CBEFF Creation Date is encoded in 8 bytes using a binary representation of "YYYYMMDDhhmmssZ"</t>
   </si>
   <si>
     <t>76.48</t>
@@ -3014,6 +3008,12 @@
   </si>
   <si>
     <t>8.10.1.4</t>
+  </si>
+  <si>
+    <t>Verify that that the CBEFF Creation Date is encoded in 8 bytes using a binary representation of 'YYYYMMDDhhmmssZ'</t>
+  </si>
+  <si>
+    <t>Verify that that the facial image CBEFF Creation Date is encoded in 8 bytes using a binary representation of 'YYYYMMDDhhmmssZ'</t>
   </si>
 </sst>
 </file>
@@ -5405,7 +5405,7 @@
   <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D27" sqref="D1:D1048576"/>
+      <selection activeCell="C27" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5441,7 +5441,7 @@
         <v>129</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>131</v>
@@ -5459,7 +5459,7 @@
         <v>129</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>135</v>
@@ -5475,7 +5475,7 @@
         <v>129</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>138</v>
@@ -5491,7 +5491,7 @@
         <v>129</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>140</v>
@@ -5619,7 +5619,7 @@
         <v>129</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>161</v>
@@ -5635,7 +5635,7 @@
         <v>129</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C14" s="58" t="s">
         <v>135</v>
@@ -5651,7 +5651,7 @@
         <v>129</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>138</v>
@@ -5667,7 +5667,7 @@
         <v>129</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C16" s="58" t="s">
         <v>140</v>
@@ -5699,7 +5699,7 @@
         <v>129</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C18" s="68" t="s">
         <v>170</v>
@@ -5715,7 +5715,7 @@
         <v>129</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C19" s="68" t="s">
         <v>172</v>
@@ -5731,7 +5731,7 @@
         <v>129</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>174</v>
@@ -5747,7 +5747,7 @@
         <v>129</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>176</v>
@@ -5763,7 +5763,7 @@
         <v>129</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C22" s="58" t="s">
         <v>178</v>
@@ -5779,7 +5779,7 @@
         <v>129</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C23" s="58" t="s">
         <v>168</v>
@@ -5830,7 +5830,7 @@
         <v>164</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D26" s="69" t="s">
         <v>177</v>
@@ -5859,7 +5859,7 @@
         <v>129</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C28" s="58" t="s">
         <v>184</v>
@@ -5875,7 +5875,7 @@
         <v>129</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C29" s="58" t="s">
         <v>187</v>
@@ -5891,7 +5891,7 @@
         <v>129</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C30" s="58" t="s">
         <v>135</v>
@@ -5907,7 +5907,7 @@
         <v>129</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C31" s="58" t="s">
         <v>138</v>
@@ -5923,7 +5923,7 @@
         <v>129</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C32" s="58" t="s">
         <v>140</v>
@@ -5955,7 +5955,7 @@
         <v>129</v>
       </c>
       <c r="B34" s="68" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C34" s="58" t="s">
         <v>190</v>
@@ -5971,7 +5971,7 @@
         <v>129</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C35" s="58" t="s">
         <v>192</v>
@@ -5987,7 +5987,7 @@
         <v>129</v>
       </c>
       <c r="B36" s="68" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C36" s="58" t="s">
         <v>194</v>
@@ -6003,7 +6003,7 @@
         <v>129</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C37" s="58" t="s">
         <v>196</v>
@@ -6019,7 +6019,7 @@
         <v>129</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C38" s="58" t="s">
         <v>184</v>
@@ -6035,7 +6035,7 @@
         <v>129</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C39" s="58" t="s">
         <v>198</v>
@@ -6051,7 +6051,7 @@
         <v>129</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C40" s="58" t="s">
         <v>135</v>
@@ -6067,7 +6067,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C41" s="58" t="s">
         <v>138</v>
@@ -6083,7 +6083,7 @@
         <v>129</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C42" s="58" t="s">
         <v>140</v>
@@ -6179,7 +6179,7 @@
         <v>129</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C48" s="58" t="s">
         <v>208</v>
@@ -6195,7 +6195,7 @@
         <v>129</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C49" s="58" t="s">
         <v>135</v>
@@ -6211,7 +6211,7 @@
         <v>129</v>
       </c>
       <c r="B50" s="68" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C50" s="58" t="s">
         <v>138</v>
@@ -6227,7 +6227,7 @@
         <v>129</v>
       </c>
       <c r="B51" s="68" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C51" s="58" t="s">
         <v>140</v>
@@ -6243,7 +6243,7 @@
         <v>129</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C52" s="58" t="s">
         <v>209</v>
@@ -6259,7 +6259,7 @@
         <v>129</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C53" s="58" t="s">
         <v>211</v>
@@ -6275,7 +6275,7 @@
         <v>129</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C54" s="58" t="s">
         <v>213</v>
@@ -6291,7 +6291,7 @@
         <v>129</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C55" s="58" t="s">
         <v>215</v>
@@ -6307,7 +6307,7 @@
         <v>129</v>
       </c>
       <c r="B56" s="68" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C56" s="58" t="s">
         <v>217</v>
@@ -6323,7 +6323,7 @@
         <v>129</v>
       </c>
       <c r="B57" s="68" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C57" s="58" t="s">
         <v>184</v>
@@ -6339,7 +6339,7 @@
         <v>129</v>
       </c>
       <c r="B58" s="68" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C58" s="58" t="s">
         <v>219</v>
@@ -6355,7 +6355,7 @@
         <v>129</v>
       </c>
       <c r="B59" s="68" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C59" s="58" t="s">
         <v>135</v>
@@ -6371,7 +6371,7 @@
         <v>129</v>
       </c>
       <c r="B60" s="68" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C60" s="58" t="s">
         <v>138</v>
@@ -6387,7 +6387,7 @@
         <v>129</v>
       </c>
       <c r="B61" s="68" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C61" s="58" t="s">
         <v>140</v>
@@ -6403,7 +6403,7 @@
         <v>129</v>
       </c>
       <c r="B62" s="68" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C62" s="58" t="s">
         <v>220</v>
@@ -6419,7 +6419,7 @@
         <v>129</v>
       </c>
       <c r="B63" s="68" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C63" s="58" t="s">
         <v>222</v>
@@ -6435,7 +6435,7 @@
         <v>129</v>
       </c>
       <c r="B64" s="68" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C64" s="58" t="s">
         <v>224</v>
@@ -6451,7 +6451,7 @@
         <v>129</v>
       </c>
       <c r="B65" s="68" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C65" s="58" t="s">
         <v>184</v>
@@ -6467,7 +6467,7 @@
         <v>129</v>
       </c>
       <c r="B66" s="68" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C66" s="58" t="s">
         <v>226</v>
@@ -6485,7 +6485,7 @@
         <v>129</v>
       </c>
       <c r="B67" s="68" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C67" s="58" t="s">
         <v>135</v>
@@ -6501,7 +6501,7 @@
         <v>129</v>
       </c>
       <c r="B68" s="68" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C68" s="58" t="s">
         <v>138</v>
@@ -6517,7 +6517,7 @@
         <v>129</v>
       </c>
       <c r="B69" s="68" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C69" s="58" t="s">
         <v>140</v>
@@ -6533,7 +6533,7 @@
         <v>129</v>
       </c>
       <c r="B70" s="68" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C70" s="58" t="s">
         <v>188</v>
@@ -6549,7 +6549,7 @@
         <v>129</v>
       </c>
       <c r="B71" s="68" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C71" s="58" t="s">
         <v>190</v>
@@ -6565,7 +6565,7 @@
         <v>129</v>
       </c>
       <c r="B72" s="68" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C72" s="58" t="s">
         <v>192</v>
@@ -6581,7 +6581,7 @@
         <v>129</v>
       </c>
       <c r="B73" s="68" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C73" s="58" t="s">
         <v>196</v>
@@ -6597,7 +6597,7 @@
         <v>129</v>
       </c>
       <c r="B74" s="68" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C74" s="58" t="s">
         <v>194</v>
@@ -6613,7 +6613,7 @@
         <v>129</v>
       </c>
       <c r="B75" s="68" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C75" s="58" t="s">
         <v>184</v>
@@ -6629,7 +6629,7 @@
         <v>129</v>
       </c>
       <c r="B76" s="68" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C76" s="58" t="s">
         <v>227</v>
@@ -6647,7 +6647,7 @@
         <v>129</v>
       </c>
       <c r="B77" s="68" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C77" s="58" t="s">
         <v>135</v>
@@ -6663,7 +6663,7 @@
         <v>129</v>
       </c>
       <c r="B78" s="68" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C78" s="58" t="s">
         <v>138</v>
@@ -6679,7 +6679,7 @@
         <v>129</v>
       </c>
       <c r="B79" s="68" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C79" s="58" t="s">
         <v>140</v>
@@ -6695,7 +6695,7 @@
         <v>129</v>
       </c>
       <c r="B80" s="68" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C80" s="58" t="s">
         <v>188</v>
@@ -6711,7 +6711,7 @@
         <v>129</v>
       </c>
       <c r="B81" s="68" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C81" s="58" t="s">
         <v>190</v>
@@ -6727,7 +6727,7 @@
         <v>129</v>
       </c>
       <c r="B82" s="68" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C82" s="58" t="s">
         <v>192</v>
@@ -6743,7 +6743,7 @@
         <v>129</v>
       </c>
       <c r="B83" s="68" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C83" s="58" t="s">
         <v>194</v>
@@ -6759,7 +6759,7 @@
         <v>129</v>
       </c>
       <c r="B84" s="68" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C84" s="58" t="s">
         <v>196</v>
@@ -6775,7 +6775,7 @@
         <v>129</v>
       </c>
       <c r="B85" s="68" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C85" s="58" t="s">
         <v>184</v>
@@ -6791,7 +6791,7 @@
         <v>129</v>
       </c>
       <c r="B86" s="68" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C86" s="58" t="s">
         <v>228</v>
@@ -6809,7 +6809,7 @@
         <v>129</v>
       </c>
       <c r="B87" s="68" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C87" s="58" t="s">
         <v>135</v>
@@ -6825,7 +6825,7 @@
         <v>129</v>
       </c>
       <c r="B88" s="68" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C88" s="58" t="s">
         <v>138</v>
@@ -6841,7 +6841,7 @@
         <v>129</v>
       </c>
       <c r="B89" s="68" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C89" s="58" t="s">
         <v>140</v>
@@ -6857,7 +6857,7 @@
         <v>129</v>
       </c>
       <c r="B90" s="68" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C90" s="58" t="s">
         <v>188</v>
@@ -6873,7 +6873,7 @@
         <v>129</v>
       </c>
       <c r="B91" s="68" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C91" s="58" t="s">
         <v>190</v>
@@ -6889,7 +6889,7 @@
         <v>129</v>
       </c>
       <c r="B92" s="68" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C92" s="58" t="s">
         <v>192</v>
@@ -6905,7 +6905,7 @@
         <v>129</v>
       </c>
       <c r="B93" s="68" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C93" s="58" t="s">
         <v>194</v>
@@ -6921,7 +6921,7 @@
         <v>129</v>
       </c>
       <c r="B94" s="68" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C94" s="58" t="s">
         <v>196</v>
@@ -6937,7 +6937,7 @@
         <v>129</v>
       </c>
       <c r="B95" s="68" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C95" s="58" t="s">
         <v>184</v>
@@ -6953,7 +6953,7 @@
         <v>129</v>
       </c>
       <c r="B96" s="68" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C96" s="58" t="s">
         <v>229</v>
@@ -6971,7 +6971,7 @@
         <v>129</v>
       </c>
       <c r="B97" s="68" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C97" s="58" t="s">
         <v>135</v>
@@ -6987,7 +6987,7 @@
         <v>129</v>
       </c>
       <c r="B98" s="68" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C98" s="58" t="s">
         <v>138</v>
@@ -7003,7 +7003,7 @@
         <v>129</v>
       </c>
       <c r="B99" s="68" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C99" s="58" t="s">
         <v>140</v>
@@ -7019,7 +7019,7 @@
         <v>129</v>
       </c>
       <c r="B100" s="68" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C100" s="58" t="s">
         <v>230</v>
@@ -7035,7 +7035,7 @@
         <v>129</v>
       </c>
       <c r="B101" s="68" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C101" s="58" t="s">
         <v>232</v>
@@ -7051,7 +7051,7 @@
         <v>129</v>
       </c>
       <c r="B102" s="68" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C102" s="58" t="s">
         <v>234</v>
@@ -7067,7 +7067,7 @@
         <v>129</v>
       </c>
       <c r="B103" s="68" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C103" s="58" t="s">
         <v>236</v>
@@ -11805,7 +11805,7 @@
         <v>763</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>764</v>
+        <v>982</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="3"/>
@@ -11819,10 +11819,10 @@
         <v>695</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>765</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>766</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="3"/>
@@ -11836,13 +11836,13 @@
         <v>695</v>
       </c>
       <c r="C42" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>767</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>768</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>769</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -11855,13 +11855,13 @@
         <v>695</v>
       </c>
       <c r="C43" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="E43" s="14" t="s">
         <v>771</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>772</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -11874,13 +11874,13 @@
         <v>695</v>
       </c>
       <c r="C44" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="E44" s="14" t="s">
         <v>774</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>775</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -11893,10 +11893,10 @@
         <v>695</v>
       </c>
       <c r="C45" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>776</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>777</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="3"/>
@@ -11910,10 +11910,10 @@
         <v>695</v>
       </c>
       <c r="C46" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>778</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>779</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="3"/>
@@ -11927,10 +11927,10 @@
         <v>695</v>
       </c>
       <c r="C47" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>780</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>781</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="3"/>
@@ -11938,16 +11938,16 @@
     </row>
     <row r="48" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>695</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>784</v>
+        <v>983</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="3"/>
@@ -11955,16 +11955,16 @@
     </row>
     <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>695</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="3"/>
@@ -11972,16 +11972,16 @@
     </row>
     <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>695</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="3"/>
@@ -11989,19 +11989,19 @@
     </row>
     <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>695</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -12063,13 +12063,13 @@
         <v>390</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>794</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>795</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>796</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="14" t="s">
@@ -12082,13 +12082,13 @@
         <v>393</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="14" t="s">
@@ -12101,13 +12101,13 @@
         <v>396</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="14" t="s">
@@ -12120,13 +12120,13 @@
         <v>411</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="14" t="s">
@@ -12139,13 +12139,13 @@
         <v>399</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="14" t="s">
@@ -12158,13 +12158,13 @@
         <v>402</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="14" t="s">
@@ -12177,13 +12177,13 @@
         <v>405</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="14" t="s">
@@ -12196,13 +12196,13 @@
         <v>408</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="14" t="s">
@@ -12215,13 +12215,13 @@
         <v>414</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
@@ -12231,16 +12231,16 @@
     </row>
     <row r="11" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>813</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>794</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>815</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="14" t="s">
@@ -12253,13 +12253,13 @@
         <v>417</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="14" t="s">
@@ -12272,22 +12272,22 @@
         <v>420</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>818</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="F13" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>819</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>820</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12295,13 +12295,13 @@
         <v>423</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="14" t="s">
@@ -12314,22 +12314,22 @@
         <v>426</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>459</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>241</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12337,13 +12337,13 @@
         <v>453</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14" t="s">
@@ -12356,22 +12356,22 @@
         <v>462</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>461</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>241</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12379,10 +12379,10 @@
         <v>493</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>492</v>
@@ -12398,10 +12398,10 @@
         <v>496</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>495</v>
@@ -12417,13 +12417,13 @@
         <v>499</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
@@ -12436,13 +12436,13 @@
         <v>502</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="14" t="s">
@@ -12455,13 +12455,13 @@
         <v>507</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="14" t="s">
@@ -12474,10 +12474,10 @@
         <v>447</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>504</v>
@@ -12539,16 +12539,16 @@
         <v>429</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>841</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="40" t="s">
         <v>842</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>843</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>844</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>241</v>
@@ -12560,16 +12560,16 @@
         <v>467</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F3" s="41" t="s">
         <v>241</v>
@@ -12581,16 +12581,16 @@
         <v>450</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F4" s="41" t="s">
         <v>241</v>
@@ -12705,20 +12705,20 @@
         <v>510</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>849</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>850</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>851</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="14" t="s">
         <v>241</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12726,13 +12726,13 @@
         <v>562</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="14" t="s">
@@ -12745,10 +12745,10 @@
         <v>519</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>518</v>
@@ -12764,10 +12764,10 @@
         <v>522</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>521</v>
@@ -12783,10 +12783,10 @@
         <v>525</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>524</v>
@@ -12802,22 +12802,22 @@
         <v>528</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D7" s="48" t="s">
         <v>527</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>241</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12825,13 +12825,13 @@
         <v>531</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="14" t="s">
@@ -12844,13 +12844,13 @@
         <v>534</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="14" t="s">
@@ -12863,13 +12863,13 @@
         <v>537</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="14" t="s">
@@ -12882,10 +12882,10 @@
         <v>540</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>539</v>
@@ -12901,10 +12901,10 @@
         <v>543</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>542</v>
@@ -12914,7 +12914,7 @@
         <v>241</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12922,22 +12922,22 @@
         <v>546</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>828</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>870</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>871</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>830</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12945,22 +12945,22 @@
         <v>553</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D14" s="48" t="s">
         <v>552</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>241</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12968,10 +12968,10 @@
         <v>556</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>555</v>
@@ -12987,13 +12987,13 @@
         <v>565</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="14" t="s">
@@ -13006,13 +13006,13 @@
         <v>582</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="14" t="s">
@@ -13025,13 +13025,13 @@
         <v>568</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="14" t="s">
@@ -13044,22 +13044,22 @@
         <v>603</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>882</v>
+      </c>
+      <c r="E19" s="34" t="s">
         <v>883</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="F19" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>884</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>885</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13067,13 +13067,13 @@
         <v>606</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="14" t="s">
@@ -13086,22 +13086,22 @@
         <v>609</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C21" s="38" t="s">
+        <v>887</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>888</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>889</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="F21" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" s="38" t="s">
         <v>890</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>891</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13109,22 +13109,22 @@
         <v>624</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C22" s="55" t="s">
+        <v>891</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>892</v>
+      </c>
+      <c r="E22" s="55" t="s">
         <v>893</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>894</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>895</v>
       </c>
       <c r="F22" s="55" t="s">
         <v>133</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -13152,7 +13152,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>126</v>
@@ -14136,7 +14136,7 @@
     </row>
     <row r="101" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -14145,7 +14145,7 @@
     </row>
     <row r="102" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73827C96-9791-45D6-AC8E-B0DAC7594516}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCDE82E-A41F-426B-839E-79B4856C2E63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="255" windowWidth="23700" windowHeight="15240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="255" windowWidth="23700" windowHeight="15240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIV I Reference Tests" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="985">
   <si>
     <t>Test Case</t>
   </si>
@@ -2329,9 +2329,6 @@
     <t>sp800_76Test_39</t>
   </si>
   <si>
-    <t>Verify that that the CBEFF Creation Date is encoded in 8 bytes using a binary representation of "YYYYMMDDhhmmssZ"</t>
-  </si>
-  <si>
     <t>sp800_76Test_40</t>
   </si>
   <si>
@@ -2387,9 +2384,6 @@
   </si>
   <si>
     <t>sp800_76Test_47</t>
-  </si>
-  <si>
-    <t>Verify that that the facial image CBEFF Creation Date is encoded in 8 bytes using a binary representation of "YYYYMMDDhhmmssZ"</t>
   </si>
   <si>
     <t>76.48</t>
@@ -3014,6 +3008,15 @@
   </si>
   <si>
     <t>Test is there but I am not 100% sure if that is enough, might require additional checks</t>
+  </si>
+  <si>
+    <t>CCC Tag 0xFE present and after any tags from 73-4.4 and 73-4.5</t>
+  </si>
+  <si>
+    <t>Verify that that the CBEFF Creation Date is encoded in 8 bytes using a binary representation of """YYYYMMDDhhmmssZ"""</t>
+  </si>
+  <si>
+    <t>Verify that that the facial image CBEFF Creation Date is encoded in 8 bytes using a binary representation of """YYYYMMDDhhmmssZ"""</t>
   </si>
 </sst>
 </file>
@@ -3293,7 +3296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3456,6 +3459,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5453,7 +5459,7 @@
         <v>129</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>131</v>
@@ -5471,7 +5477,7 @@
         <v>129</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C3" s="52" t="s">
         <v>135</v>
@@ -5487,7 +5493,7 @@
         <v>129</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C4" s="52" t="s">
         <v>138</v>
@@ -5503,7 +5509,7 @@
         <v>129</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>140</v>
@@ -5538,7 +5544,7 @@
         <v>134</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>144</v>
@@ -5631,7 +5637,7 @@
         <v>129</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>160</v>
@@ -5647,7 +5653,7 @@
         <v>129</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C14" s="52" t="s">
         <v>135</v>
@@ -5663,7 +5669,7 @@
         <v>129</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>138</v>
@@ -5679,7 +5685,7 @@
         <v>129</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C16" s="52" t="s">
         <v>140</v>
@@ -5711,7 +5717,7 @@
         <v>129</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C18" s="62" t="s">
         <v>169</v>
@@ -5727,7 +5733,7 @@
         <v>129</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C19" s="62" t="s">
         <v>171</v>
@@ -5743,7 +5749,7 @@
         <v>129</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C20" s="52" t="s">
         <v>173</v>
@@ -5759,7 +5765,7 @@
         <v>129</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>175</v>
@@ -5775,7 +5781,7 @@
         <v>129</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C22" s="52" t="s">
         <v>177</v>
@@ -5791,7 +5797,7 @@
         <v>129</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>167</v>
@@ -5842,7 +5848,7 @@
         <v>163</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D26" s="63" t="s">
         <v>176</v>
@@ -5871,7 +5877,7 @@
         <v>129</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C28" s="52" t="s">
         <v>183</v>
@@ -5887,7 +5893,7 @@
         <v>129</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C29" s="52" t="s">
         <v>186</v>
@@ -5903,7 +5909,7 @@
         <v>129</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C30" s="52" t="s">
         <v>135</v>
@@ -5919,7 +5925,7 @@
         <v>129</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C31" s="52" t="s">
         <v>138</v>
@@ -5935,7 +5941,7 @@
         <v>129</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C32" s="52" t="s">
         <v>140</v>
@@ -5967,7 +5973,7 @@
         <v>129</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C34" s="52" t="s">
         <v>189</v>
@@ -5983,7 +5989,7 @@
         <v>129</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>191</v>
@@ -5999,7 +6005,7 @@
         <v>129</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C36" s="52" t="s">
         <v>193</v>
@@ -6015,7 +6021,7 @@
         <v>129</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C37" s="52" t="s">
         <v>195</v>
@@ -6031,7 +6037,7 @@
         <v>129</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>183</v>
@@ -6047,7 +6053,7 @@
         <v>129</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>197</v>
@@ -6063,7 +6069,7 @@
         <v>129</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C40" s="52" t="s">
         <v>135</v>
@@ -6079,7 +6085,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C41" s="52" t="s">
         <v>138</v>
@@ -6095,7 +6101,7 @@
         <v>129</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C42" s="52" t="s">
         <v>140</v>
@@ -6191,7 +6197,7 @@
         <v>129</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>207</v>
@@ -6207,7 +6213,7 @@
         <v>129</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C49" s="52" t="s">
         <v>135</v>
@@ -6223,7 +6229,7 @@
         <v>129</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C50" s="52" t="s">
         <v>138</v>
@@ -6239,7 +6245,7 @@
         <v>129</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C51" s="52" t="s">
         <v>140</v>
@@ -6255,7 +6261,7 @@
         <v>129</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C52" s="52" t="s">
         <v>208</v>
@@ -6271,7 +6277,7 @@
         <v>129</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C53" s="52" t="s">
         <v>210</v>
@@ -6287,7 +6293,7 @@
         <v>129</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C54" s="52" t="s">
         <v>212</v>
@@ -6303,7 +6309,7 @@
         <v>129</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C55" s="52" t="s">
         <v>214</v>
@@ -6319,7 +6325,7 @@
         <v>129</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C56" s="52" t="s">
         <v>216</v>
@@ -6335,7 +6341,7 @@
         <v>129</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C57" s="52" t="s">
         <v>183</v>
@@ -6351,7 +6357,7 @@
         <v>129</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C58" s="52" t="s">
         <v>218</v>
@@ -6367,7 +6373,7 @@
         <v>129</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C59" s="52" t="s">
         <v>135</v>
@@ -6383,7 +6389,7 @@
         <v>129</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C60" s="52" t="s">
         <v>138</v>
@@ -6399,7 +6405,7 @@
         <v>129</v>
       </c>
       <c r="B61" s="62" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C61" s="52" t="s">
         <v>140</v>
@@ -6415,7 +6421,7 @@
         <v>129</v>
       </c>
       <c r="B62" s="62" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C62" s="52" t="s">
         <v>219</v>
@@ -6431,7 +6437,7 @@
         <v>129</v>
       </c>
       <c r="B63" s="62" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C63" s="52" t="s">
         <v>221</v>
@@ -6447,7 +6453,7 @@
         <v>129</v>
       </c>
       <c r="B64" s="62" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C64" s="52" t="s">
         <v>223</v>
@@ -6463,7 +6469,7 @@
         <v>129</v>
       </c>
       <c r="B65" s="62" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C65" s="52" t="s">
         <v>183</v>
@@ -6479,7 +6485,7 @@
         <v>129</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C66" s="52" t="s">
         <v>225</v>
@@ -6497,7 +6503,7 @@
         <v>129</v>
       </c>
       <c r="B67" s="62" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C67" s="52" t="s">
         <v>135</v>
@@ -6513,7 +6519,7 @@
         <v>129</v>
       </c>
       <c r="B68" s="62" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>138</v>
@@ -6529,7 +6535,7 @@
         <v>129</v>
       </c>
       <c r="B69" s="62" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C69" s="52" t="s">
         <v>140</v>
@@ -6545,7 +6551,7 @@
         <v>129</v>
       </c>
       <c r="B70" s="62" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>187</v>
@@ -6561,7 +6567,7 @@
         <v>129</v>
       </c>
       <c r="B71" s="62" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C71" s="52" t="s">
         <v>189</v>
@@ -6577,7 +6583,7 @@
         <v>129</v>
       </c>
       <c r="B72" s="62" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>191</v>
@@ -6593,7 +6599,7 @@
         <v>129</v>
       </c>
       <c r="B73" s="62" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C73" s="52" t="s">
         <v>195</v>
@@ -6609,7 +6615,7 @@
         <v>129</v>
       </c>
       <c r="B74" s="62" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>193</v>
@@ -6625,7 +6631,7 @@
         <v>129</v>
       </c>
       <c r="B75" s="62" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C75" s="52" t="s">
         <v>183</v>
@@ -6641,7 +6647,7 @@
         <v>129</v>
       </c>
       <c r="B76" s="62" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C76" s="52" t="s">
         <v>226</v>
@@ -6659,7 +6665,7 @@
         <v>129</v>
       </c>
       <c r="B77" s="62" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C77" s="52" t="s">
         <v>135</v>
@@ -6675,7 +6681,7 @@
         <v>129</v>
       </c>
       <c r="B78" s="62" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C78" s="52" t="s">
         <v>138</v>
@@ -6691,7 +6697,7 @@
         <v>129</v>
       </c>
       <c r="B79" s="62" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C79" s="52" t="s">
         <v>140</v>
@@ -6707,7 +6713,7 @@
         <v>129</v>
       </c>
       <c r="B80" s="62" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C80" s="52" t="s">
         <v>187</v>
@@ -6723,7 +6729,7 @@
         <v>129</v>
       </c>
       <c r="B81" s="62" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C81" s="52" t="s">
         <v>189</v>
@@ -6739,7 +6745,7 @@
         <v>129</v>
       </c>
       <c r="B82" s="62" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C82" s="52" t="s">
         <v>191</v>
@@ -6755,7 +6761,7 @@
         <v>129</v>
       </c>
       <c r="B83" s="62" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C83" s="52" t="s">
         <v>193</v>
@@ -6771,7 +6777,7 @@
         <v>129</v>
       </c>
       <c r="B84" s="62" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C84" s="52" t="s">
         <v>195</v>
@@ -6787,7 +6793,7 @@
         <v>129</v>
       </c>
       <c r="B85" s="62" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C85" s="52" t="s">
         <v>183</v>
@@ -6803,7 +6809,7 @@
         <v>129</v>
       </c>
       <c r="B86" s="62" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C86" s="52" t="s">
         <v>227</v>
@@ -6821,7 +6827,7 @@
         <v>129</v>
       </c>
       <c r="B87" s="62" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C87" s="52" t="s">
         <v>135</v>
@@ -6837,7 +6843,7 @@
         <v>129</v>
       </c>
       <c r="B88" s="62" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C88" s="52" t="s">
         <v>138</v>
@@ -6853,7 +6859,7 @@
         <v>129</v>
       </c>
       <c r="B89" s="62" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C89" s="52" t="s">
         <v>140</v>
@@ -6869,7 +6875,7 @@
         <v>129</v>
       </c>
       <c r="B90" s="62" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C90" s="52" t="s">
         <v>187</v>
@@ -6885,7 +6891,7 @@
         <v>129</v>
       </c>
       <c r="B91" s="62" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C91" s="52" t="s">
         <v>189</v>
@@ -6901,7 +6907,7 @@
         <v>129</v>
       </c>
       <c r="B92" s="62" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C92" s="52" t="s">
         <v>191</v>
@@ -6917,7 +6923,7 @@
         <v>129</v>
       </c>
       <c r="B93" s="62" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C93" s="52" t="s">
         <v>193</v>
@@ -6933,7 +6939,7 @@
         <v>129</v>
       </c>
       <c r="B94" s="62" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C94" s="52" t="s">
         <v>195</v>
@@ -6949,7 +6955,7 @@
         <v>129</v>
       </c>
       <c r="B95" s="62" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C95" s="52" t="s">
         <v>183</v>
@@ -6965,7 +6971,7 @@
         <v>129</v>
       </c>
       <c r="B96" s="62" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C96" s="52" t="s">
         <v>228</v>
@@ -6983,7 +6989,7 @@
         <v>129</v>
       </c>
       <c r="B97" s="62" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>135</v>
@@ -6999,7 +7005,7 @@
         <v>129</v>
       </c>
       <c r="B98" s="62" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C98" s="52" t="s">
         <v>138</v>
@@ -7015,7 +7021,7 @@
         <v>129</v>
       </c>
       <c r="B99" s="62" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C99" s="52" t="s">
         <v>140</v>
@@ -7031,7 +7037,7 @@
         <v>129</v>
       </c>
       <c r="B100" s="62" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C100" s="52" t="s">
         <v>229</v>
@@ -7047,7 +7053,7 @@
         <v>129</v>
       </c>
       <c r="B101" s="62" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C101" s="52" t="s">
         <v>231</v>
@@ -7063,7 +7069,7 @@
         <v>129</v>
       </c>
       <c r="B102" s="62" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C102" s="52" t="s">
         <v>233</v>
@@ -7079,7 +7085,7 @@
         <v>129</v>
       </c>
       <c r="B103" s="62" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C103" s="52" t="s">
         <v>235</v>
@@ -8198,7 +8204,7 @@
         <v>360</v>
       </c>
       <c r="C168" s="52" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D168" s="52" t="s">
         <v>361</v>
@@ -8728,7 +8734,7 @@
         <v>442</v>
       </c>
       <c r="C201" s="52" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D201" s="52" t="s">
         <v>412</v>
@@ -9048,7 +9054,7 @@
         <v>475</v>
       </c>
       <c r="C221" s="52" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D221" s="52" t="s">
         <v>412</v>
@@ -10308,8 +10314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10319,7 +10325,7 @@
     <col min="3" max="3" width="23.875" style="64" customWidth="1"/>
     <col min="4" max="4" width="100" style="64" customWidth="1"/>
     <col min="5" max="6" width="22.875" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="64" customWidth="1"/>
+    <col min="7" max="7" width="20" style="64" customWidth="1"/>
     <col min="8" max="256" width="8.875" style="64" customWidth="1"/>
     <col min="257" max="16384" width="8.875" style="64"/>
   </cols>
@@ -10377,7 +10383,7 @@
         <v>641</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16" t="s">
@@ -10433,8 +10439,8 @@
       <c r="C6" s="65" t="s">
         <v>644</v>
       </c>
-      <c r="D6" s="65" t="s">
-        <v>151</v>
+      <c r="D6" s="70" t="s">
+        <v>982</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16" t="s">
@@ -10442,7 +10448,7 @@
       </c>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
         <v>155</v>
       </c>
@@ -10459,9 +10465,7 @@
       <c r="F7" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>634</v>
-      </c>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
@@ -11034,7 +11038,7 @@
         <v>133</v>
       </c>
       <c r="G37" s="69" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
   </sheetData>
@@ -11050,8 +11054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11440,7 +11444,7 @@
         <v>717</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="2" t="s">
@@ -11820,7 +11824,7 @@
         <v>759</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>760</v>
+        <v>983</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="3"/>
@@ -11834,10 +11838,10 @@
         <v>691</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>761</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>762</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="3"/>
@@ -11851,13 +11855,13 @@
         <v>691</v>
       </c>
       <c r="C42" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>763</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>764</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>765</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -11870,13 +11874,13 @@
         <v>691</v>
       </c>
       <c r="C43" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="E43" s="14" t="s">
         <v>767</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>768</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -11889,13 +11893,13 @@
         <v>691</v>
       </c>
       <c r="C44" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>769</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="E44" s="14" t="s">
         <v>770</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>771</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -11908,10 +11912,10 @@
         <v>691</v>
       </c>
       <c r="C45" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>772</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>773</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="3"/>
@@ -11925,10 +11929,10 @@
         <v>691</v>
       </c>
       <c r="C46" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>774</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>775</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="3"/>
@@ -11942,10 +11946,10 @@
         <v>691</v>
       </c>
       <c r="C47" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>776</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>777</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="3"/>
@@ -11953,16 +11957,16 @@
     </row>
     <row r="48" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>691</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>780</v>
+        <v>984</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="3"/>
@@ -11970,16 +11974,16 @@
     </row>
     <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>691</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="3"/>
@@ -11987,16 +11991,16 @@
     </row>
     <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>691</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="3"/>
@@ -12004,19 +12008,19 @@
     </row>
     <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>691</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -12078,13 +12082,13 @@
         <v>388</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>790</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>792</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="14" t="s">
@@ -12097,13 +12101,13 @@
         <v>391</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="14" t="s">
@@ -12116,13 +12120,13 @@
         <v>394</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="14" t="s">
@@ -12135,13 +12139,13 @@
         <v>409</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="14" t="s">
@@ -12154,13 +12158,13 @@
         <v>397</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="14" t="s">
@@ -12173,13 +12177,13 @@
         <v>400</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="14" t="s">
@@ -12192,13 +12196,13 @@
         <v>403</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="14" t="s">
@@ -12211,13 +12215,13 @@
         <v>406</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="14" t="s">
@@ -12230,13 +12234,13 @@
         <v>412</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
@@ -12246,16 +12250,16 @@
     </row>
     <row r="11" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>808</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>790</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>810</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="14" t="s">
@@ -12268,13 +12272,13 @@
         <v>415</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="14" t="s">
@@ -12287,22 +12291,22 @@
         <v>418</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>812</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>813</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="F13" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>814</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>815</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12310,13 +12314,13 @@
         <v>421</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="14" t="s">
@@ -12329,22 +12333,22 @@
         <v>424</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>456</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>240</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12352,13 +12356,13 @@
         <v>450</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14" t="s">
@@ -12371,22 +12375,22 @@
         <v>459</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>458</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>240</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12394,10 +12398,10 @@
         <v>490</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>489</v>
@@ -12413,10 +12417,10 @@
         <v>493</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>492</v>
@@ -12432,13 +12436,13 @@
         <v>496</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
@@ -12451,13 +12455,13 @@
         <v>499</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="14" t="s">
@@ -12470,13 +12474,13 @@
         <v>504</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="14" t="s">
@@ -12489,10 +12493,10 @@
         <v>444</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>501</v>
@@ -12554,16 +12558,16 @@
         <v>427</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>836</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="34" t="s">
         <v>837</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>838</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>839</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>240</v>
@@ -12575,16 +12579,16 @@
         <v>464</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>240</v>
@@ -12596,16 +12600,16 @@
         <v>447</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>240</v>
@@ -12722,20 +12726,20 @@
         <v>507</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>844</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>845</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>846</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="14" t="s">
         <v>240</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12743,13 +12747,13 @@
         <v>559</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="14" t="s">
@@ -12762,10 +12766,10 @@
         <v>516</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>515</v>
@@ -12781,10 +12785,10 @@
         <v>519</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>518</v>
@@ -12800,10 +12804,10 @@
         <v>522</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>521</v>
@@ -12819,22 +12823,22 @@
         <v>525</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>524</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>240</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12842,13 +12846,13 @@
         <v>528</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="14" t="s">
@@ -12861,13 +12865,13 @@
         <v>531</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="14" t="s">
@@ -12880,13 +12884,13 @@
         <v>534</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="14" t="s">
@@ -12899,10 +12903,10 @@
         <v>537</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>536</v>
@@ -12918,10 +12922,10 @@
         <v>540</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>539</v>
@@ -12937,22 +12941,22 @@
         <v>543</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>863</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>823</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>864</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>865</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12960,22 +12964,22 @@
         <v>550</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>549</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>240</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12983,10 +12987,10 @@
         <v>553</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>552</v>
@@ -13002,13 +13006,13 @@
         <v>562</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="14" t="s">
@@ -13021,13 +13025,13 @@
         <v>579</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="14" t="s">
@@ -13040,13 +13044,13 @@
         <v>565</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="14" t="s">
@@ -13059,22 +13063,22 @@
         <v>600</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>876</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>877</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="F19" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>878</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>879</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13082,13 +13086,13 @@
         <v>603</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="14" t="s">
@@ -13101,22 +13105,22 @@
         <v>606</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C21" s="32" t="s">
+        <v>881</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>882</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>883</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="F21" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>884</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>885</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13124,22 +13128,22 @@
         <v>621</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C22" s="49" t="s">
+        <v>885</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>886</v>
+      </c>
+      <c r="E22" s="49" t="s">
         <v>887</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>888</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>889</v>
       </c>
       <c r="F22" s="49" t="s">
         <v>133</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -13169,7 +13173,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>126</v>
@@ -13249,7 +13253,7 @@
         <v>144</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -14153,7 +14157,7 @@
     </row>
     <row r="101" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -14162,7 +14166,7 @@
     </row>
     <row r="102" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8448B7-B2A7-44A7-8C53-A7B1308568F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02710373-3675-4AD6-B0AE-415E4D668001}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="255" windowWidth="27930" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="986">
   <si>
     <t>Test Case</t>
   </si>
@@ -2998,6 +2998,9 @@
   </si>
   <si>
     <t xml:space="preserve">Biometric Data Block length (L) where 26 &lt;= L &lt;= 1574 </t>
+  </si>
+  <si>
+    <t>Validate that that the creation date in the PIV Patron Format is encoded in 8 bytes using a binary representation of YYYYMMDDhhmmssZ</t>
   </si>
 </sst>
 </file>
@@ -5406,7 +5409,7 @@
   <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7225,7 +7228,7 @@
         <v>261</v>
       </c>
       <c r="C112" s="61" t="s">
-        <v>262</v>
+        <v>985</v>
       </c>
       <c r="D112" s="51" t="s">
         <v>263</v>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02710373-3675-4AD6-B0AE-415E4D668001}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842AFCC-288F-4677-B5B0-7AC08FF8EF40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="255" windowWidth="27930" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -816,9 +816,6 @@
     <t>9.1.2.5</t>
   </si>
   <si>
-    <t>Validate that that the creation date in the PIV Patron Format is encoded in 8 bytes using a binary representation of “YYYYMMDDhhmmssZ”</t>
-  </si>
-  <si>
     <t>76.39</t>
   </si>
   <si>
@@ -879,9 +876,6 @@
     <t>9.1.2.12</t>
   </si>
   <si>
-    <t>Validate that the “Reserved for Future Use” field is equal to 0x00000000</t>
-  </si>
-  <si>
     <t>76.46</t>
   </si>
   <si>
@@ -1618,9 +1612,6 @@
   </si>
   <si>
     <t>11.1.2.3.3</t>
-  </si>
-  <si>
-    <t>The accessLocation for this AccessMethod is of type uniformResourceIdentifier and that the scheme is “http” (not “https”).</t>
   </si>
   <si>
     <t>PKIX.9</t>
@@ -3001,6 +2992,15 @@
   </si>
   <si>
     <t>Validate that that the creation date in the PIV Patron Format is encoded in 8 bytes using a binary representation of YYYYMMDDhhmmssZ</t>
+  </si>
+  <si>
+    <t>Validate that the “Reserved for Future Use field is equal to 0x00000000</t>
+  </si>
+  <si>
+    <t>Validate that that the creation date in the PIV Patron Format is encoded in 8 bytes using a binary representation of “YYYYMMDDhhmmssZ</t>
+  </si>
+  <si>
+    <t>The accessLocation for this AccessMethod is of type uniformResourceIdentifier and that the scheme is “http (not “https).</t>
   </si>
 </sst>
 </file>
@@ -5408,8 +5408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C1:C1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5445,7 +5445,7 @@
         <v>129</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C2" s="51" t="s">
         <v>131</v>
@@ -5463,7 +5463,7 @@
         <v>129</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>135</v>
@@ -5479,7 +5479,7 @@
         <v>129</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C4" s="51" t="s">
         <v>138</v>
@@ -5495,7 +5495,7 @@
         <v>129</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C5" s="51" t="s">
         <v>140</v>
@@ -5514,7 +5514,7 @@
         <v>130</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>142</v>
@@ -5530,7 +5530,7 @@
         <v>134</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>143</v>
@@ -5623,7 +5623,7 @@
         <v>129</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C13" s="51" t="s">
         <v>159</v>
@@ -5639,7 +5639,7 @@
         <v>129</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>135</v>
@@ -5655,7 +5655,7 @@
         <v>129</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>138</v>
@@ -5671,7 +5671,7 @@
         <v>129</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C16" s="51" t="s">
         <v>140</v>
@@ -5703,7 +5703,7 @@
         <v>129</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C18" s="61" t="s">
         <v>168</v>
@@ -5719,7 +5719,7 @@
         <v>129</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C19" s="61" t="s">
         <v>170</v>
@@ -5735,7 +5735,7 @@
         <v>129</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>172</v>
@@ -5751,7 +5751,7 @@
         <v>129</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>174</v>
@@ -5767,7 +5767,7 @@
         <v>129</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>176</v>
@@ -5783,7 +5783,7 @@
         <v>129</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C23" s="51" t="s">
         <v>166</v>
@@ -5834,7 +5834,7 @@
         <v>162</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D26" s="62" t="s">
         <v>175</v>
@@ -5853,7 +5853,7 @@
         <v>183</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E27" s="51"/>
       <c r="F27" s="51"/>
@@ -5863,7 +5863,7 @@
         <v>129</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C28" s="51" t="s">
         <v>182</v>
@@ -5879,7 +5879,7 @@
         <v>129</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>185</v>
@@ -5895,7 +5895,7 @@
         <v>129</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C30" s="51" t="s">
         <v>135</v>
@@ -5911,7 +5911,7 @@
         <v>129</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C31" s="51" t="s">
         <v>138</v>
@@ -5927,7 +5927,7 @@
         <v>129</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C32" s="51" t="s">
         <v>140</v>
@@ -5959,7 +5959,7 @@
         <v>129</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C34" s="51" t="s">
         <v>188</v>
@@ -5975,7 +5975,7 @@
         <v>129</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>190</v>
@@ -5991,7 +5991,7 @@
         <v>129</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>192</v>
@@ -6007,7 +6007,7 @@
         <v>129</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>194</v>
@@ -6023,7 +6023,7 @@
         <v>129</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C38" s="51" t="s">
         <v>182</v>
@@ -6039,7 +6039,7 @@
         <v>129</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>196</v>
@@ -6055,7 +6055,7 @@
         <v>129</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C40" s="51" t="s">
         <v>135</v>
@@ -6071,7 +6071,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C41" s="51" t="s">
         <v>138</v>
@@ -6087,7 +6087,7 @@
         <v>129</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C42" s="51" t="s">
         <v>140</v>
@@ -6183,7 +6183,7 @@
         <v>129</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C48" s="51" t="s">
         <v>206</v>
@@ -6199,7 +6199,7 @@
         <v>129</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C49" s="51" t="s">
         <v>135</v>
@@ -6215,7 +6215,7 @@
         <v>129</v>
       </c>
       <c r="B50" s="61" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C50" s="51" t="s">
         <v>138</v>
@@ -6231,7 +6231,7 @@
         <v>129</v>
       </c>
       <c r="B51" s="61" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C51" s="51" t="s">
         <v>140</v>
@@ -6247,7 +6247,7 @@
         <v>129</v>
       </c>
       <c r="B52" s="61" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>207</v>
@@ -6263,7 +6263,7 @@
         <v>129</v>
       </c>
       <c r="B53" s="61" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C53" s="51" t="s">
         <v>209</v>
@@ -6279,7 +6279,7 @@
         <v>129</v>
       </c>
       <c r="B54" s="61" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>211</v>
@@ -6295,7 +6295,7 @@
         <v>129</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C55" s="51" t="s">
         <v>213</v>
@@ -6311,7 +6311,7 @@
         <v>129</v>
       </c>
       <c r="B56" s="61" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>215</v>
@@ -6327,7 +6327,7 @@
         <v>129</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C57" s="51" t="s">
         <v>182</v>
@@ -6343,7 +6343,7 @@
         <v>129</v>
       </c>
       <c r="B58" s="61" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C58" s="51" t="s">
         <v>217</v>
@@ -6359,7 +6359,7 @@
         <v>129</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C59" s="51" t="s">
         <v>135</v>
@@ -6375,7 +6375,7 @@
         <v>129</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C60" s="51" t="s">
         <v>138</v>
@@ -6391,7 +6391,7 @@
         <v>129</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C61" s="51" t="s">
         <v>140</v>
@@ -6407,7 +6407,7 @@
         <v>129</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C62" s="51" t="s">
         <v>218</v>
@@ -6423,7 +6423,7 @@
         <v>129</v>
       </c>
       <c r="B63" s="61" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C63" s="51" t="s">
         <v>220</v>
@@ -6439,7 +6439,7 @@
         <v>129</v>
       </c>
       <c r="B64" s="61" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C64" s="51" t="s">
         <v>222</v>
@@ -6455,7 +6455,7 @@
         <v>129</v>
       </c>
       <c r="B65" s="61" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C65" s="51" t="s">
         <v>182</v>
@@ -6471,7 +6471,7 @@
         <v>129</v>
       </c>
       <c r="B66" s="61" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C66" s="51" t="s">
         <v>224</v>
@@ -6489,7 +6489,7 @@
         <v>129</v>
       </c>
       <c r="B67" s="61" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C67" s="51" t="s">
         <v>135</v>
@@ -6505,7 +6505,7 @@
         <v>129</v>
       </c>
       <c r="B68" s="61" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C68" s="51" t="s">
         <v>138</v>
@@ -6521,7 +6521,7 @@
         <v>129</v>
       </c>
       <c r="B69" s="61" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C69" s="51" t="s">
         <v>140</v>
@@ -6537,7 +6537,7 @@
         <v>129</v>
       </c>
       <c r="B70" s="61" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C70" s="51" t="s">
         <v>186</v>
@@ -6553,7 +6553,7 @@
         <v>129</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C71" s="51" t="s">
         <v>188</v>
@@ -6569,7 +6569,7 @@
         <v>129</v>
       </c>
       <c r="B72" s="61" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C72" s="51" t="s">
         <v>190</v>
@@ -6585,7 +6585,7 @@
         <v>129</v>
       </c>
       <c r="B73" s="61" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C73" s="51" t="s">
         <v>194</v>
@@ -6601,7 +6601,7 @@
         <v>129</v>
       </c>
       <c r="B74" s="61" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C74" s="51" t="s">
         <v>192</v>
@@ -6617,7 +6617,7 @@
         <v>129</v>
       </c>
       <c r="B75" s="61" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C75" s="51" t="s">
         <v>182</v>
@@ -6633,7 +6633,7 @@
         <v>129</v>
       </c>
       <c r="B76" s="61" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C76" s="51" t="s">
         <v>225</v>
@@ -6651,7 +6651,7 @@
         <v>129</v>
       </c>
       <c r="B77" s="61" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>135</v>
@@ -6667,7 +6667,7 @@
         <v>129</v>
       </c>
       <c r="B78" s="61" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C78" s="51" t="s">
         <v>138</v>
@@ -6683,7 +6683,7 @@
         <v>129</v>
       </c>
       <c r="B79" s="61" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C79" s="51" t="s">
         <v>140</v>
@@ -6699,7 +6699,7 @@
         <v>129</v>
       </c>
       <c r="B80" s="61" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C80" s="51" t="s">
         <v>186</v>
@@ -6715,7 +6715,7 @@
         <v>129</v>
       </c>
       <c r="B81" s="61" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>188</v>
@@ -6731,7 +6731,7 @@
         <v>129</v>
       </c>
       <c r="B82" s="61" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C82" s="51" t="s">
         <v>190</v>
@@ -6747,7 +6747,7 @@
         <v>129</v>
       </c>
       <c r="B83" s="61" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C83" s="51" t="s">
         <v>192</v>
@@ -6763,7 +6763,7 @@
         <v>129</v>
       </c>
       <c r="B84" s="61" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C84" s="51" t="s">
         <v>194</v>
@@ -6779,7 +6779,7 @@
         <v>129</v>
       </c>
       <c r="B85" s="61" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C85" s="51" t="s">
         <v>182</v>
@@ -6795,7 +6795,7 @@
         <v>129</v>
       </c>
       <c r="B86" s="61" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C86" s="51" t="s">
         <v>226</v>
@@ -6813,7 +6813,7 @@
         <v>129</v>
       </c>
       <c r="B87" s="61" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C87" s="51" t="s">
         <v>135</v>
@@ -6829,7 +6829,7 @@
         <v>129</v>
       </c>
       <c r="B88" s="61" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C88" s="51" t="s">
         <v>138</v>
@@ -6845,7 +6845,7 @@
         <v>129</v>
       </c>
       <c r="B89" s="61" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C89" s="51" t="s">
         <v>140</v>
@@ -6861,7 +6861,7 @@
         <v>129</v>
       </c>
       <c r="B90" s="61" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C90" s="51" t="s">
         <v>186</v>
@@ -6877,7 +6877,7 @@
         <v>129</v>
       </c>
       <c r="B91" s="61" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C91" s="51" t="s">
         <v>188</v>
@@ -6893,7 +6893,7 @@
         <v>129</v>
       </c>
       <c r="B92" s="61" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C92" s="51" t="s">
         <v>190</v>
@@ -6909,7 +6909,7 @@
         <v>129</v>
       </c>
       <c r="B93" s="61" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C93" s="51" t="s">
         <v>192</v>
@@ -6925,7 +6925,7 @@
         <v>129</v>
       </c>
       <c r="B94" s="61" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C94" s="51" t="s">
         <v>194</v>
@@ -6941,7 +6941,7 @@
         <v>129</v>
       </c>
       <c r="B95" s="61" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C95" s="51" t="s">
         <v>182</v>
@@ -6957,7 +6957,7 @@
         <v>129</v>
       </c>
       <c r="B96" s="61" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C96" s="51" t="s">
         <v>227</v>
@@ -6975,7 +6975,7 @@
         <v>129</v>
       </c>
       <c r="B97" s="61" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C97" s="51" t="s">
         <v>135</v>
@@ -6991,7 +6991,7 @@
         <v>129</v>
       </c>
       <c r="B98" s="61" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C98" s="51" t="s">
         <v>138</v>
@@ -7007,7 +7007,7 @@
         <v>129</v>
       </c>
       <c r="B99" s="61" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C99" s="51" t="s">
         <v>140</v>
@@ -7023,7 +7023,7 @@
         <v>129</v>
       </c>
       <c r="B100" s="61" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C100" s="51" t="s">
         <v>228</v>
@@ -7039,7 +7039,7 @@
         <v>129</v>
       </c>
       <c r="B101" s="61" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C101" s="51" t="s">
         <v>230</v>
@@ -7055,7 +7055,7 @@
         <v>129</v>
       </c>
       <c r="B102" s="61" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C102" s="51" t="s">
         <v>232</v>
@@ -7071,7 +7071,7 @@
         <v>129</v>
       </c>
       <c r="B103" s="61" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C103" s="51" t="s">
         <v>234</v>
@@ -7228,10 +7228,10 @@
         <v>261</v>
       </c>
       <c r="C112" s="61" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D112" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E112" s="51" t="s">
         <v>239</v>
@@ -7243,13 +7243,13 @@
         <v>129</v>
       </c>
       <c r="B113" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C113" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="C113" s="51" t="s">
+      <c r="D113" s="51" t="s">
         <v>265</v>
-      </c>
-      <c r="D113" s="51" t="s">
-        <v>266</v>
       </c>
       <c r="E113" s="51" t="s">
         <v>239</v>
@@ -7261,13 +7261,13 @@
         <v>129</v>
       </c>
       <c r="B114" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="C114" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="C114" s="51" t="s">
+      <c r="D114" s="51" t="s">
         <v>268</v>
-      </c>
-      <c r="D114" s="51" t="s">
-        <v>269</v>
       </c>
       <c r="E114" s="51" t="s">
         <v>239</v>
@@ -7279,13 +7279,13 @@
         <v>129</v>
       </c>
       <c r="B115" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="C115" s="51" t="s">
+      <c r="D115" s="51" t="s">
         <v>271</v>
-      </c>
-      <c r="D115" s="51" t="s">
-        <v>272</v>
       </c>
       <c r="E115" s="51" t="s">
         <v>239</v>
@@ -7297,13 +7297,13 @@
         <v>129</v>
       </c>
       <c r="B116" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C116" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="C116" s="51" t="s">
+      <c r="D116" s="51" t="s">
         <v>274</v>
-      </c>
-      <c r="D116" s="51" t="s">
-        <v>275</v>
       </c>
       <c r="E116" s="51" t="s">
         <v>239</v>
@@ -7315,13 +7315,13 @@
         <v>129</v>
       </c>
       <c r="B117" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="C117" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="C117" s="51" t="s">
+      <c r="D117" s="51" t="s">
         <v>277</v>
-      </c>
-      <c r="D117" s="51" t="s">
-        <v>278</v>
       </c>
       <c r="E117" s="51" t="s">
         <v>239</v>
@@ -7333,13 +7333,13 @@
         <v>129</v>
       </c>
       <c r="B118" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="C118" s="51" t="s">
+      <c r="D118" s="51" t="s">
         <v>280</v>
-      </c>
-      <c r="D118" s="51" t="s">
-        <v>281</v>
       </c>
       <c r="E118" s="51" t="s">
         <v>239</v>
@@ -7351,13 +7351,13 @@
         <v>129</v>
       </c>
       <c r="B119" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="C119" s="61" t="s">
+        <v>983</v>
+      </c>
+      <c r="D119" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="C119" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="D119" s="51" t="s">
-        <v>284</v>
       </c>
       <c r="E119" s="51" t="s">
         <v>239</v>
@@ -7369,7 +7369,7 @@
         <v>129</v>
       </c>
       <c r="B120" s="51" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C120" s="51" t="s">
         <v>237</v>
@@ -7385,7 +7385,7 @@
         <v>129</v>
       </c>
       <c r="B121" s="51" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C121" s="51" t="s">
         <v>241</v>
@@ -7401,7 +7401,7 @@
         <v>129</v>
       </c>
       <c r="B122" s="51" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C122" s="51" t="s">
         <v>244</v>
@@ -7417,7 +7417,7 @@
         <v>129</v>
       </c>
       <c r="B123" s="51" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C123" s="51" t="s">
         <v>247</v>
@@ -7435,7 +7435,7 @@
         <v>129</v>
       </c>
       <c r="B124" s="51" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C124" s="51" t="s">
         <v>250</v>
@@ -7453,7 +7453,7 @@
         <v>129</v>
       </c>
       <c r="B125" s="51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C125" s="51" t="s">
         <v>253</v>
@@ -7471,7 +7471,7 @@
         <v>129</v>
       </c>
       <c r="B126" s="51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C126" s="51" t="s">
         <v>256</v>
@@ -7489,10 +7489,10 @@
         <v>129</v>
       </c>
       <c r="B127" s="51" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C127" s="51" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D127" s="51" t="s">
         <v>260</v>
@@ -7507,13 +7507,13 @@
         <v>129</v>
       </c>
       <c r="B128" s="51" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C128" s="51" t="s">
+        <v>984</v>
+      </c>
+      <c r="D128" s="51" t="s">
         <v>262</v>
-      </c>
-      <c r="D128" s="51" t="s">
-        <v>263</v>
       </c>
       <c r="E128" s="51" t="s">
         <v>239</v>
@@ -7525,13 +7525,13 @@
         <v>129</v>
       </c>
       <c r="B129" s="51" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C129" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="D129" s="51" t="s">
         <v>265</v>
-      </c>
-      <c r="D129" s="51" t="s">
-        <v>266</v>
       </c>
       <c r="E129" s="51" t="s">
         <v>239</v>
@@ -7543,13 +7543,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C130" s="51" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D130" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E130" s="51" t="s">
         <v>239</v>
@@ -7561,13 +7561,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C131" s="51" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D131" s="51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E131" s="51" t="s">
         <v>239</v>
@@ -7579,13 +7579,13 @@
         <v>129</v>
       </c>
       <c r="B132" s="51" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C132" s="51" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D132" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E132" s="51" t="s">
         <v>239</v>
@@ -7597,13 +7597,13 @@
         <v>129</v>
       </c>
       <c r="B133" s="51" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C133" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="D133" s="51" t="s">
         <v>277</v>
-      </c>
-      <c r="D133" s="51" t="s">
-        <v>278</v>
       </c>
       <c r="E133" s="51" t="s">
         <v>239</v>
@@ -7615,13 +7615,13 @@
         <v>129</v>
       </c>
       <c r="B134" s="51" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C134" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="D134" s="51" t="s">
         <v>280</v>
-      </c>
-      <c r="D134" s="51" t="s">
-        <v>281</v>
       </c>
       <c r="E134" s="51" t="s">
         <v>239</v>
@@ -7633,13 +7633,13 @@
         <v>129</v>
       </c>
       <c r="B135" s="51" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>283</v>
+        <v>983</v>
       </c>
       <c r="D135" s="51" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E135" s="51" t="s">
         <v>239</v>
@@ -7651,7 +7651,7 @@
         <v>129</v>
       </c>
       <c r="B136" s="51" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C136" s="51" t="s">
         <v>237</v>
@@ -7667,7 +7667,7 @@
         <v>129</v>
       </c>
       <c r="B137" s="51" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C137" s="51" t="s">
         <v>241</v>
@@ -7683,7 +7683,7 @@
         <v>129</v>
       </c>
       <c r="B138" s="51" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C138" s="51" t="s">
         <v>244</v>
@@ -7699,7 +7699,7 @@
         <v>129</v>
       </c>
       <c r="B139" s="51" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C139" s="51" t="s">
         <v>247</v>
@@ -7717,10 +7717,10 @@
         <v>129</v>
       </c>
       <c r="B140" s="51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D140" s="51" t="s">
         <v>251</v>
@@ -7735,7 +7735,7 @@
         <v>129</v>
       </c>
       <c r="B141" s="51" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C141" s="51" t="s">
         <v>253</v>
@@ -7753,10 +7753,10 @@
         <v>129</v>
       </c>
       <c r="B142" s="51" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C142" s="51" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D142" s="51" t="s">
         <v>257</v>
@@ -7771,13 +7771,13 @@
         <v>129</v>
       </c>
       <c r="B143" s="51" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C143" s="51" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D143" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E143" s="51"/>
       <c r="F143" s="51"/>
@@ -7787,13 +7787,13 @@
         <v>129</v>
       </c>
       <c r="B144" s="51" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C144" s="51" t="s">
+        <v>984</v>
+      </c>
+      <c r="D144" s="51" t="s">
         <v>262</v>
-      </c>
-      <c r="D144" s="51" t="s">
-        <v>263</v>
       </c>
       <c r="E144" s="51" t="s">
         <v>239</v>
@@ -7805,13 +7805,13 @@
         <v>129</v>
       </c>
       <c r="B145" s="51" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C145" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="D145" s="51" t="s">
         <v>265</v>
-      </c>
-      <c r="D145" s="51" t="s">
-        <v>266</v>
       </c>
       <c r="E145" s="51" t="s">
         <v>239</v>
@@ -7823,13 +7823,13 @@
         <v>129</v>
       </c>
       <c r="B146" s="51" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C146" s="51" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D146" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E146" s="51" t="s">
         <v>239</v>
@@ -7841,13 +7841,13 @@
         <v>129</v>
       </c>
       <c r="B147" s="51" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C147" s="51" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D147" s="51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E147" s="51" t="s">
         <v>239</v>
@@ -7859,13 +7859,13 @@
         <v>129</v>
       </c>
       <c r="B148" s="51" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C148" s="51" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D148" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E148" s="51" t="s">
         <v>239</v>
@@ -7877,13 +7877,13 @@
         <v>129</v>
       </c>
       <c r="B149" s="51" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C149" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="D149" s="51" t="s">
         <v>277</v>
-      </c>
-      <c r="D149" s="51" t="s">
-        <v>278</v>
       </c>
       <c r="E149" s="51" t="s">
         <v>239</v>
@@ -7895,13 +7895,13 @@
         <v>129</v>
       </c>
       <c r="B150" s="51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C150" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="D150" s="51" t="s">
         <v>280</v>
-      </c>
-      <c r="D150" s="51" t="s">
-        <v>281</v>
       </c>
       <c r="E150" s="51" t="s">
         <v>239</v>
@@ -7913,13 +7913,13 @@
         <v>129</v>
       </c>
       <c r="B151" s="51" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C151" s="51" t="s">
-        <v>283</v>
+        <v>983</v>
       </c>
       <c r="D151" s="51" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E151" s="51" t="s">
         <v>239</v>
@@ -7931,13 +7931,13 @@
         <v>129</v>
       </c>
       <c r="B152" s="51" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C152" s="51" t="s">
         <v>241</v>
       </c>
       <c r="D152" s="51" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E152" s="51"/>
       <c r="F152" s="51"/>
@@ -7947,13 +7947,13 @@
         <v>129</v>
       </c>
       <c r="B153" s="51" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C153" s="51" t="s">
         <v>244</v>
       </c>
       <c r="D153" s="51" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E153" s="51"/>
       <c r="F153" s="51"/>
@@ -7963,13 +7963,13 @@
         <v>129</v>
       </c>
       <c r="B154" s="51" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C154" s="51" t="s">
         <v>247</v>
       </c>
       <c r="D154" s="51" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E154" s="51"/>
       <c r="F154" s="51"/>
@@ -7979,13 +7979,13 @@
         <v>129</v>
       </c>
       <c r="B155" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C155" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="D155" s="51" t="s">
         <v>327</v>
-      </c>
-      <c r="C155" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="D155" s="51" t="s">
-        <v>329</v>
       </c>
       <c r="E155" s="51"/>
       <c r="F155" s="51"/>
@@ -7995,13 +7995,13 @@
         <v>129</v>
       </c>
       <c r="B156" s="51" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C156" s="51" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D156" s="51" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E156" s="51"/>
       <c r="F156" s="51"/>
@@ -8011,13 +8011,13 @@
         <v>129</v>
       </c>
       <c r="B157" s="51" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C157" s="51" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D157" s="51" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E157" s="51"/>
       <c r="F157" s="51"/>
@@ -8027,13 +8027,13 @@
         <v>129</v>
       </c>
       <c r="B158" s="51" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C158" s="51" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D158" s="51" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E158" s="51"/>
       <c r="F158" s="51"/>
@@ -8043,13 +8043,13 @@
         <v>129</v>
       </c>
       <c r="B159" s="51" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C159" s="51" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D159" s="51" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E159" s="51"/>
       <c r="F159" s="51"/>
@@ -8059,13 +8059,13 @@
         <v>129</v>
       </c>
       <c r="B160" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="C160" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="D160" s="51" t="s">
         <v>336</v>
-      </c>
-      <c r="C160" s="51" t="s">
-        <v>337</v>
-      </c>
-      <c r="D160" s="51" t="s">
-        <v>338</v>
       </c>
       <c r="E160" s="51"/>
       <c r="F160" s="51"/>
@@ -8075,13 +8075,13 @@
         <v>129</v>
       </c>
       <c r="B161" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="C161" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="D161" s="51" t="s">
         <v>339</v>
-      </c>
-      <c r="C161" s="51" t="s">
-        <v>340</v>
-      </c>
-      <c r="D161" s="51" t="s">
-        <v>341</v>
       </c>
       <c r="E161" s="51"/>
       <c r="F161" s="51"/>
@@ -8091,13 +8091,13 @@
         <v>129</v>
       </c>
       <c r="B162" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="C162" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="D162" s="51" t="s">
         <v>342</v>
-      </c>
-      <c r="C162" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="D162" s="51" t="s">
-        <v>344</v>
       </c>
       <c r="E162" s="51"/>
       <c r="F162" s="51"/>
@@ -8107,13 +8107,13 @@
         <v>129</v>
       </c>
       <c r="B163" s="51" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C163" s="51" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D163" s="55" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E163" s="51"/>
       <c r="F163" s="51"/>
@@ -8123,13 +8123,13 @@
         <v>129</v>
       </c>
       <c r="B164" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="C164" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="D164" s="51" t="s">
         <v>347</v>
-      </c>
-      <c r="C164" s="51" t="s">
-        <v>348</v>
-      </c>
-      <c r="D164" s="51" t="s">
-        <v>349</v>
       </c>
       <c r="E164" s="51"/>
       <c r="F164" s="51"/>
@@ -8139,13 +8139,13 @@
         <v>129</v>
       </c>
       <c r="B165" s="51" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C165" s="51" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D165" s="56" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E165" s="51"/>
       <c r="F165" s="51"/>
@@ -8155,13 +8155,13 @@
         <v>129</v>
       </c>
       <c r="B166" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="C166" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="D166" s="51" t="s">
         <v>351</v>
-      </c>
-      <c r="C166" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="D166" s="51" t="s">
-        <v>353</v>
       </c>
       <c r="E166" s="51"/>
       <c r="F166" s="51"/>
@@ -8171,13 +8171,13 @@
         <v>129</v>
       </c>
       <c r="B167" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="C167" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="D167" s="51" t="s">
         <v>354</v>
-      </c>
-      <c r="C167" s="51" t="s">
-        <v>355</v>
-      </c>
-      <c r="D167" s="51" t="s">
-        <v>356</v>
       </c>
       <c r="E167" s="51"/>
       <c r="F167" s="51"/>
@@ -8187,13 +8187,13 @@
         <v>129</v>
       </c>
       <c r="B168" s="51" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C168" s="51" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D168" s="51" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E168" s="51"/>
       <c r="F168" s="51"/>
@@ -8203,13 +8203,13 @@
         <v>129</v>
       </c>
       <c r="B169" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="C169" s="51" t="s">
         <v>357</v>
       </c>
-      <c r="C169" s="51" t="s">
-        <v>359</v>
-      </c>
       <c r="D169" s="51" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E169" s="51"/>
       <c r="F169" s="51"/>
@@ -8219,13 +8219,13 @@
         <v>129</v>
       </c>
       <c r="B170" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="C170" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="D170" s="51" t="s">
         <v>361</v>
-      </c>
-      <c r="C170" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="D170" s="51" t="s">
-        <v>363</v>
       </c>
       <c r="E170" s="51"/>
       <c r="F170" s="51"/>
@@ -8235,13 +8235,13 @@
         <v>129</v>
       </c>
       <c r="B171" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="C171" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="D171" s="51" t="s">
         <v>364</v>
-      </c>
-      <c r="C171" s="51" t="s">
-        <v>365</v>
-      </c>
-      <c r="D171" s="51" t="s">
-        <v>366</v>
       </c>
       <c r="E171" s="51"/>
       <c r="F171" s="51"/>
@@ -8251,10 +8251,10 @@
         <v>129</v>
       </c>
       <c r="B172" s="51" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C172" s="51" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D172" s="57"/>
       <c r="E172" s="51"/>
@@ -8265,10 +8265,10 @@
         <v>129</v>
       </c>
       <c r="B173" s="51" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C173" s="51" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D173" s="51" t="s">
         <v>204</v>
@@ -8281,10 +8281,10 @@
         <v>129</v>
       </c>
       <c r="B174" s="51" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C174" s="51" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D174" s="51" t="s">
         <v>198</v>
@@ -8297,10 +8297,10 @@
         <v>129</v>
       </c>
       <c r="B175" s="51" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C175" s="51" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D175" s="51" t="s">
         <v>200</v>
@@ -8313,10 +8313,10 @@
         <v>129</v>
       </c>
       <c r="B176" s="51" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C176" s="51" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D176" s="51" t="s">
         <v>202</v>
@@ -8329,13 +8329,13 @@
         <v>129</v>
       </c>
       <c r="B177" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="C177" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="D177" s="51" t="s">
         <v>377</v>
-      </c>
-      <c r="C177" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="D177" s="51" t="s">
-        <v>379</v>
       </c>
       <c r="E177" s="51"/>
       <c r="F177" s="51"/>
@@ -8345,13 +8345,13 @@
         <v>129</v>
       </c>
       <c r="B178" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="C178" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="D178" s="51" t="s">
         <v>380</v>
-      </c>
-      <c r="C178" s="51" t="s">
-        <v>381</v>
-      </c>
-      <c r="D178" s="51" t="s">
-        <v>382</v>
       </c>
       <c r="E178" s="51"/>
       <c r="F178" s="51"/>
@@ -8361,13 +8361,13 @@
         <v>129</v>
       </c>
       <c r="B179" s="51" t="s">
+        <v>381</v>
+      </c>
+      <c r="C179" s="51" t="s">
+        <v>382</v>
+      </c>
+      <c r="D179" s="51" t="s">
         <v>383</v>
-      </c>
-      <c r="C179" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="D179" s="51" t="s">
-        <v>385</v>
       </c>
       <c r="E179" s="51" t="s">
         <v>239</v>
@@ -8379,13 +8379,13 @@
         <v>129</v>
       </c>
       <c r="B180" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="C180" s="51" t="s">
+        <v>385</v>
+      </c>
+      <c r="D180" s="51" t="s">
         <v>386</v>
-      </c>
-      <c r="C180" s="51" t="s">
-        <v>387</v>
-      </c>
-      <c r="D180" s="51" t="s">
-        <v>388</v>
       </c>
       <c r="E180" s="51"/>
       <c r="F180" s="51"/>
@@ -8395,13 +8395,13 @@
         <v>129</v>
       </c>
       <c r="B181" s="51" t="s">
+        <v>387</v>
+      </c>
+      <c r="C181" s="51" t="s">
+        <v>388</v>
+      </c>
+      <c r="D181" s="51" t="s">
         <v>389</v>
-      </c>
-      <c r="C181" s="51" t="s">
-        <v>390</v>
-      </c>
-      <c r="D181" s="51" t="s">
-        <v>391</v>
       </c>
       <c r="E181" s="51"/>
       <c r="F181" s="51"/>
@@ -8411,13 +8411,13 @@
         <v>129</v>
       </c>
       <c r="B182" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="C182" s="51" t="s">
+        <v>391</v>
+      </c>
+      <c r="D182" s="51" t="s">
         <v>392</v>
-      </c>
-      <c r="C182" s="51" t="s">
-        <v>393</v>
-      </c>
-      <c r="D182" s="51" t="s">
-        <v>394</v>
       </c>
       <c r="E182" s="51"/>
       <c r="F182" s="51"/>
@@ -8427,13 +8427,13 @@
         <v>129</v>
       </c>
       <c r="B183" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="C183" s="51" t="s">
+        <v>394</v>
+      </c>
+      <c r="D183" s="51" t="s">
         <v>395</v>
-      </c>
-      <c r="C183" s="51" t="s">
-        <v>396</v>
-      </c>
-      <c r="D183" s="51" t="s">
-        <v>397</v>
       </c>
       <c r="E183" s="51"/>
       <c r="F183" s="51"/>
@@ -8443,13 +8443,13 @@
         <v>129</v>
       </c>
       <c r="B184" s="51" t="s">
+        <v>396</v>
+      </c>
+      <c r="C184" s="51" t="s">
+        <v>397</v>
+      </c>
+      <c r="D184" s="51" t="s">
         <v>398</v>
-      </c>
-      <c r="C184" s="51" t="s">
-        <v>399</v>
-      </c>
-      <c r="D184" s="51" t="s">
-        <v>400</v>
       </c>
       <c r="E184" s="51"/>
       <c r="F184" s="51"/>
@@ -8459,13 +8459,13 @@
         <v>129</v>
       </c>
       <c r="B185" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="C185" s="51" t="s">
+        <v>400</v>
+      </c>
+      <c r="D185" s="51" t="s">
         <v>401</v>
-      </c>
-      <c r="C185" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="D185" s="51" t="s">
-        <v>403</v>
       </c>
       <c r="E185" s="51"/>
       <c r="F185" s="51"/>
@@ -8475,13 +8475,13 @@
         <v>129</v>
       </c>
       <c r="B186" s="51" t="s">
+        <v>402</v>
+      </c>
+      <c r="C186" s="51" t="s">
+        <v>403</v>
+      </c>
+      <c r="D186" s="51" t="s">
         <v>404</v>
-      </c>
-      <c r="C186" s="51" t="s">
-        <v>405</v>
-      </c>
-      <c r="D186" s="51" t="s">
-        <v>406</v>
       </c>
       <c r="E186" s="51"/>
       <c r="F186" s="51"/>
@@ -8491,13 +8491,13 @@
         <v>129</v>
       </c>
       <c r="B187" s="51" t="s">
+        <v>405</v>
+      </c>
+      <c r="C187" s="51" t="s">
+        <v>406</v>
+      </c>
+      <c r="D187" s="51" t="s">
         <v>407</v>
-      </c>
-      <c r="C187" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="D187" s="51" t="s">
-        <v>409</v>
       </c>
       <c r="E187" s="51"/>
       <c r="F187" s="51"/>
@@ -8507,13 +8507,13 @@
         <v>129</v>
       </c>
       <c r="B188" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="C188" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="D188" s="51" t="s">
         <v>410</v>
-      </c>
-      <c r="C188" s="51" t="s">
-        <v>411</v>
-      </c>
-      <c r="D188" s="51" t="s">
-        <v>412</v>
       </c>
       <c r="E188" s="51"/>
       <c r="F188" s="51"/>
@@ -8523,13 +8523,13 @@
         <v>129</v>
       </c>
       <c r="B189" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="C189" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="D189" s="51" t="s">
         <v>413</v>
-      </c>
-      <c r="C189" s="58" t="s">
-        <v>414</v>
-      </c>
-      <c r="D189" s="51" t="s">
-        <v>415</v>
       </c>
       <c r="E189" s="51"/>
       <c r="F189" s="51"/>
@@ -8539,13 +8539,13 @@
         <v>129</v>
       </c>
       <c r="B190" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C190" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="D190" s="51" t="s">
         <v>416</v>
-      </c>
-      <c r="C190" s="51" t="s">
-        <v>417</v>
-      </c>
-      <c r="D190" s="51" t="s">
-        <v>418</v>
       </c>
       <c r="E190" s="51"/>
       <c r="F190" s="51"/>
@@ -8555,13 +8555,13 @@
         <v>129</v>
       </c>
       <c r="B191" s="51" t="s">
+        <v>417</v>
+      </c>
+      <c r="C191" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="D191" s="51" t="s">
         <v>419</v>
-      </c>
-      <c r="C191" s="51" t="s">
-        <v>420</v>
-      </c>
-      <c r="D191" s="51" t="s">
-        <v>421</v>
       </c>
       <c r="E191" s="51" t="s">
         <v>239</v>
@@ -8573,13 +8573,13 @@
         <v>129</v>
       </c>
       <c r="B192" s="51" t="s">
+        <v>420</v>
+      </c>
+      <c r="C192" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="D192" s="51" t="s">
         <v>422</v>
-      </c>
-      <c r="C192" s="51" t="s">
-        <v>423</v>
-      </c>
-      <c r="D192" s="51" t="s">
-        <v>424</v>
       </c>
       <c r="E192" s="51"/>
       <c r="F192" s="51"/>
@@ -8589,13 +8589,13 @@
         <v>129</v>
       </c>
       <c r="B193" s="51" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C193" s="51" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D193" s="51" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E193" s="51"/>
       <c r="F193" s="51"/>
@@ -8605,13 +8605,13 @@
         <v>129</v>
       </c>
       <c r="B194" s="51" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C194" s="51" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D194" s="51" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E194" s="51"/>
       <c r="F194" s="51"/>
@@ -8621,13 +8621,13 @@
         <v>129</v>
       </c>
       <c r="B195" s="51" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C195" s="51" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D195" s="51" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E195" s="51"/>
       <c r="F195" s="51"/>
@@ -8637,13 +8637,13 @@
         <v>129</v>
       </c>
       <c r="B196" s="51" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C196" s="51" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D196" s="51" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E196" s="51"/>
       <c r="F196" s="51"/>
@@ -8653,13 +8653,13 @@
         <v>129</v>
       </c>
       <c r="B197" s="51" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C197" s="51" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D197" s="51" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E197" s="51"/>
       <c r="F197" s="51"/>
@@ -8669,13 +8669,13 @@
         <v>129</v>
       </c>
       <c r="B198" s="51" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C198" s="51" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D198" s="51" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E198" s="51"/>
       <c r="F198" s="51"/>
@@ -8685,13 +8685,13 @@
         <v>129</v>
       </c>
       <c r="B199" s="51" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C199" s="51" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D199" s="51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E199" s="51"/>
       <c r="F199" s="51"/>
@@ -8701,13 +8701,13 @@
         <v>129</v>
       </c>
       <c r="B200" s="51" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C200" s="51" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D200" s="51" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E200" s="51"/>
       <c r="F200" s="51"/>
@@ -8717,13 +8717,13 @@
         <v>129</v>
       </c>
       <c r="B201" s="51" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C201" s="51" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D201" s="51" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E201" s="51"/>
       <c r="F201" s="51"/>
@@ -8733,13 +8733,13 @@
         <v>129</v>
       </c>
       <c r="B202" s="51" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C202" s="51" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D202" s="51" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E202" s="51"/>
       <c r="F202" s="51"/>
@@ -8749,13 +8749,13 @@
         <v>129</v>
       </c>
       <c r="B203" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="C203" s="51" t="s">
+        <v>441</v>
+      </c>
+      <c r="D203" s="51" t="s">
         <v>442</v>
-      </c>
-      <c r="C203" s="51" t="s">
-        <v>443</v>
-      </c>
-      <c r="D203" s="51" t="s">
-        <v>444</v>
       </c>
       <c r="E203" s="51"/>
       <c r="F203" s="51"/>
@@ -8765,13 +8765,13 @@
         <v>129</v>
       </c>
       <c r="B204" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="C204" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="D204" s="51" t="s">
         <v>445</v>
-      </c>
-      <c r="C204" s="51" t="s">
-        <v>446</v>
-      </c>
-      <c r="D204" s="51" t="s">
-        <v>447</v>
       </c>
       <c r="E204" s="51"/>
       <c r="F204" s="51"/>
@@ -8781,13 +8781,13 @@
         <v>129</v>
       </c>
       <c r="B205" s="51" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C205" s="51" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D205" s="51" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E205" s="51"/>
       <c r="F205" s="51"/>
@@ -8797,13 +8797,13 @@
         <v>129</v>
       </c>
       <c r="B206" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C206" s="58" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D206" s="51" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E206" s="51"/>
       <c r="F206" s="51"/>
@@ -8813,13 +8813,13 @@
         <v>129</v>
       </c>
       <c r="B207" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C207" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="D207" s="51" t="s">
         <v>416</v>
-      </c>
-      <c r="C207" s="51" t="s">
-        <v>451</v>
-      </c>
-      <c r="D207" s="51" t="s">
-        <v>418</v>
       </c>
       <c r="E207" s="51"/>
       <c r="F207" s="51"/>
@@ -8829,13 +8829,13 @@
         <v>129</v>
       </c>
       <c r="B208" s="51" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C208" s="51" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D208" s="51" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E208" s="51"/>
       <c r="F208" s="51"/>
@@ -8845,13 +8845,13 @@
         <v>129</v>
       </c>
       <c r="B209" s="51" t="s">
+        <v>452</v>
+      </c>
+      <c r="C209" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="D209" s="51" t="s">
         <v>454</v>
-      </c>
-      <c r="C209" s="51" t="s">
-        <v>455</v>
-      </c>
-      <c r="D209" s="51" t="s">
-        <v>456</v>
       </c>
       <c r="E209" s="51"/>
       <c r="F209" s="51"/>
@@ -8861,13 +8861,13 @@
         <v>129</v>
       </c>
       <c r="B210" s="51" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C210" s="51" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D210" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E210" s="51"/>
       <c r="F210" s="51"/>
@@ -8877,13 +8877,13 @@
         <v>129</v>
       </c>
       <c r="B211" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="C211" s="51" t="s">
+        <v>458</v>
+      </c>
+      <c r="D211" s="51" t="s">
         <v>459</v>
-      </c>
-      <c r="C211" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="D211" s="51" t="s">
-        <v>461</v>
       </c>
       <c r="E211" s="51"/>
       <c r="F211" s="51"/>
@@ -8893,13 +8893,13 @@
         <v>129</v>
       </c>
       <c r="B212" s="51" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C212" s="51" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D212" s="51" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E212" s="51"/>
       <c r="F212" s="51"/>
@@ -8909,13 +8909,13 @@
         <v>129</v>
       </c>
       <c r="B213" s="51" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C213" s="51" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D213" s="51" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E213" s="51"/>
       <c r="F213" s="51"/>
@@ -8925,13 +8925,13 @@
         <v>129</v>
       </c>
       <c r="B214" s="51" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C214" s="51" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D214" s="51" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E214" s="51"/>
       <c r="F214" s="51"/>
@@ -8941,13 +8941,13 @@
         <v>129</v>
       </c>
       <c r="B215" s="51" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C215" s="51" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D215" s="51" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E215" s="51"/>
       <c r="F215" s="51"/>
@@ -8957,13 +8957,13 @@
         <v>129</v>
       </c>
       <c r="B216" s="51" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C216" s="51" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D216" s="51" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E216" s="51"/>
       <c r="F216" s="51"/>
@@ -8973,13 +8973,13 @@
         <v>129</v>
       </c>
       <c r="B217" s="51" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C217" s="51" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D217" s="51" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E217" s="51"/>
       <c r="F217" s="51"/>
@@ -8989,13 +8989,13 @@
         <v>129</v>
       </c>
       <c r="B218" s="51" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C218" s="51" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D218" s="51" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E218" s="51"/>
       <c r="F218" s="51"/>
@@ -9005,13 +9005,13 @@
         <v>129</v>
       </c>
       <c r="B219" s="51" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C219" s="51" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D219" s="51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E219" s="51"/>
       <c r="F219" s="51"/>
@@ -9021,13 +9021,13 @@
         <v>129</v>
       </c>
       <c r="B220" s="51" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C220" s="51" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D220" s="51" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E220" s="51"/>
       <c r="F220" s="51"/>
@@ -9037,13 +9037,13 @@
         <v>129</v>
       </c>
       <c r="B221" s="51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C221" s="51" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D221" s="51" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E221" s="51"/>
       <c r="F221" s="51"/>
@@ -9053,13 +9053,13 @@
         <v>129</v>
       </c>
       <c r="B222" s="51" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C222" s="51" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D222" s="51" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E222" s="51"/>
       <c r="F222" s="51"/>
@@ -9069,13 +9069,13 @@
         <v>129</v>
       </c>
       <c r="B223" s="51" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C223" s="51" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D223" s="51" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E223" s="51"/>
       <c r="F223" s="51"/>
@@ -9085,13 +9085,13 @@
         <v>129</v>
       </c>
       <c r="B224" s="51" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C224" s="51" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D224" s="51" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E224" s="51"/>
       <c r="F224" s="51"/>
@@ -9101,13 +9101,13 @@
         <v>129</v>
       </c>
       <c r="B225" s="51" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C225" s="51" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D225" s="51" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E225" s="51"/>
       <c r="F225" s="51"/>
@@ -9117,13 +9117,13 @@
         <v>129</v>
       </c>
       <c r="B226" s="51" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C226" s="58" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D226" s="51" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E226" s="51"/>
       <c r="F226" s="51"/>
@@ -9133,13 +9133,13 @@
         <v>129</v>
       </c>
       <c r="B227" s="51" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C227" s="51" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D227" s="51" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E227" s="51"/>
       <c r="F227" s="51"/>
@@ -9149,13 +9149,13 @@
         <v>129</v>
       </c>
       <c r="B228" s="51" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C228" s="51" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D228" s="51" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E228" s="51"/>
       <c r="F228" s="51"/>
@@ -9165,13 +9165,13 @@
         <v>129</v>
       </c>
       <c r="B229" s="51" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C229" s="51" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D229" s="51" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E229" s="51"/>
       <c r="F229" s="51"/>
@@ -9181,17 +9181,17 @@
         <v>129</v>
       </c>
       <c r="B230" s="51" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C230" s="51" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D230" s="59"/>
       <c r="E230" s="51" t="s">
         <v>133</v>
       </c>
       <c r="F230" s="51" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
@@ -9199,13 +9199,13 @@
         <v>129</v>
       </c>
       <c r="B231" s="51" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C231" s="58" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D231" s="51" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E231" s="51"/>
       <c r="F231" s="51"/>
@@ -9215,13 +9215,13 @@
         <v>129</v>
       </c>
       <c r="B232" s="51" t="s">
+        <v>483</v>
+      </c>
+      <c r="C232" s="51" t="s">
+        <v>484</v>
+      </c>
+      <c r="D232" s="51" t="s">
         <v>485</v>
-      </c>
-      <c r="C232" s="51" t="s">
-        <v>486</v>
-      </c>
-      <c r="D232" s="51" t="s">
-        <v>487</v>
       </c>
       <c r="E232" s="51"/>
       <c r="F232" s="51"/>
@@ -9231,13 +9231,13 @@
         <v>129</v>
       </c>
       <c r="B233" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C233" s="51" t="s">
+        <v>487</v>
+      </c>
+      <c r="D233" s="51" t="s">
         <v>488</v>
-      </c>
-      <c r="C233" s="51" t="s">
-        <v>489</v>
-      </c>
-      <c r="D233" s="51" t="s">
-        <v>490</v>
       </c>
       <c r="E233" s="51"/>
       <c r="F233" s="51"/>
@@ -9247,13 +9247,13 @@
         <v>129</v>
       </c>
       <c r="B234" s="51" t="s">
+        <v>489</v>
+      </c>
+      <c r="C234" s="51" t="s">
+        <v>490</v>
+      </c>
+      <c r="D234" s="51" t="s">
         <v>491</v>
-      </c>
-      <c r="C234" s="51" t="s">
-        <v>492</v>
-      </c>
-      <c r="D234" s="51" t="s">
-        <v>493</v>
       </c>
       <c r="E234" s="51"/>
       <c r="F234" s="51"/>
@@ -9263,13 +9263,13 @@
         <v>129</v>
       </c>
       <c r="B235" s="51" t="s">
+        <v>492</v>
+      </c>
+      <c r="C235" s="51" t="s">
+        <v>493</v>
+      </c>
+      <c r="D235" s="51" t="s">
         <v>494</v>
-      </c>
-      <c r="C235" s="51" t="s">
-        <v>495</v>
-      </c>
-      <c r="D235" s="51" t="s">
-        <v>496</v>
       </c>
       <c r="E235" s="51"/>
       <c r="F235" s="51"/>
@@ -9279,13 +9279,13 @@
         <v>129</v>
       </c>
       <c r="B236" s="51" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C236" s="51" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D236" s="51" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E236" s="51"/>
       <c r="F236" s="51"/>
@@ -9295,13 +9295,13 @@
         <v>129</v>
       </c>
       <c r="B237" s="51" t="s">
+        <v>497</v>
+      </c>
+      <c r="C237" s="51" t="s">
+        <v>498</v>
+      </c>
+      <c r="D237" s="51" t="s">
         <v>499</v>
-      </c>
-      <c r="C237" s="51" t="s">
-        <v>500</v>
-      </c>
-      <c r="D237" s="51" t="s">
-        <v>501</v>
       </c>
       <c r="E237" s="51"/>
       <c r="F237" s="51"/>
@@ -9311,13 +9311,13 @@
         <v>129</v>
       </c>
       <c r="B238" s="51" t="s">
+        <v>500</v>
+      </c>
+      <c r="C238" s="51" t="s">
+        <v>501</v>
+      </c>
+      <c r="D238" s="51" t="s">
         <v>502</v>
-      </c>
-      <c r="C238" s="51" t="s">
-        <v>503</v>
-      </c>
-      <c r="D238" s="51" t="s">
-        <v>504</v>
       </c>
       <c r="E238" s="51"/>
       <c r="F238" s="51"/>
@@ -9327,13 +9327,13 @@
         <v>129</v>
       </c>
       <c r="B239" s="51" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C239" s="51" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D239" s="58" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E239" s="51"/>
       <c r="F239" s="51"/>
@@ -9343,13 +9343,13 @@
         <v>129</v>
       </c>
       <c r="B240" s="51" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C240" s="51" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D240" s="51" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E240" s="51"/>
       <c r="F240" s="51"/>
@@ -9359,13 +9359,13 @@
         <v>129</v>
       </c>
       <c r="B241" s="51" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C241" s="51" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D241" s="51" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E241" s="51"/>
       <c r="F241" s="51"/>
@@ -9375,13 +9375,13 @@
         <v>129</v>
       </c>
       <c r="B242" s="51" t="s">
+        <v>509</v>
+      </c>
+      <c r="C242" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="D242" s="51" t="s">
         <v>511</v>
-      </c>
-      <c r="C242" s="51" t="s">
-        <v>512</v>
-      </c>
-      <c r="D242" s="51" t="s">
-        <v>513</v>
       </c>
       <c r="E242" s="51"/>
       <c r="F242" s="51"/>
@@ -9391,13 +9391,13 @@
         <v>129</v>
       </c>
       <c r="B243" s="51" t="s">
+        <v>512</v>
+      </c>
+      <c r="C243" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="D243" s="51" t="s">
         <v>514</v>
-      </c>
-      <c r="C243" s="51" t="s">
-        <v>515</v>
-      </c>
-      <c r="D243" s="51" t="s">
-        <v>516</v>
       </c>
       <c r="E243" s="51"/>
       <c r="F243" s="51"/>
@@ -9407,13 +9407,13 @@
         <v>129</v>
       </c>
       <c r="B244" s="51" t="s">
+        <v>515</v>
+      </c>
+      <c r="C244" s="51" t="s">
+        <v>516</v>
+      </c>
+      <c r="D244" s="51" t="s">
         <v>517</v>
-      </c>
-      <c r="C244" s="51" t="s">
-        <v>518</v>
-      </c>
-      <c r="D244" s="51" t="s">
-        <v>519</v>
       </c>
       <c r="E244" s="51"/>
       <c r="F244" s="51"/>
@@ -9423,13 +9423,13 @@
         <v>129</v>
       </c>
       <c r="B245" s="51" t="s">
+        <v>518</v>
+      </c>
+      <c r="C245" s="51" t="s">
+        <v>519</v>
+      </c>
+      <c r="D245" s="51" t="s">
         <v>520</v>
-      </c>
-      <c r="C245" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="D245" s="51" t="s">
-        <v>522</v>
       </c>
       <c r="E245" s="51"/>
       <c r="F245" s="51"/>
@@ -9439,13 +9439,13 @@
         <v>129</v>
       </c>
       <c r="B246" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="C246" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D246" s="51" t="s">
         <v>523</v>
-      </c>
-      <c r="C246" s="51" t="s">
-        <v>524</v>
-      </c>
-      <c r="D246" s="51" t="s">
-        <v>525</v>
       </c>
       <c r="E246" s="51"/>
       <c r="F246" s="51"/>
@@ -9455,13 +9455,13 @@
         <v>129</v>
       </c>
       <c r="B247" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="C247" s="51" t="s">
+        <v>525</v>
+      </c>
+      <c r="D247" s="51" t="s">
         <v>526</v>
-      </c>
-      <c r="C247" s="51" t="s">
-        <v>527</v>
-      </c>
-      <c r="D247" s="51" t="s">
-        <v>528</v>
       </c>
       <c r="E247" s="51"/>
       <c r="F247" s="51"/>
@@ -9471,13 +9471,13 @@
         <v>129</v>
       </c>
       <c r="B248" s="51" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C248" s="51" t="s">
-        <v>530</v>
+        <v>985</v>
       </c>
       <c r="D248" s="51" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E248" s="51"/>
       <c r="F248" s="51"/>
@@ -9487,13 +9487,13 @@
         <v>129</v>
       </c>
       <c r="B249" s="51" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C249" s="51" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D249" s="51" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E249" s="51"/>
       <c r="F249" s="51"/>
@@ -9503,13 +9503,13 @@
         <v>129</v>
       </c>
       <c r="B250" s="51" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C250" s="51" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D250" s="51" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E250" s="51"/>
       <c r="F250" s="51"/>
@@ -9519,13 +9519,13 @@
         <v>129</v>
       </c>
       <c r="B251" s="51" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C251" s="51" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D251" s="51" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E251" s="51"/>
       <c r="F251" s="51"/>
@@ -9535,13 +9535,13 @@
         <v>129</v>
       </c>
       <c r="B252" s="51" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C252" s="51" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D252" s="58" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E252" s="51"/>
       <c r="F252" s="51"/>
@@ -9551,13 +9551,13 @@
         <v>129</v>
       </c>
       <c r="B253" s="51" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C253" s="51" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D253" s="58" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E253" s="51"/>
       <c r="F253" s="51"/>
@@ -9567,13 +9567,13 @@
         <v>129</v>
       </c>
       <c r="B254" s="51" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C254" s="51" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D254" s="51" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E254" s="51"/>
       <c r="F254" s="51"/>
@@ -9583,13 +9583,13 @@
         <v>129</v>
       </c>
       <c r="B255" s="51" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C255" s="51" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D255" s="51" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E255" s="51"/>
       <c r="F255" s="51"/>
@@ -9599,13 +9599,13 @@
         <v>129</v>
       </c>
       <c r="B256" s="51" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C256" s="51" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D256" s="51" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E256" s="51"/>
       <c r="F256" s="51"/>
@@ -9615,13 +9615,13 @@
         <v>129</v>
       </c>
       <c r="B257" s="51" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C257" s="51" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D257" s="58" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E257" s="51"/>
       <c r="F257" s="51"/>
@@ -9632,10 +9632,10 @@
       </c>
       <c r="B258" s="51"/>
       <c r="C258" s="51" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D258" s="51" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E258" s="51"/>
       <c r="F258" s="51"/>
@@ -9645,13 +9645,13 @@
         <v>129</v>
       </c>
       <c r="B259" s="51" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C259" s="51" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D259" s="51" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E259" s="51"/>
       <c r="F259" s="51"/>
@@ -9661,13 +9661,13 @@
         <v>129</v>
       </c>
       <c r="B260" s="51" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C260" s="51" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D260" s="51" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E260" s="51"/>
       <c r="F260" s="51"/>
@@ -9677,13 +9677,13 @@
         <v>129</v>
       </c>
       <c r="B261" s="51" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C261" s="51" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D261" s="51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E261" s="51"/>
       <c r="F261" s="51"/>
@@ -9693,13 +9693,13 @@
         <v>129</v>
       </c>
       <c r="B262" s="51" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C262" s="51" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D262" s="51" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E262" s="51"/>
       <c r="F262" s="51"/>
@@ -9709,13 +9709,13 @@
         <v>129</v>
       </c>
       <c r="B263" s="51" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C263" s="51" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D263" s="51" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E263" s="51"/>
       <c r="F263" s="51"/>
@@ -9725,13 +9725,13 @@
         <v>129</v>
       </c>
       <c r="B264" s="51" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C264" s="51" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D264" s="51" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E264" s="51"/>
       <c r="F264" s="51"/>
@@ -9741,13 +9741,13 @@
         <v>129</v>
       </c>
       <c r="B265" s="51" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C265" s="51" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D265" s="51" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E265" s="51" t="s">
         <v>239</v>
@@ -9759,13 +9759,13 @@
         <v>129</v>
       </c>
       <c r="B266" s="51" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C266" s="51" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D266" s="58" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E266" s="51"/>
       <c r="F266" s="51"/>
@@ -9775,13 +9775,13 @@
         <v>129</v>
       </c>
       <c r="B267" s="51" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C267" s="51" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D267" s="51" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E267" s="51"/>
       <c r="F267" s="51"/>
@@ -9791,13 +9791,13 @@
         <v>129</v>
       </c>
       <c r="B268" s="51" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C268" s="51" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D268" s="51" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E268" s="51"/>
       <c r="F268" s="51"/>
@@ -9807,13 +9807,13 @@
         <v>129</v>
       </c>
       <c r="B269" s="51" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C269" s="51" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D269" s="51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E269" s="51"/>
       <c r="F269" s="51"/>
@@ -9823,13 +9823,13 @@
         <v>129</v>
       </c>
       <c r="B270" s="51" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C270" s="51" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D270" s="51" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E270" s="51"/>
       <c r="F270" s="51"/>
@@ -9839,13 +9839,13 @@
         <v>129</v>
       </c>
       <c r="B271" s="51" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C271" s="51" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D271" s="51" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E271" s="51"/>
       <c r="F271" s="51"/>
@@ -9855,13 +9855,13 @@
         <v>129</v>
       </c>
       <c r="B272" s="51" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C272" s="51" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D272" s="51" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E272" s="51" t="s">
         <v>239</v>
@@ -9873,13 +9873,13 @@
         <v>129</v>
       </c>
       <c r="B273" s="51" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C273" s="51" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D273" s="58" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E273" s="51"/>
       <c r="F273" s="51"/>
@@ -9889,13 +9889,13 @@
         <v>129</v>
       </c>
       <c r="B274" s="51" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C274" s="51" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D274" s="51" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E274" s="51"/>
       <c r="F274" s="51"/>
@@ -9905,13 +9905,13 @@
         <v>129</v>
       </c>
       <c r="B275" s="51" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C275" s="51" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D275" s="51" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E275" s="51"/>
       <c r="F275" s="51"/>
@@ -9921,13 +9921,13 @@
         <v>129</v>
       </c>
       <c r="B276" s="51" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C276" s="51" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D276" s="51" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E276" s="51"/>
       <c r="F276" s="51"/>
@@ -9937,13 +9937,13 @@
         <v>129</v>
       </c>
       <c r="B277" s="51" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C277" s="51" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D277" s="51" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E277" s="51"/>
       <c r="F277" s="51"/>
@@ -9953,13 +9953,13 @@
         <v>129</v>
       </c>
       <c r="B278" s="51" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C278" s="51" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D278" s="51" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E278" s="51"/>
       <c r="F278" s="51"/>
@@ -9969,13 +9969,13 @@
         <v>129</v>
       </c>
       <c r="B279" s="51" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C279" s="51" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D279" s="51" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E279" s="51"/>
       <c r="F279" s="51"/>
@@ -9985,13 +9985,13 @@
         <v>129</v>
       </c>
       <c r="B280" s="51" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C280" s="51" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D280" s="51" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E280" s="51"/>
       <c r="F280" s="51"/>
@@ -10001,13 +10001,13 @@
         <v>129</v>
       </c>
       <c r="B281" s="51" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C281" s="51" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D281" s="51" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E281" s="51"/>
       <c r="F281" s="51"/>
@@ -10017,13 +10017,13 @@
         <v>129</v>
       </c>
       <c r="B282" s="51" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C282" s="51" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D282" s="51" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E282" s="51"/>
       <c r="F282" s="51"/>
@@ -10033,13 +10033,13 @@
         <v>129</v>
       </c>
       <c r="B283" s="51" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C283" s="51" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D283" s="51" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E283" s="51"/>
       <c r="F283" s="51"/>
@@ -10049,13 +10049,13 @@
         <v>129</v>
       </c>
       <c r="B284" s="51" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C284" s="51" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D284" s="51" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E284" s="51"/>
       <c r="F284" s="51"/>
@@ -10065,13 +10065,13 @@
         <v>129</v>
       </c>
       <c r="B285" s="51" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C285" s="51" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D285" s="51" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E285" s="51"/>
       <c r="F285" s="51"/>
@@ -10081,13 +10081,13 @@
         <v>129</v>
       </c>
       <c r="B286" s="51" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C286" s="51" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D286" s="51" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E286" s="51"/>
       <c r="F286" s="51"/>
@@ -10097,13 +10097,13 @@
         <v>129</v>
       </c>
       <c r="B287" s="51" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C287" s="51" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D287" s="51" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E287" s="51"/>
       <c r="F287" s="51"/>
@@ -10138,25 +10138,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10164,10 +10164,10 @@
         <v>132</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>135</v>
@@ -10183,10 +10183,10 @@
         <v>136</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>138</v>
@@ -10202,10 +10202,10 @@
         <v>139</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>625</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>628</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>140</v>
@@ -10221,32 +10221,32 @@
         <v>141</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="16" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="16" t="s">
@@ -10321,25 +10321,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10347,13 +10347,13 @@
         <v>142</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16" t="s">
@@ -10366,13 +10366,13 @@
         <v>143</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>638</v>
-      </c>
       <c r="D3" s="16" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16" t="s">
@@ -10385,10 +10385,10 @@
         <v>145</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>144</v>
@@ -10404,10 +10404,10 @@
         <v>148</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>147</v>
@@ -10423,13 +10423,13 @@
         <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16" t="s">
@@ -10442,13 +10442,13 @@
         <v>154</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E7" s="66"/>
       <c r="F7" s="16" t="s">
@@ -10458,16 +10458,16 @@
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
@@ -10480,10 +10480,10 @@
         <v>164</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>163</v>
@@ -10499,10 +10499,10 @@
         <v>167</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>166</v>
@@ -10518,10 +10518,10 @@
         <v>169</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>647</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>650</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>168</v>
@@ -10537,10 +10537,10 @@
         <v>171</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>170</v>
@@ -10556,10 +10556,10 @@
         <v>173</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>172</v>
@@ -10575,10 +10575,10 @@
         <v>175</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>174</v>
@@ -10594,10 +10594,10 @@
         <v>177</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>176</v>
@@ -10613,10 +10613,10 @@
         <v>179</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>178</v>
@@ -10632,16 +10632,16 @@
         <v>181</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>180</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>239</v>
@@ -10650,16 +10650,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16" t="s">
@@ -10672,10 +10672,10 @@
         <v>187</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>186</v>
@@ -10691,10 +10691,10 @@
         <v>189</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>188</v>
@@ -10710,10 +10710,10 @@
         <v>191</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>661</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>664</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>190</v>
@@ -10729,10 +10729,10 @@
         <v>193</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>192</v>
@@ -10748,10 +10748,10 @@
         <v>195</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>194</v>
@@ -10767,10 +10767,10 @@
         <v>157</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>156</v>
@@ -10783,16 +10783,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>668</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>670</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>671</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16" t="s">
@@ -10805,13 +10805,13 @@
         <v>221</v>
       </c>
       <c r="B26" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>669</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>672</v>
-      </c>
       <c r="D26" s="16" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16" t="s">
@@ -10824,10 +10824,10 @@
         <v>223</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>222</v>
@@ -10843,10 +10843,10 @@
         <v>208</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>207</v>
@@ -10862,10 +10862,10 @@
         <v>210</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>209</v>
@@ -10881,10 +10881,10 @@
         <v>212</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>675</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>678</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>211</v>
@@ -10900,10 +10900,10 @@
         <v>214</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>213</v>
@@ -10919,10 +10919,10 @@
         <v>216</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>215</v>
@@ -10938,10 +10938,10 @@
         <v>219</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>218</v>
@@ -10957,10 +10957,10 @@
         <v>229</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>228</v>
@@ -10976,10 +10976,10 @@
         <v>231</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>230</v>
@@ -10995,10 +10995,10 @@
         <v>233</v>
       </c>
       <c r="B36" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>683</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>686</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>232</v>
@@ -11014,10 +11014,10 @@
         <v>235</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>234</v>
@@ -11027,7 +11027,7 @@
         <v>133</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
@@ -11059,25 +11059,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -11085,10 +11085,10 @@
         <v>238</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>241</v>
@@ -11104,10 +11104,10 @@
         <v>242</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>244</v>
@@ -11123,10 +11123,10 @@
         <v>245</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>688</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>691</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>247</v>
@@ -11142,10 +11142,10 @@
         <v>248</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>250</v>
@@ -11161,13 +11161,13 @@
         <v>251</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="2" t="s">
@@ -11180,13 +11180,13 @@
         <v>254</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="2" t="s">
@@ -11199,13 +11199,13 @@
         <v>257</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="2" t="s">
@@ -11215,16 +11215,16 @@
     </row>
     <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="2" t="s">
@@ -11234,16 +11234,16 @@
     </row>
     <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="2" t="s">
@@ -11253,16 +11253,16 @@
     </row>
     <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="2" t="s">
@@ -11272,16 +11272,16 @@
     </row>
     <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="2" t="s">
@@ -11291,16 +11291,16 @@
     </row>
     <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="2" t="s">
@@ -11310,16 +11310,16 @@
     </row>
     <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="2" t="s">
@@ -11329,16 +11329,16 @@
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="2" t="s">
@@ -11348,16 +11348,16 @@
     </row>
     <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="2" t="s">
@@ -11367,16 +11367,16 @@
     </row>
     <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="2" t="s">
@@ -11386,16 +11386,16 @@
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="2" t="s">
@@ -11405,16 +11405,16 @@
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="2" t="s">
@@ -11424,16 +11424,16 @@
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="2" t="s">
@@ -11443,16 +11443,16 @@
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="2" t="s">
@@ -11462,16 +11462,16 @@
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="2" t="s">
@@ -11481,16 +11481,16 @@
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="2" t="s">
@@ -11503,13 +11503,13 @@
         <v>204</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="2" t="s">
@@ -11522,13 +11522,13 @@
         <v>198</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="2" t="s">
@@ -11541,17 +11541,17 @@
         <v>200</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -11560,13 +11560,13 @@
         <v>202</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="2" t="s">
@@ -11576,16 +11576,16 @@
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="2" t="s">
@@ -11595,16 +11595,16 @@
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="2" t="s">
@@ -11614,16 +11614,16 @@
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="2" t="s">
@@ -11633,16 +11633,16 @@
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="2" t="s">
@@ -11652,16 +11652,16 @@
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="2" t="s">
@@ -11671,16 +11671,16 @@
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="2" t="s">
@@ -11690,16 +11690,16 @@
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="2" t="s">
@@ -11709,16 +11709,16 @@
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="2" t="s">
@@ -11728,16 +11728,16 @@
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="2" t="s">
@@ -11747,16 +11747,16 @@
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="2" t="s">
@@ -11766,16 +11766,16 @@
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="2" t="s">
@@ -11788,32 +11788,32 @@
         <v>260</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="3"/>
@@ -11821,16 +11821,16 @@
     </row>
     <row r="41" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="3"/>
@@ -11838,73 +11838,73 @@
     </row>
     <row r="42" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="3"/>
@@ -11912,16 +11912,16 @@
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="3"/>
@@ -11929,16 +11929,16 @@
     </row>
     <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="3"/>
@@ -11946,16 +11946,16 @@
     </row>
     <row r="48" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="3"/>
@@ -11963,16 +11963,16 @@
     </row>
     <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="3"/>
@@ -11980,16 +11980,16 @@
     </row>
     <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="3"/>
@@ -11997,19 +11997,19 @@
     </row>
     <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -12045,39 +12045,39 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="14" t="s">
@@ -12087,16 +12087,16 @@
     </row>
     <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>785</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>788</v>
-      </c>
       <c r="D3" s="14" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="14" t="s">
@@ -12106,16 +12106,16 @@
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="14" t="s">
@@ -12125,16 +12125,16 @@
     </row>
     <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="14" t="s">
@@ -12144,16 +12144,16 @@
     </row>
     <row r="6" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="14" t="s">
@@ -12163,16 +12163,16 @@
     </row>
     <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="14" t="s">
@@ -12182,16 +12182,16 @@
     </row>
     <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="14" t="s">
@@ -12201,16 +12201,16 @@
     </row>
     <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="14" t="s">
@@ -12220,16 +12220,16 @@
     </row>
     <row r="10" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
@@ -12239,16 +12239,16 @@
     </row>
     <row r="11" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="14" t="s">
@@ -12258,16 +12258,16 @@
     </row>
     <row r="12" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="14" t="s">
@@ -12277,39 +12277,39 @@
     </row>
     <row r="13" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>807</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>808</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>809</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>810</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="14" t="s">
@@ -12319,39 +12319,39 @@
     </row>
     <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>239</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14" t="s">
@@ -12361,39 +12361,39 @@
     </row>
     <row r="17" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>239</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="14" t="s">
@@ -12403,16 +12403,16 @@
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="14" t="s">
@@ -12422,16 +12422,16 @@
     </row>
     <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
@@ -12441,16 +12441,16 @@
     </row>
     <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="14" t="s">
@@ -12460,16 +12460,16 @@
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="14" t="s">
@@ -12479,16 +12479,16 @@
     </row>
     <row r="23" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -12521,42 +12521,42 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>831</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>833</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>834</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>239</v>
@@ -12565,19 +12565,19 @@
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>833</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>831</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>836</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>834</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>239</v>
@@ -12586,19 +12586,19 @@
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>239</v>
@@ -12689,60 +12689,60 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>126</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="14" t="s">
         <v>239</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="14" t="s">
@@ -12752,16 +12752,16 @@
     </row>
     <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="14" t="s">
@@ -12771,16 +12771,16 @@
     </row>
     <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="14" t="s">
@@ -12790,16 +12790,16 @@
     </row>
     <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="14" t="s">
@@ -12809,39 +12809,39 @@
     </row>
     <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>239</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="14" t="s">
@@ -12851,16 +12851,16 @@
     </row>
     <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="14" t="s">
@@ -12870,16 +12870,16 @@
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="14" t="s">
@@ -12889,16 +12889,16 @@
     </row>
     <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="14" t="s">
@@ -12908,16 +12908,16 @@
     </row>
     <row r="12" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="14" t="s">
@@ -12927,62 +12927,62 @@
     </row>
     <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>239</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>239</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="14" t="s">
@@ -12992,16 +12992,16 @@
     </row>
     <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="14" t="s">
@@ -13011,16 +13011,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="14" t="s">
@@ -13030,16 +13030,16 @@
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="14" t="s">
@@ -13049,39 +13049,39 @@
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>870</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>871</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>872</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>873</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>874</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="14" t="s">
@@ -13091,48 +13091,48 @@
     </row>
     <row r="21" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C21" s="31" t="s">
+        <v>875</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>876</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>877</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="31" t="s">
         <v>878</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>879</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F22" s="48" t="s">
         <v>133</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -13162,7 +13162,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>126</v>
@@ -13209,7 +13209,7 @@
         <v>141</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -13217,10 +13217,10 @@
     </row>
     <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -13231,7 +13231,7 @@
         <v>142</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -13242,7 +13242,7 @@
         <v>143</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -13286,7 +13286,7 @@
         <v>154</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -13294,10 +13294,10 @@
     </row>
     <row r="13" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -13404,10 +13404,10 @@
     </row>
     <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -13481,10 +13481,10 @@
     </row>
     <row r="30" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>668</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>671</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -13495,7 +13495,7 @@
         <v>221</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -13687,7 +13687,7 @@
     </row>
     <row r="50" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -13696,7 +13696,7 @@
     </row>
     <row r="51" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -13705,7 +13705,7 @@
     </row>
     <row r="52" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -13714,7 +13714,7 @@
     </row>
     <row r="53" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -13723,7 +13723,7 @@
     </row>
     <row r="54" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -13732,7 +13732,7 @@
     </row>
     <row r="55" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -13741,7 +13741,7 @@
     </row>
     <row r="56" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -13750,7 +13750,7 @@
     </row>
     <row r="57" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -13759,7 +13759,7 @@
     </row>
     <row r="58" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -13768,7 +13768,7 @@
     </row>
     <row r="59" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -13777,7 +13777,7 @@
     </row>
     <row r="60" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -13786,7 +13786,7 @@
     </row>
     <row r="61" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -13795,7 +13795,7 @@
     </row>
     <row r="62" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -13804,7 +13804,7 @@
     </row>
     <row r="63" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -13813,7 +13813,7 @@
     </row>
     <row r="64" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -13858,7 +13858,7 @@
     </row>
     <row r="69" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -13867,7 +13867,7 @@
     </row>
     <row r="70" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -13876,7 +13876,7 @@
     </row>
     <row r="71" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -13885,7 +13885,7 @@
     </row>
     <row r="72" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -13894,7 +13894,7 @@
     </row>
     <row r="73" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -13903,7 +13903,7 @@
     </row>
     <row r="74" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -13912,7 +13912,7 @@
     </row>
     <row r="75" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -13921,7 +13921,7 @@
     </row>
     <row r="76" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="77" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -13939,7 +13939,7 @@
     </row>
     <row r="78" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -13948,7 +13948,7 @@
     </row>
     <row r="79" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -13966,7 +13966,7 @@
     </row>
     <row r="81" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -13975,7 +13975,7 @@
     </row>
     <row r="82" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -13984,7 +13984,7 @@
     </row>
     <row r="83" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -13993,7 +13993,7 @@
     </row>
     <row r="84" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -14002,7 +14002,7 @@
     </row>
     <row r="85" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -14011,7 +14011,7 @@
     </row>
     <row r="86" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -14020,7 +14020,7 @@
     </row>
     <row r="87" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -14029,7 +14029,7 @@
     </row>
     <row r="88" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -14038,7 +14038,7 @@
     </row>
     <row r="89" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -14047,7 +14047,7 @@
     </row>
     <row r="90" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -14056,7 +14056,7 @@
     </row>
     <row r="91" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -14065,7 +14065,7 @@
     </row>
     <row r="92" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -14074,7 +14074,7 @@
     </row>
     <row r="93" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -14083,7 +14083,7 @@
     </row>
     <row r="94" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -14092,7 +14092,7 @@
     </row>
     <row r="95" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -14101,7 +14101,7 @@
     </row>
     <row r="96" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -14110,7 +14110,7 @@
     </row>
     <row r="97" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -14119,7 +14119,7 @@
     </row>
     <row r="98" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -14128,7 +14128,7 @@
     </row>
     <row r="99" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -14137,7 +14137,7 @@
     </row>
     <row r="100" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -14146,7 +14146,7 @@
     </row>
     <row r="101" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -14155,7 +14155,7 @@
     </row>
     <row r="102" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -14164,7 +14164,7 @@
     </row>
     <row r="103" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -14173,7 +14173,7 @@
     </row>
     <row r="104" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -14182,7 +14182,7 @@
     </row>
     <row r="105" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -14191,7 +14191,7 @@
     </row>
     <row r="106" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -14200,7 +14200,7 @@
     </row>
     <row r="107" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -14209,7 +14209,7 @@
     </row>
     <row r="108" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -14218,7 +14218,7 @@
     </row>
     <row r="109" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -14227,7 +14227,7 @@
     </row>
     <row r="110" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -14236,7 +14236,7 @@
     </row>
     <row r="111" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -14245,7 +14245,7 @@
     </row>
     <row r="112" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -14254,7 +14254,7 @@
     </row>
     <row r="113" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
@@ -14263,7 +14263,7 @@
     </row>
     <row r="114" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
@@ -14272,7 +14272,7 @@
     </row>
     <row r="115" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
@@ -14281,7 +14281,7 @@
     </row>
     <row r="116" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
@@ -14290,7 +14290,7 @@
     </row>
     <row r="117" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
@@ -14299,7 +14299,7 @@
     </row>
     <row r="118" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B118" s="15"/>
       <c r="C118" s="15"/>
@@ -14308,7 +14308,7 @@
     </row>
     <row r="119" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -14317,7 +14317,7 @@
     </row>
     <row r="120" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
@@ -14326,7 +14326,7 @@
     </row>
     <row r="121" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
@@ -14335,7 +14335,7 @@
     </row>
     <row r="122" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
@@ -14344,7 +14344,7 @@
     </row>
     <row r="123" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
@@ -14353,7 +14353,7 @@
     </row>
     <row r="124" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
@@ -14362,7 +14362,7 @@
     </row>
     <row r="125" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
@@ -14371,7 +14371,7 @@
     </row>
     <row r="126" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
@@ -14380,7 +14380,7 @@
     </row>
     <row r="127" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B127" s="15"/>
       <c r="C127" s="15"/>
@@ -14389,7 +14389,7 @@
     </row>
     <row r="128" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B128" s="15"/>
       <c r="C128" s="15"/>
@@ -14398,7 +14398,7 @@
     </row>
     <row r="129" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -14407,7 +14407,7 @@
     </row>
     <row r="130" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
@@ -14416,7 +14416,7 @@
     </row>
     <row r="131" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
@@ -14425,7 +14425,7 @@
     </row>
     <row r="132" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
@@ -14434,7 +14434,7 @@
     </row>
     <row r="133" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
@@ -14443,7 +14443,7 @@
     </row>
     <row r="134" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B134" s="15"/>
       <c r="C134" s="15"/>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842AFCC-288F-4677-B5B0-7AC08FF8EF40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4AD7D4-0961-4F5A-A05E-18E87AC17578}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="255" windowWidth="27930" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="987">
   <si>
     <t>Test Case</t>
   </si>
@@ -3001,6 +3001,9 @@
   </si>
   <si>
     <t>The accessLocation for this AccessMethod is of type uniformResourceIdentifier and that the scheme is “http (not “https).</t>
+  </si>
+  <si>
+    <t>Validate that that the creation date in the PIV Patron Format is encoded in 8 bytes using a binary representation of  YYYYMMDDhhmmssZ</t>
   </si>
 </sst>
 </file>
@@ -5409,7 +5412,7 @@
   <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7509,8 +7512,8 @@
       <c r="B128" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="C128" s="51" t="s">
-        <v>984</v>
+      <c r="C128" s="61" t="s">
+        <v>986</v>
       </c>
       <c r="D128" s="51" t="s">
         <v>262</v>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4AD7D4-0961-4F5A-A05E-18E87AC17578}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B382B6-F085-4A52-B081-9D12BD661D2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="255" windowWidth="27930" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="255" windowWidth="27930" windowHeight="15240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIV I Reference Tests" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="988">
   <si>
     <t>Test Case</t>
   </si>
@@ -2992,6 +2992,9 @@
   </si>
   <si>
     <t>Validate that that the creation date in the PIV Patron Format is encoded in 8 bytes using a binary representation of YYYYMMDDhhmmssZ</t>
+  </si>
+  <si>
+    <t>Validate that the Reserved for Future Use field is equal to 0x00000000</t>
   </si>
   <si>
     <t>Validate that the “Reserved for Future Use field is equal to 0x00000000</t>
@@ -5411,8 +5414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView showGridLines="0" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7357,7 +7360,7 @@
         <v>281</v>
       </c>
       <c r="C119" s="61" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D119" s="51" t="s">
         <v>282</v>
@@ -7513,7 +7516,7 @@
         <v>292</v>
       </c>
       <c r="C128" s="61" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D128" s="51" t="s">
         <v>262</v>
@@ -7638,7 +7641,7 @@
       <c r="B135" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="C135" s="51" t="s">
+      <c r="C135" s="61" t="s">
         <v>983</v>
       </c>
       <c r="D135" s="51" t="s">
@@ -7793,7 +7796,7 @@
         <v>292</v>
       </c>
       <c r="C144" s="51" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D144" s="51" t="s">
         <v>262</v>
@@ -7919,7 +7922,7 @@
         <v>321</v>
       </c>
       <c r="C151" s="51" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D151" s="51" t="s">
         <v>282</v>
@@ -9477,7 +9480,7 @@
         <v>527</v>
       </c>
       <c r="C248" s="51" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D248" s="51" t="s">
         <v>528</v>
@@ -11046,8 +11049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D51" sqref="D1:D51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B382B6-F085-4A52-B081-9D12BD661D2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FE425E-1B56-4DE1-A793-0973826F179D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="255" windowWidth="27930" windowHeight="15240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="255" windowWidth="27930" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIV I Reference Tests" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="986">
   <si>
     <t>Test Case</t>
   </si>
@@ -3000,13 +3000,7 @@
     <t>Validate that the “Reserved for Future Use field is equal to 0x00000000</t>
   </si>
   <si>
-    <t>Validate that that the creation date in the PIV Patron Format is encoded in 8 bytes using a binary representation of “YYYYMMDDhhmmssZ</t>
-  </si>
-  <si>
     <t>The accessLocation for this AccessMethod is of type uniformResourceIdentifier and that the scheme is “http (not “https).</t>
-  </si>
-  <si>
-    <t>Validate that that the creation date in the PIV Patron Format is encoded in 8 bytes using a binary representation of  YYYYMMDDhhmmssZ</t>
   </si>
 </sst>
 </file>
@@ -5414,8 +5408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7516,7 +7510,7 @@
         <v>292</v>
       </c>
       <c r="C128" s="61" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="D128" s="51" t="s">
         <v>262</v>
@@ -7796,7 +7790,7 @@
         <v>292</v>
       </c>
       <c r="C144" s="51" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D144" s="51" t="s">
         <v>262</v>
@@ -9480,7 +9474,7 @@
         <v>527</v>
       </c>
       <c r="C248" s="51" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D248" s="51" t="s">
         <v>528</v>
@@ -11049,7 +11043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FE425E-1B56-4DE1-A793-0973826F179D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499423AD-1334-4AFD-9D78-F4255078D911}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="255" windowWidth="27930" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3007,16 +3007,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3308,10 +3303,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3325,7 +3317,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3402,16 +3394,16 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3420,10 +3412,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3441,14 +3433,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5408,4705 +5403,4705 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="60" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="60" customWidth="1"/>
-    <col min="3" max="3" width="44.375" style="60" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="60" customWidth="1"/>
-    <col min="5" max="256" width="44.375" style="60" customWidth="1"/>
-    <col min="257" max="16384" width="44.375" style="60"/>
+    <col min="1" max="1" width="14.5" style="59" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="44.375" style="59" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="59" customWidth="1"/>
+    <col min="5" max="256" width="44.375" style="59" customWidth="1"/>
+    <col min="257" max="16384" width="44.375" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="51"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>885</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="51"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>886</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>887</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="50" t="s">
         <v>888</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="69" t="s">
         <v>979</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>970</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="61" t="s">
+      <c r="A13" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="60" t="s">
         <v>897</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="61" t="s">
+      <c r="A14" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="60" t="s">
         <v>898</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="61" t="s">
+      <c r="A15" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="60" t="s">
         <v>899</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="61" t="s">
+      <c r="A16" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="60" t="s">
         <v>900</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="61" t="s">
+      <c r="A17" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
     </row>
     <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="61" t="s">
+      <c r="A18" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="60" t="s">
         <v>896</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
     </row>
     <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="61" t="s">
+      <c r="A19" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="60" t="s">
         <v>891</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="61" t="s">
+      <c r="A20" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="60" t="s">
         <v>892</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
     </row>
     <row r="21" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="61" t="s">
+      <c r="A21" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="60" t="s">
         <v>893</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="61" t="s">
+      <c r="A22" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="60" t="s">
         <v>894</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
     </row>
     <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="61" t="s">
+      <c r="A23" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="60" t="s">
         <v>895</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="61" t="s">
+      <c r="A25" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
     </row>
     <row r="26" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="61" t="s">
+      <c r="A26" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="60" t="s">
         <v>890</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="52" t="s">
+      <c r="A27" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="53" t="s">
         <v>665</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="51" t="s">
+      <c r="A28" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="50" t="s">
         <v>889</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="61" t="s">
+      <c r="A29" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="60" t="s">
         <v>901</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="61" t="s">
+      <c r="A30" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="60" t="s">
         <v>902</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="61" t="s">
+      <c r="A31" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="60" t="s">
         <v>903</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="61" t="s">
+      <c r="A32" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="60" t="s">
         <v>904</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="61" t="s">
+      <c r="A33" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="61" t="s">
+      <c r="A34" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="60" t="s">
         <v>905</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="61" t="s">
+      <c r="A35" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="60" t="s">
         <v>906</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="61" t="s">
+      <c r="A36" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="60" t="s">
         <v>907</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="61" t="s">
+      <c r="A37" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="60" t="s">
         <v>908</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="61" t="s">
+      <c r="A38" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="60" t="s">
         <v>909</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
     </row>
     <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="61" t="s">
+      <c r="A39" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="60" t="s">
         <v>910</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
     </row>
     <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="61" t="s">
+      <c r="A40" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="60" t="s">
         <v>911</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="61" t="s">
+      <c r="A41" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="60" t="s">
         <v>912</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
     </row>
     <row r="42" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="61" t="s">
+      <c r="A42" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="60" t="s">
         <v>913</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="51" t="s">
+      <c r="A43" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
     </row>
     <row r="44" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="51" t="s">
+      <c r="A44" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
     </row>
     <row r="45" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="51" t="s">
+      <c r="A45" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
     </row>
     <row r="46" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="51" t="s">
+      <c r="A46" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" s="51" t="s">
+      <c r="A47" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D47" s="51" t="s">
+      <c r="D47" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
     </row>
     <row r="48" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="61" t="s">
+      <c r="A48" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="60" t="s">
         <v>915</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
     </row>
     <row r="49" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="61" t="s">
+      <c r="A49" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="60" t="s">
         <v>916</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="51" t="s">
+      <c r="D49" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="61" t="s">
+      <c r="A50" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="60" t="s">
         <v>917</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
     </row>
     <row r="51" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="61" t="s">
+      <c r="A51" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="60" t="s">
         <v>914</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="61" t="s">
+      <c r="A52" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="60" t="s">
         <v>918</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
     </row>
     <row r="53" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="61" t="s">
+      <c r="A53" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="60" t="s">
         <v>919</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
     </row>
     <row r="54" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="61" t="s">
+      <c r="A54" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="60" t="s">
         <v>920</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="D54" s="51" t="s">
+      <c r="D54" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
     </row>
     <row r="55" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="61" t="s">
+      <c r="A55" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="60" t="s">
         <v>921</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="D55" s="51" t="s">
+      <c r="D55" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
     </row>
     <row r="56" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B56" s="61" t="s">
+      <c r="A56" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="60" t="s">
         <v>923</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" s="61" t="s">
+      <c r="A57" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="60" t="s">
         <v>922</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
     </row>
     <row r="58" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" s="61" t="s">
+      <c r="A58" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="60" t="s">
         <v>924</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
     </row>
     <row r="59" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="61" t="s">
+      <c r="A59" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="60" t="s">
         <v>925</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D59" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" s="61" t="s">
+      <c r="A60" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="60" t="s">
         <v>926</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
     </row>
     <row r="61" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B61" s="61" t="s">
+      <c r="A61" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="60" t="s">
         <v>927</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
     </row>
     <row r="62" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" s="61" t="s">
+      <c r="A62" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="60" t="s">
         <v>928</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
     </row>
     <row r="63" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="61" t="s">
+      <c r="A63" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="60" t="s">
         <v>929</v>
       </c>
-      <c r="C63" s="51" t="s">
+      <c r="C63" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="61" t="s">
+      <c r="A64" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="60" t="s">
         <v>930</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C64" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="61" t="s">
+      <c r="A65" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="60" t="s">
         <v>931</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
     </row>
     <row r="66" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" s="61" t="s">
+      <c r="A66" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="60" t="s">
         <v>932</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="51" t="s">
+      <c r="E66" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F66" s="51"/>
+      <c r="F66" s="50"/>
     </row>
     <row r="67" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B67" s="61" t="s">
+      <c r="A67" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="60" t="s">
         <v>933</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="D67" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B68" s="61" t="s">
+      <c r="A68" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="60" t="s">
         <v>934</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="51" t="s">
+      <c r="D68" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
     </row>
     <row r="69" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="61" t="s">
+      <c r="A69" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="60" t="s">
         <v>935</v>
       </c>
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B70" s="61" t="s">
+      <c r="A70" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="60" t="s">
         <v>936</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="D70" s="51" t="s">
+      <c r="D70" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="61" t="s">
+      <c r="A71" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="60" t="s">
         <v>937</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="D71" s="51" t="s">
+      <c r="D71" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
     </row>
     <row r="72" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="61" t="s">
+      <c r="A72" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="60" t="s">
         <v>938</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="D72" s="51" t="s">
+      <c r="D72" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
     </row>
     <row r="73" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B73" s="61" t="s">
+      <c r="A73" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="60" t="s">
         <v>939</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
     </row>
     <row r="74" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B74" s="61" t="s">
+      <c r="A74" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="60" t="s">
         <v>940</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D74" s="51" t="s">
+      <c r="D74" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="E74" s="51"/>
-      <c r="F74" s="51"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B75" s="61" t="s">
+      <c r="A75" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="60" t="s">
         <v>941</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D75" s="51" t="s">
+      <c r="D75" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
     </row>
     <row r="76" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B76" s="61" t="s">
+      <c r="A76" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="60" t="s">
         <v>942</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="D76" s="51" t="s">
+      <c r="D76" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E76" s="51" t="s">
+      <c r="E76" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F76" s="51"/>
+      <c r="F76" s="50"/>
     </row>
     <row r="77" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B77" s="61" t="s">
+      <c r="A77" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="60" t="s">
         <v>943</v>
       </c>
-      <c r="C77" s="51" t="s">
+      <c r="C77" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D77" s="51" t="s">
+      <c r="D77" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="61" t="s">
+      <c r="A78" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="60" t="s">
         <v>944</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D78" s="51" t="s">
+      <c r="D78" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
     </row>
     <row r="79" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B79" s="61" t="s">
+      <c r="A79" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="60" t="s">
         <v>945</v>
       </c>
-      <c r="C79" s="51" t="s">
+      <c r="C79" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D79" s="51" t="s">
+      <c r="D79" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E79" s="51"/>
-      <c r="F79" s="51"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B80" s="61" t="s">
+      <c r="A80" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="60" t="s">
         <v>946</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="C80" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="D80" s="51" t="s">
+      <c r="D80" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="E80" s="51"/>
-      <c r="F80" s="51"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B81" s="61" t="s">
+      <c r="A81" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="60" t="s">
         <v>947</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="C81" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="D81" s="51" t="s">
+      <c r="D81" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
     </row>
     <row r="82" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="61" t="s">
+      <c r="A82" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="60" t="s">
         <v>948</v>
       </c>
-      <c r="C82" s="51" t="s">
+      <c r="C82" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="D82" s="51" t="s">
+      <c r="D82" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E82" s="51"/>
-      <c r="F82" s="51"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
     </row>
     <row r="83" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" s="61" t="s">
+      <c r="A83" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="60" t="s">
         <v>949</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D83" s="51" t="s">
+      <c r="D83" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
     </row>
     <row r="84" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B84" s="61" t="s">
+      <c r="A84" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="60" t="s">
         <v>950</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="D84" s="51" t="s">
+      <c r="D84" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B85" s="61" t="s">
+      <c r="A85" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="60" t="s">
         <v>951</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="C85" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D85" s="51" t="s">
+      <c r="D85" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
     </row>
     <row r="86" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B86" s="61" t="s">
+      <c r="A86" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="60" t="s">
         <v>952</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="D86" s="51" t="s">
+      <c r="D86" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="51" t="s">
+      <c r="E86" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F86" s="51"/>
+      <c r="F86" s="50"/>
     </row>
     <row r="87" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B87" s="61" t="s">
+      <c r="A87" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="60" t="s">
         <v>953</v>
       </c>
-      <c r="C87" s="51" t="s">
+      <c r="C87" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D87" s="51" t="s">
+      <c r="D87" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B88" s="61" t="s">
+      <c r="A88" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="60" t="s">
         <v>954</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="C88" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D88" s="51" t="s">
+      <c r="D88" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E88" s="51"/>
-      <c r="F88" s="51"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
     </row>
     <row r="89" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B89" s="61" t="s">
+      <c r="A89" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="60" t="s">
         <v>955</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="C89" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D89" s="51" t="s">
+      <c r="D89" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E89" s="51"/>
-      <c r="F89" s="51"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B90" s="61" t="s">
+      <c r="A90" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" s="60" t="s">
         <v>956</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="D90" s="51" t="s">
+      <c r="D90" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="E90" s="51"/>
-      <c r="F90" s="51"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B91" s="61" t="s">
+      <c r="A91" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="60" t="s">
         <v>957</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="C91" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="D91" s="51" t="s">
+      <c r="D91" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
     </row>
     <row r="92" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B92" s="61" t="s">
+      <c r="A92" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="60" t="s">
         <v>958</v>
       </c>
-      <c r="C92" s="51" t="s">
+      <c r="C92" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="51" t="s">
+      <c r="D92" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E92" s="51"/>
-      <c r="F92" s="51"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
     </row>
     <row r="93" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B93" s="61" t="s">
+      <c r="A93" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="60" t="s">
         <v>959</v>
       </c>
-      <c r="C93" s="51" t="s">
+      <c r="C93" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D93" s="51" t="s">
+      <c r="D93" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="E93" s="51"/>
-      <c r="F93" s="51"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
     </row>
     <row r="94" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B94" s="61" t="s">
+      <c r="A94" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="60" t="s">
         <v>960</v>
       </c>
-      <c r="C94" s="51" t="s">
+      <c r="C94" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="D94" s="51" t="s">
+      <c r="D94" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B95" s="61" t="s">
+      <c r="A95" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" s="60" t="s">
         <v>961</v>
       </c>
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D95" s="51" t="s">
+      <c r="D95" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="E95" s="51"/>
-      <c r="F95" s="51"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
     </row>
     <row r="96" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B96" s="61" t="s">
+      <c r="A96" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="60" t="s">
         <v>962</v>
       </c>
-      <c r="C96" s="51" t="s">
+      <c r="C96" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="D96" s="51" t="s">
+      <c r="D96" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E96" s="51" t="s">
+      <c r="E96" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F96" s="51"/>
+      <c r="F96" s="50"/>
     </row>
     <row r="97" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B97" s="61" t="s">
+      <c r="A97" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" s="60" t="s">
         <v>963</v>
       </c>
-      <c r="C97" s="51" t="s">
+      <c r="C97" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D97" s="51" t="s">
+      <c r="D97" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="50"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B98" s="61" t="s">
+      <c r="A98" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98" s="60" t="s">
         <v>964</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="C98" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D98" s="51" t="s">
+      <c r="D98" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="50"/>
     </row>
     <row r="99" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B99" s="61" t="s">
+      <c r="A99" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" s="60" t="s">
         <v>965</v>
       </c>
-      <c r="C99" s="51" t="s">
+      <c r="C99" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D99" s="51" t="s">
+      <c r="D99" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E99" s="51"/>
-      <c r="F99" s="51"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="50"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B100" s="61" t="s">
+      <c r="A100" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" s="60" t="s">
         <v>966</v>
       </c>
-      <c r="C100" s="51" t="s">
+      <c r="C100" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="D100" s="51" t="s">
+      <c r="D100" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="E100" s="51"/>
-      <c r="F100" s="51"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="50"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B101" s="61" t="s">
+      <c r="A101" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="60" t="s">
         <v>967</v>
       </c>
-      <c r="C101" s="51" t="s">
+      <c r="C101" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="D101" s="51" t="s">
+      <c r="D101" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E101" s="51"/>
-      <c r="F101" s="51"/>
+      <c r="E101" s="50"/>
+      <c r="F101" s="50"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B102" s="61" t="s">
+      <c r="A102" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="60" t="s">
         <v>968</v>
       </c>
-      <c r="C102" s="51" t="s">
+      <c r="C102" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="D102" s="51" t="s">
+      <c r="D102" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
     </row>
     <row r="103" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B103" s="61" t="s">
+      <c r="A103" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" s="60" t="s">
         <v>969</v>
       </c>
-      <c r="C103" s="51" t="s">
+      <c r="C103" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="D103" s="51" t="s">
+      <c r="D103" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="E103" s="51"/>
-      <c r="F103" s="51"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="50"/>
     </row>
     <row r="104" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B104" s="51" t="s">
+      <c r="A104" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B104" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="C104" s="51" t="s">
+      <c r="C104" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="D104" s="51" t="s">
+      <c r="D104" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="E104" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F104" s="51"/>
+      <c r="E104" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F104" s="50"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B105" s="51" t="s">
+      <c r="A105" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B105" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C105" s="51" t="s">
+      <c r="C105" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="D105" s="51" t="s">
+      <c r="D105" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B106" s="51" t="s">
+      <c r="A106" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="C106" s="51" t="s">
+      <c r="C106" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="D106" s="51" t="s">
+      <c r="D106" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="E106" s="51"/>
-      <c r="F106" s="51"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="50"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B107" s="51" t="s">
+      <c r="A107" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="51" t="s">
+      <c r="C107" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="D107" s="51" t="s">
+      <c r="D107" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="E107" s="51"/>
-      <c r="F107" s="51"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="50"/>
     </row>
     <row r="108" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B108" s="51" t="s">
+      <c r="A108" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="C108" s="51" t="s">
+      <c r="C108" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="D108" s="51" t="s">
+      <c r="D108" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="E108" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F108" s="51"/>
+      <c r="E108" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F108" s="50"/>
     </row>
     <row r="109" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B109" s="51" t="s">
+      <c r="A109" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B109" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="C109" s="51" t="s">
+      <c r="C109" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="D109" s="51" t="s">
+      <c r="D109" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="E109" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F109" s="51"/>
+      <c r="E109" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F109" s="50"/>
     </row>
     <row r="110" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A110" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B110" s="51" t="s">
+      <c r="A110" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="C110" s="51" t="s">
+      <c r="C110" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="D110" s="51" t="s">
+      <c r="D110" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="E110" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F110" s="51"/>
+      <c r="E110" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F110" s="50"/>
     </row>
     <row r="111" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A111" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B111" s="51" t="s">
+      <c r="A111" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="C111" s="51" t="s">
+      <c r="C111" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="D111" s="51" t="s">
+      <c r="D111" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="E111" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F111" s="51"/>
+      <c r="E111" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F111" s="50"/>
     </row>
     <row r="112" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B112" s="51" t="s">
+      <c r="A112" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="C112" s="61" t="s">
+      <c r="C112" s="60" t="s">
         <v>982</v>
       </c>
-      <c r="D112" s="51" t="s">
+      <c r="D112" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="E112" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F112" s="51"/>
+      <c r="E112" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F112" s="50"/>
     </row>
     <row r="113" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B113" s="51" t="s">
+      <c r="A113" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="C113" s="51" t="s">
+      <c r="C113" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="D113" s="51" t="s">
+      <c r="D113" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="E113" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F113" s="51"/>
+      <c r="E113" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F113" s="50"/>
     </row>
     <row r="114" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B114" s="51" t="s">
+      <c r="A114" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="C114" s="51" t="s">
+      <c r="C114" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="D114" s="51" t="s">
+      <c r="D114" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="E114" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F114" s="51"/>
+      <c r="E114" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F114" s="50"/>
     </row>
     <row r="115" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A115" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B115" s="51" t="s">
+      <c r="A115" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="C115" s="51" t="s">
+      <c r="C115" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="D115" s="51" t="s">
+      <c r="D115" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="E115" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F115" s="51"/>
+      <c r="E115" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F115" s="50"/>
     </row>
     <row r="116" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B116" s="51" t="s">
+      <c r="A116" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="C116" s="51" t="s">
+      <c r="C116" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D116" s="51" t="s">
+      <c r="D116" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E116" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F116" s="51"/>
+      <c r="E116" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F116" s="50"/>
     </row>
     <row r="117" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A117" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B117" s="51" t="s">
+      <c r="A117" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="C117" s="51" t="s">
+      <c r="C117" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="D117" s="51" t="s">
+      <c r="D117" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="E117" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F117" s="51"/>
+      <c r="E117" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F117" s="50"/>
     </row>
     <row r="118" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B118" s="51" t="s">
+      <c r="A118" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="C118" s="51" t="s">
+      <c r="C118" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="D118" s="51" t="s">
+      <c r="D118" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="E118" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F118" s="51"/>
+      <c r="E118" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F118" s="50"/>
     </row>
     <row r="119" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B119" s="51" t="s">
+      <c r="A119" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B119" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="C119" s="61" t="s">
+      <c r="C119" s="60" t="s">
         <v>984</v>
       </c>
-      <c r="D119" s="51" t="s">
+      <c r="D119" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="E119" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F119" s="51"/>
+      <c r="E119" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F119" s="50"/>
     </row>
     <row r="120" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B120" s="51" t="s">
+      <c r="A120" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="C120" s="51" t="s">
+      <c r="C120" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="D120" s="51" t="s">
+      <c r="D120" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="50"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121" s="51" t="s">
+      <c r="A121" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="C121" s="51" t="s">
+      <c r="C121" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="D121" s="51" t="s">
+      <c r="D121" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="E121" s="51"/>
-      <c r="F121" s="51"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="50"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B122" s="51" t="s">
+      <c r="A122" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="C122" s="51" t="s">
+      <c r="C122" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="D122" s="51" t="s">
+      <c r="D122" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="E122" s="51"/>
-      <c r="F122" s="51"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B123" s="51" t="s">
+      <c r="A123" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="C123" s="51" t="s">
+      <c r="C123" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="D123" s="51" t="s">
+      <c r="D123" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="E123" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F123" s="51"/>
+      <c r="E123" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F123" s="50"/>
     </row>
     <row r="124" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B124" s="51" t="s">
+      <c r="A124" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="C124" s="51" t="s">
+      <c r="C124" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="D124" s="51" t="s">
+      <c r="D124" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="E124" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F124" s="51"/>
+      <c r="E124" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F124" s="50"/>
     </row>
     <row r="125" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B125" s="51" t="s">
+      <c r="A125" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="C125" s="51" t="s">
+      <c r="C125" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="D125" s="51" t="s">
+      <c r="D125" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="E125" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F125" s="51"/>
+      <c r="E125" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F125" s="50"/>
     </row>
     <row r="126" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B126" s="51" t="s">
+      <c r="A126" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="C126" s="51" t="s">
+      <c r="C126" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="D126" s="51" t="s">
+      <c r="D126" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="E126" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F126" s="51"/>
+      <c r="E126" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F126" s="50"/>
     </row>
     <row r="127" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B127" s="51" t="s">
+      <c r="A127" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="C127" s="51" t="s">
+      <c r="C127" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="D127" s="51" t="s">
+      <c r="D127" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="E127" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F127" s="51"/>
+      <c r="E127" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F127" s="50"/>
     </row>
     <row r="128" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128" s="51" t="s">
+      <c r="A128" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="C128" s="61" t="s">
+      <c r="C128" s="60" t="s">
         <v>982</v>
       </c>
-      <c r="D128" s="51" t="s">
+      <c r="D128" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="E128" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F128" s="51"/>
+      <c r="E128" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F128" s="50"/>
     </row>
     <row r="129" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" s="51" t="s">
+      <c r="A129" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="C129" s="51" t="s">
+      <c r="C129" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="D129" s="51" t="s">
+      <c r="D129" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="E129" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F129" s="51"/>
+      <c r="E129" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F129" s="50"/>
     </row>
     <row r="130" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130" s="51" t="s">
+      <c r="A130" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="C130" s="51" t="s">
+      <c r="C130" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="D130" s="51" t="s">
+      <c r="D130" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="E130" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F130" s="51"/>
+      <c r="E130" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F130" s="50"/>
     </row>
     <row r="131" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A131" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131" s="51" t="s">
+      <c r="A131" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C131" s="51" t="s">
+      <c r="C131" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="D131" s="51" t="s">
+      <c r="D131" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="E131" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F131" s="51"/>
+      <c r="E131" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F131" s="50"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B132" s="51" t="s">
+      <c r="A132" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="C132" s="51" t="s">
+      <c r="C132" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="D132" s="51" t="s">
+      <c r="D132" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E132" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F132" s="51"/>
+      <c r="E132" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F132" s="50"/>
     </row>
     <row r="133" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A133" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B133" s="51" t="s">
+      <c r="A133" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="C133" s="51" t="s">
+      <c r="C133" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="D133" s="51" t="s">
+      <c r="D133" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="E133" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F133" s="51"/>
+      <c r="E133" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F133" s="50"/>
     </row>
     <row r="134" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A134" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B134" s="51" t="s">
+      <c r="A134" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B134" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="C134" s="51" t="s">
+      <c r="C134" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="D134" s="51" t="s">
+      <c r="D134" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="E134" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F134" s="51"/>
+      <c r="E134" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F134" s="50"/>
     </row>
     <row r="135" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B135" s="51" t="s">
+      <c r="A135" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B135" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="C135" s="61" t="s">
+      <c r="C135" s="60" t="s">
         <v>983</v>
       </c>
-      <c r="D135" s="51" t="s">
+      <c r="D135" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="E135" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F135" s="51"/>
+      <c r="E135" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F135" s="50"/>
     </row>
     <row r="136" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B136" s="51" t="s">
+      <c r="A136" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B136" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="C136" s="51" t="s">
+      <c r="C136" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="D136" s="51" t="s">
+      <c r="D136" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="E136" s="51"/>
-      <c r="F136" s="51"/>
+      <c r="E136" s="50"/>
+      <c r="F136" s="50"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B137" s="51" t="s">
+      <c r="A137" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B137" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="C137" s="51" t="s">
+      <c r="C137" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="D137" s="51" t="s">
+      <c r="D137" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="E137" s="51"/>
-      <c r="F137" s="51"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="50"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B138" s="51" t="s">
+      <c r="A138" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="C138" s="51" t="s">
+      <c r="C138" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="D138" s="51" t="s">
+      <c r="D138" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="E138" s="51"/>
-      <c r="F138" s="51"/>
+      <c r="E138" s="50"/>
+      <c r="F138" s="50"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B139" s="51" t="s">
+      <c r="A139" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="C139" s="51" t="s">
+      <c r="C139" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="D139" s="51" t="s">
+      <c r="D139" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="E139" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F139" s="51"/>
+      <c r="E139" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F139" s="50"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B140" s="51" t="s">
+      <c r="A140" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B140" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C140" s="70" t="s">
         <v>308</v>
       </c>
-      <c r="D140" s="51" t="s">
+      <c r="D140" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="E140" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F140" s="51"/>
+      <c r="E140" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F140" s="50"/>
     </row>
     <row r="141" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B141" s="51" t="s">
+      <c r="A141" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B141" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="C141" s="51" t="s">
+      <c r="C141" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="D141" s="51" t="s">
+      <c r="D141" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="E141" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F141" s="51"/>
+      <c r="E141" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F141" s="50"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B142" s="51" t="s">
+      <c r="A142" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B142" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="C142" s="51" t="s">
+      <c r="C142" s="50" t="s">
         <v>980</v>
       </c>
-      <c r="D142" s="51" t="s">
+      <c r="D142" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="E142" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F142" s="51"/>
+      <c r="E142" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F142" s="50"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B143" s="51" t="s">
+      <c r="A143" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B143" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="C143" s="51" t="s">
+      <c r="C143" s="50" t="s">
         <v>312</v>
       </c>
-      <c r="D143" s="51" t="s">
+      <c r="D143" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="E143" s="51"/>
-      <c r="F143" s="51"/>
+      <c r="E143" s="50"/>
+      <c r="F143" s="50"/>
     </row>
     <row r="144" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A144" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B144" s="51" t="s">
+      <c r="A144" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B144" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="C144" s="51" t="s">
+      <c r="C144" s="50" t="s">
         <v>982</v>
       </c>
-      <c r="D144" s="51" t="s">
+      <c r="D144" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="E144" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F144" s="51"/>
+      <c r="E144" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F144" s="50"/>
     </row>
     <row r="145" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B145" s="51" t="s">
+      <c r="A145" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B145" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="C145" s="51" t="s">
+      <c r="C145" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="D145" s="51" t="s">
+      <c r="D145" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="E145" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F145" s="51"/>
+      <c r="E145" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F145" s="50"/>
     </row>
     <row r="146" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B146" s="51" t="s">
+      <c r="A146" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B146" s="50" t="s">
         <v>314</v>
       </c>
-      <c r="C146" s="51" t="s">
+      <c r="C146" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="D146" s="51" t="s">
+      <c r="D146" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="E146" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F146" s="51"/>
+      <c r="E146" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F146" s="50"/>
     </row>
     <row r="147" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B147" s="51" t="s">
+      <c r="A147" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="C147" s="51" t="s">
+      <c r="C147" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="D147" s="51" t="s">
+      <c r="D147" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="E147" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F147" s="51"/>
+      <c r="E147" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F147" s="50"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B148" s="51" t="s">
+      <c r="A148" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B148" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="C148" s="51" t="s">
+      <c r="C148" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="D148" s="51" t="s">
+      <c r="D148" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="E148" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F148" s="51"/>
+      <c r="E148" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F148" s="50"/>
     </row>
     <row r="149" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A149" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B149" s="51" t="s">
+      <c r="A149" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B149" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="C149" s="51" t="s">
+      <c r="C149" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="D149" s="51" t="s">
+      <c r="D149" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="E149" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F149" s="51"/>
+      <c r="E149" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F149" s="50"/>
     </row>
     <row r="150" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A150" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B150" s="51" t="s">
+      <c r="A150" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="C150" s="51" t="s">
+      <c r="C150" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="D150" s="51" t="s">
+      <c r="D150" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="E150" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F150" s="51"/>
+      <c r="E150" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F150" s="50"/>
     </row>
     <row r="151" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B151" s="51" t="s">
+      <c r="A151" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="C151" s="51" t="s">
-        <v>984</v>
-      </c>
-      <c r="D151" s="51" t="s">
+      <c r="C151" s="50" t="s">
+        <v>983</v>
+      </c>
+      <c r="D151" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="E151" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F151" s="51"/>
+      <c r="E151" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F151" s="50"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B152" s="51" t="s">
+      <c r="A152" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B152" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="C152" s="51" t="s">
+      <c r="C152" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="D152" s="51" t="s">
+      <c r="D152" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="E152" s="51"/>
-      <c r="F152" s="51"/>
+      <c r="E152" s="50"/>
+      <c r="F152" s="50"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B153" s="51" t="s">
+      <c r="A153" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="C153" s="51" t="s">
+      <c r="C153" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="D153" s="51" t="s">
+      <c r="D153" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="E153" s="51"/>
-      <c r="F153" s="51"/>
+      <c r="E153" s="50"/>
+      <c r="F153" s="50"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B154" s="51" t="s">
+      <c r="A154" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="C154" s="51" t="s">
+      <c r="C154" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="D154" s="51" t="s">
+      <c r="D154" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="E154" s="51"/>
-      <c r="F154" s="51"/>
+      <c r="E154" s="50"/>
+      <c r="F154" s="50"/>
     </row>
     <row r="155" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B155" s="51" t="s">
+      <c r="A155" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B155" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="C155" s="51" t="s">
+      <c r="C155" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="D155" s="51" t="s">
+      <c r="D155" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="E155" s="51"/>
-      <c r="F155" s="51"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="50"/>
     </row>
     <row r="156" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B156" s="51" t="s">
+      <c r="A156" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B156" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="C156" s="51" t="s">
+      <c r="C156" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="D156" s="51" t="s">
+      <c r="D156" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="E156" s="51"/>
-      <c r="F156" s="51"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="50"/>
     </row>
     <row r="157" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B157" s="51" t="s">
+      <c r="A157" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B157" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="C157" s="51" t="s">
+      <c r="C157" s="50" t="s">
         <v>981</v>
       </c>
-      <c r="D157" s="51" t="s">
+      <c r="D157" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="E157" s="51"/>
-      <c r="F157" s="51"/>
+      <c r="E157" s="50"/>
+      <c r="F157" s="50"/>
     </row>
     <row r="158" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A158" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B158" s="51" t="s">
+      <c r="A158" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B158" s="50" t="s">
         <v>331</v>
       </c>
-      <c r="C158" s="51" t="s">
+      <c r="C158" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="D158" s="51" t="s">
+      <c r="D158" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="E158" s="51"/>
-      <c r="F158" s="51"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="50"/>
     </row>
     <row r="159" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A159" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B159" s="51" t="s">
+      <c r="A159" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B159" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="C159" s="51" t="s">
+      <c r="C159" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="D159" s="51" t="s">
+      <c r="D159" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="E159" s="51"/>
-      <c r="F159" s="51"/>
+      <c r="E159" s="50"/>
+      <c r="F159" s="50"/>
     </row>
     <row r="160" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B160" s="51" t="s">
+      <c r="A160" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B160" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="C160" s="51" t="s">
+      <c r="C160" s="50" t="s">
         <v>335</v>
       </c>
-      <c r="D160" s="51" t="s">
+      <c r="D160" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="E160" s="51"/>
-      <c r="F160" s="51"/>
+      <c r="E160" s="50"/>
+      <c r="F160" s="50"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B161" s="51" t="s">
+      <c r="A161" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B161" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="C161" s="51" t="s">
+      <c r="C161" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="D161" s="51" t="s">
+      <c r="D161" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="E161" s="51"/>
-      <c r="F161" s="51"/>
+      <c r="E161" s="50"/>
+      <c r="F161" s="50"/>
     </row>
     <row r="162" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B162" s="51" t="s">
+      <c r="A162" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B162" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="C162" s="51" t="s">
+      <c r="C162" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="D162" s="51" t="s">
+      <c r="D162" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="E162" s="51"/>
-      <c r="F162" s="51"/>
+      <c r="E162" s="50"/>
+      <c r="F162" s="50"/>
     </row>
     <row r="163" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B163" s="51" t="s">
+      <c r="A163" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B163" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="C163" s="51" t="s">
+      <c r="C163" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="D163" s="55" t="s">
+      <c r="D163" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="E163" s="51"/>
-      <c r="F163" s="51"/>
+      <c r="E163" s="50"/>
+      <c r="F163" s="50"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B164" s="51" t="s">
+      <c r="A164" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B164" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="C164" s="51" t="s">
+      <c r="C164" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="D164" s="51" t="s">
+      <c r="D164" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="E164" s="51"/>
-      <c r="F164" s="51"/>
+      <c r="E164" s="50"/>
+      <c r="F164" s="50"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B165" s="51" t="s">
+      <c r="A165" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B165" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="C165" s="51" t="s">
+      <c r="C165" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="D165" s="56" t="s">
+      <c r="D165" s="55" t="s">
         <v>347</v>
       </c>
-      <c r="E165" s="51"/>
-      <c r="F165" s="51"/>
+      <c r="E165" s="50"/>
+      <c r="F165" s="50"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B166" s="51" t="s">
+      <c r="A166" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B166" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="C166" s="51" t="s">
+      <c r="C166" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="D166" s="51" t="s">
+      <c r="D166" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="E166" s="51"/>
-      <c r="F166" s="51"/>
+      <c r="E166" s="50"/>
+      <c r="F166" s="50"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B167" s="51" t="s">
+      <c r="A167" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B167" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="C167" s="51" t="s">
+      <c r="C167" s="50" t="s">
         <v>353</v>
       </c>
-      <c r="D167" s="51" t="s">
+      <c r="D167" s="50" t="s">
         <v>354</v>
       </c>
-      <c r="E167" s="51"/>
-      <c r="F167" s="51"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="50"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B168" s="51" t="s">
+      <c r="A168" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B168" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="C168" s="51" t="s">
+      <c r="C168" s="50" t="s">
         <v>973</v>
       </c>
-      <c r="D168" s="51" t="s">
+      <c r="D168" s="50" t="s">
         <v>356</v>
       </c>
-      <c r="E168" s="51"/>
-      <c r="F168" s="51"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="50"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B169" s="51" t="s">
+      <c r="A169" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B169" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="C169" s="51" t="s">
+      <c r="C169" s="50" t="s">
         <v>357</v>
       </c>
-      <c r="D169" s="51" t="s">
+      <c r="D169" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="E169" s="51"/>
-      <c r="F169" s="51"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="50"/>
     </row>
     <row r="170" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B170" s="51" t="s">
+      <c r="A170" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B170" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="C170" s="51" t="s">
+      <c r="C170" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="D170" s="51" t="s">
+      <c r="D170" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="E170" s="51"/>
-      <c r="F170" s="51"/>
+      <c r="E170" s="50"/>
+      <c r="F170" s="50"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B171" s="51" t="s">
+      <c r="A171" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B171" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="C171" s="51" t="s">
+      <c r="C171" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="D171" s="51" t="s">
+      <c r="D171" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="E171" s="51"/>
-      <c r="F171" s="51"/>
+      <c r="E171" s="50"/>
+      <c r="F171" s="50"/>
     </row>
     <row r="172" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B172" s="51" t="s">
+      <c r="A172" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B172" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="C172" s="51" t="s">
+      <c r="C172" s="50" t="s">
         <v>366</v>
       </c>
-      <c r="D172" s="57"/>
-      <c r="E172" s="51"/>
-      <c r="F172" s="51"/>
+      <c r="D172" s="56"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="50"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B173" s="51" t="s">
+      <c r="A173" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B173" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="C173" s="51" t="s">
+      <c r="C173" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="D173" s="51" t="s">
+      <c r="D173" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="E173" s="51"/>
-      <c r="F173" s="51"/>
+      <c r="E173" s="50"/>
+      <c r="F173" s="50"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B174" s="51" t="s">
+      <c r="A174" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B174" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="C174" s="51" t="s">
+      <c r="C174" s="50" t="s">
         <v>370</v>
       </c>
-      <c r="D174" s="51" t="s">
+      <c r="D174" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="E174" s="51"/>
-      <c r="F174" s="51"/>
+      <c r="E174" s="50"/>
+      <c r="F174" s="50"/>
     </row>
     <row r="175" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B175" s="51" t="s">
+      <c r="A175" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B175" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="C175" s="51" t="s">
+      <c r="C175" s="50" t="s">
         <v>372</v>
       </c>
-      <c r="D175" s="51" t="s">
+      <c r="D175" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="E175" s="51"/>
-      <c r="F175" s="51"/>
+      <c r="E175" s="50"/>
+      <c r="F175" s="50"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B176" s="51" t="s">
+      <c r="A176" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B176" s="50" t="s">
         <v>373</v>
       </c>
-      <c r="C176" s="51" t="s">
+      <c r="C176" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="D176" s="51" t="s">
+      <c r="D176" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="E176" s="51"/>
-      <c r="F176" s="51"/>
+      <c r="E176" s="50"/>
+      <c r="F176" s="50"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B177" s="51" t="s">
+      <c r="A177" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B177" s="50" t="s">
         <v>375</v>
       </c>
-      <c r="C177" s="51" t="s">
+      <c r="C177" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="D177" s="51" t="s">
+      <c r="D177" s="50" t="s">
         <v>377</v>
       </c>
-      <c r="E177" s="51"/>
-      <c r="F177" s="51"/>
+      <c r="E177" s="50"/>
+      <c r="F177" s="50"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B178" s="51" t="s">
+      <c r="A178" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B178" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="C178" s="51" t="s">
+      <c r="C178" s="50" t="s">
         <v>379</v>
       </c>
-      <c r="D178" s="51" t="s">
+      <c r="D178" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="E178" s="51"/>
-      <c r="F178" s="51"/>
+      <c r="E178" s="50"/>
+      <c r="F178" s="50"/>
     </row>
     <row r="179" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A179" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B179" s="51" t="s">
+      <c r="A179" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B179" s="50" t="s">
         <v>381</v>
       </c>
-      <c r="C179" s="51" t="s">
+      <c r="C179" s="50" t="s">
         <v>382</v>
       </c>
-      <c r="D179" s="51" t="s">
+      <c r="D179" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="E179" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F179" s="51"/>
+      <c r="E179" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F179" s="50"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B180" s="51" t="s">
+      <c r="A180" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B180" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="C180" s="51" t="s">
+      <c r="C180" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="D180" s="51" t="s">
+      <c r="D180" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="E180" s="51"/>
-      <c r="F180" s="51"/>
+      <c r="E180" s="50"/>
+      <c r="F180" s="50"/>
     </row>
     <row r="181" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B181" s="51" t="s">
+      <c r="A181" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B181" s="50" t="s">
         <v>387</v>
       </c>
-      <c r="C181" s="51" t="s">
+      <c r="C181" s="50" t="s">
         <v>388</v>
       </c>
-      <c r="D181" s="51" t="s">
+      <c r="D181" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="E181" s="51"/>
-      <c r="F181" s="51"/>
+      <c r="E181" s="50"/>
+      <c r="F181" s="50"/>
     </row>
     <row r="182" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A182" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B182" s="51" t="s">
+      <c r="A182" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B182" s="50" t="s">
         <v>390</v>
       </c>
-      <c r="C182" s="51" t="s">
+      <c r="C182" s="50" t="s">
         <v>391</v>
       </c>
-      <c r="D182" s="51" t="s">
+      <c r="D182" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="E182" s="51"/>
-      <c r="F182" s="51"/>
+      <c r="E182" s="50"/>
+      <c r="F182" s="50"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B183" s="51" t="s">
+      <c r="A183" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B183" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="C183" s="51" t="s">
+      <c r="C183" s="50" t="s">
         <v>394</v>
       </c>
-      <c r="D183" s="51" t="s">
+      <c r="D183" s="50" t="s">
         <v>395</v>
       </c>
-      <c r="E183" s="51"/>
-      <c r="F183" s="51"/>
+      <c r="E183" s="50"/>
+      <c r="F183" s="50"/>
     </row>
     <row r="184" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B184" s="51" t="s">
+      <c r="A184" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B184" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="C184" s="51" t="s">
+      <c r="C184" s="50" t="s">
         <v>397</v>
       </c>
-      <c r="D184" s="51" t="s">
+      <c r="D184" s="50" t="s">
         <v>398</v>
       </c>
-      <c r="E184" s="51"/>
-      <c r="F184" s="51"/>
+      <c r="E184" s="50"/>
+      <c r="F184" s="50"/>
     </row>
     <row r="185" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A185" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B185" s="51" t="s">
+      <c r="A185" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B185" s="50" t="s">
         <v>399</v>
       </c>
-      <c r="C185" s="51" t="s">
+      <c r="C185" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="D185" s="51" t="s">
+      <c r="D185" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="E185" s="51"/>
-      <c r="F185" s="51"/>
+      <c r="E185" s="50"/>
+      <c r="F185" s="50"/>
     </row>
     <row r="186" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A186" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B186" s="51" t="s">
+      <c r="A186" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B186" s="50" t="s">
         <v>402</v>
       </c>
-      <c r="C186" s="51" t="s">
+      <c r="C186" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="D186" s="51" t="s">
+      <c r="D186" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="E186" s="51"/>
-      <c r="F186" s="51"/>
+      <c r="E186" s="50"/>
+      <c r="F186" s="50"/>
     </row>
     <row r="187" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B187" s="51" t="s">
+      <c r="A187" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B187" s="50" t="s">
         <v>405</v>
       </c>
-      <c r="C187" s="51" t="s">
+      <c r="C187" s="50" t="s">
         <v>406</v>
       </c>
-      <c r="D187" s="51" t="s">
+      <c r="D187" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="E187" s="51"/>
-      <c r="F187" s="51"/>
+      <c r="E187" s="50"/>
+      <c r="F187" s="50"/>
     </row>
     <row r="188" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A188" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B188" s="51" t="s">
+      <c r="A188" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B188" s="50" t="s">
         <v>408</v>
       </c>
-      <c r="C188" s="51" t="s">
+      <c r="C188" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="D188" s="51" t="s">
+      <c r="D188" s="50" t="s">
         <v>410</v>
       </c>
-      <c r="E188" s="51"/>
-      <c r="F188" s="51"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="50"/>
     </row>
     <row r="189" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B189" s="51" t="s">
+      <c r="A189" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B189" s="50" t="s">
         <v>411</v>
       </c>
-      <c r="C189" s="58" t="s">
+      <c r="C189" s="57" t="s">
         <v>412</v>
       </c>
-      <c r="D189" s="51" t="s">
+      <c r="D189" s="50" t="s">
         <v>413</v>
       </c>
-      <c r="E189" s="51"/>
-      <c r="F189" s="51"/>
+      <c r="E189" s="50"/>
+      <c r="F189" s="50"/>
     </row>
     <row r="190" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B190" s="51" t="s">
+      <c r="A190" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B190" s="50" t="s">
         <v>414</v>
       </c>
-      <c r="C190" s="51" t="s">
+      <c r="C190" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="D190" s="51" t="s">
+      <c r="D190" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="E190" s="51"/>
-      <c r="F190" s="51"/>
+      <c r="E190" s="50"/>
+      <c r="F190" s="50"/>
     </row>
     <row r="191" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A191" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B191" s="51" t="s">
+      <c r="A191" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B191" s="50" t="s">
         <v>417</v>
       </c>
-      <c r="C191" s="51" t="s">
+      <c r="C191" s="50" t="s">
         <v>418</v>
       </c>
-      <c r="D191" s="51" t="s">
+      <c r="D191" s="50" t="s">
         <v>419</v>
       </c>
-      <c r="E191" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F191" s="51"/>
+      <c r="E191" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F191" s="50"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B192" s="51" t="s">
+      <c r="A192" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B192" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="C192" s="51" t="s">
+      <c r="C192" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="D192" s="51" t="s">
+      <c r="D192" s="50" t="s">
         <v>422</v>
       </c>
-      <c r="E192" s="51"/>
-      <c r="F192" s="51"/>
+      <c r="E192" s="50"/>
+      <c r="F192" s="50"/>
     </row>
     <row r="193" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A193" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B193" s="51" t="s">
+      <c r="A193" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B193" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="C193" s="51" t="s">
+      <c r="C193" s="50" t="s">
         <v>424</v>
       </c>
-      <c r="D193" s="51" t="s">
+      <c r="D193" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="E193" s="51"/>
-      <c r="F193" s="51"/>
+      <c r="E193" s="50"/>
+      <c r="F193" s="50"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B194" s="51" t="s">
+      <c r="A194" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B194" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="C194" s="51" t="s">
+      <c r="C194" s="50" t="s">
         <v>426</v>
       </c>
-      <c r="D194" s="51" t="s">
+      <c r="D194" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="E194" s="51"/>
-      <c r="F194" s="51"/>
+      <c r="E194" s="50"/>
+      <c r="F194" s="50"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B195" s="51" t="s">
+      <c r="A195" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B195" s="50" t="s">
         <v>427</v>
       </c>
-      <c r="C195" s="51" t="s">
+      <c r="C195" s="50" t="s">
         <v>428</v>
       </c>
-      <c r="D195" s="51" t="s">
+      <c r="D195" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="E195" s="51"/>
-      <c r="F195" s="51"/>
+      <c r="E195" s="50"/>
+      <c r="F195" s="50"/>
     </row>
     <row r="196" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B196" s="51" t="s">
+      <c r="A196" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B196" s="50" t="s">
         <v>429</v>
       </c>
-      <c r="C196" s="51" t="s">
+      <c r="C196" s="50" t="s">
         <v>430</v>
       </c>
-      <c r="D196" s="51" t="s">
+      <c r="D196" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="E196" s="51"/>
-      <c r="F196" s="51"/>
+      <c r="E196" s="50"/>
+      <c r="F196" s="50"/>
     </row>
     <row r="197" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A197" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B197" s="51" t="s">
+      <c r="A197" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B197" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="C197" s="51" t="s">
+      <c r="C197" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="D197" s="51" t="s">
+      <c r="D197" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="E197" s="51"/>
-      <c r="F197" s="51"/>
+      <c r="E197" s="50"/>
+      <c r="F197" s="50"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B198" s="51" t="s">
+      <c r="A198" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B198" s="50" t="s">
         <v>433</v>
       </c>
-      <c r="C198" s="51" t="s">
+      <c r="C198" s="50" t="s">
         <v>394</v>
       </c>
-      <c r="D198" s="51" t="s">
+      <c r="D198" s="50" t="s">
         <v>395</v>
       </c>
-      <c r="E198" s="51"/>
-      <c r="F198" s="51"/>
+      <c r="E198" s="50"/>
+      <c r="F198" s="50"/>
     </row>
     <row r="199" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B199" s="51" t="s">
+      <c r="A199" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B199" s="50" t="s">
         <v>434</v>
       </c>
-      <c r="C199" s="51" t="s">
+      <c r="C199" s="50" t="s">
         <v>397</v>
       </c>
-      <c r="D199" s="51" t="s">
+      <c r="D199" s="50" t="s">
         <v>398</v>
       </c>
-      <c r="E199" s="51"/>
-      <c r="F199" s="51"/>
+      <c r="E199" s="50"/>
+      <c r="F199" s="50"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B200" s="51" t="s">
+      <c r="A200" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B200" s="50" t="s">
         <v>435</v>
       </c>
-      <c r="C200" s="51" t="s">
+      <c r="C200" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="D200" s="51" t="s">
+      <c r="D200" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="E200" s="51"/>
-      <c r="F200" s="51"/>
+      <c r="E200" s="50"/>
+      <c r="F200" s="50"/>
     </row>
     <row r="201" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B201" s="51" t="s">
+      <c r="A201" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B201" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="C201" s="51" t="s">
+      <c r="C201" s="50" t="s">
         <v>974</v>
       </c>
-      <c r="D201" s="51" t="s">
+      <c r="D201" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="E201" s="51"/>
-      <c r="F201" s="51"/>
+      <c r="E201" s="50"/>
+      <c r="F201" s="50"/>
     </row>
     <row r="202" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A202" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B202" s="51" t="s">
+      <c r="A202" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B202" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="C202" s="51" t="s">
+      <c r="C202" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="D202" s="51" t="s">
+      <c r="D202" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="E202" s="51"/>
-      <c r="F202" s="51"/>
+      <c r="E202" s="50"/>
+      <c r="F202" s="50"/>
     </row>
     <row r="203" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B203" s="51" t="s">
+      <c r="A203" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B203" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="C203" s="51" t="s">
+      <c r="C203" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="D203" s="51" t="s">
+      <c r="D203" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="E203" s="51"/>
-      <c r="F203" s="51"/>
+      <c r="E203" s="50"/>
+      <c r="F203" s="50"/>
     </row>
     <row r="204" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A204" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B204" s="51" t="s">
+      <c r="A204" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B204" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="C204" s="51" t="s">
+      <c r="C204" s="50" t="s">
         <v>444</v>
       </c>
-      <c r="D204" s="51" t="s">
+      <c r="D204" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="E204" s="51"/>
-      <c r="F204" s="51"/>
+      <c r="E204" s="50"/>
+      <c r="F204" s="50"/>
     </row>
     <row r="205" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A205" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B205" s="51" t="s">
+      <c r="A205" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B205" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="C205" s="51" t="s">
+      <c r="C205" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="D205" s="51" t="s">
+      <c r="D205" s="50" t="s">
         <v>410</v>
       </c>
-      <c r="E205" s="51"/>
-      <c r="F205" s="51"/>
+      <c r="E205" s="50"/>
+      <c r="F205" s="50"/>
     </row>
     <row r="206" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B206" s="51" t="s">
+      <c r="A206" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B206" s="50" t="s">
         <v>447</v>
       </c>
-      <c r="C206" s="58" t="s">
+      <c r="C206" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="D206" s="51" t="s">
+      <c r="D206" s="50" t="s">
         <v>413</v>
       </c>
-      <c r="E206" s="51"/>
-      <c r="F206" s="51"/>
+      <c r="E206" s="50"/>
+      <c r="F206" s="50"/>
     </row>
     <row r="207" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B207" s="51" t="s">
+      <c r="A207" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B207" s="50" t="s">
         <v>414</v>
       </c>
-      <c r="C207" s="51" t="s">
+      <c r="C207" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="D207" s="51" t="s">
+      <c r="D207" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="E207" s="51"/>
-      <c r="F207" s="51"/>
+      <c r="E207" s="50"/>
+      <c r="F207" s="50"/>
     </row>
     <row r="208" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B208" s="51" t="s">
+      <c r="A208" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B208" s="50" t="s">
         <v>450</v>
       </c>
-      <c r="C208" s="51" t="s">
+      <c r="C208" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D208" s="51" t="s">
+      <c r="D208" s="50" t="s">
         <v>419</v>
       </c>
-      <c r="E208" s="51"/>
-      <c r="F208" s="51"/>
+      <c r="E208" s="50"/>
+      <c r="F208" s="50"/>
     </row>
     <row r="209" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A209" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B209" s="51" t="s">
+      <c r="A209" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B209" s="50" t="s">
         <v>452</v>
       </c>
-      <c r="C209" s="51" t="s">
+      <c r="C209" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="D209" s="51" t="s">
+      <c r="D209" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="E209" s="51"/>
-      <c r="F209" s="51"/>
+      <c r="E209" s="50"/>
+      <c r="F209" s="50"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B210" s="51" t="s">
+      <c r="A210" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B210" s="50" t="s">
         <v>455</v>
       </c>
-      <c r="C210" s="51" t="s">
+      <c r="C210" s="50" t="s">
         <v>456</v>
       </c>
-      <c r="D210" s="51" t="s">
+      <c r="D210" s="50" t="s">
         <v>422</v>
       </c>
-      <c r="E210" s="51"/>
-      <c r="F210" s="51"/>
+      <c r="E210" s="50"/>
+      <c r="F210" s="50"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B211" s="51" t="s">
+      <c r="A211" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B211" s="50" t="s">
         <v>457</v>
       </c>
-      <c r="C211" s="51" t="s">
+      <c r="C211" s="50" t="s">
         <v>458</v>
       </c>
-      <c r="D211" s="51" t="s">
+      <c r="D211" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="E211" s="51"/>
-      <c r="F211" s="51"/>
+      <c r="E211" s="50"/>
+      <c r="F211" s="50"/>
     </row>
     <row r="212" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A212" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B212" s="51" t="s">
+      <c r="A212" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B212" s="50" t="s">
         <v>460</v>
       </c>
-      <c r="C212" s="51" t="s">
+      <c r="C212" s="50" t="s">
         <v>461</v>
       </c>
-      <c r="D212" s="51" t="s">
+      <c r="D212" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="E212" s="51"/>
-      <c r="F212" s="51"/>
+      <c r="E212" s="50"/>
+      <c r="F212" s="50"/>
     </row>
     <row r="213" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A213" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B213" s="51" t="s">
+      <c r="A213" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B213" s="50" t="s">
         <v>462</v>
       </c>
-      <c r="C213" s="51" t="s">
+      <c r="C213" s="50" t="s">
         <v>424</v>
       </c>
-      <c r="D213" s="51" t="s">
+      <c r="D213" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="E213" s="51"/>
-      <c r="F213" s="51"/>
+      <c r="E213" s="50"/>
+      <c r="F213" s="50"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B214" s="51" t="s">
+      <c r="A214" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B214" s="50" t="s">
         <v>463</v>
       </c>
-      <c r="C214" s="51" t="s">
+      <c r="C214" s="50" t="s">
         <v>426</v>
       </c>
-      <c r="D214" s="51" t="s">
+      <c r="D214" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="E214" s="51"/>
-      <c r="F214" s="51"/>
+      <c r="E214" s="50"/>
+      <c r="F214" s="50"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B215" s="51" t="s">
+      <c r="A215" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B215" s="50" t="s">
         <v>464</v>
       </c>
-      <c r="C215" s="51" t="s">
+      <c r="C215" s="50" t="s">
         <v>428</v>
       </c>
-      <c r="D215" s="51" t="s">
+      <c r="D215" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="E215" s="51"/>
-      <c r="F215" s="51"/>
+      <c r="E215" s="50"/>
+      <c r="F215" s="50"/>
     </row>
     <row r="216" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B216" s="51" t="s">
+      <c r="A216" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B216" s="50" t="s">
         <v>465</v>
       </c>
-      <c r="C216" s="51" t="s">
+      <c r="C216" s="50" t="s">
         <v>430</v>
       </c>
-      <c r="D216" s="51" t="s">
+      <c r="D216" s="50" t="s">
         <v>404</v>
       </c>
-      <c r="E216" s="51"/>
-      <c r="F216" s="51"/>
+      <c r="E216" s="50"/>
+      <c r="F216" s="50"/>
     </row>
     <row r="217" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A217" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B217" s="51" t="s">
+      <c r="A217" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B217" s="50" t="s">
         <v>466</v>
       </c>
-      <c r="C217" s="51" t="s">
+      <c r="C217" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="D217" s="51" t="s">
+      <c r="D217" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="E217" s="51"/>
-      <c r="F217" s="51"/>
+      <c r="E217" s="50"/>
+      <c r="F217" s="50"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B218" s="51" t="s">
+      <c r="A218" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B218" s="50" t="s">
         <v>467</v>
       </c>
-      <c r="C218" s="51" t="s">
+      <c r="C218" s="50" t="s">
         <v>394</v>
       </c>
-      <c r="D218" s="51" t="s">
+      <c r="D218" s="50" t="s">
         <v>395</v>
       </c>
-      <c r="E218" s="51"/>
-      <c r="F218" s="51"/>
+      <c r="E218" s="50"/>
+      <c r="F218" s="50"/>
     </row>
     <row r="219" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B219" s="51" t="s">
+      <c r="A219" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B219" s="50" t="s">
         <v>468</v>
       </c>
-      <c r="C219" s="51" t="s">
+      <c r="C219" s="50" t="s">
         <v>397</v>
       </c>
-      <c r="D219" s="51" t="s">
+      <c r="D219" s="50" t="s">
         <v>398</v>
       </c>
-      <c r="E219" s="51"/>
-      <c r="F219" s="51"/>
+      <c r="E219" s="50"/>
+      <c r="F219" s="50"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B220" s="51" t="s">
+      <c r="A220" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B220" s="50" t="s">
         <v>469</v>
       </c>
-      <c r="C220" s="51" t="s">
+      <c r="C220" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="D220" s="51" t="s">
+      <c r="D220" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="E220" s="51"/>
-      <c r="F220" s="51"/>
+      <c r="E220" s="50"/>
+      <c r="F220" s="50"/>
     </row>
     <row r="221" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B221" s="51" t="s">
+      <c r="A221" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B221" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="C221" s="51" t="s">
+      <c r="C221" s="50" t="s">
         <v>974</v>
       </c>
-      <c r="D221" s="51" t="s">
+      <c r="D221" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="E221" s="51"/>
-      <c r="F221" s="51"/>
+      <c r="E221" s="50"/>
+      <c r="F221" s="50"/>
     </row>
     <row r="222" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A222" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B222" s="51" t="s">
+      <c r="A222" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B222" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="C222" s="51" t="s">
+      <c r="C222" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="D222" s="51" t="s">
+      <c r="D222" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="E222" s="51"/>
-      <c r="F222" s="51"/>
+      <c r="E222" s="50"/>
+      <c r="F222" s="50"/>
     </row>
     <row r="223" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B223" s="51" t="s">
+      <c r="A223" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B223" s="50" t="s">
         <v>472</v>
       </c>
-      <c r="C223" s="51" t="s">
+      <c r="C223" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="D223" s="51" t="s">
+      <c r="D223" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="E223" s="51"/>
-      <c r="F223" s="51"/>
+      <c r="E223" s="50"/>
+      <c r="F223" s="50"/>
     </row>
     <row r="224" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A224" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B224" s="51" t="s">
+      <c r="A224" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B224" s="50" t="s">
         <v>473</v>
       </c>
-      <c r="C224" s="51" t="s">
+      <c r="C224" s="50" t="s">
         <v>444</v>
       </c>
-      <c r="D224" s="51" t="s">
+      <c r="D224" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="E224" s="51"/>
-      <c r="F224" s="51"/>
+      <c r="E224" s="50"/>
+      <c r="F224" s="50"/>
     </row>
     <row r="225" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A225" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B225" s="51" t="s">
+      <c r="A225" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B225" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="C225" s="51" t="s">
+      <c r="C225" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="D225" s="51" t="s">
+      <c r="D225" s="50" t="s">
         <v>410</v>
       </c>
-      <c r="E225" s="51"/>
-      <c r="F225" s="51"/>
+      <c r="E225" s="50"/>
+      <c r="F225" s="50"/>
     </row>
     <row r="226" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B226" s="51" t="s">
+      <c r="A226" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B226" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="C226" s="58" t="s">
+      <c r="C226" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="D226" s="51" t="s">
+      <c r="D226" s="50" t="s">
         <v>413</v>
       </c>
-      <c r="E226" s="51"/>
-      <c r="F226" s="51"/>
+      <c r="E226" s="50"/>
+      <c r="F226" s="50"/>
     </row>
     <row r="227" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B227" s="51" t="s">
+      <c r="A227" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B227" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="C227" s="51" t="s">
+      <c r="C227" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="D227" s="51" t="s">
+      <c r="D227" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="E227" s="51"/>
-      <c r="F227" s="51"/>
+      <c r="E227" s="50"/>
+      <c r="F227" s="50"/>
     </row>
     <row r="228" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B228" s="51" t="s">
+      <c r="A228" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B228" s="50" t="s">
         <v>450</v>
       </c>
-      <c r="C228" s="51" t="s">
+      <c r="C228" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="D228" s="51" t="s">
+      <c r="D228" s="50" t="s">
         <v>419</v>
       </c>
-      <c r="E228" s="51"/>
-      <c r="F228" s="51"/>
+      <c r="E228" s="50"/>
+      <c r="F228" s="50"/>
     </row>
     <row r="229" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A229" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B229" s="51" t="s">
+      <c r="A229" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B229" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="C229" s="51" t="s">
+      <c r="C229" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="D229" s="51" t="s">
+      <c r="D229" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="E229" s="51"/>
-      <c r="F229" s="51"/>
+      <c r="E229" s="50"/>
+      <c r="F229" s="50"/>
     </row>
     <row r="230" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A230" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B230" s="51" t="s">
+      <c r="A230" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B230" s="50" t="s">
         <v>478</v>
       </c>
-      <c r="C230" s="51" t="s">
+      <c r="C230" s="50" t="s">
         <v>479</v>
       </c>
-      <c r="D230" s="59"/>
-      <c r="E230" s="51" t="s">
+      <c r="D230" s="58"/>
+      <c r="E230" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="F230" s="51" t="s">
+      <c r="F230" s="50" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A231" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B231" s="51" t="s">
+      <c r="A231" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B231" s="50" t="s">
         <v>481</v>
       </c>
-      <c r="C231" s="58" t="s">
+      <c r="C231" s="57" t="s">
         <v>482</v>
       </c>
-      <c r="D231" s="51" t="s">
+      <c r="D231" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="E231" s="51"/>
-      <c r="F231" s="51"/>
+      <c r="E231" s="50"/>
+      <c r="F231" s="50"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B232" s="51" t="s">
+      <c r="A232" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B232" s="50" t="s">
         <v>483</v>
       </c>
-      <c r="C232" s="51" t="s">
+      <c r="C232" s="50" t="s">
         <v>484</v>
       </c>
-      <c r="D232" s="51" t="s">
+      <c r="D232" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="E232" s="51"/>
-      <c r="F232" s="51"/>
+      <c r="E232" s="50"/>
+      <c r="F232" s="50"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B233" s="51" t="s">
+      <c r="A233" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B233" s="50" t="s">
         <v>486</v>
       </c>
-      <c r="C233" s="51" t="s">
+      <c r="C233" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="D233" s="51" t="s">
+      <c r="D233" s="50" t="s">
         <v>488</v>
       </c>
-      <c r="E233" s="51"/>
-      <c r="F233" s="51"/>
+      <c r="E233" s="50"/>
+      <c r="F233" s="50"/>
     </row>
     <row r="234" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A234" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B234" s="51" t="s">
+      <c r="A234" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B234" s="50" t="s">
         <v>489</v>
       </c>
-      <c r="C234" s="51" t="s">
+      <c r="C234" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="D234" s="51" t="s">
+      <c r="D234" s="50" t="s">
         <v>491</v>
       </c>
-      <c r="E234" s="51"/>
-      <c r="F234" s="51"/>
+      <c r="E234" s="50"/>
+      <c r="F234" s="50"/>
     </row>
     <row r="235" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B235" s="51" t="s">
+      <c r="A235" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B235" s="50" t="s">
         <v>492</v>
       </c>
-      <c r="C235" s="51" t="s">
+      <c r="C235" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="D235" s="51" t="s">
+      <c r="D235" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="E235" s="51"/>
-      <c r="F235" s="51"/>
+      <c r="E235" s="50"/>
+      <c r="F235" s="50"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B236" s="51" t="s">
+      <c r="A236" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B236" s="50" t="s">
         <v>495</v>
       </c>
-      <c r="C236" s="51" t="s">
+      <c r="C236" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="D236" s="51" t="s">
+      <c r="D236" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="E236" s="51"/>
-      <c r="F236" s="51"/>
+      <c r="E236" s="50"/>
+      <c r="F236" s="50"/>
     </row>
     <row r="237" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B237" s="51" t="s">
+      <c r="A237" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B237" s="50" t="s">
         <v>497</v>
       </c>
-      <c r="C237" s="51" t="s">
+      <c r="C237" s="50" t="s">
         <v>498</v>
       </c>
-      <c r="D237" s="51" t="s">
+      <c r="D237" s="50" t="s">
         <v>499</v>
       </c>
-      <c r="E237" s="51"/>
-      <c r="F237" s="51"/>
+      <c r="E237" s="50"/>
+      <c r="F237" s="50"/>
     </row>
     <row r="238" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A238" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B238" s="51" t="s">
+      <c r="A238" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B238" s="50" t="s">
         <v>500</v>
       </c>
-      <c r="C238" s="51" t="s">
+      <c r="C238" s="50" t="s">
         <v>501</v>
       </c>
-      <c r="D238" s="51" t="s">
+      <c r="D238" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="E238" s="51"/>
-      <c r="F238" s="51"/>
+      <c r="E238" s="50"/>
+      <c r="F238" s="50"/>
     </row>
     <row r="239" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A239" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B239" s="51" t="s">
+      <c r="A239" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B239" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="C239" s="51" t="s">
+      <c r="C239" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="D239" s="58" t="s">
+      <c r="D239" s="57" t="s">
         <v>502</v>
       </c>
-      <c r="E239" s="51"/>
-      <c r="F239" s="51"/>
+      <c r="E239" s="50"/>
+      <c r="F239" s="50"/>
     </row>
     <row r="240" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A240" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B240" s="51" t="s">
+      <c r="A240" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B240" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="C240" s="51" t="s">
+      <c r="C240" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="D240" s="51" t="s">
+      <c r="D240" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="E240" s="51"/>
-      <c r="F240" s="51"/>
+      <c r="E240" s="50"/>
+      <c r="F240" s="50"/>
     </row>
     <row r="241" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B241" s="51" t="s">
+      <c r="A241" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B241" s="50" t="s">
         <v>507</v>
       </c>
-      <c r="C241" s="51" t="s">
+      <c r="C241" s="50" t="s">
         <v>508</v>
       </c>
-      <c r="D241" s="51" t="s">
+      <c r="D241" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="E241" s="51"/>
-      <c r="F241" s="51"/>
+      <c r="E241" s="50"/>
+      <c r="F241" s="50"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B242" s="51" t="s">
+      <c r="A242" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B242" s="50" t="s">
         <v>509</v>
       </c>
-      <c r="C242" s="51" t="s">
+      <c r="C242" s="50" t="s">
         <v>510</v>
       </c>
-      <c r="D242" s="51" t="s">
+      <c r="D242" s="50" t="s">
         <v>511</v>
       </c>
-      <c r="E242" s="51"/>
-      <c r="F242" s="51"/>
+      <c r="E242" s="50"/>
+      <c r="F242" s="50"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B243" s="51" t="s">
+      <c r="A243" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B243" s="50" t="s">
         <v>512</v>
       </c>
-      <c r="C243" s="51" t="s">
+      <c r="C243" s="50" t="s">
         <v>513</v>
       </c>
-      <c r="D243" s="51" t="s">
+      <c r="D243" s="50" t="s">
         <v>514</v>
       </c>
-      <c r="E243" s="51"/>
-      <c r="F243" s="51"/>
+      <c r="E243" s="50"/>
+      <c r="F243" s="50"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B244" s="51" t="s">
+      <c r="A244" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B244" s="50" t="s">
         <v>515</v>
       </c>
-      <c r="C244" s="51" t="s">
+      <c r="C244" s="50" t="s">
         <v>516</v>
       </c>
-      <c r="D244" s="51" t="s">
+      <c r="D244" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="E244" s="51"/>
-      <c r="F244" s="51"/>
+      <c r="E244" s="50"/>
+      <c r="F244" s="50"/>
     </row>
     <row r="245" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B245" s="51" t="s">
+      <c r="A245" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B245" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="C245" s="51" t="s">
+      <c r="C245" s="50" t="s">
         <v>519</v>
       </c>
-      <c r="D245" s="51" t="s">
+      <c r="D245" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="E245" s="51"/>
-      <c r="F245" s="51"/>
+      <c r="E245" s="50"/>
+      <c r="F245" s="50"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B246" s="51" t="s">
+      <c r="A246" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B246" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="C246" s="51" t="s">
+      <c r="C246" s="50" t="s">
         <v>522</v>
       </c>
-      <c r="D246" s="51" t="s">
+      <c r="D246" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="E246" s="51"/>
-      <c r="F246" s="51"/>
+      <c r="E246" s="50"/>
+      <c r="F246" s="50"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B247" s="51" t="s">
+      <c r="A247" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B247" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="C247" s="51" t="s">
+      <c r="C247" s="50" t="s">
         <v>525</v>
       </c>
-      <c r="D247" s="51" t="s">
+      <c r="D247" s="50" t="s">
         <v>526</v>
       </c>
-      <c r="E247" s="51"/>
-      <c r="F247" s="51"/>
+      <c r="E247" s="50"/>
+      <c r="F247" s="50"/>
     </row>
     <row r="248" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A248" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B248" s="51" t="s">
+      <c r="A248" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B248" s="50" t="s">
         <v>527</v>
       </c>
-      <c r="C248" s="51" t="s">
+      <c r="C248" s="50" t="s">
         <v>985</v>
       </c>
-      <c r="D248" s="51" t="s">
+      <c r="D248" s="50" t="s">
         <v>528</v>
       </c>
-      <c r="E248" s="51"/>
-      <c r="F248" s="51"/>
+      <c r="E248" s="50"/>
+      <c r="F248" s="50"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B249" s="51" t="s">
+      <c r="A249" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B249" s="50" t="s">
         <v>529</v>
       </c>
-      <c r="C249" s="51" t="s">
+      <c r="C249" s="50" t="s">
         <v>530</v>
       </c>
-      <c r="D249" s="51" t="s">
+      <c r="D249" s="50" t="s">
         <v>531</v>
       </c>
-      <c r="E249" s="51"/>
-      <c r="F249" s="51"/>
+      <c r="E249" s="50"/>
+      <c r="F249" s="50"/>
     </row>
     <row r="250" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A250" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B250" s="51" t="s">
+      <c r="A250" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B250" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="C250" s="51" t="s">
+      <c r="C250" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="D250" s="51" t="s">
+      <c r="D250" s="50" t="s">
         <v>534</v>
       </c>
-      <c r="E250" s="51"/>
-      <c r="F250" s="51"/>
+      <c r="E250" s="50"/>
+      <c r="F250" s="50"/>
     </row>
     <row r="251" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B251" s="51" t="s">
+      <c r="A251" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B251" s="50" t="s">
         <v>535</v>
       </c>
-      <c r="C251" s="51" t="s">
+      <c r="C251" s="50" t="s">
         <v>536</v>
       </c>
-      <c r="D251" s="51" t="s">
+      <c r="D251" s="50" t="s">
         <v>537</v>
       </c>
-      <c r="E251" s="51"/>
-      <c r="F251" s="51"/>
+      <c r="E251" s="50"/>
+      <c r="F251" s="50"/>
     </row>
     <row r="252" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A252" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B252" s="51" t="s">
+      <c r="A252" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B252" s="50" t="s">
         <v>538</v>
       </c>
-      <c r="C252" s="51" t="s">
+      <c r="C252" s="50" t="s">
         <v>539</v>
       </c>
-      <c r="D252" s="58" t="s">
+      <c r="D252" s="57" t="s">
         <v>537</v>
       </c>
-      <c r="E252" s="51"/>
-      <c r="F252" s="51"/>
+      <c r="E252" s="50"/>
+      <c r="F252" s="50"/>
     </row>
     <row r="253" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A253" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B253" s="51" t="s">
+      <c r="A253" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B253" s="50" t="s">
         <v>540</v>
       </c>
-      <c r="C253" s="51" t="s">
+      <c r="C253" s="50" t="s">
         <v>541</v>
       </c>
-      <c r="D253" s="58" t="s">
+      <c r="D253" s="57" t="s">
         <v>537</v>
       </c>
-      <c r="E253" s="51"/>
-      <c r="F253" s="51"/>
+      <c r="E253" s="50"/>
+      <c r="F253" s="50"/>
     </row>
     <row r="254" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A254" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B254" s="51" t="s">
+      <c r="A254" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B254" s="50" t="s">
         <v>542</v>
       </c>
-      <c r="C254" s="51" t="s">
+      <c r="C254" s="50" t="s">
         <v>543</v>
       </c>
-      <c r="D254" s="51" t="s">
+      <c r="D254" s="50" t="s">
         <v>544</v>
       </c>
-      <c r="E254" s="51"/>
-      <c r="F254" s="51"/>
+      <c r="E254" s="50"/>
+      <c r="F254" s="50"/>
     </row>
     <row r="255" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A255" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B255" s="51" t="s">
+      <c r="A255" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B255" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="C255" s="51" t="s">
+      <c r="C255" s="50" t="s">
         <v>546</v>
       </c>
-      <c r="D255" s="51" t="s">
+      <c r="D255" s="50" t="s">
         <v>547</v>
       </c>
-      <c r="E255" s="51"/>
-      <c r="F255" s="51"/>
+      <c r="E255" s="50"/>
+      <c r="F255" s="50"/>
     </row>
     <row r="256" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A256" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B256" s="51" t="s">
+      <c r="A256" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B256" s="50" t="s">
         <v>548</v>
       </c>
-      <c r="C256" s="51" t="s">
+      <c r="C256" s="50" t="s">
         <v>549</v>
       </c>
-      <c r="D256" s="51" t="s">
+      <c r="D256" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="E256" s="51"/>
-      <c r="F256" s="51"/>
+      <c r="E256" s="50"/>
+      <c r="F256" s="50"/>
     </row>
     <row r="257" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A257" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B257" s="51" t="s">
+      <c r="A257" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B257" s="50" t="s">
         <v>550</v>
       </c>
-      <c r="C257" s="51" t="s">
+      <c r="C257" s="50" t="s">
         <v>551</v>
       </c>
-      <c r="D257" s="58" t="s">
+      <c r="D257" s="57" t="s">
         <v>502</v>
       </c>
-      <c r="E257" s="51"/>
-      <c r="F257" s="51"/>
+      <c r="E257" s="50"/>
+      <c r="F257" s="50"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B258" s="51"/>
-      <c r="C258" s="51" t="s">
+      <c r="A258" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B258" s="50"/>
+      <c r="C258" s="50" t="s">
         <v>552</v>
       </c>
-      <c r="D258" s="51" t="s">
+      <c r="D258" s="50" t="s">
         <v>553</v>
       </c>
-      <c r="E258" s="51"/>
-      <c r="F258" s="51"/>
+      <c r="E258" s="50"/>
+      <c r="F258" s="50"/>
     </row>
     <row r="259" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A259" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B259" s="51" t="s">
+      <c r="A259" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B259" s="50" t="s">
         <v>554</v>
       </c>
-      <c r="C259" s="51" t="s">
+      <c r="C259" s="50" t="s">
         <v>555</v>
       </c>
-      <c r="D259" s="51" t="s">
+      <c r="D259" s="50" t="s">
         <v>556</v>
       </c>
-      <c r="E259" s="51"/>
-      <c r="F259" s="51"/>
+      <c r="E259" s="50"/>
+      <c r="F259" s="50"/>
     </row>
     <row r="260" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A260" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B260" s="51" t="s">
+      <c r="A260" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B260" s="50" t="s">
         <v>557</v>
       </c>
-      <c r="C260" s="51" t="s">
+      <c r="C260" s="50" t="s">
         <v>558</v>
       </c>
-      <c r="D260" s="51" t="s">
+      <c r="D260" s="50" t="s">
         <v>559</v>
       </c>
-      <c r="E260" s="51"/>
-      <c r="F260" s="51"/>
+      <c r="E260" s="50"/>
+      <c r="F260" s="50"/>
     </row>
     <row r="261" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A261" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B261" s="51" t="s">
+      <c r="A261" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B261" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="C261" s="51" t="s">
+      <c r="C261" s="50" t="s">
         <v>561</v>
       </c>
-      <c r="D261" s="51" t="s">
+      <c r="D261" s="50" t="s">
         <v>514</v>
       </c>
-      <c r="E261" s="51"/>
-      <c r="F261" s="51"/>
+      <c r="E261" s="50"/>
+      <c r="F261" s="50"/>
     </row>
     <row r="262" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A262" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B262" s="51" t="s">
+      <c r="A262" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B262" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="C262" s="51" t="s">
+      <c r="C262" s="50" t="s">
         <v>563</v>
       </c>
-      <c r="D262" s="51" t="s">
+      <c r="D262" s="50" t="s">
         <v>534</v>
       </c>
-      <c r="E262" s="51"/>
-      <c r="F262" s="51"/>
+      <c r="E262" s="50"/>
+      <c r="F262" s="50"/>
     </row>
     <row r="263" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A263" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B263" s="51" t="s">
+      <c r="A263" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B263" s="50" t="s">
         <v>564</v>
       </c>
-      <c r="C263" s="51" t="s">
+      <c r="C263" s="50" t="s">
         <v>565</v>
       </c>
-      <c r="D263" s="51" t="s">
+      <c r="D263" s="50" t="s">
         <v>544</v>
       </c>
-      <c r="E263" s="51"/>
-      <c r="F263" s="51"/>
+      <c r="E263" s="50"/>
+      <c r="F263" s="50"/>
     </row>
     <row r="264" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A264" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B264" s="51" t="s">
+      <c r="A264" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B264" s="50" t="s">
         <v>566</v>
       </c>
-      <c r="C264" s="51" t="s">
+      <c r="C264" s="50" t="s">
         <v>567</v>
       </c>
-      <c r="D264" s="51" t="s">
+      <c r="D264" s="50" t="s">
         <v>547</v>
       </c>
-      <c r="E264" s="51"/>
-      <c r="F264" s="51"/>
+      <c r="E264" s="50"/>
+      <c r="F264" s="50"/>
     </row>
     <row r="265" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A265" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B265" s="51" t="s">
+      <c r="A265" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B265" s="50" t="s">
         <v>568</v>
       </c>
-      <c r="C265" s="51" t="s">
+      <c r="C265" s="50" t="s">
         <v>569</v>
       </c>
-      <c r="D265" s="51" t="s">
+      <c r="D265" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="E265" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F265" s="51"/>
+      <c r="E265" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F265" s="50"/>
     </row>
     <row r="266" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A266" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B266" s="51" t="s">
+      <c r="A266" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B266" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="C266" s="51" t="s">
+      <c r="C266" s="50" t="s">
         <v>551</v>
       </c>
-      <c r="D266" s="58" t="s">
+      <c r="D266" s="57" t="s">
         <v>502</v>
       </c>
-      <c r="E266" s="51"/>
-      <c r="F266" s="51"/>
+      <c r="E266" s="50"/>
+      <c r="F266" s="50"/>
     </row>
     <row r="267" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A267" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B267" s="51" t="s">
+      <c r="A267" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B267" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="C267" s="51" t="s">
+      <c r="C267" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="D267" s="51" t="s">
+      <c r="D267" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="E267" s="51"/>
-      <c r="F267" s="51"/>
+      <c r="E267" s="50"/>
+      <c r="F267" s="50"/>
     </row>
     <row r="268" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A268" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B268" s="51" t="s">
+      <c r="A268" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B268" s="50" t="s">
         <v>574</v>
       </c>
-      <c r="C268" s="51" t="s">
+      <c r="C268" s="50" t="s">
         <v>575</v>
       </c>
-      <c r="D268" s="51" t="s">
+      <c r="D268" s="50" t="s">
         <v>559</v>
       </c>
-      <c r="E268" s="51"/>
-      <c r="F268" s="51"/>
+      <c r="E268" s="50"/>
+      <c r="F268" s="50"/>
     </row>
     <row r="269" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A269" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B269" s="51" t="s">
+      <c r="A269" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B269" s="50" t="s">
         <v>576</v>
       </c>
-      <c r="C269" s="51" t="s">
+      <c r="C269" s="50" t="s">
         <v>577</v>
       </c>
-      <c r="D269" s="51" t="s">
+      <c r="D269" s="50" t="s">
         <v>514</v>
       </c>
-      <c r="E269" s="51"/>
-      <c r="F269" s="51"/>
+      <c r="E269" s="50"/>
+      <c r="F269" s="50"/>
     </row>
     <row r="270" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A270" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B270" s="51" t="s">
+      <c r="A270" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B270" s="50" t="s">
         <v>578</v>
       </c>
-      <c r="C270" s="51" t="s">
+      <c r="C270" s="50" t="s">
         <v>579</v>
       </c>
-      <c r="D270" s="51" t="s">
+      <c r="D270" s="50" t="s">
         <v>534</v>
       </c>
-      <c r="E270" s="51"/>
-      <c r="F270" s="51"/>
+      <c r="E270" s="50"/>
+      <c r="F270" s="50"/>
     </row>
     <row r="271" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A271" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B271" s="51" t="s">
+      <c r="A271" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B271" s="50" t="s">
         <v>580</v>
       </c>
-      <c r="C271" s="51" t="s">
+      <c r="C271" s="50" t="s">
         <v>581</v>
       </c>
-      <c r="D271" s="51" t="s">
+      <c r="D271" s="50" t="s">
         <v>547</v>
       </c>
-      <c r="E271" s="51"/>
-      <c r="F271" s="51"/>
+      <c r="E271" s="50"/>
+      <c r="F271" s="50"/>
     </row>
     <row r="272" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A272" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B272" s="51" t="s">
+      <c r="A272" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B272" s="50" t="s">
         <v>582</v>
       </c>
-      <c r="C272" s="51" t="s">
+      <c r="C272" s="50" t="s">
         <v>583</v>
       </c>
-      <c r="D272" s="51" t="s">
+      <c r="D272" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="E272" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F272" s="51"/>
+      <c r="E272" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F272" s="50"/>
     </row>
     <row r="273" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A273" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B273" s="51" t="s">
+      <c r="A273" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B273" s="50" t="s">
         <v>584</v>
       </c>
-      <c r="C273" s="51" t="s">
+      <c r="C273" s="50" t="s">
         <v>585</v>
       </c>
-      <c r="D273" s="58" t="s">
+      <c r="D273" s="57" t="s">
         <v>502</v>
       </c>
-      <c r="E273" s="51"/>
-      <c r="F273" s="51"/>
+      <c r="E273" s="50"/>
+      <c r="F273" s="50"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B274" s="51" t="s">
+      <c r="A274" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B274" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="C274" s="51" t="s">
+      <c r="C274" s="50" t="s">
         <v>587</v>
       </c>
-      <c r="D274" s="51" t="s">
+      <c r="D274" s="50" t="s">
         <v>553</v>
       </c>
-      <c r="E274" s="51"/>
-      <c r="F274" s="51"/>
+      <c r="E274" s="50"/>
+      <c r="F274" s="50"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B275" s="51" t="s">
+      <c r="A275" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B275" s="50" t="s">
         <v>588</v>
       </c>
-      <c r="C275" s="51" t="s">
+      <c r="C275" s="50" t="s">
         <v>589</v>
       </c>
-      <c r="D275" s="51" t="s">
+      <c r="D275" s="50" t="s">
         <v>511</v>
       </c>
-      <c r="E275" s="51"/>
-      <c r="F275" s="51"/>
+      <c r="E275" s="50"/>
+      <c r="F275" s="50"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B276" s="51" t="s">
+      <c r="A276" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B276" s="50" t="s">
         <v>590</v>
       </c>
-      <c r="C276" s="51" t="s">
+      <c r="C276" s="50" t="s">
         <v>591</v>
       </c>
-      <c r="D276" s="51" t="s">
+      <c r="D276" s="50" t="s">
         <v>514</v>
       </c>
-      <c r="E276" s="51"/>
-      <c r="F276" s="51"/>
+      <c r="E276" s="50"/>
+      <c r="F276" s="50"/>
     </row>
     <row r="277" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A277" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B277" s="51" t="s">
+      <c r="A277" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B277" s="50" t="s">
         <v>592</v>
       </c>
-      <c r="C277" s="51" t="s">
+      <c r="C277" s="50" t="s">
         <v>593</v>
       </c>
-      <c r="D277" s="51" t="s">
+      <c r="D277" s="50" t="s">
         <v>594</v>
       </c>
-      <c r="E277" s="51"/>
-      <c r="F277" s="51"/>
+      <c r="E277" s="50"/>
+      <c r="F277" s="50"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B278" s="51" t="s">
+      <c r="A278" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B278" s="50" t="s">
         <v>595</v>
       </c>
-      <c r="C278" s="51" t="s">
+      <c r="C278" s="50" t="s">
         <v>596</v>
       </c>
-      <c r="D278" s="51" t="s">
+      <c r="D278" s="50" t="s">
         <v>597</v>
       </c>
-      <c r="E278" s="51"/>
-      <c r="F278" s="51"/>
+      <c r="E278" s="50"/>
+      <c r="F278" s="50"/>
     </row>
     <row r="279" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A279" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B279" s="51" t="s">
+      <c r="A279" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B279" s="50" t="s">
         <v>598</v>
       </c>
-      <c r="C279" s="51" t="s">
+      <c r="C279" s="50" t="s">
         <v>599</v>
       </c>
-      <c r="D279" s="51" t="s">
+      <c r="D279" s="50" t="s">
         <v>600</v>
       </c>
-      <c r="E279" s="51"/>
-      <c r="F279" s="51"/>
+      <c r="E279" s="50"/>
+      <c r="F279" s="50"/>
     </row>
     <row r="280" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A280" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B280" s="51" t="s">
+      <c r="A280" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B280" s="50" t="s">
         <v>601</v>
       </c>
-      <c r="C280" s="51" t="s">
+      <c r="C280" s="50" t="s">
         <v>602</v>
       </c>
-      <c r="D280" s="51" t="s">
+      <c r="D280" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="E280" s="51"/>
-      <c r="F280" s="51"/>
+      <c r="E280" s="50"/>
+      <c r="F280" s="50"/>
     </row>
     <row r="281" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A281" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B281" s="51" t="s">
+      <c r="A281" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B281" s="50" t="s">
         <v>603</v>
       </c>
-      <c r="C281" s="51" t="s">
+      <c r="C281" s="50" t="s">
         <v>604</v>
       </c>
-      <c r="D281" s="51" t="s">
+      <c r="D281" s="50" t="s">
         <v>526</v>
       </c>
-      <c r="E281" s="51"/>
-      <c r="F281" s="51"/>
+      <c r="E281" s="50"/>
+      <c r="F281" s="50"/>
     </row>
     <row r="282" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A282" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B282" s="51" t="s">
+      <c r="A282" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B282" s="50" t="s">
         <v>605</v>
       </c>
-      <c r="C282" s="51" t="s">
+      <c r="C282" s="50" t="s">
         <v>606</v>
       </c>
-      <c r="D282" s="51" t="s">
+      <c r="D282" s="50" t="s">
         <v>528</v>
       </c>
-      <c r="E282" s="51"/>
-      <c r="F282" s="51"/>
+      <c r="E282" s="50"/>
+      <c r="F282" s="50"/>
     </row>
     <row r="283" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A283" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B283" s="51" t="s">
+      <c r="A283" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B283" s="50" t="s">
         <v>607</v>
       </c>
-      <c r="C283" s="51" t="s">
+      <c r="C283" s="50" t="s">
         <v>608</v>
       </c>
-      <c r="D283" s="51" t="s">
+      <c r="D283" s="50" t="s">
         <v>531</v>
       </c>
-      <c r="E283" s="51"/>
-      <c r="F283" s="51"/>
+      <c r="E283" s="50"/>
+      <c r="F283" s="50"/>
     </row>
     <row r="284" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A284" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B284" s="51" t="s">
+      <c r="A284" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B284" s="50" t="s">
         <v>609</v>
       </c>
-      <c r="C284" s="51" t="s">
+      <c r="C284" s="50" t="s">
         <v>610</v>
       </c>
-      <c r="D284" s="51" t="s">
+      <c r="D284" s="50" t="s">
         <v>534</v>
       </c>
-      <c r="E284" s="51"/>
-      <c r="F284" s="51"/>
+      <c r="E284" s="50"/>
+      <c r="F284" s="50"/>
     </row>
     <row r="285" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A285" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B285" s="51" t="s">
+      <c r="A285" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B285" s="50" t="s">
         <v>611</v>
       </c>
-      <c r="C285" s="51" t="s">
+      <c r="C285" s="50" t="s">
         <v>612</v>
       </c>
-      <c r="D285" s="51" t="s">
+      <c r="D285" s="50" t="s">
         <v>547</v>
       </c>
-      <c r="E285" s="51"/>
-      <c r="F285" s="51"/>
+      <c r="E285" s="50"/>
+      <c r="F285" s="50"/>
     </row>
     <row r="286" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A286" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B286" s="51" t="s">
+      <c r="A286" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B286" s="50" t="s">
         <v>450</v>
       </c>
-      <c r="C286" s="51" t="s">
+      <c r="C286" s="50" t="s">
         <v>613</v>
       </c>
-      <c r="D286" s="51" t="s">
+      <c r="D286" s="50" t="s">
         <v>600</v>
       </c>
-      <c r="E286" s="51"/>
-      <c r="F286" s="51"/>
+      <c r="E286" s="50"/>
+      <c r="F286" s="50"/>
     </row>
     <row r="287" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A287" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B287" s="51" t="s">
+      <c r="A287" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B287" s="50" t="s">
         <v>614</v>
       </c>
-      <c r="C287" s="51" t="s">
+      <c r="C287" s="50" t="s">
         <v>613</v>
       </c>
-      <c r="D287" s="51" t="s">
+      <c r="D287" s="50" t="s">
         <v>615</v>
       </c>
-      <c r="E287" s="51"/>
-      <c r="F287" s="51"/>
+      <c r="E287" s="50"/>
+      <c r="F287" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
@@ -10127,13 +10122,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="63" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="63" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="63" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="63" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="63" customWidth="1"/>
-    <col min="257" max="16384" width="8.875" style="63"/>
+    <col min="1" max="1" width="10.5" style="62" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="62" customWidth="1"/>
+    <col min="4" max="5" width="81.375" style="62" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="62" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="62" customWidth="1"/>
+    <col min="257" max="16384" width="8.875" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -10303,20 +10298,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C16" workbookViewId="0">
       <selection activeCell="D37" sqref="D1:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="63" customWidth="1"/>
-    <col min="2" max="2" width="52.5" style="63" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="63" customWidth="1"/>
-    <col min="4" max="4" width="100" style="63" customWidth="1"/>
-    <col min="5" max="6" width="22.875" style="63" customWidth="1"/>
-    <col min="7" max="7" width="20" style="63" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="63" customWidth="1"/>
-    <col min="257" max="16384" width="8.875" style="63"/>
+    <col min="1" max="1" width="10.5" style="62" customWidth="1"/>
+    <col min="2" max="2" width="52.5" style="62" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="100" style="62" customWidth="1"/>
+    <col min="5" max="6" width="22.875" style="62" customWidth="1"/>
+    <col min="7" max="7" width="20" style="62" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="62" customWidth="1"/>
+    <col min="257" max="16384" width="8.875" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -10419,16 +10414,16 @@
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="63" t="s">
         <v>151</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="63" t="s">
         <v>638</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="68" t="s">
         <v>976</v>
       </c>
       <c r="E6" s="16"/>
@@ -10438,35 +10433,35 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>632</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>639</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>640</v>
       </c>
-      <c r="E7" s="66"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="16" t="s">
         <v>133</v>
       </c>
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="66" t="s">
         <v>641</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="66" t="s">
         <v>642</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="66" t="s">
         <v>643</v>
       </c>
       <c r="E8" s="16"/>
@@ -11009,7 +11004,7 @@
       </c>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>235</v>
       </c>
@@ -11026,7 +11021,7 @@
       <c r="F37" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="G37" s="68" t="s">
+      <c r="G37" s="67" t="s">
         <v>975</v>
       </c>
     </row>
@@ -11043,18 +11038,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D25" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="22" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="22" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="22" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="21" customWidth="1"/>
+    <col min="4" max="5" width="80.875" style="21" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="21" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -11090,10 +11085,10 @@
       <c r="C2" s="17" t="s">
         <v>686</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="2" t="s">
         <v>239</v>
       </c>
@@ -11109,10 +11104,10 @@
       <c r="C3" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="2" t="s">
         <v>239</v>
       </c>
@@ -11128,10 +11123,10 @@
       <c r="C4" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="2" t="s">
         <v>239</v>
       </c>
@@ -11147,10 +11142,10 @@
       <c r="C5" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="2" t="s">
         <v>239</v>
       </c>
@@ -11166,10 +11161,10 @@
       <c r="C6" s="17" t="s">
         <v>690</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>691</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="2" t="s">
         <v>239</v>
       </c>
@@ -11185,10 +11180,10 @@
       <c r="C7" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="2" t="s">
         <v>239</v>
       </c>
@@ -11204,10 +11199,10 @@
       <c r="C8" s="17" t="s">
         <v>694</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="2" t="s">
         <v>239</v>
       </c>
@@ -11223,10 +11218,10 @@
       <c r="C9" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="2" t="s">
         <v>239</v>
       </c>
@@ -11242,10 +11237,10 @@
       <c r="C10" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="2" t="s">
         <v>239</v>
       </c>
@@ -11261,10 +11256,10 @@
       <c r="C11" s="17" t="s">
         <v>700</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="2" t="s">
         <v>239</v>
       </c>
@@ -11280,10 +11275,10 @@
       <c r="C12" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="2" t="s">
         <v>239</v>
       </c>
@@ -11299,10 +11294,10 @@
       <c r="C13" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="2" t="s">
         <v>239</v>
       </c>
@@ -11318,10 +11313,10 @@
       <c r="C14" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="2" t="s">
         <v>239</v>
       </c>
@@ -11337,10 +11332,10 @@
       <c r="C15" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="2" t="s">
         <v>239</v>
       </c>
@@ -11356,10 +11351,10 @@
       <c r="C16" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="2" t="s">
         <v>239</v>
       </c>
@@ -11375,10 +11370,10 @@
       <c r="C17" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="2" t="s">
         <v>239</v>
       </c>
@@ -11394,10 +11389,10 @@
       <c r="C18" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="2" t="s">
         <v>239</v>
       </c>
@@ -11413,10 +11408,10 @@
       <c r="C19" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="2" t="s">
         <v>239</v>
       </c>
@@ -11432,10 +11427,10 @@
       <c r="C20" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>971</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="2" t="s">
         <v>239</v>
       </c>
@@ -11451,10 +11446,10 @@
       <c r="C21" s="17" t="s">
         <v>712</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="2" t="s">
         <v>239</v>
       </c>
@@ -11470,10 +11465,10 @@
       <c r="C22" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="E22" s="21"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="2" t="s">
         <v>239</v>
       </c>
@@ -11489,10 +11484,10 @@
       <c r="C23" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="2" t="s">
         <v>239</v>
       </c>
@@ -11508,10 +11503,10 @@
       <c r="C24" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>716</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="2" t="s">
         <v>239</v>
       </c>
@@ -11527,10 +11522,10 @@
       <c r="C25" s="17" t="s">
         <v>717</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>718</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="2" t="s">
         <v>239</v>
       </c>
@@ -11546,10 +11541,10 @@
       <c r="C26" s="17" t="s">
         <v>719</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="E26" s="21"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="2" t="s">
         <v>628</v>
       </c>
@@ -11565,10 +11560,10 @@
       <c r="C27" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="2" t="s">
         <v>239</v>
       </c>
@@ -11584,10 +11579,10 @@
       <c r="C28" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="E28" s="21"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="2" t="s">
         <v>239</v>
       </c>
@@ -11603,10 +11598,10 @@
       <c r="C29" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="E29" s="21"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="2" t="s">
         <v>239</v>
       </c>
@@ -11625,7 +11620,7 @@
       <c r="D30" s="18" t="s">
         <v>725</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="2" t="s">
         <v>239</v>
       </c>
@@ -11644,7 +11639,7 @@
       <c r="D31" s="18" t="s">
         <v>728</v>
       </c>
-      <c r="E31" s="21"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="2" t="s">
         <v>239</v>
       </c>
@@ -11663,7 +11658,7 @@
       <c r="D32" s="18" t="s">
         <v>731</v>
       </c>
-      <c r="E32" s="21"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="2" t="s">
         <v>239</v>
       </c>
@@ -11682,7 +11677,7 @@
       <c r="D33" s="18" t="s">
         <v>734</v>
       </c>
-      <c r="E33" s="21"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="2" t="s">
         <v>239</v>
       </c>
@@ -11701,7 +11696,7 @@
       <c r="D34" s="18" t="s">
         <v>737</v>
       </c>
-      <c r="E34" s="21"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="2" t="s">
         <v>239</v>
       </c>
@@ -11720,7 +11715,7 @@
       <c r="D35" s="18" t="s">
         <v>740</v>
       </c>
-      <c r="E35" s="21"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="2" t="s">
         <v>239</v>
       </c>
@@ -11739,7 +11734,7 @@
       <c r="D36" s="18" t="s">
         <v>743</v>
       </c>
-      <c r="E36" s="21"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="2" t="s">
         <v>239</v>
       </c>
@@ -11758,7 +11753,7 @@
       <c r="D37" s="18" t="s">
         <v>746</v>
       </c>
-      <c r="E37" s="21"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="2" t="s">
         <v>239</v>
       </c>
@@ -11777,7 +11772,7 @@
       <c r="D38" s="18" t="s">
         <v>749</v>
       </c>
-      <c r="E38" s="21"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="2" t="s">
         <v>239</v>
       </c>
@@ -12027,20 +12022,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="24" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="29" style="24" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="23" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="29" style="23" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12269,29 +12264,29 @@
       <c r="D12" s="14" t="s">
         <v>804</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="14" t="s">
         <v>239</v>
       </c>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>413</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>806</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>807</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>239</v>
       </c>
       <c r="G13" s="14" t="s">
@@ -12311,7 +12306,7 @@
       <c r="D14" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="14" t="s">
         <v>239</v>
       </c>
@@ -12511,12 +12506,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="30" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="30" customWidth="1"/>
-    <col min="4" max="5" width="75.625" style="30" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="30" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="29" customWidth="1"/>
+    <col min="4" max="5" width="75.625" style="29" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="29" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -12532,7 +12527,7 @@
       <c r="D1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>619</v>
       </c>
       <c r="F1" s="14" t="s">
@@ -12552,13 +12547,13 @@
       <c r="C2" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>830</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>831</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>239</v>
       </c>
       <c r="G2" s="3"/>
@@ -12573,13 +12568,13 @@
       <c r="C3" s="17" t="s">
         <v>832</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>833</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>831</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>239</v>
       </c>
       <c r="G3" s="3"/>
@@ -12594,68 +12589,68 @@
       <c r="C4" s="17" t="s">
         <v>834</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>835</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>807</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>239</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="37"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
@@ -12678,13 +12673,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="38" customWidth="1"/>
-    <col min="4" max="5" width="44.5" style="38" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="44.5" style="38" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="37" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="37" customWidth="1"/>
+    <col min="4" max="5" width="44.5" style="37" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="37" customWidth="1"/>
+    <col min="7" max="7" width="44.5" style="37" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12727,7 +12722,7 @@
       <c r="F2" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>839</v>
       </c>
     </row>
@@ -12763,7 +12758,7 @@
       <c r="D4" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="14" t="s">
         <v>239</v>
       </c>
@@ -12782,7 +12777,7 @@
       <c r="D5" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="14" t="s">
         <v>239</v>
       </c>
@@ -12801,7 +12796,7 @@
       <c r="D6" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="14" t="s">
         <v>239</v>
       </c>
@@ -12817,13 +12812,13 @@
       <c r="C7" s="14" t="s">
         <v>845</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>846</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>239</v>
       </c>
       <c r="G7" s="14" t="s">
@@ -12843,7 +12838,7 @@
       <c r="D8" s="14" t="s">
         <v>849</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="14" t="s">
         <v>239</v>
       </c>
@@ -12862,7 +12857,7 @@
       <c r="D9" s="14" t="s">
         <v>851</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="14" t="s">
         <v>239</v>
       </c>
@@ -12881,7 +12876,7 @@
       <c r="D10" s="14" t="s">
         <v>853</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="14" t="s">
         <v>239</v>
       </c>
@@ -12900,7 +12895,7 @@
       <c r="D11" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="14" t="s">
         <v>239</v>
       </c>
@@ -12919,11 +12914,11 @@
       <c r="D12" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -12935,13 +12930,13 @@
       <c r="C13" s="14" t="s">
         <v>856</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="40" t="s">
         <v>857</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>817</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>239</v>
       </c>
       <c r="G13" s="14" t="s">
@@ -12958,13 +12953,13 @@
       <c r="C14" s="14" t="s">
         <v>859</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="40" t="s">
         <v>543</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>860</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="27" t="s">
         <v>239</v>
       </c>
       <c r="G14" s="14" t="s">
@@ -12984,7 +12979,7 @@
       <c r="D15" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="14" t="s">
         <v>239</v>
       </c>
@@ -13003,7 +12998,7 @@
       <c r="D16" s="14" t="s">
         <v>864</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="14" t="s">
         <v>239</v>
       </c>
@@ -13022,7 +13017,7 @@
       <c r="D17" s="14" t="s">
         <v>866</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="14" t="s">
         <v>239</v>
       </c>
@@ -13041,7 +13036,7 @@
       <c r="D18" s="14" t="s">
         <v>868</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="14" t="s">
         <v>239</v>
       </c>
@@ -13057,13 +13052,13 @@
       <c r="C19" s="14" t="s">
         <v>869</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="40" t="s">
         <v>870</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="26" t="s">
         <v>871</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="27" t="s">
         <v>239</v>
       </c>
       <c r="G19" s="14" t="s">
@@ -13083,55 +13078,55 @@
       <c r="D20" s="14" t="s">
         <v>874</v>
       </c>
-      <c r="E20" s="43"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="14" t="s">
         <v>239</v>
       </c>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>600</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>836</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>875</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="43" t="s">
         <v>876</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>877</v>
       </c>
-      <c r="F21" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="G21" s="31" t="s">
+      <c r="F21" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="45" t="s">
         <v>615</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="46" t="s">
         <v>836</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="47" t="s">
         <v>879</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="47" t="s">
         <v>880</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="47" t="s">
         <v>881</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="48" t="s">
         <v>882</v>
       </c>
     </row>
@@ -13154,10 +13149,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="50" customWidth="1"/>
-    <col min="2" max="2" width="122.375" style="50" customWidth="1"/>
-    <col min="3" max="5" width="10.5" style="50" customWidth="1"/>
-    <col min="6" max="256" width="8.875" style="50" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="49" customWidth="1"/>
+    <col min="2" max="2" width="122.375" style="49" customWidth="1"/>
+    <col min="3" max="5" width="10.5" style="49" customWidth="1"/>
+    <col min="6" max="256" width="8.875" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499423AD-1334-4AFD-9D78-F4255078D911}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF88D7A-AFE6-4B12-A4E7-E4DE159DC577}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="255" windowWidth="27930" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="985">
   <si>
     <t>Test Case</t>
   </si>
@@ -2995,9 +2995,6 @@
   </si>
   <si>
     <t>Validate that the Reserved for Future Use field is equal to 0x00000000</t>
-  </si>
-  <si>
-    <t>Validate that the “Reserved for Future Use field is equal to 0x00000000</t>
   </si>
   <si>
     <t>The accessLocation for this AccessMethod is of type uniformResourceIdentifier and that the scheme is “http (not “https).</t>
@@ -5403,8 +5400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7349,7 +7346,7 @@
         <v>281</v>
       </c>
       <c r="C119" s="60" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D119" s="50" t="s">
         <v>282</v>
@@ -9469,7 +9466,7 @@
         <v>527</v>
       </c>
       <c r="C248" s="50" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D248" s="50" t="s">
         <v>528</v>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF88D7A-AFE6-4B12-A4E7-E4DE159DC577}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ABAFCE-D3B1-40DD-8350-088DA52F9324}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="255" windowWidth="27930" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2997,7 +2997,7 @@
     <t>Validate that the Reserved for Future Use field is equal to 0x00000000</t>
   </si>
   <si>
-    <t>The accessLocation for this AccessMethod is of type uniformResourceIdentifier and that the scheme is “http (not “https).</t>
+    <t>The accessLocation for this AccessMethod is of type uniformResourceIdentifier and that the scheme is http (not https).</t>
   </si>
 </sst>
 </file>
@@ -5400,8 +5400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ABAFCE-D3B1-40DD-8350-088DA52F9324}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEACE89-2F93-439F-BFD7-700321AEE4F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="255" windowWidth="27930" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="75" windowWidth="27930" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIV I Reference Tests" sheetId="1" r:id="rId1"/>
@@ -5400,8 +5400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D285" sqref="D285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12664,8 +12664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA43BF18-1280-4A63-B0F7-5FE67B1E1AE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09C2153-5F2C-4C7E-8336-AB3AF05B6784}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="450" windowWidth="25680" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="450" windowWidth="25680" windowHeight="16305" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIV I Reference Tests" sheetId="1" r:id="rId1"/>
@@ -6080,10 +6080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539C8DD9-7E09-4AC9-B53E-1B766442D166}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E422" sqref="E422:E427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6092,6 +6092,7 @@
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="85.375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -7640,7 +7641,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:5">
       <c r="A113" s="62" t="s">
         <v>125</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="31.5">
+    <row r="114" spans="1:5" ht="31.5">
       <c r="A114" s="62" t="s">
         <v>125</v>
       </c>
@@ -7668,7 +7669,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:5">
       <c r="A115" s="62" t="s">
         <v>125</v>
       </c>
@@ -7680,7 +7681,7 @@
       </c>
       <c r="D115" s="65"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:5">
       <c r="A116" s="62" t="s">
         <v>125</v>
       </c>
@@ -7690,11 +7691,11 @@
       <c r="C116" s="68" t="s">
         <v>931</v>
       </c>
-      <c r="D116" s="65" t="s">
+      <c r="E116" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:5">
       <c r="A117" s="62" t="s">
         <v>125</v>
       </c>
@@ -7704,11 +7705,11 @@
       <c r="C117" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="D117" s="65" t="s">
+      <c r="E117" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:5">
       <c r="A118" s="62" t="s">
         <v>125</v>
       </c>
@@ -7718,11 +7719,11 @@
       <c r="C118" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="D118" s="65" t="s">
+      <c r="E118" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:5">
       <c r="A119" s="62" t="s">
         <v>125</v>
       </c>
@@ -7732,11 +7733,11 @@
       <c r="C119" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="D119" s="65" t="s">
+      <c r="E119" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:5">
       <c r="A120" s="62" t="s">
         <v>125</v>
       </c>
@@ -7746,11 +7747,11 @@
       <c r="C120" s="68" t="s">
         <v>937</v>
       </c>
-      <c r="D120" s="65" t="s">
+      <c r="E120" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="31.5">
+    <row r="121" spans="1:5" ht="31.5">
       <c r="A121" s="62" t="s">
         <v>125</v>
       </c>
@@ -7760,11 +7761,11 @@
       <c r="C121" s="69" t="s">
         <v>939</v>
       </c>
-      <c r="D121" s="65" t="s">
+      <c r="E121" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:5">
       <c r="A122" s="62" t="s">
         <v>125</v>
       </c>
@@ -7774,11 +7775,11 @@
       <c r="C122" s="69" t="s">
         <v>941</v>
       </c>
-      <c r="D122" s="65" t="s">
+      <c r="E122" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="47.25">
+    <row r="123" spans="1:5" ht="47.25">
       <c r="A123" s="62" t="s">
         <v>125</v>
       </c>
@@ -7788,11 +7789,11 @@
       <c r="C123" s="69" t="s">
         <v>943</v>
       </c>
-      <c r="D123" s="65" t="s">
+      <c r="E123" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:5">
       <c r="A124" s="62" t="s">
         <v>125</v>
       </c>
@@ -7802,11 +7803,11 @@
       <c r="C124" s="69" t="s">
         <v>945</v>
       </c>
-      <c r="D124" s="65" t="s">
+      <c r="E124" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:5">
       <c r="A125" s="62" t="s">
         <v>125</v>
       </c>
@@ -7816,11 +7817,11 @@
       <c r="C125" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="65" t="s">
+      <c r="E125" s="65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:5">
       <c r="A126" s="62" t="s">
         <v>125</v>
       </c>
@@ -7832,7 +7833,7 @@
       </c>
       <c r="D126" s="65"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:5">
       <c r="A127" s="62" t="s">
         <v>125</v>
       </c>
@@ -7842,11 +7843,11 @@
       <c r="C127" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D127" s="65" t="s">
+      <c r="E127" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:5">
       <c r="A128" s="62" t="s">
         <v>125</v>
       </c>
@@ -7856,11 +7857,11 @@
       <c r="C128" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D128" s="65" t="s">
+      <c r="E128" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:5">
       <c r="A129" s="62" t="s">
         <v>125</v>
       </c>
@@ -7870,11 +7871,11 @@
       <c r="C129" s="69" t="s">
         <v>952</v>
       </c>
-      <c r="D129" s="65" t="s">
+      <c r="E129" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:5">
       <c r="A130" s="62" t="s">
         <v>125</v>
       </c>
@@ -7884,11 +7885,11 @@
       <c r="C130" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D130" s="65" t="s">
+      <c r="E130" s="65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:5">
       <c r="A131" s="62" t="s">
         <v>125</v>
       </c>
@@ -7898,11 +7899,11 @@
       <c r="C131" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D131" s="65" t="s">
+      <c r="E131" s="65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:5">
       <c r="A132" s="62" t="s">
         <v>125</v>
       </c>
@@ -7912,11 +7913,11 @@
       <c r="C132" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D132" s="65" t="s">
+      <c r="E132" s="65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:5">
       <c r="A133" s="58" t="s">
         <v>125</v>
       </c>
@@ -7928,7 +7929,7 @@
       </c>
       <c r="D133" s="61"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:5">
       <c r="A134" s="62" t="s">
         <v>125</v>
       </c>
@@ -7940,7 +7941,7 @@
       </c>
       <c r="D134" s="65"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:5">
       <c r="A135" s="62" t="s">
         <v>125</v>
       </c>
@@ -7952,7 +7953,7 @@
       </c>
       <c r="D135" s="65"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:5">
       <c r="A136" s="62" t="s">
         <v>125</v>
       </c>
@@ -7966,7 +7967,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:5">
       <c r="A137" s="62" t="s">
         <v>125</v>
       </c>
@@ -7980,7 +7981,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:5">
       <c r="A138" s="62" t="s">
         <v>125</v>
       </c>
@@ -7994,7 +7995,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:5">
       <c r="A139" s="62" t="s">
         <v>125</v>
       </c>
@@ -8008,7 +8009,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:5">
       <c r="A140" s="62" t="s">
         <v>125</v>
       </c>
@@ -8020,7 +8021,7 @@
       </c>
       <c r="D140" s="65"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:5">
       <c r="A141" s="62" t="s">
         <v>125</v>
       </c>
@@ -8034,7 +8035,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:5">
       <c r="A142" s="62" t="s">
         <v>125</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="31.5">
+    <row r="143" spans="1:5" ht="31.5">
       <c r="A143" s="62" t="s">
         <v>125</v>
       </c>
@@ -8062,7 +8063,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="31.5">
+    <row r="144" spans="1:5" ht="31.5">
       <c r="A144" s="62" t="s">
         <v>125</v>
       </c>
@@ -8954,7 +8955,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:5">
       <c r="A209" s="62" t="s">
         <v>125</v>
       </c>
@@ -8968,7 +8969,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:5">
       <c r="A210" s="62" t="s">
         <v>125</v>
       </c>
@@ -8982,7 +8983,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:5">
       <c r="A211" s="62" t="s">
         <v>125</v>
       </c>
@@ -8992,11 +8993,11 @@
       <c r="C211" s="63" t="s">
         <v>974</v>
       </c>
-      <c r="D211" s="65" t="s">
+      <c r="E211" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:5">
       <c r="A212" s="62" t="s">
         <v>125</v>
       </c>
@@ -9010,7 +9011,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:5">
       <c r="A213" s="62" t="s">
         <v>125</v>
       </c>
@@ -9024,7 +9025,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:5">
       <c r="A214" s="62" t="s">
         <v>125</v>
       </c>
@@ -9038,7 +9039,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:5">
       <c r="A215" s="62" t="s">
         <v>125</v>
       </c>
@@ -9052,7 +9053,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:5">
       <c r="A216" s="62" t="s">
         <v>125</v>
       </c>
@@ -9066,7 +9067,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:5">
       <c r="A217" s="62" t="s">
         <v>125</v>
       </c>
@@ -9080,7 +9081,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:5">
       <c r="A218" s="62" t="s">
         <v>125</v>
       </c>
@@ -9092,7 +9093,7 @@
       </c>
       <c r="D218" s="65"/>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:5">
       <c r="A219" s="62" t="s">
         <v>125</v>
       </c>
@@ -9106,7 +9107,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:5">
       <c r="A220" s="62" t="s">
         <v>125</v>
       </c>
@@ -9120,7 +9121,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:5">
       <c r="A221" s="62" t="s">
         <v>125</v>
       </c>
@@ -9132,7 +9133,7 @@
       </c>
       <c r="D221" s="65"/>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:5">
       <c r="A222" s="62" t="s">
         <v>125</v>
       </c>
@@ -9142,11 +9143,11 @@
       <c r="C222" s="72" t="s">
         <v>984</v>
       </c>
-      <c r="D222" s="65" t="s">
+      <c r="E222" s="65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:5">
       <c r="A223" s="62" t="s">
         <v>125</v>
       </c>
@@ -9156,9 +9157,9 @@
       <c r="C223" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="D223" s="65"/>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="E223" s="65"/>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="62" t="s">
         <v>125</v>
       </c>
@@ -9168,11 +9169,11 @@
       <c r="C224" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="D224" s="65" t="s">
+      <c r="E224" s="65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:5">
       <c r="A225" s="62" t="s">
         <v>125</v>
       </c>
@@ -9182,11 +9183,11 @@
       <c r="C225" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="D225" s="65" t="s">
+      <c r="E225" s="65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:5">
       <c r="A226" s="62" t="s">
         <v>125</v>
       </c>
@@ -9196,9 +9197,9 @@
       <c r="C226" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D226" s="65"/>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="E226" s="65"/>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="62" t="s">
         <v>125</v>
       </c>
@@ -9208,11 +9209,11 @@
       <c r="C227" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="D227" s="65" t="s">
+      <c r="E227" s="65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:5">
       <c r="A228" s="62" t="s">
         <v>125</v>
       </c>
@@ -9222,11 +9223,11 @@
       <c r="C228" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="D228" s="65" t="s">
+      <c r="E228" s="65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:5">
       <c r="A229" s="62" t="s">
         <v>125</v>
       </c>
@@ -9238,7 +9239,7 @@
       </c>
       <c r="D229" s="61"/>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:5">
       <c r="A230" s="62" t="s">
         <v>125</v>
       </c>
@@ -9250,7 +9251,7 @@
       </c>
       <c r="D230" s="65"/>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:5">
       <c r="A231" s="62" t="s">
         <v>125</v>
       </c>
@@ -9262,7 +9263,7 @@
       </c>
       <c r="D231" s="65"/>
     </row>
-    <row r="232" spans="1:4" ht="31.5">
+    <row r="232" spans="1:5" ht="31.5">
       <c r="A232" s="62" t="s">
         <v>125</v>
       </c>
@@ -9276,7 +9277,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:5">
       <c r="A233" s="62" t="s">
         <v>125</v>
       </c>
@@ -9290,7 +9291,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:5">
       <c r="A234" s="62" t="s">
         <v>125</v>
       </c>
@@ -9304,7 +9305,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="31.5">
+    <row r="235" spans="1:5" ht="31.5">
       <c r="A235" s="62" t="s">
         <v>125</v>
       </c>
@@ -9318,7 +9319,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:5">
       <c r="A236" s="62" t="s">
         <v>125</v>
       </c>
@@ -9332,7 +9333,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:5">
       <c r="A237" s="62" t="s">
         <v>125</v>
       </c>
@@ -9346,7 +9347,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="31.5">
+    <row r="238" spans="1:5" ht="31.5">
       <c r="A238" s="62" t="s">
         <v>125</v>
       </c>
@@ -9360,7 +9361,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="31.5">
+    <row r="239" spans="1:5" ht="31.5">
       <c r="A239" s="62" t="s">
         <v>125</v>
       </c>
@@ -9374,7 +9375,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="47.25">
+    <row r="240" spans="1:5" ht="47.25">
       <c r="A240" s="62" t="s">
         <v>125</v>
       </c>
@@ -10480,7 +10481,7 @@
       </c>
       <c r="D320" s="65"/>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:5">
       <c r="A321" s="62" t="s">
         <v>125</v>
       </c>
@@ -10494,7 +10495,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:5">
       <c r="A322" s="62" t="s">
         <v>125</v>
       </c>
@@ -10508,7 +10509,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="31.5">
+    <row r="323" spans="1:5" ht="31.5">
       <c r="A323" s="62" t="s">
         <v>125</v>
       </c>
@@ -10522,7 +10523,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:5">
       <c r="A324" s="62" t="s">
         <v>125</v>
       </c>
@@ -10536,7 +10537,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:5">
       <c r="A325" s="62" t="s">
         <v>125</v>
       </c>
@@ -10550,7 +10551,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:5">
       <c r="A326" s="62" t="s">
         <v>125</v>
       </c>
@@ -10564,7 +10565,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="47.25">
+    <row r="327" spans="1:5" ht="47.25">
       <c r="A327" s="62" t="s">
         <v>125</v>
       </c>
@@ -10578,7 +10579,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="31.5">
+    <row r="328" spans="1:5" ht="31.5">
       <c r="A328" s="62" t="s">
         <v>125</v>
       </c>
@@ -10592,7 +10593,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:5">
       <c r="A329" s="62" t="s">
         <v>125</v>
       </c>
@@ -10602,11 +10603,11 @@
       <c r="C329" s="69" t="s">
         <v>492</v>
       </c>
-      <c r="D329" s="65" t="s">
+      <c r="E329" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="31.5">
+    <row r="330" spans="1:5" ht="31.5">
       <c r="A330" s="62" t="s">
         <v>125</v>
       </c>
@@ -10620,7 +10621,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:5">
       <c r="A331" s="62" t="s">
         <v>125</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:5">
       <c r="A332" s="62" t="s">
         <v>125</v>
       </c>
@@ -10646,7 +10647,7 @@
       </c>
       <c r="D332" s="65"/>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:5">
       <c r="A333" s="62" t="s">
         <v>125</v>
       </c>
@@ -10660,7 +10661,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:5">
       <c r="A334" s="62" t="s">
         <v>125</v>
       </c>
@@ -10670,11 +10671,11 @@
       <c r="C334" s="69" t="s">
         <v>1066</v>
       </c>
-      <c r="D334" s="65" t="s">
+      <c r="E334" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:5">
       <c r="A335" s="62" t="s">
         <v>125</v>
       </c>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="D335" s="65"/>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:5">
       <c r="A336" s="62" t="s">
         <v>125</v>
       </c>
@@ -10700,7 +10701,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:5">
       <c r="A337" s="62" t="s">
         <v>125</v>
       </c>
@@ -10714,7 +10715,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:5">
       <c r="A338" s="62" t="s">
         <v>125</v>
       </c>
@@ -10728,7 +10729,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:5">
       <c r="A339" s="62" t="s">
         <v>125</v>
       </c>
@@ -10742,7 +10743,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:5">
       <c r="A340" s="62" t="s">
         <v>125</v>
       </c>
@@ -10752,11 +10753,11 @@
       <c r="C340" s="69" t="s">
         <v>1077</v>
       </c>
-      <c r="D340" s="65" t="s">
+      <c r="E340" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:5">
       <c r="A341" s="62" t="s">
         <v>125</v>
       </c>
@@ -10768,7 +10769,7 @@
       </c>
       <c r="D341" s="65"/>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:5">
       <c r="A342" s="62" t="s">
         <v>125</v>
       </c>
@@ -10780,7 +10781,7 @@
       </c>
       <c r="D342" s="65"/>
     </row>
-    <row r="343" spans="1:4" ht="63">
+    <row r="343" spans="1:5" ht="63">
       <c r="A343" s="62" t="s">
         <v>125</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:5">
       <c r="A344" s="62" t="s">
         <v>125</v>
       </c>
@@ -10808,7 +10809,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:5">
       <c r="A345" s="62" t="s">
         <v>125</v>
       </c>
@@ -10822,7 +10823,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:5">
       <c r="A346" s="62" t="s">
         <v>125</v>
       </c>
@@ -10834,7 +10835,7 @@
       </c>
       <c r="D346" s="65"/>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:5">
       <c r="A347" s="62" t="s">
         <v>125</v>
       </c>
@@ -10846,7 +10847,7 @@
       </c>
       <c r="D347" s="65"/>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:5">
       <c r="A348" s="62" t="s">
         <v>125</v>
       </c>
@@ -10860,7 +10861,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:5">
       <c r="A349" s="62" t="s">
         <v>125</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="31.5">
+    <row r="350" spans="1:5" ht="31.5">
       <c r="A350" s="62" t="s">
         <v>125</v>
       </c>
@@ -10888,7 +10889,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="31.5">
+    <row r="351" spans="1:5" ht="31.5">
       <c r="A351" s="62" t="s">
         <v>125</v>
       </c>
@@ -10902,7 +10903,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:5">
       <c r="A352" s="62" t="s">
         <v>125</v>
       </c>
@@ -10916,7 +10917,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="31.5">
+    <row r="353" spans="1:5" ht="31.5">
       <c r="A353" s="62" t="s">
         <v>125</v>
       </c>
@@ -10930,7 +10931,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:5">
       <c r="A354" s="62" t="s">
         <v>125</v>
       </c>
@@ -10942,7 +10943,7 @@
       </c>
       <c r="D354" s="65"/>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:5">
       <c r="A355" s="62" t="s">
         <v>125</v>
       </c>
@@ -10956,7 +10957,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:5">
       <c r="A356" s="62" t="s">
         <v>125</v>
       </c>
@@ -10966,11 +10967,11 @@
       <c r="C356" s="69" t="s">
         <v>1066</v>
       </c>
-      <c r="D356" s="65" t="s">
+      <c r="E356" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:5">
       <c r="A357" s="62" t="s">
         <v>125</v>
       </c>
@@ -10982,7 +10983,7 @@
       </c>
       <c r="D357" s="65"/>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:5">
       <c r="A358" s="62" t="s">
         <v>125</v>
       </c>
@@ -10996,7 +10997,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:5">
       <c r="A359" s="62" t="s">
         <v>125</v>
       </c>
@@ -11010,7 +11011,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:5">
       <c r="A360" s="62" t="s">
         <v>125</v>
       </c>
@@ -11024,7 +11025,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:5">
       <c r="A361" s="62" t="s">
         <v>125</v>
       </c>
@@ -11038,7 +11039,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:5">
       <c r="A362" s="62" t="s">
         <v>125</v>
       </c>
@@ -11048,11 +11049,11 @@
       <c r="C362" s="69" t="s">
         <v>1077</v>
       </c>
-      <c r="D362" s="65" t="s">
+      <c r="E362" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:5">
       <c r="A363" s="62" t="s">
         <v>125</v>
       </c>
@@ -11064,7 +11065,7 @@
       </c>
       <c r="D363" s="65"/>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:5">
       <c r="A364" s="62" t="s">
         <v>125</v>
       </c>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="D364" s="65"/>
     </row>
-    <row r="365" spans="1:4" ht="47.25">
+    <row r="365" spans="1:5" ht="47.25">
       <c r="A365" s="62" t="s">
         <v>125</v>
       </c>
@@ -11090,7 +11091,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:5">
       <c r="A366" s="62" t="s">
         <v>125</v>
       </c>
@@ -11104,7 +11105,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:5">
       <c r="A367" s="62" t="s">
         <v>125</v>
       </c>
@@ -11118,7 +11119,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:5">
       <c r="A368" s="62" t="s">
         <v>125</v>
       </c>
@@ -11130,7 +11131,7 @@
       </c>
       <c r="D368" s="65"/>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:5">
       <c r="A369" s="62" t="s">
         <v>125</v>
       </c>
@@ -11142,7 +11143,7 @@
       </c>
       <c r="D369" s="65"/>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:5">
       <c r="A370" s="62" t="s">
         <v>125</v>
       </c>
@@ -11156,7 +11157,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:5">
       <c r="A371" s="62" t="s">
         <v>125</v>
       </c>
@@ -11170,7 +11171,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:5">
       <c r="A372" s="62" t="s">
         <v>125</v>
       </c>
@@ -11184,7 +11185,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="31.5">
+    <row r="373" spans="1:5" ht="31.5">
       <c r="A373" s="62" t="s">
         <v>125</v>
       </c>
@@ -11198,7 +11199,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:5">
       <c r="A374" s="62" t="s">
         <v>125</v>
       </c>
@@ -11212,7 +11213,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="31.5">
+    <row r="375" spans="1:5" ht="31.5">
       <c r="A375" s="62" t="s">
         <v>125</v>
       </c>
@@ -11226,7 +11227,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:5">
       <c r="A376" s="62" t="s">
         <v>125</v>
       </c>
@@ -11238,7 +11239,7 @@
       </c>
       <c r="D376" s="65"/>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:5">
       <c r="A377" s="62" t="s">
         <v>125</v>
       </c>
@@ -11252,7 +11253,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:5">
       <c r="A378" s="62" t="s">
         <v>125</v>
       </c>
@@ -11262,11 +11263,11 @@
       <c r="C378" s="69" t="s">
         <v>1066</v>
       </c>
-      <c r="D378" s="65" t="s">
+      <c r="E378" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:5">
       <c r="A379" s="62" t="s">
         <v>125</v>
       </c>
@@ -11278,7 +11279,7 @@
       </c>
       <c r="D379" s="65"/>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:5">
       <c r="A380" s="62" t="s">
         <v>125</v>
       </c>
@@ -11292,7 +11293,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:5">
       <c r="A381" s="62" t="s">
         <v>125</v>
       </c>
@@ -11306,7 +11307,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:5">
       <c r="A382" s="62" t="s">
         <v>125</v>
       </c>
@@ -11320,7 +11321,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:5">
       <c r="A383" s="62" t="s">
         <v>125</v>
       </c>
@@ -11334,7 +11335,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:5">
       <c r="A384" s="62" t="s">
         <v>125</v>
       </c>
@@ -11344,7 +11345,7 @@
       <c r="C384" s="69" t="s">
         <v>1077</v>
       </c>
-      <c r="D384" s="65" t="s">
+      <c r="E384" s="65" t="s">
         <v>932</v>
       </c>
     </row>
@@ -11560,7 +11561,7 @@
       </c>
       <c r="D400" s="65"/>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:5">
       <c r="A401" s="62" t="s">
         <v>125</v>
       </c>
@@ -11574,7 +11575,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:5">
       <c r="A402" s="62" t="s">
         <v>125</v>
       </c>
@@ -11588,7 +11589,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:5">
       <c r="A403" s="62" t="s">
         <v>125</v>
       </c>
@@ -11602,7 +11603,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:5">
       <c r="A404" s="62" t="s">
         <v>125</v>
       </c>
@@ -11616,7 +11617,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:5">
       <c r="A405" s="62" t="s">
         <v>125</v>
       </c>
@@ -11630,7 +11631,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="31.5">
+    <row r="406" spans="1:5" ht="31.5">
       <c r="A406" s="62" t="s">
         <v>125</v>
       </c>
@@ -11644,7 +11645,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:5">
       <c r="A407" s="62" t="s">
         <v>125</v>
       </c>
@@ -11656,7 +11657,7 @@
       </c>
       <c r="D407" s="65"/>
     </row>
-    <row r="408" spans="1:4" ht="47.25">
+    <row r="408" spans="1:5" ht="47.25">
       <c r="A408" s="62" t="s">
         <v>125</v>
       </c>
@@ -11670,7 +11671,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="31.5">
+    <row r="409" spans="1:5" ht="31.5">
       <c r="A409" s="62" t="s">
         <v>125</v>
       </c>
@@ -11684,7 +11685,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:5">
       <c r="A410" s="62" t="s">
         <v>125</v>
       </c>
@@ -11698,7 +11699,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:5">
       <c r="A411" s="62" t="s">
         <v>125</v>
       </c>
@@ -11712,7 +11713,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:5">
       <c r="A412" s="62" t="s">
         <v>125</v>
       </c>
@@ -11724,7 +11725,7 @@
       </c>
       <c r="D412" s="65"/>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:5">
       <c r="A413" s="62" t="s">
         <v>125</v>
       </c>
@@ -11738,7 +11739,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:5">
       <c r="A414" s="62" t="s">
         <v>125</v>
       </c>
@@ -11748,11 +11749,11 @@
       <c r="C414" s="69" t="s">
         <v>1066</v>
       </c>
-      <c r="D414" s="65" t="s">
+      <c r="E414" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:5">
       <c r="A415" s="62" t="s">
         <v>125</v>
       </c>
@@ -11764,7 +11765,7 @@
       </c>
       <c r="D415" s="65"/>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:5">
       <c r="A416" s="62" t="s">
         <v>125</v>
       </c>
@@ -11778,7 +11779,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:5">
       <c r="A417" s="62" t="s">
         <v>125</v>
       </c>
@@ -11792,7 +11793,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:5">
       <c r="A418" s="62" t="s">
         <v>125</v>
       </c>
@@ -11806,7 +11807,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:5">
       <c r="A419" s="62" t="s">
         <v>125</v>
       </c>
@@ -11820,7 +11821,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:5">
       <c r="A420" s="62" t="s">
         <v>125</v>
       </c>
@@ -11830,11 +11831,11 @@
       <c r="C420" s="69" t="s">
         <v>1077</v>
       </c>
-      <c r="D420" s="65" t="s">
+      <c r="E420" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:5">
       <c r="A421" s="62" t="s">
         <v>125</v>
       </c>
@@ -11846,7 +11847,7 @@
       </c>
       <c r="D421" s="65"/>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:5">
       <c r="A422" s="62" t="s">
         <v>125</v>
       </c>
@@ -11856,11 +11857,11 @@
       <c r="C422" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="D422" s="65" t="s">
+      <c r="E422" s="65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:5">
       <c r="A423" s="62" t="s">
         <v>125</v>
       </c>
@@ -11870,11 +11871,11 @@
       <c r="C423" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="D423" s="65" t="s">
+      <c r="E423" s="65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:5">
       <c r="A424" s="62" t="s">
         <v>125</v>
       </c>
@@ -11884,11 +11885,11 @@
       <c r="C424" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="D424" s="65" t="s">
+      <c r="E424" s="65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:5">
       <c r="A425" s="62" t="s">
         <v>125</v>
       </c>
@@ -11898,9 +11899,9 @@
       <c r="C425" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D425" s="65"/>
-    </row>
-    <row r="426" spans="1:4">
+      <c r="E425" s="65"/>
+    </row>
+    <row r="426" spans="1:5">
       <c r="A426" s="62" t="s">
         <v>125</v>
       </c>
@@ -11910,11 +11911,11 @@
       <c r="C426" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="D426" s="65" t="s">
+      <c r="E426" s="65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:5">
       <c r="A427" s="62" t="s">
         <v>125</v>
       </c>
@@ -11924,11 +11925,11 @@
       <c r="C427" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="D427" s="65" t="s">
+      <c r="E427" s="65" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:5">
       <c r="A428" s="62" t="s">
         <v>125</v>
       </c>
@@ -11940,7 +11941,7 @@
       </c>
       <c r="D428" s="65"/>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:5">
       <c r="A429" s="62" t="s">
         <v>125</v>
       </c>
@@ -11952,7 +11953,7 @@
       </c>
       <c r="D429" s="65"/>
     </row>
-    <row r="430" spans="1:4" ht="47.25">
+    <row r="430" spans="1:5" ht="47.25">
       <c r="A430" s="62" t="s">
         <v>125</v>
       </c>
@@ -11966,7 +11967,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:5">
       <c r="A431" s="62" t="s">
         <v>125</v>
       </c>
@@ -11980,7 +11981,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:5">
       <c r="A432" s="62" t="s">
         <v>125</v>
       </c>
@@ -11994,7 +11995,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:5">
       <c r="A433" s="62" t="s">
         <v>125</v>
       </c>
@@ -12006,7 +12007,7 @@
       </c>
       <c r="D433" s="65"/>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:5">
       <c r="A434" s="62" t="s">
         <v>125</v>
       </c>
@@ -12018,7 +12019,7 @@
       </c>
       <c r="D434" s="65"/>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:5">
       <c r="A435" s="62" t="s">
         <v>125</v>
       </c>
@@ -12032,7 +12033,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:5">
       <c r="A436" s="62" t="s">
         <v>125</v>
       </c>
@@ -12046,7 +12047,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:5">
       <c r="A437" s="62" t="s">
         <v>125</v>
       </c>
@@ -12056,11 +12057,11 @@
       <c r="C437" s="69" t="s">
         <v>1170</v>
       </c>
-      <c r="D437" s="65" t="s">
+      <c r="E437" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:5">
       <c r="A438" s="62" t="s">
         <v>125</v>
       </c>
@@ -12074,7 +12075,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="31.5">
+    <row r="439" spans="1:5" ht="31.5">
       <c r="A439" s="62" t="s">
         <v>125</v>
       </c>
@@ -12088,7 +12089,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:5">
       <c r="A440" s="62" t="s">
         <v>125</v>
       </c>
@@ -12102,7 +12103,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:5">
       <c r="A441" s="62" t="s">
         <v>125</v>
       </c>
@@ -12114,7 +12115,7 @@
       </c>
       <c r="D441" s="65"/>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:5">
       <c r="A442" s="62" t="s">
         <v>125</v>
       </c>
@@ -12128,7 +12129,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:5">
       <c r="A443" s="62" t="s">
         <v>125</v>
       </c>
@@ -12138,11 +12139,11 @@
       <c r="C443" s="69" t="s">
         <v>1066</v>
       </c>
-      <c r="D443" s="65" t="s">
+      <c r="E443" s="65" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:5">
       <c r="A444" s="62" t="s">
         <v>125</v>
       </c>
@@ -12154,7 +12155,7 @@
       </c>
       <c r="D444" s="65"/>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:5">
       <c r="A445" s="62" t="s">
         <v>125</v>
       </c>
@@ -12168,7 +12169,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:5">
       <c r="A446" s="62" t="s">
         <v>125</v>
       </c>
@@ -12182,7 +12183,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:5">
       <c r="A447" s="62" t="s">
         <v>125</v>
       </c>
@@ -12196,7 +12197,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:5">
       <c r="A448" s="62" t="s">
         <v>125</v>
       </c>
@@ -12210,7 +12211,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:5">
       <c r="A449" s="62" t="s">
         <v>125</v>
       </c>
@@ -12220,7 +12221,7 @@
       <c r="C449" s="69" t="s">
         <v>1077</v>
       </c>
-      <c r="D449" s="65" t="s">
+      <c r="E449" s="65" t="s">
         <v>932</v>
       </c>
     </row>
@@ -14619,7 +14620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09C2153-5F2C-4C7E-8336-AB3AF05B6784}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6D747B-3B42-4492-902B-8CAA28ACECBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="450" windowWidth="25680" windowHeight="16305" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="525" windowWidth="25680" windowHeight="16305" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIV I Reference Tests" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="1186">
   <si>
     <t>Test Case</t>
   </si>
@@ -3598,6 +3598,9 @@
   </si>
   <si>
     <t>11.7.2.6.6</t>
+  </si>
+  <si>
+    <t>sp800_73_4_Test_37</t>
   </si>
 </sst>
 </file>
@@ -6082,8 +6085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539C8DD9-7E09-4AC9-B53E-1B766442D166}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E422" sqref="E422:E427"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="C282" sqref="C282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -12414,10 +12417,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D1:D37"/>
+    <sheetView showGridLines="0" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -13141,6 +13144,17 @@
       </c>
       <c r="G37" s="55" t="s">
         <v>893</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="31.5">
+      <c r="C38" s="16" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6D747B-3B42-4492-902B-8CAA28ACECBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D21658B-2B8D-4CB8-9453-1494D48B34CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="525" windowWidth="25680" windowHeight="16305" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6085,8 +6085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539C8DD9-7E09-4AC9-B53E-1B766442D166}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="C282" sqref="C282"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="E282" sqref="E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9832,7 +9832,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="31.5">
+    <row r="273" spans="1:5" ht="31.5">
       <c r="A273" s="62" t="s">
         <v>125</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="31.5">
+    <row r="274" spans="1:5" ht="31.5">
       <c r="A274" s="62" t="s">
         <v>125</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="31.5">
+    <row r="275" spans="1:5" ht="31.5">
       <c r="A275" s="62" t="s">
         <v>125</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="47.25">
+    <row r="276" spans="1:5" ht="47.25">
       <c r="A276" s="62" t="s">
         <v>125</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="47.25">
+    <row r="277" spans="1:5" ht="47.25">
       <c r="A277" s="62" t="s">
         <v>125</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="47.25">
+    <row r="278" spans="1:5" ht="47.25">
       <c r="A278" s="62" t="s">
         <v>125</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="31.5">
+    <row r="279" spans="1:5" ht="31.5">
       <c r="A279" s="62" t="s">
         <v>125</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:5">
       <c r="A280" s="62" t="s">
         <v>125</v>
       </c>
@@ -9942,7 +9942,7 @@
       </c>
       <c r="D280" s="65"/>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:5">
       <c r="A281" s="62" t="s">
         <v>125</v>
       </c>
@@ -9954,7 +9954,7 @@
       </c>
       <c r="D281" s="65"/>
     </row>
-    <row r="282" spans="1:4" ht="31.5">
+    <row r="282" spans="1:5" ht="31.5">
       <c r="A282" s="62" t="s">
         <v>125</v>
       </c>
@@ -9964,11 +9964,11 @@
       <c r="C282" s="72" t="s">
         <v>438</v>
       </c>
-      <c r="D282" s="65" t="s">
+      <c r="E282" s="73" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:5">
       <c r="A283" s="62" t="s">
         <v>125</v>
       </c>
@@ -9980,7 +9980,7 @@
       </c>
       <c r="D283" s="65"/>
     </row>
-    <row r="284" spans="1:4" ht="31.5">
+    <row r="284" spans="1:5" ht="31.5">
       <c r="A284" s="62" t="s">
         <v>125</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:5">
       <c r="A285" s="62" t="s">
         <v>125</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:5">
       <c r="A286" s="62" t="s">
         <v>125</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="31.5">
+    <row r="287" spans="1:5" ht="31.5">
       <c r="A287" s="62" t="s">
         <v>125</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:5">
       <c r="A288" s="62" t="s">
         <v>125</v>
       </c>
@@ -12230,6 +12230,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12419,7 +12420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C19" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C7" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D21658B-2B8D-4CB8-9453-1494D48B34CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1736F77D-EFF4-43AA-8CD5-6E10433BAEEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="525" windowWidth="25680" windowHeight="16305" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="240" windowWidth="25680" windowHeight="16305" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIV I Reference Tests" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="1187">
   <si>
     <t>Test Case</t>
   </si>
@@ -3601,6 +3601,9 @@
   </si>
   <si>
     <t>sp800_73_4_Test_37</t>
+  </si>
+  <si>
+    <t>signedAttrs of the SignerInfo includes the entryUUID (OID = 1.3.6.1.1.16.4) attribute and that it is the same value as the Card UUID in the GUID data element of the PIV card CHUID data object.</t>
   </si>
 </sst>
 </file>
@@ -6085,8 +6088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539C8DD9-7E09-4AC9-B53E-1B766442D166}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="E282" sqref="E282"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="C247" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9676,7 +9679,7 @@
         <v>421</v>
       </c>
       <c r="C261" s="72" t="s">
-        <v>1010</v>
+        <v>1186</v>
       </c>
       <c r="D261" s="65" t="s">
         <v>423</v>

--- a/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
+++ b/docs/coverage-testing/85b_test_definitions_PIV_ICAM_Test_Cards_Exploded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\docs\coverage-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1736F77D-EFF4-43AA-8CD5-6E10433BAEEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA7F038-5C16-4313-9ECD-987754A077C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4125" yWindow="240" windowWidth="25680" windowHeight="16305" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="1186">
   <si>
     <t>Test Case</t>
   </si>
@@ -3073,9 +3073,6 @@
   </si>
   <si>
     <t>Certificates field in the SignedData contains a single certificate that can be used to verify the digital signature in the SignerInfo. If the certificates field is omitted, then the certificates field of the SignedData for the CHUID contains the certificate that can be used to verify the digital signature.</t>
-  </si>
-  <si>
-    <t>signedAttrs of the SignerInfo includes the entryUUID (OID = 1.3.6.1.1.16.4) attribute and that it is the same value as the Card UUID in the GUID data element of the PIV card’s CHUID data object.</t>
   </si>
   <si>
     <t>10.3</t>
@@ -6088,8 +6085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539C8DD9-7E09-4AC9-B53E-1B766442D166}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="C247" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="C308" sqref="C308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9679,7 +9676,7 @@
         <v>421</v>
       </c>
       <c r="C261" s="72" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D261" s="65" t="s">
         <v>423</v>
@@ -9690,7 +9687,7 @@
         <v>125</v>
       </c>
       <c r="B262" s="63" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C262" s="64" t="s">
         <v>80</v>
@@ -9702,7 +9699,7 @@
         <v>125</v>
       </c>
       <c r="B263" s="63" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C263" s="72" t="s">
         <v>78</v>
@@ -9742,7 +9739,7 @@
         <v>125</v>
       </c>
       <c r="B266" s="63" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C266" s="72" t="s">
         <v>406</v>
@@ -9826,7 +9823,7 @@
         <v>125</v>
       </c>
       <c r="B272" s="63" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C272" s="72" t="s">
         <v>1001</v>
@@ -9840,7 +9837,7 @@
         <v>125</v>
       </c>
       <c r="B273" s="63" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C273" s="72" t="s">
         <v>1003</v>
@@ -9910,7 +9907,7 @@
         <v>125</v>
       </c>
       <c r="B278" s="63" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C278" s="72" t="s">
         <v>1009</v>
@@ -9927,7 +9924,7 @@
         <v>436</v>
       </c>
       <c r="C279" s="72" t="s">
-        <v>1010</v>
+        <v>1185</v>
       </c>
       <c r="D279" s="65" t="s">
         <v>423</v>
@@ -9938,7 +9935,7 @@
         <v>125</v>
       </c>
       <c r="B280" s="63" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C280" s="64" t="s">
         <v>23</v>
@@ -9950,7 +9947,7 @@
         <v>125</v>
       </c>
       <c r="B281" s="63" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C281" s="70" t="s">
         <v>84</v>
@@ -9968,7 +9965,7 @@
         <v>438</v>
       </c>
       <c r="E282" s="73" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -9976,7 +9973,7 @@
         <v>125</v>
       </c>
       <c r="B283" s="63" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C283" s="72" t="s">
         <v>78</v>
@@ -10086,7 +10083,7 @@
         <v>125</v>
       </c>
       <c r="B291" s="63" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C291" s="74" t="s">
         <v>87</v>
@@ -10098,7 +10095,7 @@
         <v>125</v>
       </c>
       <c r="B292" s="63" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C292" s="75" t="s">
         <v>78</v>
@@ -10110,7 +10107,7 @@
         <v>125</v>
       </c>
       <c r="B293" s="63" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C293" s="62" t="s">
         <v>997</v>
@@ -10124,7 +10121,7 @@
         <v>125</v>
       </c>
       <c r="B294" s="63" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C294" s="62" t="s">
         <v>405</v>
@@ -10138,7 +10135,7 @@
         <v>125</v>
       </c>
       <c r="B295" s="63" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C295" s="62" t="s">
         <v>406</v>
@@ -10152,7 +10149,7 @@
         <v>125</v>
       </c>
       <c r="B296" s="63" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C296" s="62" t="s">
         <v>999</v>
@@ -10166,7 +10163,7 @@
         <v>125</v>
       </c>
       <c r="B297" s="63" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C297" s="62" t="s">
         <v>378</v>
@@ -10180,7 +10177,7 @@
         <v>125</v>
       </c>
       <c r="B298" s="63" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C298" s="62" t="s">
         <v>381</v>
@@ -10194,7 +10191,7 @@
         <v>125</v>
       </c>
       <c r="B299" s="63" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C299" s="62" t="s">
         <v>411</v>
@@ -10208,7 +10205,7 @@
         <v>125</v>
       </c>
       <c r="B300" s="63" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C300" s="62" t="s">
         <v>892</v>
@@ -10222,7 +10219,7 @@
         <v>125</v>
       </c>
       <c r="B301" s="63" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C301" s="62" t="s">
         <v>1001</v>
@@ -10236,7 +10233,7 @@
         <v>125</v>
       </c>
       <c r="B302" s="63" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C302" s="62" t="s">
         <v>1003</v>
@@ -10250,7 +10247,7 @@
         <v>125</v>
       </c>
       <c r="B303" s="63" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C303" s="62" t="s">
         <v>416</v>
@@ -10264,7 +10261,7 @@
         <v>125</v>
       </c>
       <c r="B304" s="63" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C304" s="62" t="s">
         <v>1004</v>
@@ -10278,7 +10275,7 @@
         <v>125</v>
       </c>
       <c r="B305" s="63" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C305" s="62" t="s">
         <v>1005</v>
@@ -10292,7 +10289,7 @@
         <v>125</v>
       </c>
       <c r="B306" s="63" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C306" s="62" t="s">
         <v>1007</v>
@@ -10306,7 +10303,7 @@
         <v>125</v>
       </c>
       <c r="B307" s="63" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C307" s="62" t="s">
         <v>1009</v>
@@ -10320,10 +10317,10 @@
         <v>125</v>
       </c>
       <c r="B308" s="63" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C308" s="62" t="s">
-        <v>1010</v>
+        <v>1185</v>
       </c>
       <c r="D308" s="65" t="s">
         <v>423</v>
@@ -10334,7 +10331,7 @@
         <v>125</v>
       </c>
       <c r="B309" s="59" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C309" s="76" t="s">
         <v>90</v>
@@ -10346,7 +10343,7 @@
         <v>125</v>
       </c>
       <c r="B310" s="63" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C310" s="74" t="s">
         <v>92</v>
@@ -10358,7 +10355,7 @@
         <v>125</v>
       </c>
       <c r="B311" s="63" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C311" s="75" t="s">
         <v>94</v>
@@ -10370,10 +10367,10 @@
         <v>125</v>
       </c>
       <c r="B312" s="63" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C312" s="72" t="s">
         <v>1042</v>
-      </c>
-      <c r="C312" s="72" t="s">
-        <v>1043</v>
       </c>
       <c r="D312" s="65" t="s">
         <v>414</v>
@@ -10401,7 +10398,7 @@
         <v>463</v>
       </c>
       <c r="C314" s="72" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D314" s="65" t="s">
         <v>402</v>
@@ -10412,7 +10409,7 @@
         <v>125</v>
       </c>
       <c r="B315" s="63" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C315" s="70" t="s">
         <v>96</v>
@@ -10424,10 +10421,10 @@
         <v>125</v>
       </c>
       <c r="B316" s="63" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C316" s="72" t="s">
         <v>1046</v>
-      </c>
-      <c r="C316" s="72" t="s">
-        <v>1047</v>
       </c>
       <c r="D316" s="65" t="s">
         <v>465</v>
@@ -10438,10 +10435,10 @@
         <v>125</v>
       </c>
       <c r="B317" s="63" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C317" s="72" t="s">
         <v>1048</v>
-      </c>
-      <c r="C317" s="72" t="s">
-        <v>1049</v>
       </c>
       <c r="D317" s="65" t="s">
         <v>467</v>
@@ -10452,10 +10449,10 @@
         <v>125</v>
       </c>
       <c r="B318" s="63" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C318" s="62" t="s">
         <v>1050</v>
-      </c>
-      <c r="C318" s="62" t="s">
-        <v>1051</v>
       </c>
       <c r="D318" s="65" t="s">
         <v>469</v>
@@ -10466,10 +10463,10 @@
         <v>125</v>
       </c>
       <c r="B319" s="63" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C319" s="72" t="s">
         <v>1052</v>
-      </c>
-      <c r="C319" s="72" t="s">
-        <v>1053</v>
       </c>
       <c r="D319" s="65" t="s">
         <v>471</v>
@@ -10480,10 +10477,10 @@
         <v>125</v>
       </c>
       <c r="B320" s="63" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C320" s="70" t="s">
         <v>1054</v>
-      </c>
-      <c r="C320" s="70" t="s">
-        <v>1055</v>
       </c>
       <c r="D320" s="65"/>
     </row>
@@ -10537,7 +10534,7 @@
         <v>480</v>
       </c>
       <c r="C324" s="72" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D324" s="65" t="s">
         <v>482</v>
@@ -10562,10 +10559,10 @@
         <v>125</v>
       </c>
       <c r="B326" s="63" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C326" s="70" t="s">
         <v>1057</v>
-      </c>
-      <c r="C326" s="70" t="s">
-        <v>1058</v>
       </c>
       <c r="D326" s="65" t="s">
         <v>488</v>
@@ -10621,7 +10618,7 @@
         <v>493</v>
       </c>
       <c r="C330" s="72" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D330" s="65" t="s">
         <v>495</v>
@@ -10635,7 +10632,7 @@
         <v>496</v>
       </c>
       <c r="C331" s="72" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D331" s="65" t="s">
         <v>498</v>
@@ -10646,10 +10643,10 @@
         <v>125</v>
       </c>
       <c r="B332" s="63" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C332" s="70" t="s">
         <v>1061</v>
-      </c>
-      <c r="C332" s="70" t="s">
-        <v>1062</v>
       </c>
       <c r="D332" s="65"/>
     </row>
@@ -10658,10 +10655,10 @@
         <v>125</v>
       </c>
       <c r="B333" s="63" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C333" s="72" t="s">
         <v>1063</v>
-      </c>
-      <c r="C333" s="72" t="s">
-        <v>1064</v>
       </c>
       <c r="D333" s="65" t="s">
         <v>479</v>
@@ -10672,10 +10669,10 @@
         <v>125</v>
       </c>
       <c r="B334" s="63" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C334" s="69" t="s">
         <v>1065</v>
-      </c>
-      <c r="C334" s="69" t="s">
-        <v>1066</v>
       </c>
       <c r="E334" s="65" t="s">
         <v>932</v>
@@ -10686,10 +10683,10 @@
         <v>125</v>
       </c>
       <c r="B335" s="63" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C335" s="70" t="s">
         <v>1067</v>
-      </c>
-      <c r="C335" s="70" t="s">
-        <v>1068</v>
       </c>
       <c r="D335" s="65"/>
     </row>
@@ -10698,7 +10695,7 @@
         <v>125</v>
       </c>
       <c r="B336" s="63" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C336" s="72" t="s">
         <v>473</v>
@@ -10712,10 +10709,10 @@
         <v>125</v>
       </c>
       <c r="B337" s="63" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C337" s="72" t="s">
         <v>1070</v>
-      </c>
-      <c r="C337" s="72" t="s">
-        <v>1071</v>
       </c>
       <c r="D337" s="73" t="s">
         <v>477</v>
@@ -10726,10 +10723,10 @@
         <v>125</v>
       </c>
       <c r="B338" s="63" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C338" s="72" t="s">
         <v>1072</v>
-      </c>
-      <c r="C338" s="72" t="s">
-        <v>1073</v>
       </c>
       <c r="D338" s="65" t="s">
         <v>479</v>
@@ -10740,10 +10737,10 @@
         <v>125</v>
       </c>
       <c r="B339" s="63" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C339" s="72" t="s">
         <v>1074</v>
-      </c>
-      <c r="C339" s="72" t="s">
-        <v>1075</v>
       </c>
       <c r="D339" s="65" t="s">
         <v>479</v>
@@ -10754,10 +10751,10 @@
         <v>125</v>
       </c>
       <c r="B340" s="63" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C340" s="69" t="s">
         <v>1076</v>
-      </c>
-      <c r="C340" s="69" t="s">
-        <v>1077</v>
       </c>
       <c r="E340" s="65" t="s">
         <v>932</v>
@@ -10768,7 +10765,7 @@
         <v>125</v>
       </c>
       <c r="B341" s="63" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C341" s="64" t="s">
         <v>98</v>
@@ -10780,7 +10777,7 @@
         <v>125</v>
       </c>
       <c r="B342" s="63" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C342" s="72" t="s">
         <v>94</v>
@@ -10795,7 +10792,7 @@
         <v>499</v>
       </c>
       <c r="C343" s="72" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D343" s="65" t="s">
         <v>414</v>
@@ -10809,7 +10806,7 @@
         <v>500</v>
       </c>
       <c r="C344" s="72" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D344" s="65" t="s">
         <v>402</v>
@@ -10820,10 +10817,10 @@
         <v>125</v>
       </c>
       <c r="B345" s="63" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C345" s="72" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D345" s="77" t="s">
         <v>402</v>
@@ -10834,7 +10831,7 @@
         <v>125</v>
       </c>
       <c r="B346" s="63" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C346" s="70" t="s">
         <v>96</v>
@@ -10846,10 +10843,10 @@
         <v>125</v>
       </c>
       <c r="B347" s="63" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C347" s="70" t="s">
         <v>1083</v>
-      </c>
-      <c r="C347" s="70" t="s">
-        <v>1084</v>
       </c>
       <c r="D347" s="65"/>
     </row>
@@ -10861,7 +10858,7 @@
         <v>502</v>
       </c>
       <c r="C348" s="62" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D348" s="65" t="s">
         <v>501</v>
@@ -10889,7 +10886,7 @@
         <v>507</v>
       </c>
       <c r="C350" s="72" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D350" s="65" t="s">
         <v>485</v>
@@ -10903,7 +10900,7 @@
         <v>508</v>
       </c>
       <c r="C351" s="72" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D351" s="65" t="s">
         <v>495</v>
@@ -10917,7 +10914,7 @@
         <v>509</v>
       </c>
       <c r="C352" s="72" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D352" s="65" t="s">
         <v>498</v>
@@ -10928,10 +10925,10 @@
         <v>125</v>
       </c>
       <c r="B353" s="63" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C353" s="72" t="s">
         <v>1089</v>
-      </c>
-      <c r="C353" s="72" t="s">
-        <v>1090</v>
       </c>
       <c r="D353" s="65" t="s">
         <v>471</v>
@@ -10942,10 +10939,10 @@
         <v>125</v>
       </c>
       <c r="B354" s="63" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C354" s="70" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D354" s="65"/>
     </row>
@@ -10954,10 +10951,10 @@
         <v>125</v>
       </c>
       <c r="B355" s="63" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C355" s="72" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D355" s="65" t="s">
         <v>479</v>
@@ -10968,10 +10965,10 @@
         <v>125</v>
       </c>
       <c r="B356" s="63" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C356" s="69" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E356" s="65" t="s">
         <v>932</v>
@@ -10982,10 +10979,10 @@
         <v>125</v>
       </c>
       <c r="B357" s="63" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C357" s="70" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D357" s="65"/>
     </row>
@@ -10994,7 +10991,7 @@
         <v>125</v>
       </c>
       <c r="B358" s="63" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C358" s="72" t="s">
         <v>473</v>
@@ -11008,10 +11005,10 @@
         <v>125</v>
       </c>
       <c r="B359" s="63" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C359" s="72" t="s">
         <v>1096</v>
-      </c>
-      <c r="C359" s="72" t="s">
-        <v>1097</v>
       </c>
       <c r="D359" s="73" t="s">
         <v>477</v>
@@ -11022,10 +11019,10 @@
         <v>125</v>
       </c>
       <c r="B360" s="63" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C360" s="72" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D360" s="65" t="s">
         <v>479</v>
@@ -11036,10 +11033,10 @@
         <v>125</v>
       </c>
       <c r="B361" s="63" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C361" s="72" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D361" s="65" t="s">
         <v>479</v>
@@ -11050,10 +11047,10 @@
         <v>125</v>
       </c>
       <c r="B362" s="63" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C362" s="69" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E362" s="65" t="s">
         <v>932</v>
@@ -11064,7 +11061,7 @@
         <v>125</v>
       </c>
       <c r="B363" s="63" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C363" s="64" t="s">
         <v>102</v>
@@ -11076,7 +11073,7 @@
         <v>125</v>
       </c>
       <c r="B364" s="63" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C364" s="70" t="s">
         <v>94</v>
@@ -11105,7 +11102,7 @@
         <v>511</v>
       </c>
       <c r="C366" s="62" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D366" s="65" t="s">
         <v>402</v>
@@ -11116,7 +11113,7 @@
         <v>125</v>
       </c>
       <c r="B367" s="63" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C367" s="72" t="s">
         <v>460</v>
@@ -11130,7 +11127,7 @@
         <v>125</v>
       </c>
       <c r="B368" s="63" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C368" s="70" t="s">
         <v>96</v>
@@ -11142,10 +11139,10 @@
         <v>125</v>
       </c>
       <c r="B369" s="63" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C369" s="70" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D369" s="65"/>
     </row>
@@ -11157,7 +11154,7 @@
         <v>512</v>
       </c>
       <c r="C370" s="72" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D370" s="65" t="s">
         <v>513</v>
@@ -11171,7 +11168,7 @@
         <v>514</v>
       </c>
       <c r="C371" s="72" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D371" s="65" t="s">
         <v>506</v>
@@ -11185,7 +11182,7 @@
         <v>515</v>
       </c>
       <c r="C372" s="72" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D372" s="65" t="s">
         <v>467</v>
@@ -11199,7 +11196,7 @@
         <v>516</v>
       </c>
       <c r="C373" s="72" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D373" s="65" t="s">
         <v>485</v>
@@ -11213,7 +11210,7 @@
         <v>517</v>
       </c>
       <c r="C374" s="72" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D374" s="65" t="s">
         <v>498</v>
@@ -11224,10 +11221,10 @@
         <v>125</v>
       </c>
       <c r="B375" s="63" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C375" s="72" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D375" s="65" t="s">
         <v>471</v>
@@ -11238,10 +11235,10 @@
         <v>125</v>
       </c>
       <c r="B376" s="63" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C376" s="70" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D376" s="65"/>
     </row>
@@ -11250,10 +11247,10 @@
         <v>125</v>
       </c>
       <c r="B377" s="63" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C377" s="72" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D377" s="65" t="s">
         <v>479</v>
@@ -11264,10 +11261,10 @@
         <v>125</v>
       </c>
       <c r="B378" s="63" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C378" s="69" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E378" s="65" t="s">
         <v>932</v>
@@ -11278,10 +11275,10 @@
         <v>125</v>
       </c>
       <c r="B379" s="63" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C379" s="70" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D379" s="65"/>
     </row>
@@ -11290,7 +11287,7 @@
         <v>125</v>
       </c>
       <c r="B380" s="63" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C380" s="72" t="s">
         <v>473</v>
@@ -11304,10 +11301,10 @@
         <v>125</v>
       </c>
       <c r="B381" s="63" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C381" s="72" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D381" s="73" t="s">
         <v>477</v>
@@ -11318,10 +11315,10 @@
         <v>125</v>
       </c>
       <c r="B382" s="63" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C382" s="72" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D382" s="65" t="s">
         <v>479</v>
@@ -11332,10 +11329,10 @@
         <v>125</v>
       </c>
       <c r="B383" s="63" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C383" s="63" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D383" s="65" t="s">
         <v>479</v>
@@ -11346,10 +11343,10 @@
         <v>125</v>
       </c>
       <c r="B384" s="63" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C384" s="69" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E384" s="65" t="s">
         <v>932</v>
@@ -11360,7 +11357,7 @@
         <v>125</v>
       </c>
       <c r="B385" s="63" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C385" s="64" t="s">
         <v>106</v>
@@ -11372,7 +11369,7 @@
         <v>125</v>
       </c>
       <c r="B386" s="63" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C386" s="70" t="s">
         <v>94</v>
@@ -11401,7 +11398,7 @@
         <v>519</v>
       </c>
       <c r="C388" s="72" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D388" s="65" t="s">
         <v>402</v>
@@ -11412,7 +11409,7 @@
         <v>125</v>
       </c>
       <c r="B389" s="63" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C389" s="72" t="s">
         <v>460</v>
@@ -11426,7 +11423,7 @@
         <v>125</v>
       </c>
       <c r="B390" s="63" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C390" s="70" t="s">
         <v>96</v>
@@ -11438,10 +11435,10 @@
         <v>125</v>
       </c>
       <c r="B391" s="63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C391" s="70" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D391" s="65"/>
     </row>
@@ -11453,7 +11450,7 @@
         <v>520</v>
       </c>
       <c r="C392" s="63" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D392" s="65" t="s">
         <v>501</v>
@@ -11467,7 +11464,7 @@
         <v>521</v>
       </c>
       <c r="C393" s="72" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D393" s="65" t="s">
         <v>465</v>
@@ -11481,7 +11478,7 @@
         <v>522</v>
       </c>
       <c r="C394" s="72" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D394" s="65" t="s">
         <v>467</v>
@@ -11495,7 +11492,7 @@
         <v>523</v>
       </c>
       <c r="C395" s="62" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D395" s="65" t="s">
         <v>471</v>
@@ -11506,10 +11503,10 @@
         <v>125</v>
       </c>
       <c r="B396" s="63" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C396" s="70" t="s">
         <v>1131</v>
-      </c>
-      <c r="C396" s="70" t="s">
-        <v>1132</v>
       </c>
       <c r="D396" s="65"/>
     </row>
@@ -11521,7 +11518,7 @@
         <v>525</v>
       </c>
       <c r="C397" s="62" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D397" s="65" t="s">
         <v>526</v>
@@ -11535,7 +11532,7 @@
         <v>527</v>
       </c>
       <c r="C398" s="62" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D398" s="65" t="s">
         <v>528</v>
@@ -11546,10 +11543,10 @@
         <v>125</v>
       </c>
       <c r="B399" s="63" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C399" s="62" t="s">
         <v>1135</v>
-      </c>
-      <c r="C399" s="62" t="s">
-        <v>1136</v>
       </c>
       <c r="D399" s="73" t="s">
         <v>528</v>
@@ -11560,10 +11557,10 @@
         <v>125</v>
       </c>
       <c r="B400" s="63" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C400" s="70" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D400" s="65"/>
     </row>
@@ -11589,7 +11586,7 @@
         <v>530</v>
       </c>
       <c r="C402" s="72" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D402" s="65" t="s">
         <v>477</v>
@@ -11603,7 +11600,7 @@
         <v>531</v>
       </c>
       <c r="C403" s="72" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D403" s="65" t="s">
         <v>479</v>
@@ -11614,10 +11611,10 @@
         <v>125</v>
       </c>
       <c r="B404" s="63" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C404" s="63" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D404" s="63" t="s">
         <v>479</v>
@@ -11631,7 +11628,7 @@
         <v>532</v>
       </c>
       <c r="C405" s="72" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D405" s="65" t="s">
         <v>482</v>
@@ -11645,7 +11642,7 @@
         <v>533</v>
       </c>
       <c r="C406" s="72" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D406" s="65" t="s">
         <v>485</v>
@@ -11656,10 +11653,10 @@
         <v>125</v>
       </c>
       <c r="B407" s="63" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C407" s="70" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D407" s="65"/>
     </row>
@@ -11668,7 +11665,7 @@
         <v>125</v>
       </c>
       <c r="B408" s="63" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C408" s="72" t="s">
         <v>487</v>
@@ -11682,7 +11679,7 @@
         <v>125</v>
       </c>
       <c r="B409" s="63" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C409" s="72" t="s">
         <v>490</v>
@@ -11696,10 +11693,10 @@
         <v>125</v>
       </c>
       <c r="B410" s="63" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C410" s="72" t="s">
         <v>1143</v>
-      </c>
-      <c r="C410" s="72" t="s">
-        <v>1144</v>
       </c>
       <c r="D410" s="65" t="s">
         <v>488</v>
@@ -11710,10 +11707,10 @@
         <v>125</v>
       </c>
       <c r="B411" s="63" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C411" s="72" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D411" s="65" t="s">
         <v>498</v>
@@ -11724,10 +11721,10 @@
         <v>125</v>
       </c>
       <c r="B412" s="63" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C412" s="70" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D412" s="65"/>
     </row>
@@ -11736,10 +11733,10 @@
         <v>125</v>
       </c>
       <c r="B413" s="63" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C413" s="72" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D413" s="65" t="s">
         <v>479</v>
@@ -11750,10 +11747,10 @@
         <v>125</v>
       </c>
       <c r="B414" s="63" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C414" s="69" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E414" s="65" t="s">
         <v>932</v>
@@ -11764,10 +11761,10 @@
         <v>125</v>
       </c>
       <c r="B415" s="63" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C415" s="70" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D415" s="65"/>
     </row>
@@ -11776,7 +11773,7 @@
         <v>125</v>
       </c>
       <c r="B416" s="63" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C416" s="72" t="s">
         <v>473</v>
@@ -11790,10 +11787,10 @@
         <v>125</v>
       </c>
       <c r="B417" s="63" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C417" s="72" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D417" s="73" t="s">
         <v>477</v>
@@ -11804,10 +11801,10 @@
         <v>125</v>
       </c>
       <c r="B418" s="63" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C418" s="72" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D418" s="65" t="s">
         <v>479</v>
@@ -11818,10 +11815,10 @@
         <v>125</v>
       </c>
       <c r="B419" s="63" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C419" s="63" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D419" s="65" t="s">
         <v>479</v>
@@ -11832,10 +11829,10 @@
         <v>125</v>
       </c>
       <c r="B420" s="63" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C420" s="69" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E420" s="65" t="s">
         <v>932</v>
@@ -11858,7 +11855,7 @@
         <v>125</v>
       </c>
       <c r="B422" s="63" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C422" s="72" t="s">
         <v>112</v>
@@ -11872,7 +11869,7 @@
         <v>125</v>
       </c>
       <c r="B423" s="63" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C423" s="72" t="s">
         <v>94</v>
@@ -11886,7 +11883,7 @@
         <v>125</v>
       </c>
       <c r="B424" s="63" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C424" s="72" t="s">
         <v>96</v>
@@ -11912,7 +11909,7 @@
         <v>125</v>
       </c>
       <c r="B426" s="63" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C426" s="72" t="s">
         <v>118</v>
@@ -11926,7 +11923,7 @@
         <v>125</v>
       </c>
       <c r="B427" s="63" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C427" s="72" t="s">
         <v>94</v>
@@ -11952,7 +11949,7 @@
         <v>125</v>
       </c>
       <c r="B429" s="63" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C429" s="70" t="s">
         <v>94</v>
@@ -11964,7 +11961,7 @@
         <v>125</v>
       </c>
       <c r="B430" s="63" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C430" s="72" t="s">
         <v>459</v>
@@ -11978,10 +11975,10 @@
         <v>125</v>
       </c>
       <c r="B431" s="63" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C431" s="72" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D431" s="65" t="s">
         <v>402</v>
@@ -11992,7 +11989,7 @@
         <v>125</v>
       </c>
       <c r="B432" s="63" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C432" s="72" t="s">
         <v>460</v>
@@ -12006,7 +12003,7 @@
         <v>125</v>
       </c>
       <c r="B433" s="63" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C433" s="70" t="s">
         <v>96</v>
@@ -12018,10 +12015,10 @@
         <v>125</v>
       </c>
       <c r="B434" s="63" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C434" s="70" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D434" s="65"/>
     </row>
@@ -12030,10 +12027,10 @@
         <v>125</v>
       </c>
       <c r="B435" s="63" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C435" s="72" t="s">
         <v>1166</v>
-      </c>
-      <c r="C435" s="72" t="s">
-        <v>1167</v>
       </c>
       <c r="D435" s="65" t="s">
         <v>465</v>
@@ -12044,10 +12041,10 @@
         <v>125</v>
       </c>
       <c r="B436" s="63" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C436" s="72" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D436" s="65" t="s">
         <v>467</v>
@@ -12058,10 +12055,10 @@
         <v>125</v>
       </c>
       <c r="B437" s="63" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C437" s="69" t="s">
         <v>1169</v>
-      </c>
-      <c r="C437" s="69" t="s">
-        <v>1170</v>
       </c>
       <c r="E437" s="65" t="s">
         <v>932</v>
@@ -12072,10 +12069,10 @@
         <v>125</v>
       </c>
       <c r="B438" s="63" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C438" s="62" t="s">
         <v>1171</v>
-      </c>
-      <c r="C438" s="62" t="s">
-        <v>1172</v>
       </c>
       <c r="D438" s="65" t="s">
         <v>498</v>
@@ -12086,10 +12083,10 @@
         <v>125</v>
       </c>
       <c r="B439" s="63" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C439" s="62" t="s">
         <v>1173</v>
-      </c>
-      <c r="C439" s="62" t="s">
-        <v>1174</v>
       </c>
       <c r="D439" s="65" t="s">
         <v>471</v>
@@ -12100,10 +12097,10 @@
         <v>125</v>
       </c>
       <c r="B440" s="63" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C440" s="62" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D440" s="65" t="s">
         <v>528</v>
@@ -12114,10 +12111,10 @@
         <v>125</v>
       </c>
       <c r="B441" s="63" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C441" s="70" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D441" s="65"/>
     </row>
@@ -12126,10 +12123,10 @@
         <v>125</v>
       </c>
       <c r="B442" s="63" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C442" s="72" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D442" s="65" t="s">
         <v>479</v>
@@ -12140,10 +12137,10 @@
         <v>125</v>
       </c>
       <c r="B443" s="63" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C443" s="69" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E443" s="65" t="s">
         <v>932</v>
@@ -12154,10 +12151,10 @@
         <v>125</v>
       </c>
       <c r="B444" s="63" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C444" s="70" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D444" s="65"/>
     </row>
@@ -12166,7 +12163,7 @@
         <v>125</v>
       </c>
       <c r="B445" s="63" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C445" s="72" t="s">
         <v>473</v>
@@ -12180,10 +12177,10 @@
         <v>125</v>
       </c>
       <c r="B446" s="63" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C446" s="72" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D446" s="65" t="s">
         <v>477</v>
@@ -12194,10 +12191,10 @@
         <v>125</v>
       </c>
       <c r="B447" s="63" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C447" s="72" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D447" s="65" t="s">
         <v>479</v>
@@ -12208,10 +12205,10 @@
         <v>125</v>
       </c>
       <c r="B448" s="63" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C448" s="63" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D448" s="65" t="s">
         <v>479</v>
@@ -12222,10 +12219,10 @@
         <v>125</v>
       </c>
       <c r="B449" s="63" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C449" s="69" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E449" s="65" t="s">
         <v>932</v>
@@ -13152,7 +13149,7 @@
     </row>
     <row r="38" spans="1:7" ht="31.5">
       <c r="C38" s="16" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D38" s="50" t="s">
         <v>438</v>
